--- a/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="215">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -484,6 +484,24 @@
     <t>['33', '45+4', '83', '85']</t>
   </si>
   <si>
+    <t>['45', '54']</t>
+  </si>
+  <si>
+    <t>['52']</t>
+  </si>
+  <si>
+    <t>['57']</t>
+  </si>
+  <si>
+    <t>['41', '50', '55', '66']</t>
+  </si>
+  <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['29', '33']</t>
+  </si>
+  <si>
     <t>['50', '80']</t>
   </si>
   <si>
@@ -536,9 +554,6 @@
   </si>
   <si>
     <t>['12']</t>
-  </si>
-  <si>
-    <t>['57']</t>
   </si>
   <si>
     <t>['2', '27', '67']</t>
@@ -632,6 +647,18 @@
   </si>
   <si>
     <t>['26', '57', '60']</t>
+  </si>
+  <si>
+    <t>['2']</t>
+  </si>
+  <si>
+    <t>['63', '73']</t>
+  </si>
+  <si>
+    <t>['75']</t>
+  </si>
+  <si>
+    <t>['40']</t>
   </si>
 </sst>
 </file>
@@ -993,7 +1020,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK105"/>
+  <dimension ref="A1:BK112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1237,7 +1264,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1518,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="AT3">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1619,7 +1646,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -1709,7 +1736,7 @@
         <v>1.71</v>
       </c>
       <c r="AT4">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1900,7 +1927,7 @@
         <v>2.5</v>
       </c>
       <c r="AT5">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2001,7 +2028,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2088,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT6">
         <v>1.71</v>
@@ -2192,7 +2219,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2279,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT7">
         <v>0.71</v>
@@ -2470,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT8">
         <v>0.67</v>
@@ -2852,10 +2879,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT10">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2956,7 +2983,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -3046,7 +3073,7 @@
         <v>2</v>
       </c>
       <c r="AT11">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3147,7 +3174,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3619,7 +3646,7 @@
         <v>1.86</v>
       </c>
       <c r="AT14">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3807,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT15">
         <v>0.71</v>
@@ -3911,7 +3938,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -3998,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT16">
         <v>0.67</v>
@@ -4102,7 +4129,7 @@
         <v>83</v>
       </c>
       <c r="P17" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4189,10 +4216,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT17">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4293,7 +4320,7 @@
         <v>83</v>
       </c>
       <c r="P18" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -4571,7 +4598,7 @@
         <v>1</v>
       </c>
       <c r="AS19">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT19">
         <v>0.71</v>
@@ -4765,7 +4792,7 @@
         <v>2</v>
       </c>
       <c r="AT20">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU20">
         <v>1.03</v>
@@ -4866,7 +4893,7 @@
         <v>83</v>
       </c>
       <c r="P21" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="Q21">
         <v>2</v>
@@ -4956,7 +4983,7 @@
         <v>1.43</v>
       </c>
       <c r="AT21">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU21">
         <v>1.17</v>
@@ -5057,7 +5084,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -5248,7 +5275,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5335,10 +5362,10 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT23">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU23">
         <v>1.04</v>
@@ -5630,7 +5657,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -5908,7 +5935,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT26">
         <v>0.67</v>
@@ -6099,10 +6126,10 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT27">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU27">
         <v>2.43</v>
@@ -6293,7 +6320,7 @@
         <v>2.29</v>
       </c>
       <c r="AT28">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU28">
         <v>1.36</v>
@@ -6394,7 +6421,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -6484,7 +6511,7 @@
         <v>1.86</v>
       </c>
       <c r="AT29">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AU29">
         <v>1.12</v>
@@ -6585,7 +6612,7 @@
         <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -6776,7 +6803,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Q31">
         <v>11</v>
@@ -6863,7 +6890,7 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT31">
         <v>1.33</v>
@@ -7054,10 +7081,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT32">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU32">
         <v>1.34</v>
@@ -7245,7 +7272,7 @@
         <v>1</v>
       </c>
       <c r="AS33">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT33">
         <v>0.67</v>
@@ -7349,7 +7376,7 @@
         <v>83</v>
       </c>
       <c r="P34" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="Q34">
         <v>11</v>
@@ -7436,7 +7463,7 @@
         <v>2</v>
       </c>
       <c r="AS34">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT34">
         <v>1.14</v>
@@ -7630,7 +7657,7 @@
         <v>2</v>
       </c>
       <c r="AT35">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU35">
         <v>1.5</v>
@@ -7818,7 +7845,7 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT36">
         <v>2.14</v>
@@ -8012,7 +8039,7 @@
         <v>1</v>
       </c>
       <c r="AT37">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU37">
         <v>1.83</v>
@@ -8304,7 +8331,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q39">
         <v>7</v>
@@ -8394,7 +8421,7 @@
         <v>1.71</v>
       </c>
       <c r="AT39">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU39">
         <v>1.61</v>
@@ -8495,7 +8522,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -8686,7 +8713,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -8877,7 +8904,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -8964,10 +8991,10 @@
         <v>2</v>
       </c>
       <c r="AS42">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT42">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AU42">
         <v>1.43</v>
@@ -9068,7 +9095,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9155,7 +9182,7 @@
         <v>1</v>
       </c>
       <c r="AS43">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT43">
         <v>1.33</v>
@@ -9259,7 +9286,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9450,7 +9477,7 @@
         <v>113</v>
       </c>
       <c r="P45" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9641,7 +9668,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="Q46">
         <v>9</v>
@@ -9728,7 +9755,7 @@
         <v>0</v>
       </c>
       <c r="AS46">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT46">
         <v>0.67</v>
@@ -9922,7 +9949,7 @@
         <v>2.29</v>
       </c>
       <c r="AT47">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU47">
         <v>1.45</v>
@@ -10023,7 +10050,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10110,7 +10137,7 @@
         <v>3</v>
       </c>
       <c r="AS48">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT48">
         <v>1.57</v>
@@ -10214,7 +10241,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10304,7 +10331,7 @@
         <v>2</v>
       </c>
       <c r="AT49">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU49">
         <v>1.63</v>
@@ -10405,7 +10432,7 @@
         <v>118</v>
       </c>
       <c r="P50" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10492,7 +10519,7 @@
         <v>0.33</v>
       </c>
       <c r="AS50">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT50">
         <v>0.71</v>
@@ -10596,7 +10623,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -10683,7 +10710,7 @@
         <v>1.33</v>
       </c>
       <c r="AS51">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT51">
         <v>1.71</v>
@@ -10874,10 +10901,10 @@
         <v>0</v>
       </c>
       <c r="AS52">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT52">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU52">
         <v>1.99</v>
@@ -10978,7 +11005,7 @@
         <v>120</v>
       </c>
       <c r="P53" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q53">
         <v>2</v>
@@ -11068,7 +11095,7 @@
         <v>2.5</v>
       </c>
       <c r="AT53">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU53">
         <v>1.19</v>
@@ -11169,7 +11196,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11259,7 +11286,7 @@
         <v>1.86</v>
       </c>
       <c r="AT54">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU54">
         <v>1.01</v>
@@ -11551,7 +11578,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="Q56">
         <v>7</v>
@@ -11641,7 +11668,7 @@
         <v>1</v>
       </c>
       <c r="AT56">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU56">
         <v>1.17</v>
@@ -12023,7 +12050,7 @@
         <v>2.29</v>
       </c>
       <c r="AT58">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU58">
         <v>1.6</v>
@@ -12124,7 +12151,7 @@
         <v>124</v>
       </c>
       <c r="P59" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12402,7 +12429,7 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT60">
         <v>1.33</v>
@@ -12506,7 +12533,7 @@
         <v>125</v>
       </c>
       <c r="P61" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -12697,7 +12724,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -12784,7 +12811,7 @@
         <v>1.75</v>
       </c>
       <c r="AS62">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT62">
         <v>1.14</v>
@@ -12978,7 +13005,7 @@
         <v>1.14</v>
       </c>
       <c r="AT63">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AU63">
         <v>1.24</v>
@@ -13079,7 +13106,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13166,7 +13193,7 @@
         <v>2.33</v>
       </c>
       <c r="AS64">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT64">
         <v>1.57</v>
@@ -13357,10 +13384,10 @@
         <v>2</v>
       </c>
       <c r="AS65">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT65">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU65">
         <v>1.96</v>
@@ -13548,7 +13575,7 @@
         <v>1.75</v>
       </c>
       <c r="AS66">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT66">
         <v>1.71</v>
@@ -13739,10 +13766,10 @@
         <v>0.33</v>
       </c>
       <c r="AS67">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT67">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU67">
         <v>1.36</v>
@@ -13930,10 +13957,10 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT68">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU68">
         <v>1.46</v>
@@ -14121,10 +14148,10 @@
         <v>1</v>
       </c>
       <c r="AS69">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT69">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU69">
         <v>2.01</v>
@@ -14225,7 +14252,7 @@
         <v>132</v>
       </c>
       <c r="P70" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -14506,7 +14533,7 @@
         <v>1</v>
       </c>
       <c r="AT71">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU71">
         <v>1.39</v>
@@ -14607,7 +14634,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q72">
         <v>9</v>
@@ -14694,10 +14721,10 @@
         <v>2</v>
       </c>
       <c r="AS72">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT72">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AU72">
         <v>1.9</v>
@@ -14888,7 +14915,7 @@
         <v>1.43</v>
       </c>
       <c r="AT73">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU73">
         <v>1.48</v>
@@ -15180,7 +15207,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15371,7 +15398,7 @@
         <v>138</v>
       </c>
       <c r="P76" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q76">
         <v>7</v>
@@ -15562,7 +15589,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q77">
         <v>9</v>
@@ -15652,7 +15679,7 @@
         <v>1.86</v>
       </c>
       <c r="AT77">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU77">
         <v>1.22</v>
@@ -15843,7 +15870,7 @@
         <v>1.14</v>
       </c>
       <c r="AT78">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU78">
         <v>1.16</v>
@@ -15944,7 +15971,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16031,7 +16058,7 @@
         <v>1.75</v>
       </c>
       <c r="AS79">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT79">
         <v>1.57</v>
@@ -16222,7 +16249,7 @@
         <v>1</v>
       </c>
       <c r="AS80">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT80">
         <v>0.71</v>
@@ -16326,7 +16353,7 @@
         <v>83</v>
       </c>
       <c r="P81" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -16413,7 +16440,7 @@
         <v>0.5</v>
       </c>
       <c r="AS81">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT81">
         <v>0.71</v>
@@ -16517,7 +16544,7 @@
         <v>83</v>
       </c>
       <c r="P82" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -16604,10 +16631,10 @@
         <v>2.2</v>
       </c>
       <c r="AS82">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT82">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AU82">
         <v>1.29</v>
@@ -16798,7 +16825,7 @@
         <v>1.43</v>
       </c>
       <c r="AT83">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU83">
         <v>1.49</v>
@@ -16899,7 +16926,7 @@
         <v>88</v>
       </c>
       <c r="P84" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q84">
         <v>1</v>
@@ -16986,7 +17013,7 @@
         <v>1.8</v>
       </c>
       <c r="AS84">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT84">
         <v>2.14</v>
@@ -17371,7 +17398,7 @@
         <v>1.71</v>
       </c>
       <c r="AT86">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU86">
         <v>1.62</v>
@@ -17472,7 +17499,7 @@
         <v>83</v>
       </c>
       <c r="P87" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -17559,10 +17586,10 @@
         <v>0.25</v>
       </c>
       <c r="AS87">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT87">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU87">
         <v>2.14</v>
@@ -17663,7 +17690,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -17854,7 +17881,7 @@
         <v>83</v>
       </c>
       <c r="P89" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18045,7 +18072,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18323,10 +18350,10 @@
         <v>0.17</v>
       </c>
       <c r="AS91">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT91">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU91">
         <v>1.7</v>
@@ -18427,7 +18454,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -18514,7 +18541,7 @@
         <v>0.8</v>
       </c>
       <c r="AS92">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT92">
         <v>0.67</v>
@@ -18708,7 +18735,7 @@
         <v>2.5</v>
       </c>
       <c r="AT93">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU93">
         <v>1.35</v>
@@ -18896,10 +18923,10 @@
         <v>0.4</v>
       </c>
       <c r="AS94">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT94">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU94">
         <v>1.3</v>
@@ -19000,7 +19027,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q95">
         <v>1</v>
@@ -19090,7 +19117,7 @@
         <v>2.29</v>
       </c>
       <c r="AT95">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU95">
         <v>1.6</v>
@@ -19278,7 +19305,7 @@
         <v>0.8</v>
       </c>
       <c r="AS96">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT96">
         <v>0.67</v>
@@ -19382,7 +19409,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -19469,7 +19496,7 @@
         <v>1</v>
       </c>
       <c r="AS97">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT97">
         <v>0.71</v>
@@ -19573,7 +19600,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -19764,7 +19791,7 @@
         <v>152</v>
       </c>
       <c r="P99" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q99">
         <v>8</v>
@@ -19955,7 +19982,7 @@
         <v>153</v>
       </c>
       <c r="P100" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q100">
         <v>2</v>
@@ -20719,7 +20746,7 @@
         <v>83</v>
       </c>
       <c r="P104" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -20809,7 +20836,7 @@
         <v>1.71</v>
       </c>
       <c r="AT104">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AU104">
         <v>1.47</v>
@@ -21052,6 +21079,1343 @@
       </c>
       <c r="BK105">
         <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:63">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>4867466</v>
+      </c>
+      <c r="C106" t="s">
+        <v>63</v>
+      </c>
+      <c r="D106" t="s">
+        <v>64</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45121.58333333334</v>
+      </c>
+      <c r="F106">
+        <v>14</v>
+      </c>
+      <c r="G106" t="s">
+        <v>79</v>
+      </c>
+      <c r="H106" t="s">
+        <v>75</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>2</v>
+      </c>
+      <c r="L106">
+        <v>2</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106">
+        <v>3</v>
+      </c>
+      <c r="O106" t="s">
+        <v>156</v>
+      </c>
+      <c r="P106" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q106">
+        <v>6</v>
+      </c>
+      <c r="R106">
+        <v>4</v>
+      </c>
+      <c r="S106">
+        <v>10</v>
+      </c>
+      <c r="T106">
+        <v>1.78</v>
+      </c>
+      <c r="U106">
+        <v>2.6</v>
+      </c>
+      <c r="V106">
+        <v>6.5</v>
+      </c>
+      <c r="W106">
+        <v>1.3</v>
+      </c>
+      <c r="X106">
+        <v>3.4</v>
+      </c>
+      <c r="Y106">
+        <v>2.38</v>
+      </c>
+      <c r="Z106">
+        <v>1.53</v>
+      </c>
+      <c r="AA106">
+        <v>5</v>
+      </c>
+      <c r="AB106">
+        <v>1.14</v>
+      </c>
+      <c r="AC106">
+        <v>1.3</v>
+      </c>
+      <c r="AD106">
+        <v>4.75</v>
+      </c>
+      <c r="AE106">
+        <v>9</v>
+      </c>
+      <c r="AF106">
+        <v>1.04</v>
+      </c>
+      <c r="AG106">
+        <v>10</v>
+      </c>
+      <c r="AH106">
+        <v>1.22</v>
+      </c>
+      <c r="AI106">
+        <v>4</v>
+      </c>
+      <c r="AJ106">
+        <v>1.57</v>
+      </c>
+      <c r="AK106">
+        <v>2.2</v>
+      </c>
+      <c r="AL106">
+        <v>1.96</v>
+      </c>
+      <c r="AM106">
+        <v>1.8</v>
+      </c>
+      <c r="AN106">
+        <v>1.08</v>
+      </c>
+      <c r="AO106">
+        <v>1.17</v>
+      </c>
+      <c r="AP106">
+        <v>3.2</v>
+      </c>
+      <c r="AQ106">
+        <v>1.5</v>
+      </c>
+      <c r="AR106">
+        <v>0.14</v>
+      </c>
+      <c r="AS106">
+        <v>1.71</v>
+      </c>
+      <c r="AT106">
+        <v>0.13</v>
+      </c>
+      <c r="AU106">
+        <v>1.37</v>
+      </c>
+      <c r="AV106">
+        <v>1.25</v>
+      </c>
+      <c r="AW106">
+        <v>2.62</v>
+      </c>
+      <c r="AX106">
+        <v>1.1</v>
+      </c>
+      <c r="AY106">
+        <v>10.25</v>
+      </c>
+      <c r="AZ106">
+        <v>9</v>
+      </c>
+      <c r="BA106">
+        <v>0</v>
+      </c>
+      <c r="BB106">
+        <v>1.23</v>
+      </c>
+      <c r="BC106">
+        <v>1.42</v>
+      </c>
+      <c r="BD106">
+        <v>1.93</v>
+      </c>
+      <c r="BE106">
+        <v>2.15</v>
+      </c>
+      <c r="BF106">
+        <v>6</v>
+      </c>
+      <c r="BG106">
+        <v>6</v>
+      </c>
+      <c r="BH106">
+        <v>9</v>
+      </c>
+      <c r="BI106">
+        <v>6</v>
+      </c>
+      <c r="BJ106">
+        <v>15</v>
+      </c>
+      <c r="BK106">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:63">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>4867463</v>
+      </c>
+      <c r="C107" t="s">
+        <v>63</v>
+      </c>
+      <c r="D107" t="s">
+        <v>64</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45122.33333333334</v>
+      </c>
+      <c r="F107">
+        <v>14</v>
+      </c>
+      <c r="G107" t="s">
+        <v>71</v>
+      </c>
+      <c r="H107" t="s">
+        <v>66</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>1</v>
+      </c>
+      <c r="O107" t="s">
+        <v>157</v>
+      </c>
+      <c r="P107" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q107">
+        <v>11</v>
+      </c>
+      <c r="R107">
+        <v>1</v>
+      </c>
+      <c r="S107">
+        <v>12</v>
+      </c>
+      <c r="T107">
+        <v>2.38</v>
+      </c>
+      <c r="U107">
+        <v>2.3</v>
+      </c>
+      <c r="V107">
+        <v>3.75</v>
+      </c>
+      <c r="W107">
+        <v>1.3</v>
+      </c>
+      <c r="X107">
+        <v>3.4</v>
+      </c>
+      <c r="Y107">
+        <v>2.3</v>
+      </c>
+      <c r="Z107">
+        <v>1.57</v>
+      </c>
+      <c r="AA107">
+        <v>4.75</v>
+      </c>
+      <c r="AB107">
+        <v>1.15</v>
+      </c>
+      <c r="AC107">
+        <v>1.85</v>
+      </c>
+      <c r="AD107">
+        <v>3.7</v>
+      </c>
+      <c r="AE107">
+        <v>3.65</v>
+      </c>
+      <c r="AF107">
+        <v>1.03</v>
+      </c>
+      <c r="AG107">
+        <v>11</v>
+      </c>
+      <c r="AH107">
+        <v>1.2</v>
+      </c>
+      <c r="AI107">
+        <v>4.33</v>
+      </c>
+      <c r="AJ107">
+        <v>1.62</v>
+      </c>
+      <c r="AK107">
+        <v>2.16</v>
+      </c>
+      <c r="AL107">
+        <v>1.57</v>
+      </c>
+      <c r="AM107">
+        <v>2.34</v>
+      </c>
+      <c r="AN107">
+        <v>1.25</v>
+      </c>
+      <c r="AO107">
+        <v>1.25</v>
+      </c>
+      <c r="AP107">
+        <v>1.85</v>
+      </c>
+      <c r="AQ107">
+        <v>1.86</v>
+      </c>
+      <c r="AR107">
+        <v>1.5</v>
+      </c>
+      <c r="AS107">
+        <v>2</v>
+      </c>
+      <c r="AT107">
+        <v>1.29</v>
+      </c>
+      <c r="AU107">
+        <v>1.45</v>
+      </c>
+      <c r="AV107">
+        <v>1.59</v>
+      </c>
+      <c r="AW107">
+        <v>3.04</v>
+      </c>
+      <c r="AX107">
+        <v>1.63</v>
+      </c>
+      <c r="AY107">
+        <v>9.6</v>
+      </c>
+      <c r="AZ107">
+        <v>2.58</v>
+      </c>
+      <c r="BA107">
+        <v>1.15</v>
+      </c>
+      <c r="BB107">
+        <v>1.26</v>
+      </c>
+      <c r="BC107">
+        <v>1.48</v>
+      </c>
+      <c r="BD107">
+        <v>2</v>
+      </c>
+      <c r="BE107">
+        <v>2.3</v>
+      </c>
+      <c r="BF107">
+        <v>6</v>
+      </c>
+      <c r="BG107">
+        <v>2</v>
+      </c>
+      <c r="BH107">
+        <v>3</v>
+      </c>
+      <c r="BI107">
+        <v>3</v>
+      </c>
+      <c r="BJ107">
+        <v>9</v>
+      </c>
+      <c r="BK107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:63">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>4867461</v>
+      </c>
+      <c r="C108" t="s">
+        <v>63</v>
+      </c>
+      <c r="D108" t="s">
+        <v>64</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45122.41666666666</v>
+      </c>
+      <c r="F108">
+        <v>14</v>
+      </c>
+      <c r="G108" t="s">
+        <v>70</v>
+      </c>
+      <c r="H108" t="s">
+        <v>72</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108">
+        <v>1</v>
+      </c>
+      <c r="M108">
+        <v>2</v>
+      </c>
+      <c r="N108">
+        <v>3</v>
+      </c>
+      <c r="O108" t="s">
+        <v>123</v>
+      </c>
+      <c r="P108" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q108">
+        <v>11</v>
+      </c>
+      <c r="R108">
+        <v>5</v>
+      </c>
+      <c r="S108">
+        <v>16</v>
+      </c>
+      <c r="T108">
+        <v>2.5</v>
+      </c>
+      <c r="U108">
+        <v>2.1</v>
+      </c>
+      <c r="V108">
+        <v>4</v>
+      </c>
+      <c r="W108">
+        <v>1.4</v>
+      </c>
+      <c r="X108">
+        <v>2.75</v>
+      </c>
+      <c r="Y108">
+        <v>2.75</v>
+      </c>
+      <c r="Z108">
+        <v>1.4</v>
+      </c>
+      <c r="AA108">
+        <v>6.5</v>
+      </c>
+      <c r="AB108">
+        <v>1.1</v>
+      </c>
+      <c r="AC108">
+        <v>1.97</v>
+      </c>
+      <c r="AD108">
+        <v>3.3</v>
+      </c>
+      <c r="AE108">
+        <v>3.64</v>
+      </c>
+      <c r="AF108">
+        <v>1.06</v>
+      </c>
+      <c r="AG108">
+        <v>8</v>
+      </c>
+      <c r="AH108">
+        <v>1.33</v>
+      </c>
+      <c r="AI108">
+        <v>3.25</v>
+      </c>
+      <c r="AJ108">
+        <v>1.9</v>
+      </c>
+      <c r="AK108">
+        <v>1.8</v>
+      </c>
+      <c r="AL108">
+        <v>1.8</v>
+      </c>
+      <c r="AM108">
+        <v>1.91</v>
+      </c>
+      <c r="AN108">
+        <v>1.25</v>
+      </c>
+      <c r="AO108">
+        <v>1.3</v>
+      </c>
+      <c r="AP108">
+        <v>1.73</v>
+      </c>
+      <c r="AQ108">
+        <v>1.5</v>
+      </c>
+      <c r="AR108">
+        <v>0.83</v>
+      </c>
+      <c r="AS108">
+        <v>1.29</v>
+      </c>
+      <c r="AT108">
+        <v>1.14</v>
+      </c>
+      <c r="AU108">
+        <v>2.13</v>
+      </c>
+      <c r="AV108">
+        <v>1.35</v>
+      </c>
+      <c r="AW108">
+        <v>3.48</v>
+      </c>
+      <c r="AX108">
+        <v>1.62</v>
+      </c>
+      <c r="AY108">
+        <v>9.5</v>
+      </c>
+      <c r="AZ108">
+        <v>2.62</v>
+      </c>
+      <c r="BA108">
+        <v>1.13</v>
+      </c>
+      <c r="BB108">
+        <v>1.25</v>
+      </c>
+      <c r="BC108">
+        <v>1.45</v>
+      </c>
+      <c r="BD108">
+        <v>2</v>
+      </c>
+      <c r="BE108">
+        <v>2.23</v>
+      </c>
+      <c r="BF108">
+        <v>6</v>
+      </c>
+      <c r="BG108">
+        <v>9</v>
+      </c>
+      <c r="BH108">
+        <v>5</v>
+      </c>
+      <c r="BI108">
+        <v>1</v>
+      </c>
+      <c r="BJ108">
+        <v>11</v>
+      </c>
+      <c r="BK108">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:63">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>4867462</v>
+      </c>
+      <c r="C109" t="s">
+        <v>63</v>
+      </c>
+      <c r="D109" t="s">
+        <v>64</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45122.41666666666</v>
+      </c>
+      <c r="F109">
+        <v>14</v>
+      </c>
+      <c r="G109" t="s">
+        <v>78</v>
+      </c>
+      <c r="H109" t="s">
+        <v>68</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>1</v>
+      </c>
+      <c r="O109" t="s">
+        <v>158</v>
+      </c>
+      <c r="P109" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q109">
+        <v>10</v>
+      </c>
+      <c r="R109">
+        <v>3</v>
+      </c>
+      <c r="S109">
+        <v>13</v>
+      </c>
+      <c r="T109">
+        <v>2.5</v>
+      </c>
+      <c r="U109">
+        <v>2.25</v>
+      </c>
+      <c r="V109">
+        <v>3.6</v>
+      </c>
+      <c r="W109">
+        <v>1.33</v>
+      </c>
+      <c r="X109">
+        <v>3.25</v>
+      </c>
+      <c r="Y109">
+        <v>2.5</v>
+      </c>
+      <c r="Z109">
+        <v>1.5</v>
+      </c>
+      <c r="AA109">
+        <v>5.5</v>
+      </c>
+      <c r="AB109">
+        <v>1.12</v>
+      </c>
+      <c r="AC109">
+        <v>1.9</v>
+      </c>
+      <c r="AD109">
+        <v>3.3</v>
+      </c>
+      <c r="AE109">
+        <v>3.91</v>
+      </c>
+      <c r="AF109">
+        <v>1.04</v>
+      </c>
+      <c r="AG109">
+        <v>10</v>
+      </c>
+      <c r="AH109">
+        <v>1.25</v>
+      </c>
+      <c r="AI109">
+        <v>3.75</v>
+      </c>
+      <c r="AJ109">
+        <v>1.72</v>
+      </c>
+      <c r="AK109">
+        <v>2</v>
+      </c>
+      <c r="AL109">
+        <v>1.67</v>
+      </c>
+      <c r="AM109">
+        <v>2.1</v>
+      </c>
+      <c r="AN109">
+        <v>1.25</v>
+      </c>
+      <c r="AO109">
+        <v>1.29</v>
+      </c>
+      <c r="AP109">
+        <v>1.8</v>
+      </c>
+      <c r="AQ109">
+        <v>2</v>
+      </c>
+      <c r="AR109">
+        <v>2.43</v>
+      </c>
+      <c r="AS109">
+        <v>2.14</v>
+      </c>
+      <c r="AT109">
+        <v>2.13</v>
+      </c>
+      <c r="AU109">
+        <v>1.84</v>
+      </c>
+      <c r="AV109">
+        <v>1.51</v>
+      </c>
+      <c r="AW109">
+        <v>3.35</v>
+      </c>
+      <c r="AX109">
+        <v>1.57</v>
+      </c>
+      <c r="AY109">
+        <v>9.6</v>
+      </c>
+      <c r="AZ109">
+        <v>2.74</v>
+      </c>
+      <c r="BA109">
+        <v>1.14</v>
+      </c>
+      <c r="BB109">
+        <v>1.25</v>
+      </c>
+      <c r="BC109">
+        <v>1.46</v>
+      </c>
+      <c r="BD109">
+        <v>1.79</v>
+      </c>
+      <c r="BE109">
+        <v>2.23</v>
+      </c>
+      <c r="BF109">
+        <v>10</v>
+      </c>
+      <c r="BG109">
+        <v>5</v>
+      </c>
+      <c r="BH109">
+        <v>3</v>
+      </c>
+      <c r="BI109">
+        <v>4</v>
+      </c>
+      <c r="BJ109">
+        <v>13</v>
+      </c>
+      <c r="BK109">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:63">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>4867467</v>
+      </c>
+      <c r="C110" t="s">
+        <v>63</v>
+      </c>
+      <c r="D110" t="s">
+        <v>64</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45122.5</v>
+      </c>
+      <c r="F110">
+        <v>14</v>
+      </c>
+      <c r="G110" t="s">
+        <v>69</v>
+      </c>
+      <c r="H110" t="s">
+        <v>74</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110">
+        <v>4</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110">
+        <v>5</v>
+      </c>
+      <c r="O110" t="s">
+        <v>159</v>
+      </c>
+      <c r="P110" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q110">
+        <v>4</v>
+      </c>
+      <c r="R110">
+        <v>4</v>
+      </c>
+      <c r="S110">
+        <v>8</v>
+      </c>
+      <c r="T110">
+        <v>2.6</v>
+      </c>
+      <c r="U110">
+        <v>2.16</v>
+      </c>
+      <c r="V110">
+        <v>3.88</v>
+      </c>
+      <c r="W110">
+        <v>1.36</v>
+      </c>
+      <c r="X110">
+        <v>2.9</v>
+      </c>
+      <c r="Y110">
+        <v>2.62</v>
+      </c>
+      <c r="Z110">
+        <v>1.42</v>
+      </c>
+      <c r="AA110">
+        <v>5.75</v>
+      </c>
+      <c r="AB110">
+        <v>1.1</v>
+      </c>
+      <c r="AC110">
+        <v>2</v>
+      </c>
+      <c r="AD110">
+        <v>3.2</v>
+      </c>
+      <c r="AE110">
+        <v>3.05</v>
+      </c>
+      <c r="AF110">
+        <v>1.06</v>
+      </c>
+      <c r="AG110">
+        <v>8</v>
+      </c>
+      <c r="AH110">
+        <v>1.29</v>
+      </c>
+      <c r="AI110">
+        <v>3.4</v>
+      </c>
+      <c r="AJ110">
+        <v>1.82</v>
+      </c>
+      <c r="AK110">
+        <v>1.82</v>
+      </c>
+      <c r="AL110">
+        <v>1.69</v>
+      </c>
+      <c r="AM110">
+        <v>2.04</v>
+      </c>
+      <c r="AN110">
+        <v>1.33</v>
+      </c>
+      <c r="AO110">
+        <v>1.29</v>
+      </c>
+      <c r="AP110">
+        <v>1.67</v>
+      </c>
+      <c r="AQ110">
+        <v>1.33</v>
+      </c>
+      <c r="AR110">
+        <v>0.67</v>
+      </c>
+      <c r="AS110">
+        <v>1.57</v>
+      </c>
+      <c r="AT110">
+        <v>0.57</v>
+      </c>
+      <c r="AU110">
+        <v>1.6</v>
+      </c>
+      <c r="AV110">
+        <v>1.48</v>
+      </c>
+      <c r="AW110">
+        <v>3.08</v>
+      </c>
+      <c r="AX110">
+        <v>1.97</v>
+      </c>
+      <c r="AY110">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ110">
+        <v>2.04</v>
+      </c>
+      <c r="BA110">
+        <v>1.14</v>
+      </c>
+      <c r="BB110">
+        <v>1.25</v>
+      </c>
+      <c r="BC110">
+        <v>1.45</v>
+      </c>
+      <c r="BD110">
+        <v>1.88</v>
+      </c>
+      <c r="BE110">
+        <v>2.23</v>
+      </c>
+      <c r="BF110">
+        <v>11</v>
+      </c>
+      <c r="BG110">
+        <v>6</v>
+      </c>
+      <c r="BH110">
+        <v>4</v>
+      </c>
+      <c r="BI110">
+        <v>7</v>
+      </c>
+      <c r="BJ110">
+        <v>15</v>
+      </c>
+      <c r="BK110">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:63">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>4867460</v>
+      </c>
+      <c r="C111" t="s">
+        <v>63</v>
+      </c>
+      <c r="D111" t="s">
+        <v>64</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45123.41666666666</v>
+      </c>
+      <c r="F111">
+        <v>14</v>
+      </c>
+      <c r="G111" t="s">
+        <v>73</v>
+      </c>
+      <c r="H111" t="s">
+        <v>77</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111">
+        <v>2</v>
+      </c>
+      <c r="O111" t="s">
+        <v>160</v>
+      </c>
+      <c r="P111" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q111">
+        <v>11</v>
+      </c>
+      <c r="R111">
+        <v>7</v>
+      </c>
+      <c r="S111">
+        <v>18</v>
+      </c>
+      <c r="T111">
+        <v>1.65</v>
+      </c>
+      <c r="U111">
+        <v>2.6</v>
+      </c>
+      <c r="V111">
+        <v>7.5</v>
+      </c>
+      <c r="W111">
+        <v>1.3</v>
+      </c>
+      <c r="X111">
+        <v>3.4</v>
+      </c>
+      <c r="Y111">
+        <v>2.3</v>
+      </c>
+      <c r="Z111">
+        <v>1.57</v>
+      </c>
+      <c r="AA111">
+        <v>5.5</v>
+      </c>
+      <c r="AB111">
+        <v>1.12</v>
+      </c>
+      <c r="AC111">
+        <v>1.3</v>
+      </c>
+      <c r="AD111">
+        <v>5.3</v>
+      </c>
+      <c r="AE111">
+        <v>9.1</v>
+      </c>
+      <c r="AF111">
+        <v>1.03</v>
+      </c>
+      <c r="AG111">
+        <v>11</v>
+      </c>
+      <c r="AH111">
+        <v>1.2</v>
+      </c>
+      <c r="AI111">
+        <v>4.33</v>
+      </c>
+      <c r="AJ111">
+        <v>1.56</v>
+      </c>
+      <c r="AK111">
+        <v>2.43</v>
+      </c>
+      <c r="AL111">
+        <v>2.1</v>
+      </c>
+      <c r="AM111">
+        <v>1.67</v>
+      </c>
+      <c r="AN111">
+        <v>1.01</v>
+      </c>
+      <c r="AO111">
+        <v>1.1</v>
+      </c>
+      <c r="AP111">
+        <v>4.05</v>
+      </c>
+      <c r="AQ111">
+        <v>2</v>
+      </c>
+      <c r="AR111">
+        <v>0.67</v>
+      </c>
+      <c r="AS111">
+        <v>1.86</v>
+      </c>
+      <c r="AT111">
+        <v>0.71</v>
+      </c>
+      <c r="AU111">
+        <v>2.14</v>
+      </c>
+      <c r="AV111">
+        <v>0.79</v>
+      </c>
+      <c r="AW111">
+        <v>2.93</v>
+      </c>
+      <c r="AX111">
+        <v>1.11</v>
+      </c>
+      <c r="AY111">
+        <v>14</v>
+      </c>
+      <c r="AZ111">
+        <v>7.4</v>
+      </c>
+      <c r="BA111">
+        <v>1.15</v>
+      </c>
+      <c r="BB111">
+        <v>1.26</v>
+      </c>
+      <c r="BC111">
+        <v>1.51</v>
+      </c>
+      <c r="BD111">
+        <v>1.81</v>
+      </c>
+      <c r="BE111">
+        <v>2.2</v>
+      </c>
+      <c r="BF111">
+        <v>7</v>
+      </c>
+      <c r="BG111">
+        <v>4</v>
+      </c>
+      <c r="BH111">
+        <v>14</v>
+      </c>
+      <c r="BI111">
+        <v>1</v>
+      </c>
+      <c r="BJ111">
+        <v>21</v>
+      </c>
+      <c r="BK111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:63">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>4867465</v>
+      </c>
+      <c r="C112" t="s">
+        <v>63</v>
+      </c>
+      <c r="D112" t="s">
+        <v>64</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45123.41666666666</v>
+      </c>
+      <c r="F112">
+        <v>14</v>
+      </c>
+      <c r="G112" t="s">
+        <v>80</v>
+      </c>
+      <c r="H112" t="s">
+        <v>65</v>
+      </c>
+      <c r="I112">
+        <v>2</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112">
+        <v>3</v>
+      </c>
+      <c r="L112">
+        <v>2</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+      <c r="N112">
+        <v>3</v>
+      </c>
+      <c r="O112" t="s">
+        <v>161</v>
+      </c>
+      <c r="P112" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q112">
+        <v>1</v>
+      </c>
+      <c r="R112">
+        <v>6</v>
+      </c>
+      <c r="S112">
+        <v>7</v>
+      </c>
+      <c r="T112">
+        <v>3.6</v>
+      </c>
+      <c r="U112">
+        <v>2.15</v>
+      </c>
+      <c r="V112">
+        <v>2.62</v>
+      </c>
+      <c r="W112">
+        <v>1.36</v>
+      </c>
+      <c r="X112">
+        <v>3</v>
+      </c>
+      <c r="Y112">
+        <v>2.62</v>
+      </c>
+      <c r="Z112">
+        <v>1.44</v>
+      </c>
+      <c r="AA112">
+        <v>6.5</v>
+      </c>
+      <c r="AB112">
+        <v>1.1</v>
+      </c>
+      <c r="AC112">
+        <v>2.79</v>
+      </c>
+      <c r="AD112">
+        <v>3.34</v>
+      </c>
+      <c r="AE112">
+        <v>2.4</v>
+      </c>
+      <c r="AF112">
+        <v>1.03</v>
+      </c>
+      <c r="AG112">
+        <v>8.5</v>
+      </c>
+      <c r="AH112">
+        <v>1.25</v>
+      </c>
+      <c r="AI112">
+        <v>3.5</v>
+      </c>
+      <c r="AJ112">
+        <v>1.96</v>
+      </c>
+      <c r="AK112">
+        <v>1.85</v>
+      </c>
+      <c r="AL112">
+        <v>1.73</v>
+      </c>
+      <c r="AM112">
+        <v>2</v>
+      </c>
+      <c r="AN112">
+        <v>1.68</v>
+      </c>
+      <c r="AO112">
+        <v>1.29</v>
+      </c>
+      <c r="AP112">
+        <v>1.3</v>
+      </c>
+      <c r="AQ112">
+        <v>1</v>
+      </c>
+      <c r="AR112">
+        <v>0.67</v>
+      </c>
+      <c r="AS112">
+        <v>1.29</v>
+      </c>
+      <c r="AT112">
+        <v>0.57</v>
+      </c>
+      <c r="AU112">
+        <v>1.36</v>
+      </c>
+      <c r="AV112">
+        <v>1.31</v>
+      </c>
+      <c r="AW112">
+        <v>2.67</v>
+      </c>
+      <c r="AX112">
+        <v>1.92</v>
+      </c>
+      <c r="AY112">
+        <v>9</v>
+      </c>
+      <c r="AZ112">
+        <v>2.11</v>
+      </c>
+      <c r="BA112">
+        <v>1.18</v>
+      </c>
+      <c r="BB112">
+        <v>1.34</v>
+      </c>
+      <c r="BC112">
+        <v>1.6</v>
+      </c>
+      <c r="BD112">
+        <v>2.02</v>
+      </c>
+      <c r="BE112">
+        <v>2.6</v>
+      </c>
+      <c r="BF112">
+        <v>6</v>
+      </c>
+      <c r="BG112">
+        <v>4</v>
+      </c>
+      <c r="BH112">
+        <v>7</v>
+      </c>
+      <c r="BI112">
+        <v>12</v>
+      </c>
+      <c r="BJ112">
+        <v>13</v>
+      </c>
+      <c r="BK112">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="215">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1020,7 +1020,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK112"/>
+  <dimension ref="A1:BK113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3452,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT13">
         <v>1.14</v>
@@ -4028,7 +4028,7 @@
         <v>1.71</v>
       </c>
       <c r="AT16">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4980,7 +4980,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT21">
         <v>0.57</v>
@@ -5938,7 +5938,7 @@
         <v>1.29</v>
       </c>
       <c r="AT26">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU26">
         <v>1.29</v>
@@ -8227,7 +8227,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT38">
         <v>0.71</v>
@@ -9758,7 +9758,7 @@
         <v>1.86</v>
       </c>
       <c r="AT46">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU46">
         <v>2.12</v>
@@ -11856,7 +11856,7 @@
         <v>0.33</v>
       </c>
       <c r="AS57">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT57">
         <v>0.71</v>
@@ -12623,7 +12623,7 @@
         <v>1</v>
       </c>
       <c r="AT61">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU61">
         <v>1.53</v>
@@ -14912,7 +14912,7 @@
         <v>0.25</v>
       </c>
       <c r="AS73">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT73">
         <v>1.14</v>
@@ -15488,7 +15488,7 @@
         <v>2</v>
       </c>
       <c r="AT76">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU76">
         <v>1.67</v>
@@ -16822,7 +16822,7 @@
         <v>0.8</v>
       </c>
       <c r="AS83">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT83">
         <v>0.71</v>
@@ -18544,7 +18544,7 @@
         <v>2</v>
       </c>
       <c r="AT92">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU92">
         <v>1.45</v>
@@ -19878,7 +19878,7 @@
         <v>1.67</v>
       </c>
       <c r="AS99">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT99">
         <v>1.57</v>
@@ -22416,6 +22416,197 @@
       </c>
       <c r="BK112">
         <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:63">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>4867464</v>
+      </c>
+      <c r="C113" t="s">
+        <v>63</v>
+      </c>
+      <c r="D113" t="s">
+        <v>64</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45124.58333333334</v>
+      </c>
+      <c r="F113">
+        <v>14</v>
+      </c>
+      <c r="G113" t="s">
+        <v>76</v>
+      </c>
+      <c r="H113" t="s">
+        <v>67</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113" t="s">
+        <v>83</v>
+      </c>
+      <c r="P113" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q113">
+        <v>10</v>
+      </c>
+      <c r="R113">
+        <v>7</v>
+      </c>
+      <c r="S113">
+        <v>17</v>
+      </c>
+      <c r="T113">
+        <v>2.7</v>
+      </c>
+      <c r="U113">
+        <v>2.2</v>
+      </c>
+      <c r="V113">
+        <v>4</v>
+      </c>
+      <c r="W113">
+        <v>1.37</v>
+      </c>
+      <c r="X113">
+        <v>2.95</v>
+      </c>
+      <c r="Y113">
+        <v>2.71</v>
+      </c>
+      <c r="Z113">
+        <v>1.43</v>
+      </c>
+      <c r="AA113">
+        <v>6.8</v>
+      </c>
+      <c r="AB113">
+        <v>1.09</v>
+      </c>
+      <c r="AC113">
+        <v>2.07</v>
+      </c>
+      <c r="AD113">
+        <v>3.3</v>
+      </c>
+      <c r="AE113">
+        <v>3.25</v>
+      </c>
+      <c r="AF113">
+        <v>1.04</v>
+      </c>
+      <c r="AG113">
+        <v>12</v>
+      </c>
+      <c r="AH113">
+        <v>1.28</v>
+      </c>
+      <c r="AI113">
+        <v>3.6</v>
+      </c>
+      <c r="AJ113">
+        <v>1.74</v>
+      </c>
+      <c r="AK113">
+        <v>1.9</v>
+      </c>
+      <c r="AL113">
+        <v>1.72</v>
+      </c>
+      <c r="AM113">
+        <v>2.05</v>
+      </c>
+      <c r="AN113">
+        <v>1.3</v>
+      </c>
+      <c r="AO113">
+        <v>1.25</v>
+      </c>
+      <c r="AP113">
+        <v>1.78</v>
+      </c>
+      <c r="AQ113">
+        <v>1.43</v>
+      </c>
+      <c r="AR113">
+        <v>0.67</v>
+      </c>
+      <c r="AS113">
+        <v>1.38</v>
+      </c>
+      <c r="AT113">
+        <v>0.71</v>
+      </c>
+      <c r="AU113">
+        <v>1.61</v>
+      </c>
+      <c r="AV113">
+        <v>1.1</v>
+      </c>
+      <c r="AW113">
+        <v>2.71</v>
+      </c>
+      <c r="AX113">
+        <v>1.46</v>
+      </c>
+      <c r="AY113">
+        <v>6.25</v>
+      </c>
+      <c r="AZ113">
+        <v>2.95</v>
+      </c>
+      <c r="BA113">
+        <v>1.17</v>
+      </c>
+      <c r="BB113">
+        <v>1.32</v>
+      </c>
+      <c r="BC113">
+        <v>1.66</v>
+      </c>
+      <c r="BD113">
+        <v>2</v>
+      </c>
+      <c r="BE113">
+        <v>2.36</v>
+      </c>
+      <c r="BF113">
+        <v>9</v>
+      </c>
+      <c r="BG113">
+        <v>7</v>
+      </c>
+      <c r="BH113">
+        <v>2</v>
+      </c>
+      <c r="BI113">
+        <v>4</v>
+      </c>
+      <c r="BJ113">
+        <v>11</v>
+      </c>
+      <c r="BK113">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
@@ -22591,22 +22591,22 @@
         <v>2.36</v>
       </c>
       <c r="BF113">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BG113">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BH113">
         <v>2</v>
       </c>
       <c r="BI113">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BJ113">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BK113">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="227">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -502,6 +502,27 @@
     <t>['29', '33']</t>
   </si>
   <si>
+    <t>['9']</t>
+  </si>
+  <si>
+    <t>['2', '50']</t>
+  </si>
+  <si>
+    <t>['59', '86']</t>
+  </si>
+  <si>
+    <t>['51', '76']</t>
+  </si>
+  <si>
+    <t>['77', '80']</t>
+  </si>
+  <si>
+    <t>['35']</t>
+  </si>
+  <si>
+    <t>['23']</t>
+  </si>
+  <si>
     <t>['50', '80']</t>
   </si>
   <si>
@@ -521,9 +542,6 @@
   </si>
   <si>
     <t>['10', '48']</t>
-  </si>
-  <si>
-    <t>['9']</t>
   </si>
   <si>
     <t>['83']</t>
@@ -659,6 +677,24 @@
   </si>
   <si>
     <t>['40']</t>
+  </si>
+  <si>
+    <t>['54', '70']</t>
+  </si>
+  <si>
+    <t>['24', '50']</t>
+  </si>
+  <si>
+    <t>['32', '90+3']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
+    <t>['56', '65', '77']</t>
+  </si>
+  <si>
+    <t>['45', '49']</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1056,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK113"/>
+  <dimension ref="A1:BK121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1264,7 +1300,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1351,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AT2">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1646,7 +1682,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -1924,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT5">
         <v>0.13</v>
@@ -2028,7 +2064,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2219,7 +2255,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2309,7 +2345,7 @@
         <v>1.29</v>
       </c>
       <c r="AT7">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2500,7 +2536,7 @@
         <v>2</v>
       </c>
       <c r="AT8">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2688,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT9">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2879,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT10">
         <v>0.57</v>
@@ -2983,7 +3019,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -3070,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT11">
         <v>2.13</v>
@@ -3174,7 +3210,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3261,10 +3297,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT12">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3455,7 +3491,7 @@
         <v>1.38</v>
       </c>
       <c r="AT13">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3643,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT14">
         <v>1.14</v>
@@ -3837,7 +3873,7 @@
         <v>2.14</v>
       </c>
       <c r="AT15">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -3938,7 +3974,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4028,7 +4064,7 @@
         <v>1.71</v>
       </c>
       <c r="AT16">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4129,7 +4165,7 @@
         <v>83</v>
       </c>
       <c r="P17" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4320,7 +4356,7 @@
         <v>83</v>
       </c>
       <c r="P18" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -4407,10 +4443,10 @@
         <v>3</v>
       </c>
       <c r="AS18">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT18">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AU18">
         <v>1.48</v>
@@ -4601,7 +4637,7 @@
         <v>1.71</v>
       </c>
       <c r="AT19">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU19">
         <v>1.41</v>
@@ -4789,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT20">
         <v>0.13</v>
@@ -4893,7 +4929,7 @@
         <v>83</v>
       </c>
       <c r="P21" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Q21">
         <v>2</v>
@@ -5084,7 +5120,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -5171,7 +5207,7 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT22">
         <v>1.71</v>
@@ -5275,7 +5311,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5556,7 +5592,7 @@
         <v>1.71</v>
       </c>
       <c r="AT24">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU24">
         <v>1.45</v>
@@ -5657,7 +5693,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -5747,7 +5783,7 @@
         <v>1</v>
       </c>
       <c r="AT25">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU25">
         <v>1.61</v>
@@ -5938,7 +5974,7 @@
         <v>1.29</v>
       </c>
       <c r="AT26">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU26">
         <v>1.29</v>
@@ -6126,7 +6162,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT27">
         <v>0.57</v>
@@ -6317,7 +6353,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AT28">
         <v>1.14</v>
@@ -6421,7 +6457,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -6508,7 +6544,7 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT29">
         <v>2.13</v>
@@ -6612,7 +6648,7 @@
         <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -6702,7 +6738,7 @@
         <v>1</v>
       </c>
       <c r="AT30">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU30">
         <v>1.31</v>
@@ -6803,7 +6839,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Q31">
         <v>11</v>
@@ -6893,7 +6929,7 @@
         <v>1.29</v>
       </c>
       <c r="AT31">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU31">
         <v>2.48</v>
@@ -7275,7 +7311,7 @@
         <v>2.14</v>
       </c>
       <c r="AT33">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU33">
         <v>1.76</v>
@@ -7376,7 +7412,7 @@
         <v>83</v>
       </c>
       <c r="P34" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q34">
         <v>11</v>
@@ -7466,7 +7502,7 @@
         <v>1.71</v>
       </c>
       <c r="AT34">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU34">
         <v>1.32</v>
@@ -7654,7 +7690,7 @@
         <v>1.5</v>
       </c>
       <c r="AS35">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT35">
         <v>0.71</v>
@@ -7848,7 +7884,7 @@
         <v>2</v>
       </c>
       <c r="AT36">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AU36">
         <v>1.24</v>
@@ -8036,7 +8072,7 @@
         <v>1.5</v>
       </c>
       <c r="AS37">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT37">
         <v>0.57</v>
@@ -8230,7 +8266,7 @@
         <v>1.38</v>
       </c>
       <c r="AT38">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU38">
         <v>1.13</v>
@@ -8331,7 +8367,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q39">
         <v>7</v>
@@ -8522,7 +8558,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -8609,10 +8645,10 @@
         <v>0.5</v>
       </c>
       <c r="AS40">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT40">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU40">
         <v>1.36</v>
@@ -8713,7 +8749,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -8800,7 +8836,7 @@
         <v>2</v>
       </c>
       <c r="AS41">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT41">
         <v>1.71</v>
@@ -9095,7 +9131,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9185,7 +9221,7 @@
         <v>1.57</v>
       </c>
       <c r="AT43">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU43">
         <v>1.88</v>
@@ -9286,7 +9322,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9373,10 +9409,10 @@
         <v>2</v>
       </c>
       <c r="AS44">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT44">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AU44">
         <v>1.11</v>
@@ -9477,7 +9513,7 @@
         <v>113</v>
       </c>
       <c r="P45" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9564,10 +9600,10 @@
         <v>0.5</v>
       </c>
       <c r="AS45">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT45">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU45">
         <v>1.56</v>
@@ -9668,7 +9704,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="Q46">
         <v>9</v>
@@ -9755,10 +9791,10 @@
         <v>0</v>
       </c>
       <c r="AS46">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT46">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU46">
         <v>2.12</v>
@@ -9946,7 +9982,7 @@
         <v>3</v>
       </c>
       <c r="AS47">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AT47">
         <v>1.29</v>
@@ -10050,7 +10086,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10140,7 +10176,7 @@
         <v>1.29</v>
       </c>
       <c r="AT48">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU48">
         <v>2.24</v>
@@ -10241,7 +10277,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10328,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT49">
         <v>1.14</v>
@@ -10432,7 +10468,7 @@
         <v>118</v>
       </c>
       <c r="P50" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10522,7 +10558,7 @@
         <v>2</v>
       </c>
       <c r="AT50">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU50">
         <v>1.32</v>
@@ -10623,7 +10659,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -11005,7 +11041,7 @@
         <v>120</v>
       </c>
       <c r="P53" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q53">
         <v>2</v>
@@ -11092,7 +11128,7 @@
         <v>1.33</v>
       </c>
       <c r="AS53">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT53">
         <v>0.57</v>
@@ -11196,7 +11232,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11283,7 +11319,7 @@
         <v>0</v>
       </c>
       <c r="AS54">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT54">
         <v>0.13</v>
@@ -11477,7 +11513,7 @@
         <v>1.71</v>
       </c>
       <c r="AT55">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU55">
         <v>1.57</v>
@@ -11578,7 +11614,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q56">
         <v>7</v>
@@ -11859,7 +11895,7 @@
         <v>1.38</v>
       </c>
       <c r="AT57">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU57">
         <v>1.46</v>
@@ -12047,7 +12083,7 @@
         <v>1</v>
       </c>
       <c r="AS58">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AT58">
         <v>0.71</v>
@@ -12151,7 +12187,7 @@
         <v>124</v>
       </c>
       <c r="P59" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12238,10 +12274,10 @@
         <v>1.33</v>
       </c>
       <c r="AS59">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT59">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU59">
         <v>1.67</v>
@@ -12429,10 +12465,10 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT60">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU60">
         <v>2.16</v>
@@ -12533,7 +12569,7 @@
         <v>125</v>
       </c>
       <c r="P61" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -12620,10 +12656,10 @@
         <v>0</v>
       </c>
       <c r="AS61">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT61">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU61">
         <v>1.53</v>
@@ -12724,7 +12760,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -12814,7 +12850,7 @@
         <v>1.29</v>
       </c>
       <c r="AT62">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU62">
         <v>1.38</v>
@@ -13002,7 +13038,7 @@
         <v>1.67</v>
       </c>
       <c r="AS63">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT63">
         <v>2.13</v>
@@ -13106,7 +13142,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13196,7 +13232,7 @@
         <v>2.14</v>
       </c>
       <c r="AT64">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU64">
         <v>1.91</v>
@@ -14252,7 +14288,7 @@
         <v>132</v>
       </c>
       <c r="P70" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -14342,7 +14378,7 @@
         <v>1.71</v>
       </c>
       <c r="AT70">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AU70">
         <v>1.51</v>
@@ -14634,7 +14670,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q72">
         <v>9</v>
@@ -15103,10 +15139,10 @@
         <v>1</v>
       </c>
       <c r="AS74">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT74">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU74">
         <v>1.25</v>
@@ -15207,7 +15243,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15294,10 +15330,10 @@
         <v>1.6</v>
       </c>
       <c r="AS75">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AT75">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU75">
         <v>1.67</v>
@@ -15398,7 +15434,7 @@
         <v>138</v>
       </c>
       <c r="P76" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q76">
         <v>7</v>
@@ -15485,10 +15521,10 @@
         <v>0.75</v>
       </c>
       <c r="AS76">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT76">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU76">
         <v>1.67</v>
@@ -15589,7 +15625,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q77">
         <v>9</v>
@@ -15676,7 +15712,7 @@
         <v>1.5</v>
       </c>
       <c r="AS77">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT77">
         <v>1.29</v>
@@ -15867,7 +15903,7 @@
         <v>0</v>
       </c>
       <c r="AS78">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT78">
         <v>0.13</v>
@@ -15971,7 +16007,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16061,7 +16097,7 @@
         <v>2</v>
       </c>
       <c r="AT79">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU79">
         <v>1.5</v>
@@ -16252,7 +16288,7 @@
         <v>2.14</v>
       </c>
       <c r="AT80">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU80">
         <v>1.72</v>
@@ -16353,7 +16389,7 @@
         <v>83</v>
       </c>
       <c r="P81" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -16440,10 +16476,10 @@
         <v>0.5</v>
       </c>
       <c r="AS81">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT81">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU81">
         <v>2.15</v>
@@ -16544,7 +16580,7 @@
         <v>83</v>
       </c>
       <c r="P82" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -16926,7 +16962,7 @@
         <v>88</v>
       </c>
       <c r="P84" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q84">
         <v>1</v>
@@ -17016,7 +17052,7 @@
         <v>1.57</v>
       </c>
       <c r="AT84">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AU84">
         <v>1.78</v>
@@ -17204,10 +17240,10 @@
         <v>1</v>
       </c>
       <c r="AS85">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT85">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU85">
         <v>1.52</v>
@@ -17499,7 +17535,7 @@
         <v>83</v>
       </c>
       <c r="P87" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -17690,7 +17726,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -17777,10 +17813,10 @@
         <v>1.5</v>
       </c>
       <c r="AS88">
+        <v>1</v>
+      </c>
+      <c r="AT88">
         <v>1.14</v>
-      </c>
-      <c r="AT88">
-        <v>1.33</v>
       </c>
       <c r="AU88">
         <v>1.44</v>
@@ -17881,7 +17917,7 @@
         <v>83</v>
       </c>
       <c r="P89" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18072,7 +18108,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18159,10 +18195,10 @@
         <v>2</v>
       </c>
       <c r="AS90">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT90">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU90">
         <v>1.4</v>
@@ -18454,7 +18490,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -18544,7 +18580,7 @@
         <v>2</v>
       </c>
       <c r="AT92">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU92">
         <v>1.45</v>
@@ -18732,7 +18768,7 @@
         <v>1.8</v>
       </c>
       <c r="AS93">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT93">
         <v>1.29</v>
@@ -19027,7 +19063,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q95">
         <v>1</v>
@@ -19114,7 +19150,7 @@
         <v>0.8</v>
       </c>
       <c r="AS95">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AT95">
         <v>0.57</v>
@@ -19305,10 +19341,10 @@
         <v>0.8</v>
       </c>
       <c r="AS96">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT96">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU96">
         <v>2.14</v>
@@ -19409,7 +19445,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -19499,7 +19535,7 @@
         <v>1.57</v>
       </c>
       <c r="AT97">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU97">
         <v>1.66</v>
@@ -19600,7 +19636,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -19687,10 +19723,10 @@
         <v>1.4</v>
       </c>
       <c r="AS98">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT98">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU98">
         <v>1.77</v>
@@ -19791,7 +19827,7 @@
         <v>152</v>
       </c>
       <c r="P99" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q99">
         <v>8</v>
@@ -19881,7 +19917,7 @@
         <v>1.38</v>
       </c>
       <c r="AT99">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU99">
         <v>1.61</v>
@@ -19982,7 +20018,7 @@
         <v>153</v>
       </c>
       <c r="P100" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q100">
         <v>2</v>
@@ -20072,7 +20108,7 @@
         <v>1</v>
       </c>
       <c r="AT100">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AU100">
         <v>1.48</v>
@@ -20260,10 +20296,10 @@
         <v>0.83</v>
       </c>
       <c r="AS101">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT101">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU101">
         <v>1.33</v>
@@ -20451,10 +20487,10 @@
         <v>0.83</v>
       </c>
       <c r="AS102">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AT102">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU102">
         <v>1.65</v>
@@ -20642,7 +20678,7 @@
         <v>1.83</v>
       </c>
       <c r="AS103">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT103">
         <v>1.71</v>
@@ -20746,7 +20782,7 @@
         <v>83</v>
       </c>
       <c r="P104" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21024,10 +21060,10 @@
         <v>1.33</v>
       </c>
       <c r="AS105">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT105">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU105">
         <v>1.57</v>
@@ -21128,7 +21164,7 @@
         <v>156</v>
       </c>
       <c r="P106" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -21510,7 +21546,7 @@
         <v>123</v>
       </c>
       <c r="P108" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="Q108">
         <v>11</v>
@@ -21892,7 +21928,7 @@
         <v>159</v>
       </c>
       <c r="P110" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22170,7 +22206,7 @@
         <v>0.67</v>
       </c>
       <c r="AS111">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT111">
         <v>0.71</v>
@@ -22274,7 +22310,7 @@
         <v>161</v>
       </c>
       <c r="P112" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q112">
         <v>1</v>
@@ -22555,7 +22591,7 @@
         <v>1.38</v>
       </c>
       <c r="AT113">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU113">
         <v>1.61</v>
@@ -22607,6 +22643,1534 @@
       </c>
       <c r="BK113">
         <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:63">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>4867469</v>
+      </c>
+      <c r="C114" t="s">
+        <v>63</v>
+      </c>
+      <c r="D114" t="s">
+        <v>64</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45129.33333333334</v>
+      </c>
+      <c r="F114">
+        <v>15</v>
+      </c>
+      <c r="G114" t="s">
+        <v>74</v>
+      </c>
+      <c r="H114" t="s">
+        <v>80</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>2</v>
+      </c>
+      <c r="N114">
+        <v>3</v>
+      </c>
+      <c r="O114" t="s">
+        <v>162</v>
+      </c>
+      <c r="P114" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q114">
+        <v>7</v>
+      </c>
+      <c r="R114">
+        <v>5</v>
+      </c>
+      <c r="S114">
+        <v>12</v>
+      </c>
+      <c r="T114">
+        <v>2.25</v>
+      </c>
+      <c r="U114">
+        <v>2.3</v>
+      </c>
+      <c r="V114">
+        <v>4.5</v>
+      </c>
+      <c r="W114">
+        <v>1.33</v>
+      </c>
+      <c r="X114">
+        <v>3</v>
+      </c>
+      <c r="Y114">
+        <v>2.6</v>
+      </c>
+      <c r="Z114">
+        <v>1.44</v>
+      </c>
+      <c r="AA114">
+        <v>5.75</v>
+      </c>
+      <c r="AB114">
+        <v>1.1</v>
+      </c>
+      <c r="AC114">
+        <v>1.68</v>
+      </c>
+      <c r="AD114">
+        <v>3.88</v>
+      </c>
+      <c r="AE114">
+        <v>4.86</v>
+      </c>
+      <c r="AF114">
+        <v>1.05</v>
+      </c>
+      <c r="AG114">
+        <v>13</v>
+      </c>
+      <c r="AH114">
+        <v>1.25</v>
+      </c>
+      <c r="AI114">
+        <v>3.6</v>
+      </c>
+      <c r="AJ114">
+        <v>1.81</v>
+      </c>
+      <c r="AK114">
+        <v>2</v>
+      </c>
+      <c r="AL114">
+        <v>1.75</v>
+      </c>
+      <c r="AM114">
+        <v>1.95</v>
+      </c>
+      <c r="AN114">
+        <v>1.22</v>
+      </c>
+      <c r="AO114">
+        <v>1.29</v>
+      </c>
+      <c r="AP114">
+        <v>2</v>
+      </c>
+      <c r="AQ114">
+        <v>2</v>
+      </c>
+      <c r="AR114">
+        <v>0.71</v>
+      </c>
+      <c r="AS114">
+        <v>1.75</v>
+      </c>
+      <c r="AT114">
+        <v>1</v>
+      </c>
+      <c r="AU114">
+        <v>1.72</v>
+      </c>
+      <c r="AV114">
+        <v>1.47</v>
+      </c>
+      <c r="AW114">
+        <v>3.19</v>
+      </c>
+      <c r="AX114">
+        <v>1.41</v>
+      </c>
+      <c r="AY114">
+        <v>9.5</v>
+      </c>
+      <c r="AZ114">
+        <v>3.48</v>
+      </c>
+      <c r="BA114">
+        <v>1.13</v>
+      </c>
+      <c r="BB114">
+        <v>1.28</v>
+      </c>
+      <c r="BC114">
+        <v>1.5</v>
+      </c>
+      <c r="BD114">
+        <v>1.88</v>
+      </c>
+      <c r="BE114">
+        <v>2.38</v>
+      </c>
+      <c r="BF114">
+        <v>6</v>
+      </c>
+      <c r="BG114">
+        <v>6</v>
+      </c>
+      <c r="BH114">
+        <v>1</v>
+      </c>
+      <c r="BI114">
+        <v>2</v>
+      </c>
+      <c r="BJ114">
+        <v>7</v>
+      </c>
+      <c r="BK114">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:63">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>4867473</v>
+      </c>
+      <c r="C115" t="s">
+        <v>63</v>
+      </c>
+      <c r="D115" t="s">
+        <v>64</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45129.41666666666</v>
+      </c>
+      <c r="F115">
+        <v>15</v>
+      </c>
+      <c r="G115" t="s">
+        <v>75</v>
+      </c>
+      <c r="H115" t="s">
+        <v>70</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <v>2</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>2</v>
+      </c>
+      <c r="O115" t="s">
+        <v>163</v>
+      </c>
+      <c r="P115" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q115">
+        <v>3</v>
+      </c>
+      <c r="R115">
+        <v>9</v>
+      </c>
+      <c r="S115">
+        <v>12</v>
+      </c>
+      <c r="T115">
+        <v>3.6</v>
+      </c>
+      <c r="U115">
+        <v>2.15</v>
+      </c>
+      <c r="V115">
+        <v>2.7</v>
+      </c>
+      <c r="W115">
+        <v>1.35</v>
+      </c>
+      <c r="X115">
+        <v>2.95</v>
+      </c>
+      <c r="Y115">
+        <v>2.65</v>
+      </c>
+      <c r="Z115">
+        <v>1.42</v>
+      </c>
+      <c r="AA115">
+        <v>6.75</v>
+      </c>
+      <c r="AB115">
+        <v>1.1</v>
+      </c>
+      <c r="AC115">
+        <v>3.09</v>
+      </c>
+      <c r="AD115">
+        <v>3.44</v>
+      </c>
+      <c r="AE115">
+        <v>2.19</v>
+      </c>
+      <c r="AF115">
+        <v>1.05</v>
+      </c>
+      <c r="AG115">
+        <v>13</v>
+      </c>
+      <c r="AH115">
+        <v>1.25</v>
+      </c>
+      <c r="AI115">
+        <v>3.6</v>
+      </c>
+      <c r="AJ115">
+        <v>1.79</v>
+      </c>
+      <c r="AK115">
+        <v>2.02</v>
+      </c>
+      <c r="AL115">
+        <v>1.65</v>
+      </c>
+      <c r="AM115">
+        <v>2.1</v>
+      </c>
+      <c r="AN115">
+        <v>1.68</v>
+      </c>
+      <c r="AO115">
+        <v>1.3</v>
+      </c>
+      <c r="AP115">
+        <v>1.35</v>
+      </c>
+      <c r="AQ115">
+        <v>1</v>
+      </c>
+      <c r="AR115">
+        <v>0.71</v>
+      </c>
+      <c r="AS115">
+        <v>1.29</v>
+      </c>
+      <c r="AT115">
+        <v>0.63</v>
+      </c>
+      <c r="AU115">
+        <v>1.47</v>
+      </c>
+      <c r="AV115">
+        <v>1.61</v>
+      </c>
+      <c r="AW115">
+        <v>3.08</v>
+      </c>
+      <c r="AX115">
+        <v>2.43</v>
+      </c>
+      <c r="AY115">
+        <v>8.5</v>
+      </c>
+      <c r="AZ115">
+        <v>1.75</v>
+      </c>
+      <c r="BA115">
+        <v>0</v>
+      </c>
+      <c r="BB115">
+        <v>1.24</v>
+      </c>
+      <c r="BC115">
+        <v>1.44</v>
+      </c>
+      <c r="BD115">
+        <v>1.75</v>
+      </c>
+      <c r="BE115">
+        <v>2.23</v>
+      </c>
+      <c r="BF115">
+        <v>6</v>
+      </c>
+      <c r="BG115">
+        <v>5</v>
+      </c>
+      <c r="BH115">
+        <v>3</v>
+      </c>
+      <c r="BI115">
+        <v>8</v>
+      </c>
+      <c r="BJ115">
+        <v>9</v>
+      </c>
+      <c r="BK115">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:63">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>4867471</v>
+      </c>
+      <c r="C116" t="s">
+        <v>63</v>
+      </c>
+      <c r="D116" t="s">
+        <v>64</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45129.41666666666</v>
+      </c>
+      <c r="F116">
+        <v>15</v>
+      </c>
+      <c r="G116" t="s">
+        <v>77</v>
+      </c>
+      <c r="H116" t="s">
+        <v>69</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <v>2</v>
+      </c>
+      <c r="M116">
+        <v>2</v>
+      </c>
+      <c r="N116">
+        <v>4</v>
+      </c>
+      <c r="O116" t="s">
+        <v>164</v>
+      </c>
+      <c r="P116" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q116">
+        <v>6</v>
+      </c>
+      <c r="R116">
+        <v>8</v>
+      </c>
+      <c r="S116">
+        <v>14</v>
+      </c>
+      <c r="T116">
+        <v>3.6</v>
+      </c>
+      <c r="U116">
+        <v>2.15</v>
+      </c>
+      <c r="V116">
+        <v>2.8</v>
+      </c>
+      <c r="W116">
+        <v>1.38</v>
+      </c>
+      <c r="X116">
+        <v>2.8</v>
+      </c>
+      <c r="Y116">
+        <v>2.8</v>
+      </c>
+      <c r="Z116">
+        <v>1.38</v>
+      </c>
+      <c r="AA116">
+        <v>7.1</v>
+      </c>
+      <c r="AB116">
+        <v>1.08</v>
+      </c>
+      <c r="AC116">
+        <v>2.99</v>
+      </c>
+      <c r="AD116">
+        <v>3.33</v>
+      </c>
+      <c r="AE116">
+        <v>2.38</v>
+      </c>
+      <c r="AF116">
+        <v>1.02</v>
+      </c>
+      <c r="AG116">
+        <v>9.1</v>
+      </c>
+      <c r="AH116">
+        <v>1.3</v>
+      </c>
+      <c r="AI116">
+        <v>3.2</v>
+      </c>
+      <c r="AJ116">
+        <v>1.96</v>
+      </c>
+      <c r="AK116">
+        <v>1.85</v>
+      </c>
+      <c r="AL116">
+        <v>1.72</v>
+      </c>
+      <c r="AM116">
+        <v>2.07</v>
+      </c>
+      <c r="AN116">
+        <v>1.62</v>
+      </c>
+      <c r="AO116">
+        <v>1.29</v>
+      </c>
+      <c r="AP116">
+        <v>1.38</v>
+      </c>
+      <c r="AQ116">
+        <v>1.86</v>
+      </c>
+      <c r="AR116">
+        <v>1.14</v>
+      </c>
+      <c r="AS116">
+        <v>1.75</v>
+      </c>
+      <c r="AT116">
+        <v>1.13</v>
+      </c>
+      <c r="AU116">
+        <v>1.3</v>
+      </c>
+      <c r="AV116">
+        <v>1.27</v>
+      </c>
+      <c r="AW116">
+        <v>2.57</v>
+      </c>
+      <c r="AX116">
+        <v>2.2</v>
+      </c>
+      <c r="AY116">
+        <v>8</v>
+      </c>
+      <c r="AZ116">
+        <v>1.91</v>
+      </c>
+      <c r="BA116">
+        <v>1.23</v>
+      </c>
+      <c r="BB116">
+        <v>1.43</v>
+      </c>
+      <c r="BC116">
+        <v>1.75</v>
+      </c>
+      <c r="BD116">
+        <v>2.25</v>
+      </c>
+      <c r="BE116">
+        <v>3.05</v>
+      </c>
+      <c r="BF116">
+        <v>4</v>
+      </c>
+      <c r="BG116">
+        <v>6</v>
+      </c>
+      <c r="BH116">
+        <v>3</v>
+      </c>
+      <c r="BI116">
+        <v>8</v>
+      </c>
+      <c r="BJ116">
+        <v>7</v>
+      </c>
+      <c r="BK116">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:63">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>4867475</v>
+      </c>
+      <c r="C117" t="s">
+        <v>63</v>
+      </c>
+      <c r="D117" t="s">
+        <v>64</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45129.41666666666</v>
+      </c>
+      <c r="F117">
+        <v>15</v>
+      </c>
+      <c r="G117" t="s">
+        <v>66</v>
+      </c>
+      <c r="H117" t="s">
+        <v>76</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <v>2</v>
+      </c>
+      <c r="M117">
+        <v>2</v>
+      </c>
+      <c r="N117">
+        <v>4</v>
+      </c>
+      <c r="O117" t="s">
+        <v>165</v>
+      </c>
+      <c r="P117" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q117">
+        <v>13</v>
+      </c>
+      <c r="R117">
+        <v>6</v>
+      </c>
+      <c r="S117">
+        <v>19</v>
+      </c>
+      <c r="T117">
+        <v>3.1</v>
+      </c>
+      <c r="U117">
+        <v>2.25</v>
+      </c>
+      <c r="V117">
+        <v>2.8</v>
+      </c>
+      <c r="W117">
+        <v>1.35</v>
+      </c>
+      <c r="X117">
+        <v>2.95</v>
+      </c>
+      <c r="Y117">
+        <v>2.5</v>
+      </c>
+      <c r="Z117">
+        <v>1.47</v>
+      </c>
+      <c r="AA117">
+        <v>5.8</v>
+      </c>
+      <c r="AB117">
+        <v>1.1</v>
+      </c>
+      <c r="AC117">
+        <v>2.76</v>
+      </c>
+      <c r="AD117">
+        <v>3.37</v>
+      </c>
+      <c r="AE117">
+        <v>2.43</v>
+      </c>
+      <c r="AF117">
+        <v>1.01</v>
+      </c>
+      <c r="AG117">
+        <v>11</v>
+      </c>
+      <c r="AH117">
+        <v>1.2</v>
+      </c>
+      <c r="AI117">
+        <v>3.9</v>
+      </c>
+      <c r="AJ117">
+        <v>1.79</v>
+      </c>
+      <c r="AK117">
+        <v>2.02</v>
+      </c>
+      <c r="AL117">
+        <v>1.55</v>
+      </c>
+      <c r="AM117">
+        <v>2.25</v>
+      </c>
+      <c r="AN117">
+        <v>1.62</v>
+      </c>
+      <c r="AO117">
+        <v>1.22</v>
+      </c>
+      <c r="AP117">
+        <v>1.37</v>
+      </c>
+      <c r="AQ117">
+        <v>1</v>
+      </c>
+      <c r="AR117">
+        <v>0.67</v>
+      </c>
+      <c r="AS117">
+        <v>1</v>
+      </c>
+      <c r="AT117">
+        <v>0.71</v>
+      </c>
+      <c r="AU117">
+        <v>1.42</v>
+      </c>
+      <c r="AV117">
+        <v>1.6</v>
+      </c>
+      <c r="AW117">
+        <v>3.02</v>
+      </c>
+      <c r="AX117">
+        <v>2.22</v>
+      </c>
+      <c r="AY117">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ117">
+        <v>1.83</v>
+      </c>
+      <c r="BA117">
+        <v>0</v>
+      </c>
+      <c r="BB117">
+        <v>1.31</v>
+      </c>
+      <c r="BC117">
+        <v>1.55</v>
+      </c>
+      <c r="BD117">
+        <v>2</v>
+      </c>
+      <c r="BE117">
+        <v>2.5</v>
+      </c>
+      <c r="BF117">
+        <v>9</v>
+      </c>
+      <c r="BG117">
+        <v>8</v>
+      </c>
+      <c r="BH117">
+        <v>6</v>
+      </c>
+      <c r="BI117">
+        <v>5</v>
+      </c>
+      <c r="BJ117">
+        <v>15</v>
+      </c>
+      <c r="BK117">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:63">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>4867474</v>
+      </c>
+      <c r="C118" t="s">
+        <v>63</v>
+      </c>
+      <c r="D118" t="s">
+        <v>64</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45130.33333333334</v>
+      </c>
+      <c r="F118">
+        <v>15</v>
+      </c>
+      <c r="G118" t="s">
+        <v>68</v>
+      </c>
+      <c r="H118" t="s">
+        <v>71</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>2</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118">
+        <v>3</v>
+      </c>
+      <c r="O118" t="s">
+        <v>166</v>
+      </c>
+      <c r="P118" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q118">
+        <v>4</v>
+      </c>
+      <c r="R118">
+        <v>2</v>
+      </c>
+      <c r="S118">
+        <v>6</v>
+      </c>
+      <c r="T118">
+        <v>2.75</v>
+      </c>
+      <c r="U118">
+        <v>2.3</v>
+      </c>
+      <c r="V118">
+        <v>3.75</v>
+      </c>
+      <c r="W118">
+        <v>1.33</v>
+      </c>
+      <c r="X118">
+        <v>3.25</v>
+      </c>
+      <c r="Y118">
+        <v>2.63</v>
+      </c>
+      <c r="Z118">
+        <v>1.44</v>
+      </c>
+      <c r="AA118">
+        <v>6.5</v>
+      </c>
+      <c r="AB118">
+        <v>1.11</v>
+      </c>
+      <c r="AC118">
+        <v>1.82</v>
+      </c>
+      <c r="AD118">
+        <v>3.45</v>
+      </c>
+      <c r="AE118">
+        <v>3.9</v>
+      </c>
+      <c r="AF118">
+        <v>1.01</v>
+      </c>
+      <c r="AG118">
+        <v>11</v>
+      </c>
+      <c r="AH118">
+        <v>1.18</v>
+      </c>
+      <c r="AI118">
+        <v>4.2</v>
+      </c>
+      <c r="AJ118">
+        <v>1.61</v>
+      </c>
+      <c r="AK118">
+        <v>2.1</v>
+      </c>
+      <c r="AL118">
+        <v>1.62</v>
+      </c>
+      <c r="AM118">
+        <v>2.2</v>
+      </c>
+      <c r="AN118">
+        <v>1.25</v>
+      </c>
+      <c r="AO118">
+        <v>1.27</v>
+      </c>
+      <c r="AP118">
+        <v>1.72</v>
+      </c>
+      <c r="AQ118">
+        <v>2.5</v>
+      </c>
+      <c r="AR118">
+        <v>1.33</v>
+      </c>
+      <c r="AS118">
+        <v>2.57</v>
+      </c>
+      <c r="AT118">
+        <v>1.14</v>
+      </c>
+      <c r="AU118">
+        <v>1.55</v>
+      </c>
+      <c r="AV118">
+        <v>1.18</v>
+      </c>
+      <c r="AW118">
+        <v>2.73</v>
+      </c>
+      <c r="AX118">
+        <v>1.45</v>
+      </c>
+      <c r="AY118">
+        <v>9</v>
+      </c>
+      <c r="AZ118">
+        <v>3.19</v>
+      </c>
+      <c r="BA118">
+        <v>1.23</v>
+      </c>
+      <c r="BB118">
+        <v>1.43</v>
+      </c>
+      <c r="BC118">
+        <v>1.75</v>
+      </c>
+      <c r="BD118">
+        <v>2.25</v>
+      </c>
+      <c r="BE118">
+        <v>3.05</v>
+      </c>
+      <c r="BF118">
+        <v>4</v>
+      </c>
+      <c r="BG118">
+        <v>4</v>
+      </c>
+      <c r="BH118">
+        <v>11</v>
+      </c>
+      <c r="BI118">
+        <v>0</v>
+      </c>
+      <c r="BJ118">
+        <v>15</v>
+      </c>
+      <c r="BK118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:63">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>4867472</v>
+      </c>
+      <c r="C119" t="s">
+        <v>63</v>
+      </c>
+      <c r="D119" t="s">
+        <v>64</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45130.41666666666</v>
+      </c>
+      <c r="F119">
+        <v>15</v>
+      </c>
+      <c r="G119" t="s">
+        <v>65</v>
+      </c>
+      <c r="H119" t="s">
+        <v>79</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119">
+        <v>2</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>2</v>
+      </c>
+      <c r="N119">
+        <v>3</v>
+      </c>
+      <c r="O119" t="s">
+        <v>167</v>
+      </c>
+      <c r="P119" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q119">
+        <v>3</v>
+      </c>
+      <c r="R119">
+        <v>9</v>
+      </c>
+      <c r="S119">
+        <v>12</v>
+      </c>
+      <c r="T119">
+        <v>3.5</v>
+      </c>
+      <c r="U119">
+        <v>2.3</v>
+      </c>
+      <c r="V119">
+        <v>2.75</v>
+      </c>
+      <c r="W119">
+        <v>1.33</v>
+      </c>
+      <c r="X119">
+        <v>3.25</v>
+      </c>
+      <c r="Y119">
+        <v>2.63</v>
+      </c>
+      <c r="Z119">
+        <v>1.44</v>
+      </c>
+      <c r="AA119">
+        <v>6.5</v>
+      </c>
+      <c r="AB119">
+        <v>1.11</v>
+      </c>
+      <c r="AC119">
+        <v>2.6</v>
+      </c>
+      <c r="AD119">
+        <v>3.35</v>
+      </c>
+      <c r="AE119">
+        <v>2.38</v>
+      </c>
+      <c r="AF119">
+        <v>1</v>
+      </c>
+      <c r="AG119">
+        <v>10.5</v>
+      </c>
+      <c r="AH119">
+        <v>1.19</v>
+      </c>
+      <c r="AI119">
+        <v>4.05</v>
+      </c>
+      <c r="AJ119">
+        <v>1.7</v>
+      </c>
+      <c r="AK119">
+        <v>1.95</v>
+      </c>
+      <c r="AL119">
+        <v>1.62</v>
+      </c>
+      <c r="AM119">
+        <v>2.2</v>
+      </c>
+      <c r="AN119">
+        <v>1.73</v>
+      </c>
+      <c r="AO119">
+        <v>1.26</v>
+      </c>
+      <c r="AP119">
+        <v>1.3</v>
+      </c>
+      <c r="AQ119">
+        <v>2.29</v>
+      </c>
+      <c r="AR119">
+        <v>1.57</v>
+      </c>
+      <c r="AS119">
+        <v>2</v>
+      </c>
+      <c r="AT119">
+        <v>1.75</v>
+      </c>
+      <c r="AU119">
+        <v>1.6</v>
+      </c>
+      <c r="AV119">
+        <v>1.65</v>
+      </c>
+      <c r="AW119">
+        <v>3.25</v>
+      </c>
+      <c r="AX119">
+        <v>2.62</v>
+      </c>
+      <c r="AY119">
+        <v>8.5</v>
+      </c>
+      <c r="AZ119">
+        <v>1.69</v>
+      </c>
+      <c r="BA119">
+        <v>1.18</v>
+      </c>
+      <c r="BB119">
+        <v>1.34</v>
+      </c>
+      <c r="BC119">
+        <v>1.6</v>
+      </c>
+      <c r="BD119">
+        <v>2</v>
+      </c>
+      <c r="BE119">
+        <v>2.65</v>
+      </c>
+      <c r="BF119">
+        <v>4</v>
+      </c>
+      <c r="BG119">
+        <v>5</v>
+      </c>
+      <c r="BH119">
+        <v>3</v>
+      </c>
+      <c r="BI119">
+        <v>3</v>
+      </c>
+      <c r="BJ119">
+        <v>7</v>
+      </c>
+      <c r="BK119">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:63">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>4867470</v>
+      </c>
+      <c r="C120" t="s">
+        <v>63</v>
+      </c>
+      <c r="D120" t="s">
+        <v>64</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45131.58333333334</v>
+      </c>
+      <c r="F120">
+        <v>15</v>
+      </c>
+      <c r="G120" t="s">
+        <v>72</v>
+      </c>
+      <c r="H120" t="s">
+        <v>67</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120">
+        <v>3</v>
+      </c>
+      <c r="N120">
+        <v>4</v>
+      </c>
+      <c r="O120" t="s">
+        <v>168</v>
+      </c>
+      <c r="P120" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q120">
+        <v>4</v>
+      </c>
+      <c r="R120">
+        <v>7</v>
+      </c>
+      <c r="S120">
+        <v>11</v>
+      </c>
+      <c r="T120">
+        <v>2.6</v>
+      </c>
+      <c r="U120">
+        <v>2.2</v>
+      </c>
+      <c r="V120">
+        <v>4.33</v>
+      </c>
+      <c r="W120">
+        <v>1.4</v>
+      </c>
+      <c r="X120">
+        <v>2.75</v>
+      </c>
+      <c r="Y120">
+        <v>2.75</v>
+      </c>
+      <c r="Z120">
+        <v>1.4</v>
+      </c>
+      <c r="AA120">
+        <v>8</v>
+      </c>
+      <c r="AB120">
+        <v>1.08</v>
+      </c>
+      <c r="AC120">
+        <v>2.05</v>
+      </c>
+      <c r="AD120">
+        <v>3.4</v>
+      </c>
+      <c r="AE120">
+        <v>3.35</v>
+      </c>
+      <c r="AF120">
+        <v>1.05</v>
+      </c>
+      <c r="AG120">
+        <v>11</v>
+      </c>
+      <c r="AH120">
+        <v>1.33</v>
+      </c>
+      <c r="AI120">
+        <v>3.3</v>
+      </c>
+      <c r="AJ120">
+        <v>2.03</v>
+      </c>
+      <c r="AK120">
+        <v>1.85</v>
+      </c>
+      <c r="AL120">
+        <v>1.8</v>
+      </c>
+      <c r="AM120">
+        <v>1.95</v>
+      </c>
+      <c r="AN120">
+        <v>1.28</v>
+      </c>
+      <c r="AO120">
+        <v>1.25</v>
+      </c>
+      <c r="AP120">
+        <v>1.85</v>
+      </c>
+      <c r="AQ120">
+        <v>1.14</v>
+      </c>
+      <c r="AR120">
+        <v>0.71</v>
+      </c>
+      <c r="AS120">
+        <v>1</v>
+      </c>
+      <c r="AT120">
+        <v>1</v>
+      </c>
+      <c r="AU120">
+        <v>1.56</v>
+      </c>
+      <c r="AV120">
+        <v>1.12</v>
+      </c>
+      <c r="AW120">
+        <v>2.68</v>
+      </c>
+      <c r="AX120">
+        <v>1.67</v>
+      </c>
+      <c r="AY120">
+        <v>8</v>
+      </c>
+      <c r="AZ120">
+        <v>2.55</v>
+      </c>
+      <c r="BA120">
+        <v>1.2</v>
+      </c>
+      <c r="BB120">
+        <v>1.25</v>
+      </c>
+      <c r="BC120">
+        <v>1.46</v>
+      </c>
+      <c r="BD120">
+        <v>1.95</v>
+      </c>
+      <c r="BE120">
+        <v>2.25</v>
+      </c>
+      <c r="BF120">
+        <v>3</v>
+      </c>
+      <c r="BG120">
+        <v>2</v>
+      </c>
+      <c r="BH120">
+        <v>3</v>
+      </c>
+      <c r="BI120">
+        <v>8</v>
+      </c>
+      <c r="BJ120">
+        <v>6</v>
+      </c>
+      <c r="BK120">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:63">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>4867468</v>
+      </c>
+      <c r="C121" t="s">
+        <v>63</v>
+      </c>
+      <c r="D121" t="s">
+        <v>64</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45131.58333333334</v>
+      </c>
+      <c r="F121">
+        <v>15</v>
+      </c>
+      <c r="G121" t="s">
+        <v>73</v>
+      </c>
+      <c r="H121" t="s">
+        <v>78</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>2</v>
+      </c>
+      <c r="N121">
+        <v>2</v>
+      </c>
+      <c r="O121" t="s">
+        <v>83</v>
+      </c>
+      <c r="P121" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q121">
+        <v>3</v>
+      </c>
+      <c r="R121">
+        <v>3</v>
+      </c>
+      <c r="S121">
+        <v>6</v>
+      </c>
+      <c r="T121">
+        <v>2.63</v>
+      </c>
+      <c r="U121">
+        <v>2.25</v>
+      </c>
+      <c r="V121">
+        <v>4</v>
+      </c>
+      <c r="W121">
+        <v>1.33</v>
+      </c>
+      <c r="X121">
+        <v>3.25</v>
+      </c>
+      <c r="Y121">
+        <v>2.63</v>
+      </c>
+      <c r="Z121">
+        <v>1.44</v>
+      </c>
+      <c r="AA121">
+        <v>6.5</v>
+      </c>
+      <c r="AB121">
+        <v>1.11</v>
+      </c>
+      <c r="AC121">
+        <v>2.08</v>
+      </c>
+      <c r="AD121">
+        <v>3.5</v>
+      </c>
+      <c r="AE121">
+        <v>3.2</v>
+      </c>
+      <c r="AF121">
+        <v>1.04</v>
+      </c>
+      <c r="AG121">
+        <v>10</v>
+      </c>
+      <c r="AH121">
+        <v>1.25</v>
+      </c>
+      <c r="AI121">
+        <v>3.75</v>
+      </c>
+      <c r="AJ121">
+        <v>1.76</v>
+      </c>
+      <c r="AK121">
+        <v>1.96</v>
+      </c>
+      <c r="AL121">
+        <v>1.67</v>
+      </c>
+      <c r="AM121">
+        <v>2.1</v>
+      </c>
+      <c r="AN121">
+        <v>1.27</v>
+      </c>
+      <c r="AO121">
+        <v>1.27</v>
+      </c>
+      <c r="AP121">
+        <v>1.76</v>
+      </c>
+      <c r="AQ121">
+        <v>1.86</v>
+      </c>
+      <c r="AR121">
+        <v>2.14</v>
+      </c>
+      <c r="AS121">
+        <v>1.63</v>
+      </c>
+      <c r="AT121">
+        <v>2.25</v>
+      </c>
+      <c r="AU121">
+        <v>2.2</v>
+      </c>
+      <c r="AV121">
+        <v>1.64</v>
+      </c>
+      <c r="AW121">
+        <v>3.84</v>
+      </c>
+      <c r="AX121">
+        <v>1.34</v>
+      </c>
+      <c r="AY121">
+        <v>7</v>
+      </c>
+      <c r="AZ121">
+        <v>3.65</v>
+      </c>
+      <c r="BA121">
+        <v>0</v>
+      </c>
+      <c r="BB121">
+        <v>1.23</v>
+      </c>
+      <c r="BC121">
+        <v>1.43</v>
+      </c>
+      <c r="BD121">
+        <v>1.93</v>
+      </c>
+      <c r="BE121">
+        <v>2.17</v>
+      </c>
+      <c r="BF121">
+        <v>2</v>
+      </c>
+      <c r="BG121">
+        <v>2</v>
+      </c>
+      <c r="BH121">
+        <v>3</v>
+      </c>
+      <c r="BI121">
+        <v>4</v>
+      </c>
+      <c r="BJ121">
+        <v>5</v>
+      </c>
+      <c r="BK121">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
@@ -23841,13 +23841,13 @@
         <v>225</v>
       </c>
       <c r="Q120">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R120">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="S120">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="T120">
         <v>2.6</v>
@@ -23964,22 +23964,22 @@
         <v>2.25</v>
       </c>
       <c r="BF120">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BG120">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BH120">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BI120">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BJ120">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BK120">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121" spans="1:63">
@@ -24032,13 +24032,13 @@
         <v>226</v>
       </c>
       <c r="Q121">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R121">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S121">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="T121">
         <v>2.63</v>
@@ -24155,22 +24155,22 @@
         <v>2.17</v>
       </c>
       <c r="BF121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BG121">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BH121">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BI121">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BJ121">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BK121">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="234">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -523,6 +523,24 @@
     <t>['23']</t>
   </si>
   <si>
+    <t>['9', '52', '90+4']</t>
+  </si>
+  <si>
+    <t>['50']</t>
+  </si>
+  <si>
+    <t>['41']</t>
+  </si>
+  <si>
+    <t>['12', '43', '55', '71']</t>
+  </si>
+  <si>
+    <t>['25']</t>
+  </si>
+  <si>
+    <t>['6']</t>
+  </si>
+  <si>
     <t>['50', '80']</t>
   </si>
   <si>
@@ -646,9 +664,6 @@
     <t>['60', '75']</t>
   </si>
   <si>
-    <t>['6']</t>
-  </si>
-  <si>
     <t>['56']</t>
   </si>
   <si>
@@ -695,6 +710,12 @@
   </si>
   <si>
     <t>['45', '49']</t>
+  </si>
+  <si>
+    <t>['29']</t>
+  </si>
+  <si>
+    <t>['6', '9', '17']</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1077,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK121"/>
+  <dimension ref="A1:BK129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1300,7 +1321,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1581,7 +1602,7 @@
         <v>1</v>
       </c>
       <c r="AT3">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1682,7 +1703,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -1769,10 +1790,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT4">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1960,10 +1981,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AT5">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2064,7 +2085,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2151,10 +2172,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT6">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2255,7 +2276,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2342,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT7">
         <v>1</v>
@@ -2918,7 +2939,7 @@
         <v>1.63</v>
       </c>
       <c r="AT10">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3019,7 +3040,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -3210,7 +3231,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3300,7 +3321,7 @@
         <v>1.29</v>
       </c>
       <c r="AT12">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3488,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT13">
         <v>1.13</v>
@@ -3682,7 +3703,7 @@
         <v>1.75</v>
       </c>
       <c r="AT14">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3870,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT15">
         <v>0.63</v>
@@ -3974,7 +3995,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4061,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT16">
         <v>1</v>
@@ -4252,10 +4273,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT17">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4356,7 +4377,7 @@
         <v>83</v>
       </c>
       <c r="P18" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -4634,7 +4655,7 @@
         <v>1</v>
       </c>
       <c r="AS19">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT19">
         <v>1</v>
@@ -4828,7 +4849,7 @@
         <v>1.75</v>
       </c>
       <c r="AT20">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AU20">
         <v>1.03</v>
@@ -4929,7 +4950,7 @@
         <v>83</v>
       </c>
       <c r="P21" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Q21">
         <v>2</v>
@@ -5016,10 +5037,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT21">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU21">
         <v>1.17</v>
@@ -5120,7 +5141,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -5207,10 +5228,10 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AT22">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU22">
         <v>1.32</v>
@@ -5311,7 +5332,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5401,7 +5422,7 @@
         <v>2</v>
       </c>
       <c r="AT23">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU23">
         <v>1.04</v>
@@ -5589,7 +5610,7 @@
         <v>1</v>
       </c>
       <c r="AS24">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT24">
         <v>0.63</v>
@@ -5693,7 +5714,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -5971,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT26">
         <v>1</v>
@@ -6165,7 +6186,7 @@
         <v>1.63</v>
       </c>
       <c r="AT27">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU27">
         <v>2.43</v>
@@ -6356,7 +6377,7 @@
         <v>2</v>
       </c>
       <c r="AT28">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU28">
         <v>1.36</v>
@@ -6457,7 +6478,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -6648,7 +6669,7 @@
         <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -6839,7 +6860,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Q31">
         <v>11</v>
@@ -6926,10 +6947,10 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT31">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU31">
         <v>2.48</v>
@@ -7117,10 +7138,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT32">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AU32">
         <v>1.34</v>
@@ -7308,7 +7329,7 @@
         <v>1</v>
       </c>
       <c r="AS33">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT33">
         <v>0.71</v>
@@ -7412,7 +7433,7 @@
         <v>83</v>
       </c>
       <c r="P34" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q34">
         <v>11</v>
@@ -7499,7 +7520,7 @@
         <v>2</v>
       </c>
       <c r="AS34">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT34">
         <v>1.13</v>
@@ -7693,7 +7714,7 @@
         <v>1.75</v>
       </c>
       <c r="AT35">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU35">
         <v>1.5</v>
@@ -8075,7 +8096,7 @@
         <v>1.29</v>
       </c>
       <c r="AT37">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU37">
         <v>1.83</v>
@@ -8263,7 +8284,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT38">
         <v>1</v>
@@ -8367,7 +8388,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q39">
         <v>7</v>
@@ -8454,10 +8475,10 @@
         <v>3</v>
       </c>
       <c r="AS39">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT39">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU39">
         <v>1.61</v>
@@ -8558,7 +8579,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -8645,7 +8666,7 @@
         <v>0.5</v>
       </c>
       <c r="AS40">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AT40">
         <v>0.63</v>
@@ -8749,7 +8770,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -8839,7 +8860,7 @@
         <v>1</v>
       </c>
       <c r="AT41">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU41">
         <v>1.28</v>
@@ -9027,7 +9048,7 @@
         <v>2</v>
       </c>
       <c r="AS42">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT42">
         <v>2.13</v>
@@ -9131,7 +9152,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9218,10 +9239,10 @@
         <v>1</v>
       </c>
       <c r="AS43">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT43">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU43">
         <v>1.88</v>
@@ -9322,7 +9343,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9513,7 +9534,7 @@
         <v>113</v>
       </c>
       <c r="P45" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9704,7 +9725,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Q46">
         <v>9</v>
@@ -9985,7 +10006,7 @@
         <v>2</v>
       </c>
       <c r="AT47">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU47">
         <v>1.45</v>
@@ -10086,7 +10107,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10173,7 +10194,7 @@
         <v>3</v>
       </c>
       <c r="AS48">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT48">
         <v>1.75</v>
@@ -10277,7 +10298,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10367,7 +10388,7 @@
         <v>1.75</v>
       </c>
       <c r="AT49">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU49">
         <v>1.63</v>
@@ -10468,7 +10489,7 @@
         <v>118</v>
       </c>
       <c r="P50" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10659,7 +10680,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -10746,10 +10767,10 @@
         <v>1.33</v>
       </c>
       <c r="AS51">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT51">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU51">
         <v>1.37</v>
@@ -10937,10 +10958,10 @@
         <v>0</v>
       </c>
       <c r="AS52">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT52">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU52">
         <v>1.99</v>
@@ -11041,7 +11062,7 @@
         <v>120</v>
       </c>
       <c r="P53" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q53">
         <v>2</v>
@@ -11128,10 +11149,10 @@
         <v>1.33</v>
       </c>
       <c r="AS53">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AT53">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU53">
         <v>1.19</v>
@@ -11232,7 +11253,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11322,7 +11343,7 @@
         <v>1.75</v>
       </c>
       <c r="AT54">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AU54">
         <v>1.01</v>
@@ -11510,7 +11531,7 @@
         <v>2.33</v>
       </c>
       <c r="AS55">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT55">
         <v>1.13</v>
@@ -11614,7 +11635,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q56">
         <v>7</v>
@@ -11704,7 +11725,7 @@
         <v>1</v>
       </c>
       <c r="AT56">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU56">
         <v>1.17</v>
@@ -11892,7 +11913,7 @@
         <v>0.33</v>
       </c>
       <c r="AS57">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT57">
         <v>0.63</v>
@@ -12086,7 +12107,7 @@
         <v>2</v>
       </c>
       <c r="AT58">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU58">
         <v>1.6</v>
@@ -12187,7 +12208,7 @@
         <v>124</v>
       </c>
       <c r="P59" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12468,7 +12489,7 @@
         <v>1.63</v>
       </c>
       <c r="AT60">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU60">
         <v>2.16</v>
@@ -12569,7 +12590,7 @@
         <v>125</v>
       </c>
       <c r="P61" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -12760,7 +12781,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -12847,7 +12868,7 @@
         <v>1.75</v>
       </c>
       <c r="AS62">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT62">
         <v>1.13</v>
@@ -13142,7 +13163,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13229,7 +13250,7 @@
         <v>2.33</v>
       </c>
       <c r="AS64">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT64">
         <v>1.75</v>
@@ -13420,10 +13441,10 @@
         <v>2</v>
       </c>
       <c r="AS65">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT65">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU65">
         <v>1.96</v>
@@ -13611,10 +13632,10 @@
         <v>1.75</v>
       </c>
       <c r="AS66">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT66">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU66">
         <v>1.3</v>
@@ -13802,10 +13823,10 @@
         <v>0.33</v>
       </c>
       <c r="AS67">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT67">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU67">
         <v>1.36</v>
@@ -13996,7 +14017,7 @@
         <v>2</v>
       </c>
       <c r="AT68">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU68">
         <v>1.46</v>
@@ -14184,10 +14205,10 @@
         <v>1</v>
       </c>
       <c r="AS69">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT69">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU69">
         <v>2.01</v>
@@ -14288,7 +14309,7 @@
         <v>132</v>
       </c>
       <c r="P70" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -14375,7 +14396,7 @@
         <v>2.25</v>
       </c>
       <c r="AS70">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT70">
         <v>2.25</v>
@@ -14569,7 +14590,7 @@
         <v>1</v>
       </c>
       <c r="AT71">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AU71">
         <v>1.39</v>
@@ -14670,7 +14691,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q72">
         <v>9</v>
@@ -14757,7 +14778,7 @@
         <v>2</v>
       </c>
       <c r="AS72">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT72">
         <v>2.13</v>
@@ -14948,10 +14969,10 @@
         <v>0.25</v>
       </c>
       <c r="AS73">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT73">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU73">
         <v>1.48</v>
@@ -15139,7 +15160,7 @@
         <v>1</v>
       </c>
       <c r="AS74">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AT74">
         <v>0.71</v>
@@ -15243,7 +15264,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15434,7 +15455,7 @@
         <v>138</v>
       </c>
       <c r="P76" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q76">
         <v>7</v>
@@ -15625,7 +15646,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q77">
         <v>9</v>
@@ -15715,7 +15736,7 @@
         <v>1.75</v>
       </c>
       <c r="AT77">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU77">
         <v>1.22</v>
@@ -15906,7 +15927,7 @@
         <v>1</v>
       </c>
       <c r="AT78">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AU78">
         <v>1.16</v>
@@ -16007,7 +16028,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16285,7 +16306,7 @@
         <v>1</v>
       </c>
       <c r="AS80">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT80">
         <v>1</v>
@@ -16389,7 +16410,7 @@
         <v>83</v>
       </c>
       <c r="P81" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -16580,7 +16601,7 @@
         <v>83</v>
       </c>
       <c r="P82" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -16667,7 +16688,7 @@
         <v>2.2</v>
       </c>
       <c r="AS82">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT82">
         <v>2.13</v>
@@ -16858,10 +16879,10 @@
         <v>0.8</v>
       </c>
       <c r="AS83">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT83">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU83">
         <v>1.49</v>
@@ -16962,7 +16983,7 @@
         <v>88</v>
       </c>
       <c r="P84" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q84">
         <v>1</v>
@@ -17049,7 +17070,7 @@
         <v>1.8</v>
       </c>
       <c r="AS84">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT84">
         <v>2.25</v>
@@ -17431,10 +17452,10 @@
         <v>0.8</v>
       </c>
       <c r="AS86">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT86">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU86">
         <v>1.62</v>
@@ -17535,7 +17556,7 @@
         <v>83</v>
       </c>
       <c r="P87" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -17622,10 +17643,10 @@
         <v>0.25</v>
       </c>
       <c r="AS87">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT87">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU87">
         <v>2.14</v>
@@ -17726,7 +17747,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -17816,7 +17837,7 @@
         <v>1</v>
       </c>
       <c r="AT88">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU88">
         <v>1.44</v>
@@ -17917,7 +17938,7 @@
         <v>83</v>
       </c>
       <c r="P89" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18007,7 +18028,7 @@
         <v>1</v>
       </c>
       <c r="AT89">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU89">
         <v>1.46</v>
@@ -18108,7 +18129,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18386,10 +18407,10 @@
         <v>0.17</v>
       </c>
       <c r="AS91">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT91">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AU91">
         <v>1.7</v>
@@ -18490,7 +18511,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -18768,10 +18789,10 @@
         <v>1.8</v>
       </c>
       <c r="AS93">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AT93">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU93">
         <v>1.35</v>
@@ -18959,10 +18980,10 @@
         <v>0.4</v>
       </c>
       <c r="AS94">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT94">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU94">
         <v>1.3</v>
@@ -19063,7 +19084,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q95">
         <v>1</v>
@@ -19153,7 +19174,7 @@
         <v>2</v>
       </c>
       <c r="AT95">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU95">
         <v>1.6</v>
@@ -19445,7 +19466,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -19532,7 +19553,7 @@
         <v>1</v>
       </c>
       <c r="AS97">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT97">
         <v>0.63</v>
@@ -19636,7 +19657,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -19726,7 +19747,7 @@
         <v>1.75</v>
       </c>
       <c r="AT98">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU98">
         <v>1.77</v>
@@ -19827,7 +19848,7 @@
         <v>152</v>
       </c>
       <c r="P99" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q99">
         <v>8</v>
@@ -19914,7 +19935,7 @@
         <v>1.67</v>
       </c>
       <c r="AS99">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT99">
         <v>1.75</v>
@@ -20018,7 +20039,7 @@
         <v>153</v>
       </c>
       <c r="P100" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q100">
         <v>2</v>
@@ -20681,7 +20702,7 @@
         <v>1.29</v>
       </c>
       <c r="AT103">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU103">
         <v>1.55</v>
@@ -20782,7 +20803,7 @@
         <v>83</v>
       </c>
       <c r="P104" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -20869,7 +20890,7 @@
         <v>2.33</v>
       </c>
       <c r="AS104">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT104">
         <v>2.13</v>
@@ -21164,7 +21185,7 @@
         <v>156</v>
       </c>
       <c r="P106" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -21251,10 +21272,10 @@
         <v>0.14</v>
       </c>
       <c r="AS106">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT106">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AU106">
         <v>1.37</v>
@@ -21445,7 +21466,7 @@
         <v>2</v>
       </c>
       <c r="AT107">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU107">
         <v>1.45</v>
@@ -21546,7 +21567,7 @@
         <v>123</v>
       </c>
       <c r="P108" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q108">
         <v>11</v>
@@ -21633,10 +21654,10 @@
         <v>0.83</v>
       </c>
       <c r="AS108">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT108">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU108">
         <v>2.13</v>
@@ -21824,7 +21845,7 @@
         <v>2.43</v>
       </c>
       <c r="AS109">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT109">
         <v>2.13</v>
@@ -21928,7 +21949,7 @@
         <v>159</v>
       </c>
       <c r="P110" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22015,10 +22036,10 @@
         <v>0.67</v>
       </c>
       <c r="AS110">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT110">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU110">
         <v>1.6</v>
@@ -22209,7 +22230,7 @@
         <v>1.63</v>
       </c>
       <c r="AT111">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU111">
         <v>2.14</v>
@@ -22310,7 +22331,7 @@
         <v>161</v>
       </c>
       <c r="P112" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q112">
         <v>1</v>
@@ -22397,10 +22418,10 @@
         <v>0.67</v>
       </c>
       <c r="AS112">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT112">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU112">
         <v>1.36</v>
@@ -22588,7 +22609,7 @@
         <v>0.67</v>
       </c>
       <c r="AS113">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT113">
         <v>1</v>
@@ -22692,7 +22713,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -23074,7 +23095,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23265,7 +23286,7 @@
         <v>165</v>
       </c>
       <c r="P117" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q117">
         <v>13</v>
@@ -23456,7 +23477,7 @@
         <v>166</v>
       </c>
       <c r="P118" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -23543,10 +23564,10 @@
         <v>1.33</v>
       </c>
       <c r="AS118">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AT118">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU118">
         <v>1.55</v>
@@ -23838,7 +23859,7 @@
         <v>168</v>
       </c>
       <c r="P120" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q120">
         <v>7</v>
@@ -24029,7 +24050,7 @@
         <v>83</v>
       </c>
       <c r="P121" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q121">
         <v>8</v>
@@ -24171,6 +24192,1534 @@
       </c>
       <c r="BK121">
         <v>16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:63">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>4867479</v>
+      </c>
+      <c r="C122" t="s">
+        <v>63</v>
+      </c>
+      <c r="D122" t="s">
+        <v>64</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45135.58333333334</v>
+      </c>
+      <c r="F122">
+        <v>16</v>
+      </c>
+      <c r="G122" t="s">
+        <v>80</v>
+      </c>
+      <c r="H122" t="s">
+        <v>75</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122">
+        <v>3</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>3</v>
+      </c>
+      <c r="O122" t="s">
+        <v>169</v>
+      </c>
+      <c r="P122" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q122">
+        <v>8</v>
+      </c>
+      <c r="R122">
+        <v>7</v>
+      </c>
+      <c r="S122">
+        <v>15</v>
+      </c>
+      <c r="T122">
+        <v>2.6</v>
+      </c>
+      <c r="U122">
+        <v>2.2</v>
+      </c>
+      <c r="V122">
+        <v>3.8</v>
+      </c>
+      <c r="W122">
+        <v>1.33</v>
+      </c>
+      <c r="X122">
+        <v>3</v>
+      </c>
+      <c r="Y122">
+        <v>2.5</v>
+      </c>
+      <c r="Z122">
+        <v>1.48</v>
+      </c>
+      <c r="AA122">
+        <v>5.5</v>
+      </c>
+      <c r="AB122">
+        <v>1.11</v>
+      </c>
+      <c r="AC122">
+        <v>1.95</v>
+      </c>
+      <c r="AD122">
+        <v>3.5</v>
+      </c>
+      <c r="AE122">
+        <v>3.4</v>
+      </c>
+      <c r="AF122">
+        <v>1.04</v>
+      </c>
+      <c r="AG122">
+        <v>14</v>
+      </c>
+      <c r="AH122">
+        <v>1.25</v>
+      </c>
+      <c r="AI122">
+        <v>3.6</v>
+      </c>
+      <c r="AJ122">
+        <v>1.98</v>
+      </c>
+      <c r="AK122">
+        <v>1.9</v>
+      </c>
+      <c r="AL122">
+        <v>1.65</v>
+      </c>
+      <c r="AM122">
+        <v>2.1</v>
+      </c>
+      <c r="AN122">
+        <v>1.33</v>
+      </c>
+      <c r="AO122">
+        <v>1.3</v>
+      </c>
+      <c r="AP122">
+        <v>1.73</v>
+      </c>
+      <c r="AQ122">
+        <v>1.29</v>
+      </c>
+      <c r="AR122">
+        <v>0.13</v>
+      </c>
+      <c r="AS122">
+        <v>1.5</v>
+      </c>
+      <c r="AT122">
+        <v>0.11</v>
+      </c>
+      <c r="AU122">
+        <v>1.39</v>
+      </c>
+      <c r="AV122">
+        <v>1.28</v>
+      </c>
+      <c r="AW122">
+        <v>2.67</v>
+      </c>
+      <c r="AX122">
+        <v>1.44</v>
+      </c>
+      <c r="AY122">
+        <v>6.5</v>
+      </c>
+      <c r="AZ122">
+        <v>3.15</v>
+      </c>
+      <c r="BA122">
+        <v>0</v>
+      </c>
+      <c r="BB122">
+        <v>1.2</v>
+      </c>
+      <c r="BC122">
+        <v>1.33</v>
+      </c>
+      <c r="BD122">
+        <v>1.68</v>
+      </c>
+      <c r="BE122">
+        <v>2</v>
+      </c>
+      <c r="BF122">
+        <v>12</v>
+      </c>
+      <c r="BG122">
+        <v>8</v>
+      </c>
+      <c r="BH122">
+        <v>5</v>
+      </c>
+      <c r="BI122">
+        <v>4</v>
+      </c>
+      <c r="BJ122">
+        <v>17</v>
+      </c>
+      <c r="BK122">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:63">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>4867483</v>
+      </c>
+      <c r="C123" t="s">
+        <v>63</v>
+      </c>
+      <c r="D123" t="s">
+        <v>64</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45136.33333333334</v>
+      </c>
+      <c r="F123">
+        <v>16</v>
+      </c>
+      <c r="G123" t="s">
+        <v>69</v>
+      </c>
+      <c r="H123" t="s">
+        <v>66</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123">
+        <v>2</v>
+      </c>
+      <c r="O123" t="s">
+        <v>170</v>
+      </c>
+      <c r="P123" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q123">
+        <v>5</v>
+      </c>
+      <c r="R123">
+        <v>6</v>
+      </c>
+      <c r="S123">
+        <v>11</v>
+      </c>
+      <c r="T123">
+        <v>2.3</v>
+      </c>
+      <c r="U123">
+        <v>2.2</v>
+      </c>
+      <c r="V123">
+        <v>4.2</v>
+      </c>
+      <c r="W123">
+        <v>1.36</v>
+      </c>
+      <c r="X123">
+        <v>3</v>
+      </c>
+      <c r="Y123">
+        <v>2.5</v>
+      </c>
+      <c r="Z123">
+        <v>1.5</v>
+      </c>
+      <c r="AA123">
+        <v>5.5</v>
+      </c>
+      <c r="AB123">
+        <v>1.12</v>
+      </c>
+      <c r="AC123">
+        <v>1.82</v>
+      </c>
+      <c r="AD123">
+        <v>3.72</v>
+      </c>
+      <c r="AE123">
+        <v>3.97</v>
+      </c>
+      <c r="AF123">
+        <v>1.04</v>
+      </c>
+      <c r="AG123">
+        <v>10</v>
+      </c>
+      <c r="AH123">
+        <v>1.25</v>
+      </c>
+      <c r="AI123">
+        <v>3.75</v>
+      </c>
+      <c r="AJ123">
+        <v>1.7</v>
+      </c>
+      <c r="AK123">
+        <v>2</v>
+      </c>
+      <c r="AL123">
+        <v>1.67</v>
+      </c>
+      <c r="AM123">
+        <v>2.08</v>
+      </c>
+      <c r="AN123">
+        <v>1.2</v>
+      </c>
+      <c r="AO123">
+        <v>1.29</v>
+      </c>
+      <c r="AP123">
+        <v>1.95</v>
+      </c>
+      <c r="AQ123">
+        <v>1.57</v>
+      </c>
+      <c r="AR123">
+        <v>1.29</v>
+      </c>
+      <c r="AS123">
+        <v>1.5</v>
+      </c>
+      <c r="AT123">
+        <v>1.25</v>
+      </c>
+      <c r="AU123">
+        <v>1.68</v>
+      </c>
+      <c r="AV123">
+        <v>1.47</v>
+      </c>
+      <c r="AW123">
+        <v>3.15</v>
+      </c>
+      <c r="AX123">
+        <v>1.32</v>
+      </c>
+      <c r="AY123">
+        <v>7</v>
+      </c>
+      <c r="AZ123">
+        <v>3.9</v>
+      </c>
+      <c r="BA123">
+        <v>1.14</v>
+      </c>
+      <c r="BB123">
+        <v>1.26</v>
+      </c>
+      <c r="BC123">
+        <v>1.47</v>
+      </c>
+      <c r="BD123">
+        <v>1.93</v>
+      </c>
+      <c r="BE123">
+        <v>2.28</v>
+      </c>
+      <c r="BF123">
+        <v>4</v>
+      </c>
+      <c r="BG123">
+        <v>3</v>
+      </c>
+      <c r="BH123">
+        <v>3</v>
+      </c>
+      <c r="BI123">
+        <v>5</v>
+      </c>
+      <c r="BJ123">
+        <v>7</v>
+      </c>
+      <c r="BK123">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:63">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>4867476</v>
+      </c>
+      <c r="C124" t="s">
+        <v>63</v>
+      </c>
+      <c r="D124" t="s">
+        <v>64</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45136.41666666666</v>
+      </c>
+      <c r="F124">
+        <v>16</v>
+      </c>
+      <c r="G124" t="s">
+        <v>70</v>
+      </c>
+      <c r="H124" t="s">
+        <v>65</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124">
+        <v>2</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="N124">
+        <v>2</v>
+      </c>
+      <c r="O124" t="s">
+        <v>171</v>
+      </c>
+      <c r="P124" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q124">
+        <v>4</v>
+      </c>
+      <c r="R124">
+        <v>2</v>
+      </c>
+      <c r="S124">
+        <v>6</v>
+      </c>
+      <c r="T124">
+        <v>2.5</v>
+      </c>
+      <c r="U124">
+        <v>2.2</v>
+      </c>
+      <c r="V124">
+        <v>3.7</v>
+      </c>
+      <c r="W124">
+        <v>1.33</v>
+      </c>
+      <c r="X124">
+        <v>3.25</v>
+      </c>
+      <c r="Y124">
+        <v>2.5</v>
+      </c>
+      <c r="Z124">
+        <v>1.5</v>
+      </c>
+      <c r="AA124">
+        <v>6</v>
+      </c>
+      <c r="AB124">
+        <v>1.11</v>
+      </c>
+      <c r="AC124">
+        <v>2.22</v>
+      </c>
+      <c r="AD124">
+        <v>3.48</v>
+      </c>
+      <c r="AE124">
+        <v>3.01</v>
+      </c>
+      <c r="AF124">
+        <v>1.05</v>
+      </c>
+      <c r="AG124">
+        <v>9</v>
+      </c>
+      <c r="AH124">
+        <v>1.25</v>
+      </c>
+      <c r="AI124">
+        <v>3.75</v>
+      </c>
+      <c r="AJ124">
+        <v>1.75</v>
+      </c>
+      <c r="AK124">
+        <v>1.95</v>
+      </c>
+      <c r="AL124">
+        <v>1.66</v>
+      </c>
+      <c r="AM124">
+        <v>2.09</v>
+      </c>
+      <c r="AN124">
+        <v>1.25</v>
+      </c>
+      <c r="AO124">
+        <v>1.29</v>
+      </c>
+      <c r="AP124">
+        <v>1.75</v>
+      </c>
+      <c r="AQ124">
+        <v>1.29</v>
+      </c>
+      <c r="AR124">
+        <v>0.57</v>
+      </c>
+      <c r="AS124">
+        <v>1.25</v>
+      </c>
+      <c r="AT124">
+        <v>0.63</v>
+      </c>
+      <c r="AU124">
+        <v>2.05</v>
+      </c>
+      <c r="AV124">
+        <v>1.37</v>
+      </c>
+      <c r="AW124">
+        <v>3.42</v>
+      </c>
+      <c r="AX124">
+        <v>1.39</v>
+      </c>
+      <c r="AY124">
+        <v>6.75</v>
+      </c>
+      <c r="AZ124">
+        <v>3.45</v>
+      </c>
+      <c r="BA124">
+        <v>1.19</v>
+      </c>
+      <c r="BB124">
+        <v>1.36</v>
+      </c>
+      <c r="BC124">
+        <v>1.93</v>
+      </c>
+      <c r="BD124">
+        <v>2.07</v>
+      </c>
+      <c r="BE124">
+        <v>2.67</v>
+      </c>
+      <c r="BF124">
+        <v>3</v>
+      </c>
+      <c r="BG124">
+        <v>5</v>
+      </c>
+      <c r="BH124">
+        <v>5</v>
+      </c>
+      <c r="BI124">
+        <v>8</v>
+      </c>
+      <c r="BJ124">
+        <v>8</v>
+      </c>
+      <c r="BK124">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:63">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>4867482</v>
+      </c>
+      <c r="C125" t="s">
+        <v>63</v>
+      </c>
+      <c r="D125" t="s">
+        <v>64</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45136.41666666666</v>
+      </c>
+      <c r="F125">
+        <v>16</v>
+      </c>
+      <c r="G125" t="s">
+        <v>79</v>
+      </c>
+      <c r="H125" t="s">
+        <v>71</v>
+      </c>
+      <c r="I125">
+        <v>2</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>2</v>
+      </c>
+      <c r="L125">
+        <v>4</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>4</v>
+      </c>
+      <c r="O125" t="s">
+        <v>172</v>
+      </c>
+      <c r="P125" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q125">
+        <v>5</v>
+      </c>
+      <c r="R125">
+        <v>3</v>
+      </c>
+      <c r="S125">
+        <v>8</v>
+      </c>
+      <c r="T125">
+        <v>2</v>
+      </c>
+      <c r="U125">
+        <v>2.38</v>
+      </c>
+      <c r="V125">
+        <v>5</v>
+      </c>
+      <c r="W125">
+        <v>1.33</v>
+      </c>
+      <c r="X125">
+        <v>3.25</v>
+      </c>
+      <c r="Y125">
+        <v>2.38</v>
+      </c>
+      <c r="Z125">
+        <v>1.53</v>
+      </c>
+      <c r="AA125">
+        <v>5.5</v>
+      </c>
+      <c r="AB125">
+        <v>1.12</v>
+      </c>
+      <c r="AC125">
+        <v>1.8</v>
+      </c>
+      <c r="AD125">
+        <v>3.72</v>
+      </c>
+      <c r="AE125">
+        <v>4.08</v>
+      </c>
+      <c r="AF125">
+        <v>1.04</v>
+      </c>
+      <c r="AG125">
+        <v>10</v>
+      </c>
+      <c r="AH125">
+        <v>1.22</v>
+      </c>
+      <c r="AI125">
+        <v>4</v>
+      </c>
+      <c r="AJ125">
+        <v>1.7</v>
+      </c>
+      <c r="AK125">
+        <v>2</v>
+      </c>
+      <c r="AL125">
+        <v>1.78</v>
+      </c>
+      <c r="AM125">
+        <v>1.93</v>
+      </c>
+      <c r="AN125">
+        <v>1.11</v>
+      </c>
+      <c r="AO125">
+        <v>1.22</v>
+      </c>
+      <c r="AP125">
+        <v>2.45</v>
+      </c>
+      <c r="AQ125">
+        <v>1.71</v>
+      </c>
+      <c r="AR125">
+        <v>1.14</v>
+      </c>
+      <c r="AS125">
+        <v>1.88</v>
+      </c>
+      <c r="AT125">
+        <v>1</v>
+      </c>
+      <c r="AU125">
+        <v>1.42</v>
+      </c>
+      <c r="AV125">
+        <v>1.12</v>
+      </c>
+      <c r="AW125">
+        <v>2.54</v>
+      </c>
+      <c r="AX125">
+        <v>1.21</v>
+      </c>
+      <c r="AY125">
+        <v>7.75</v>
+      </c>
+      <c r="AZ125">
+        <v>5.25</v>
+      </c>
+      <c r="BA125">
+        <v>1.19</v>
+      </c>
+      <c r="BB125">
+        <v>1.32</v>
+      </c>
+      <c r="BC125">
+        <v>1.8</v>
+      </c>
+      <c r="BD125">
+        <v>1.98</v>
+      </c>
+      <c r="BE125">
+        <v>2.54</v>
+      </c>
+      <c r="BF125">
+        <v>12</v>
+      </c>
+      <c r="BG125">
+        <v>2</v>
+      </c>
+      <c r="BH125">
+        <v>3</v>
+      </c>
+      <c r="BI125">
+        <v>5</v>
+      </c>
+      <c r="BJ125">
+        <v>15</v>
+      </c>
+      <c r="BK125">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:63">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>4867480</v>
+      </c>
+      <c r="C126" t="s">
+        <v>63</v>
+      </c>
+      <c r="D126" t="s">
+        <v>64</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45137.33333333334</v>
+      </c>
+      <c r="F126">
+        <v>16</v>
+      </c>
+      <c r="G126" t="s">
+        <v>67</v>
+      </c>
+      <c r="H126" t="s">
+        <v>74</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>3</v>
+      </c>
+      <c r="K126">
+        <v>3</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>3</v>
+      </c>
+      <c r="N126">
+        <v>3</v>
+      </c>
+      <c r="O126" t="s">
+        <v>83</v>
+      </c>
+      <c r="P126" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q126">
+        <v>5</v>
+      </c>
+      <c r="R126">
+        <v>7</v>
+      </c>
+      <c r="S126">
+        <v>12</v>
+      </c>
+      <c r="T126">
+        <v>2.7</v>
+      </c>
+      <c r="U126">
+        <v>2.2</v>
+      </c>
+      <c r="V126">
+        <v>3.4</v>
+      </c>
+      <c r="W126">
+        <v>1.33</v>
+      </c>
+      <c r="X126">
+        <v>3.25</v>
+      </c>
+      <c r="Y126">
+        <v>2.5</v>
+      </c>
+      <c r="Z126">
+        <v>1.5</v>
+      </c>
+      <c r="AA126">
+        <v>5.5</v>
+      </c>
+      <c r="AB126">
+        <v>1.12</v>
+      </c>
+      <c r="AC126">
+        <v>2.2</v>
+      </c>
+      <c r="AD126">
+        <v>3.3</v>
+      </c>
+      <c r="AE126">
+        <v>3.05</v>
+      </c>
+      <c r="AF126">
+        <v>1.05</v>
+      </c>
+      <c r="AG126">
+        <v>9</v>
+      </c>
+      <c r="AH126">
+        <v>1.25</v>
+      </c>
+      <c r="AI126">
+        <v>3.75</v>
+      </c>
+      <c r="AJ126">
+        <v>1.71</v>
+      </c>
+      <c r="AK126">
+        <v>2.04</v>
+      </c>
+      <c r="AL126">
+        <v>1.62</v>
+      </c>
+      <c r="AM126">
+        <v>2.2</v>
+      </c>
+      <c r="AN126">
+        <v>1.35</v>
+      </c>
+      <c r="AO126">
+        <v>1.29</v>
+      </c>
+      <c r="AP126">
+        <v>1.65</v>
+      </c>
+      <c r="AQ126">
+        <v>1.71</v>
+      </c>
+      <c r="AR126">
+        <v>0.57</v>
+      </c>
+      <c r="AS126">
+        <v>1.5</v>
+      </c>
+      <c r="AT126">
+        <v>0.88</v>
+      </c>
+      <c r="AU126">
+        <v>1.39</v>
+      </c>
+      <c r="AV126">
+        <v>1.51</v>
+      </c>
+      <c r="AW126">
+        <v>2.9</v>
+      </c>
+      <c r="AX126">
+        <v>1.76</v>
+      </c>
+      <c r="AY126">
+        <v>6</v>
+      </c>
+      <c r="AZ126">
+        <v>2.35</v>
+      </c>
+      <c r="BA126">
+        <v>1.14</v>
+      </c>
+      <c r="BB126">
+        <v>1.22</v>
+      </c>
+      <c r="BC126">
+        <v>1.41</v>
+      </c>
+      <c r="BD126">
+        <v>1.75</v>
+      </c>
+      <c r="BE126">
+        <v>2.13</v>
+      </c>
+      <c r="BF126">
+        <v>3</v>
+      </c>
+      <c r="BG126">
+        <v>4</v>
+      </c>
+      <c r="BH126">
+        <v>7</v>
+      </c>
+      <c r="BI126">
+        <v>4</v>
+      </c>
+      <c r="BJ126">
+        <v>10</v>
+      </c>
+      <c r="BK126">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:63">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>4867477</v>
+      </c>
+      <c r="C127" t="s">
+        <v>63</v>
+      </c>
+      <c r="D127" t="s">
+        <v>64</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45137.41666666666</v>
+      </c>
+      <c r="F127">
+        <v>16</v>
+      </c>
+      <c r="G127" t="s">
+        <v>78</v>
+      </c>
+      <c r="H127" t="s">
+        <v>77</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127">
+        <v>1</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>1</v>
+      </c>
+      <c r="O127" t="s">
+        <v>173</v>
+      </c>
+      <c r="P127" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q127">
+        <v>8</v>
+      </c>
+      <c r="R127">
+        <v>2</v>
+      </c>
+      <c r="S127">
+        <v>10</v>
+      </c>
+      <c r="T127">
+        <v>1.73</v>
+      </c>
+      <c r="U127">
+        <v>2.6</v>
+      </c>
+      <c r="V127">
+        <v>6.5</v>
+      </c>
+      <c r="W127">
+        <v>1.25</v>
+      </c>
+      <c r="X127">
+        <v>3.75</v>
+      </c>
+      <c r="Y127">
+        <v>2.05</v>
+      </c>
+      <c r="Z127">
+        <v>1.7</v>
+      </c>
+      <c r="AA127">
+        <v>4.5</v>
+      </c>
+      <c r="AB127">
+        <v>1.17</v>
+      </c>
+      <c r="AC127">
+        <v>1.3</v>
+      </c>
+      <c r="AD127">
+        <v>5.25</v>
+      </c>
+      <c r="AE127">
+        <v>8.5</v>
+      </c>
+      <c r="AF127">
+        <v>1.02</v>
+      </c>
+      <c r="AG127">
+        <v>12</v>
+      </c>
+      <c r="AH127">
+        <v>1.15</v>
+      </c>
+      <c r="AI127">
+        <v>4.75</v>
+      </c>
+      <c r="AJ127">
+        <v>1.6</v>
+      </c>
+      <c r="AK127">
+        <v>2.3</v>
+      </c>
+      <c r="AL127">
+        <v>1.85</v>
+      </c>
+      <c r="AM127">
+        <v>1.85</v>
+      </c>
+      <c r="AN127">
+        <v>1.04</v>
+      </c>
+      <c r="AO127">
+        <v>1.14</v>
+      </c>
+      <c r="AP127">
+        <v>3.5</v>
+      </c>
+      <c r="AQ127">
+        <v>2.14</v>
+      </c>
+      <c r="AR127">
+        <v>0.71</v>
+      </c>
+      <c r="AS127">
+        <v>2.25</v>
+      </c>
+      <c r="AT127">
+        <v>0.63</v>
+      </c>
+      <c r="AU127">
+        <v>1.88</v>
+      </c>
+      <c r="AV127">
+        <v>0.8</v>
+      </c>
+      <c r="AW127">
+        <v>2.68</v>
+      </c>
+      <c r="AX127">
+        <v>1.12</v>
+      </c>
+      <c r="AY127">
+        <v>9</v>
+      </c>
+      <c r="AZ127">
+        <v>6.75</v>
+      </c>
+      <c r="BA127">
+        <v>1.16</v>
+      </c>
+      <c r="BB127">
+        <v>1.29</v>
+      </c>
+      <c r="BC127">
+        <v>1.57</v>
+      </c>
+      <c r="BD127">
+        <v>1.77</v>
+      </c>
+      <c r="BE127">
+        <v>2.16</v>
+      </c>
+      <c r="BF127">
+        <v>5</v>
+      </c>
+      <c r="BG127">
+        <v>2</v>
+      </c>
+      <c r="BH127">
+        <v>4</v>
+      </c>
+      <c r="BI127">
+        <v>1</v>
+      </c>
+      <c r="BJ127">
+        <v>9</v>
+      </c>
+      <c r="BK127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:63">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>4867478</v>
+      </c>
+      <c r="C128" t="s">
+        <v>63</v>
+      </c>
+      <c r="D128" t="s">
+        <v>64</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45138.58333333334</v>
+      </c>
+      <c r="F128">
+        <v>16</v>
+      </c>
+      <c r="G128" t="s">
+        <v>76</v>
+      </c>
+      <c r="H128" t="s">
+        <v>73</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+      <c r="O128" t="s">
+        <v>83</v>
+      </c>
+      <c r="P128" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q128">
+        <v>9</v>
+      </c>
+      <c r="R128">
+        <v>4</v>
+      </c>
+      <c r="S128">
+        <v>13</v>
+      </c>
+      <c r="T128">
+        <v>4.2</v>
+      </c>
+      <c r="U128">
+        <v>2.15</v>
+      </c>
+      <c r="V128">
+        <v>2.65</v>
+      </c>
+      <c r="W128">
+        <v>1.38</v>
+      </c>
+      <c r="X128">
+        <v>2.85</v>
+      </c>
+      <c r="Y128">
+        <v>2.8</v>
+      </c>
+      <c r="Z128">
+        <v>1.39</v>
+      </c>
+      <c r="AA128">
+        <v>6.95</v>
+      </c>
+      <c r="AB128">
+        <v>1.07</v>
+      </c>
+      <c r="AC128">
+        <v>3.6</v>
+      </c>
+      <c r="AD128">
+        <v>3.4</v>
+      </c>
+      <c r="AE128">
+        <v>1.91</v>
+      </c>
+      <c r="AF128">
+        <v>1.05</v>
+      </c>
+      <c r="AG128">
+        <v>11</v>
+      </c>
+      <c r="AH128">
+        <v>1.3</v>
+      </c>
+      <c r="AI128">
+        <v>3.4</v>
+      </c>
+      <c r="AJ128">
+        <v>1.98</v>
+      </c>
+      <c r="AK128">
+        <v>1.88</v>
+      </c>
+      <c r="AL128">
+        <v>1.78</v>
+      </c>
+      <c r="AM128">
+        <v>1.95</v>
+      </c>
+      <c r="AN128">
+        <v>1.85</v>
+      </c>
+      <c r="AO128">
+        <v>1.25</v>
+      </c>
+      <c r="AP128">
+        <v>1.28</v>
+      </c>
+      <c r="AQ128">
+        <v>1.38</v>
+      </c>
+      <c r="AR128">
+        <v>1.71</v>
+      </c>
+      <c r="AS128">
+        <v>1.33</v>
+      </c>
+      <c r="AT128">
+        <v>1.63</v>
+      </c>
+      <c r="AU128">
+        <v>1.65</v>
+      </c>
+      <c r="AV128">
+        <v>1.9</v>
+      </c>
+      <c r="AW128">
+        <v>3.55</v>
+      </c>
+      <c r="AX128">
+        <v>2.68</v>
+      </c>
+      <c r="AY128">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ128">
+        <v>1.59</v>
+      </c>
+      <c r="BA128">
+        <v>1.13</v>
+      </c>
+      <c r="BB128">
+        <v>1.23</v>
+      </c>
+      <c r="BC128">
+        <v>1.43</v>
+      </c>
+      <c r="BD128">
+        <v>1.76</v>
+      </c>
+      <c r="BE128">
+        <v>2.16</v>
+      </c>
+      <c r="BF128">
+        <v>3</v>
+      </c>
+      <c r="BG128">
+        <v>3</v>
+      </c>
+      <c r="BH128">
+        <v>3</v>
+      </c>
+      <c r="BI128">
+        <v>6</v>
+      </c>
+      <c r="BJ128">
+        <v>6</v>
+      </c>
+      <c r="BK128">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:63">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>4867481</v>
+      </c>
+      <c r="C129" t="s">
+        <v>63</v>
+      </c>
+      <c r="D129" t="s">
+        <v>64</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45138.58333333334</v>
+      </c>
+      <c r="F129">
+        <v>16</v>
+      </c>
+      <c r="G129" t="s">
+        <v>68</v>
+      </c>
+      <c r="H129" t="s">
+        <v>72</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>2</v>
+      </c>
+      <c r="O129" t="s">
+        <v>174</v>
+      </c>
+      <c r="P129" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q129">
+        <v>4</v>
+      </c>
+      <c r="R129">
+        <v>5</v>
+      </c>
+      <c r="S129">
+        <v>9</v>
+      </c>
+      <c r="T129">
+        <v>2.75</v>
+      </c>
+      <c r="U129">
+        <v>2.15</v>
+      </c>
+      <c r="V129">
+        <v>4</v>
+      </c>
+      <c r="W129">
+        <v>1.37</v>
+      </c>
+      <c r="X129">
+        <v>2.85</v>
+      </c>
+      <c r="Y129">
+        <v>2.8</v>
+      </c>
+      <c r="Z129">
+        <v>1.39</v>
+      </c>
+      <c r="AA129">
+        <v>6.95</v>
+      </c>
+      <c r="AB129">
+        <v>1.07</v>
+      </c>
+      <c r="AC129">
+        <v>1.95</v>
+      </c>
+      <c r="AD129">
+        <v>3.3</v>
+      </c>
+      <c r="AE129">
+        <v>3.5</v>
+      </c>
+      <c r="AF129">
+        <v>1.05</v>
+      </c>
+      <c r="AG129">
+        <v>11</v>
+      </c>
+      <c r="AH129">
+        <v>1.3</v>
+      </c>
+      <c r="AI129">
+        <v>3.5</v>
+      </c>
+      <c r="AJ129">
+        <v>1.9</v>
+      </c>
+      <c r="AK129">
+        <v>1.95</v>
+      </c>
+      <c r="AL129">
+        <v>1.75</v>
+      </c>
+      <c r="AM129">
+        <v>2.05</v>
+      </c>
+      <c r="AN129">
+        <v>1.3</v>
+      </c>
+      <c r="AO129">
+        <v>1.25</v>
+      </c>
+      <c r="AP129">
+        <v>1.78</v>
+      </c>
+      <c r="AQ129">
+        <v>2.57</v>
+      </c>
+      <c r="AR129">
+        <v>1.14</v>
+      </c>
+      <c r="AS129">
+        <v>2.38</v>
+      </c>
+      <c r="AT129">
+        <v>1.13</v>
+      </c>
+      <c r="AU129">
+        <v>1.58</v>
+      </c>
+      <c r="AV129">
+        <v>1.39</v>
+      </c>
+      <c r="AW129">
+        <v>2.97</v>
+      </c>
+      <c r="AX129">
+        <v>1.74</v>
+      </c>
+      <c r="AY129">
+        <v>9.1</v>
+      </c>
+      <c r="AZ129">
+        <v>2.38</v>
+      </c>
+      <c r="BA129">
+        <v>1.23</v>
+      </c>
+      <c r="BB129">
+        <v>1.33</v>
+      </c>
+      <c r="BC129">
+        <v>1.67</v>
+      </c>
+      <c r="BD129">
+        <v>2.03</v>
+      </c>
+      <c r="BE129">
+        <v>2.23</v>
+      </c>
+      <c r="BF129">
+        <v>7</v>
+      </c>
+      <c r="BG129">
+        <v>4</v>
+      </c>
+      <c r="BH129">
+        <v>3</v>
+      </c>
+      <c r="BI129">
+        <v>3</v>
+      </c>
+      <c r="BJ129">
+        <v>10</v>
+      </c>
+      <c r="BK129">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="237">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -541,6 +541,9 @@
     <t>['6']</t>
   </si>
   <si>
+    <t>['51', '77']</t>
+  </si>
+  <si>
     <t>['50', '80']</t>
   </si>
   <si>
@@ -716,6 +719,12 @@
   </si>
   <si>
     <t>['6', '9', '17']</t>
+  </si>
+  <si>
+    <t>['43']</t>
+  </si>
+  <si>
+    <t>['68', '78']</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1086,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK129"/>
+  <dimension ref="A1:BK133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1321,7 +1330,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1703,7 +1712,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -2085,7 +2094,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2276,7 +2285,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2554,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT8">
         <v>0.71</v>
@@ -2748,7 +2757,7 @@
         <v>1</v>
       </c>
       <c r="AT9">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2939,7 +2948,7 @@
         <v>1.63</v>
       </c>
       <c r="AT10">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3040,7 +3049,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -3127,10 +3136,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT11">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3231,7 +3240,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3512,7 +3521,7 @@
         <v>1.33</v>
       </c>
       <c r="AT13">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3700,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT14">
         <v>1.13</v>
@@ -3995,7 +4004,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4273,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT17">
         <v>1.25</v>
@@ -4377,7 +4386,7 @@
         <v>83</v>
       </c>
       <c r="P18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -4846,7 +4855,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT20">
         <v>0.11</v>
@@ -4950,7 +4959,7 @@
         <v>83</v>
       </c>
       <c r="P21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q21">
         <v>2</v>
@@ -5040,7 +5049,7 @@
         <v>1.33</v>
       </c>
       <c r="AT21">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU21">
         <v>1.17</v>
@@ -5141,7 +5150,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -5332,7 +5341,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5419,7 +5428,7 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT23">
         <v>0.63</v>
@@ -5714,7 +5723,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -5804,7 +5813,7 @@
         <v>1</v>
       </c>
       <c r="AT25">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU25">
         <v>1.61</v>
@@ -5992,7 +6001,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT26">
         <v>1</v>
@@ -6478,7 +6487,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -6565,10 +6574,10 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT29">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU29">
         <v>1.12</v>
@@ -6669,7 +6678,7 @@
         <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -6759,7 +6768,7 @@
         <v>1</v>
       </c>
       <c r="AT30">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU30">
         <v>1.31</v>
@@ -6860,7 +6869,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q31">
         <v>11</v>
@@ -7433,7 +7442,7 @@
         <v>83</v>
       </c>
       <c r="P34" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q34">
         <v>11</v>
@@ -7523,7 +7532,7 @@
         <v>1.88</v>
       </c>
       <c r="AT34">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU34">
         <v>1.32</v>
@@ -7711,7 +7720,7 @@
         <v>1.5</v>
       </c>
       <c r="AS35">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT35">
         <v>0.63</v>
@@ -7902,7 +7911,7 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT36">
         <v>2.25</v>
@@ -8096,7 +8105,7 @@
         <v>1.29</v>
       </c>
       <c r="AT37">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU37">
         <v>1.83</v>
@@ -8388,7 +8397,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q39">
         <v>7</v>
@@ -8579,7 +8588,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -8770,7 +8779,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -9048,10 +9057,10 @@
         <v>2</v>
       </c>
       <c r="AS42">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT42">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU42">
         <v>1.43</v>
@@ -9152,7 +9161,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9343,7 +9352,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9430,7 +9439,7 @@
         <v>2</v>
       </c>
       <c r="AS44">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT44">
         <v>2.25</v>
@@ -9534,7 +9543,7 @@
         <v>113</v>
       </c>
       <c r="P45" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9725,7 +9734,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q46">
         <v>9</v>
@@ -10107,7 +10116,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10197,7 +10206,7 @@
         <v>1.25</v>
       </c>
       <c r="AT48">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU48">
         <v>2.24</v>
@@ -10298,7 +10307,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10385,7 +10394,7 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT49">
         <v>1.13</v>
@@ -10489,7 +10498,7 @@
         <v>118</v>
       </c>
       <c r="P50" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10576,7 +10585,7 @@
         <v>0.33</v>
       </c>
       <c r="AS50">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT50">
         <v>1</v>
@@ -10680,7 +10689,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -11062,7 +11071,7 @@
         <v>120</v>
       </c>
       <c r="P53" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q53">
         <v>2</v>
@@ -11152,7 +11161,7 @@
         <v>2.38</v>
       </c>
       <c r="AT53">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU53">
         <v>1.19</v>
@@ -11253,7 +11262,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11340,7 +11349,7 @@
         <v>0</v>
       </c>
       <c r="AS54">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT54">
         <v>0.11</v>
@@ -11534,7 +11543,7 @@
         <v>1.5</v>
       </c>
       <c r="AT55">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU55">
         <v>1.57</v>
@@ -11635,7 +11644,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q56">
         <v>7</v>
@@ -12208,7 +12217,7 @@
         <v>124</v>
       </c>
       <c r="P59" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12295,7 +12304,7 @@
         <v>1.33</v>
       </c>
       <c r="AS59">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT59">
         <v>0.71</v>
@@ -12590,7 +12599,7 @@
         <v>125</v>
       </c>
       <c r="P61" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -12781,7 +12790,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -12868,10 +12877,10 @@
         <v>1.75</v>
       </c>
       <c r="AS62">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT62">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU62">
         <v>1.38</v>
@@ -13062,7 +13071,7 @@
         <v>1</v>
       </c>
       <c r="AT63">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU63">
         <v>1.24</v>
@@ -13163,7 +13172,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13253,7 +13262,7 @@
         <v>2.25</v>
       </c>
       <c r="AT64">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU64">
         <v>1.91</v>
@@ -13632,7 +13641,7 @@
         <v>1.75</v>
       </c>
       <c r="AS66">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT66">
         <v>1.63</v>
@@ -14014,10 +14023,10 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT68">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU68">
         <v>1.46</v>
@@ -14309,7 +14318,7 @@
         <v>132</v>
       </c>
       <c r="P70" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -14691,7 +14700,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q72">
         <v>9</v>
@@ -14781,7 +14790,7 @@
         <v>1.5</v>
       </c>
       <c r="AT72">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU72">
         <v>1.9</v>
@@ -15264,7 +15273,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15354,7 +15363,7 @@
         <v>2</v>
       </c>
       <c r="AT75">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU75">
         <v>1.67</v>
@@ -15455,7 +15464,7 @@
         <v>138</v>
       </c>
       <c r="P76" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q76">
         <v>7</v>
@@ -15542,7 +15551,7 @@
         <v>0.75</v>
       </c>
       <c r="AS76">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT76">
         <v>1</v>
@@ -15646,7 +15655,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q77">
         <v>9</v>
@@ -15733,7 +15742,7 @@
         <v>1.5</v>
       </c>
       <c r="AS77">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT77">
         <v>1.25</v>
@@ -16028,7 +16037,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16115,10 +16124,10 @@
         <v>1.75</v>
       </c>
       <c r="AS79">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT79">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU79">
         <v>1.5</v>
@@ -16410,7 +16419,7 @@
         <v>83</v>
       </c>
       <c r="P81" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -16601,7 +16610,7 @@
         <v>83</v>
       </c>
       <c r="P82" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -16691,7 +16700,7 @@
         <v>1.88</v>
       </c>
       <c r="AT82">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU82">
         <v>1.29</v>
@@ -16983,7 +16992,7 @@
         <v>88</v>
       </c>
       <c r="P84" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q84">
         <v>1</v>
@@ -17455,7 +17464,7 @@
         <v>1.5</v>
       </c>
       <c r="AT86">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU86">
         <v>1.62</v>
@@ -17556,7 +17565,7 @@
         <v>83</v>
       </c>
       <c r="P87" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -17747,7 +17756,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -17938,7 +17947,7 @@
         <v>83</v>
       </c>
       <c r="P89" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18129,7 +18138,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18216,10 +18225,10 @@
         <v>2</v>
       </c>
       <c r="AS90">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT90">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU90">
         <v>1.4</v>
@@ -18598,7 +18607,7 @@
         <v>0.8</v>
       </c>
       <c r="AS92">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT92">
         <v>1</v>
@@ -18980,7 +18989,7 @@
         <v>0.4</v>
       </c>
       <c r="AS94">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT94">
         <v>1.13</v>
@@ -19084,7 +19093,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q95">
         <v>1</v>
@@ -19466,7 +19475,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -19657,7 +19666,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -19744,7 +19753,7 @@
         <v>1.4</v>
       </c>
       <c r="AS98">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT98">
         <v>1</v>
@@ -19848,7 +19857,7 @@
         <v>152</v>
       </c>
       <c r="P99" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q99">
         <v>8</v>
@@ -19938,7 +19947,7 @@
         <v>1.33</v>
       </c>
       <c r="AT99">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU99">
         <v>1.61</v>
@@ -20039,7 +20048,7 @@
         <v>153</v>
       </c>
       <c r="P100" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q100">
         <v>2</v>
@@ -20317,7 +20326,7 @@
         <v>0.83</v>
       </c>
       <c r="AS101">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT101">
         <v>1</v>
@@ -20803,7 +20812,7 @@
         <v>83</v>
       </c>
       <c r="P104" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -20893,7 +20902,7 @@
         <v>1.5</v>
       </c>
       <c r="AT104">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU104">
         <v>1.47</v>
@@ -21084,7 +21093,7 @@
         <v>1</v>
       </c>
       <c r="AT105">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU105">
         <v>1.57</v>
@@ -21185,7 +21194,7 @@
         <v>156</v>
       </c>
       <c r="P106" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -21463,7 +21472,7 @@
         <v>1.5</v>
       </c>
       <c r="AS107">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT107">
         <v>1.25</v>
@@ -21567,7 +21576,7 @@
         <v>123</v>
       </c>
       <c r="P108" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q108">
         <v>11</v>
@@ -21848,7 +21857,7 @@
         <v>2.25</v>
       </c>
       <c r="AT109">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU109">
         <v>1.84</v>
@@ -21949,7 +21958,7 @@
         <v>159</v>
       </c>
       <c r="P110" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22331,7 +22340,7 @@
         <v>161</v>
       </c>
       <c r="P112" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q112">
         <v>1</v>
@@ -22418,10 +22427,10 @@
         <v>0.67</v>
       </c>
       <c r="AS112">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT112">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU112">
         <v>1.36</v>
@@ -22713,7 +22722,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -22800,7 +22809,7 @@
         <v>0.71</v>
       </c>
       <c r="AS114">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT114">
         <v>1</v>
@@ -23095,7 +23104,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23182,10 +23191,10 @@
         <v>1.14</v>
       </c>
       <c r="AS116">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT116">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU116">
         <v>1.3</v>
@@ -23286,7 +23295,7 @@
         <v>165</v>
       </c>
       <c r="P117" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q117">
         <v>13</v>
@@ -23477,7 +23486,7 @@
         <v>166</v>
       </c>
       <c r="P118" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -23758,7 +23767,7 @@
         <v>2</v>
       </c>
       <c r="AT119">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU119">
         <v>1.6</v>
@@ -23859,7 +23868,7 @@
         <v>168</v>
       </c>
       <c r="P120" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q120">
         <v>7</v>
@@ -24050,7 +24059,7 @@
         <v>83</v>
       </c>
       <c r="P121" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q121">
         <v>8</v>
@@ -24328,7 +24337,7 @@
         <v>0.13</v>
       </c>
       <c r="AS122">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT122">
         <v>0.11</v>
@@ -24432,7 +24441,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24713,7 +24722,7 @@
         <v>1.25</v>
       </c>
       <c r="AT124">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU124">
         <v>2.05</v>
@@ -25005,7 +25014,7 @@
         <v>83</v>
       </c>
       <c r="P126" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -25578,7 +25587,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -25720,6 +25729,770 @@
       </c>
       <c r="BK129">
         <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:63">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>4867488</v>
+      </c>
+      <c r="C130" t="s">
+        <v>63</v>
+      </c>
+      <c r="D130" t="s">
+        <v>64</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45143.33333333334</v>
+      </c>
+      <c r="F130">
+        <v>17</v>
+      </c>
+      <c r="G130" t="s">
+        <v>80</v>
+      </c>
+      <c r="H130" t="s">
+        <v>79</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>2</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+      <c r="N130">
+        <v>2</v>
+      </c>
+      <c r="O130" t="s">
+        <v>174</v>
+      </c>
+      <c r="P130" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q130">
+        <v>5</v>
+      </c>
+      <c r="R130">
+        <v>6</v>
+      </c>
+      <c r="S130">
+        <v>11</v>
+      </c>
+      <c r="T130">
+        <v>4.2</v>
+      </c>
+      <c r="U130">
+        <v>2.3</v>
+      </c>
+      <c r="V130">
+        <v>2.45</v>
+      </c>
+      <c r="W130">
+        <v>1.3</v>
+      </c>
+      <c r="X130">
+        <v>3.2</v>
+      </c>
+      <c r="Y130">
+        <v>2.55</v>
+      </c>
+      <c r="Z130">
+        <v>1.46</v>
+      </c>
+      <c r="AA130">
+        <v>5.95</v>
+      </c>
+      <c r="AB130">
+        <v>1.1</v>
+      </c>
+      <c r="AC130">
+        <v>3.86</v>
+      </c>
+      <c r="AD130">
+        <v>3.65</v>
+      </c>
+      <c r="AE130">
+        <v>1.85</v>
+      </c>
+      <c r="AF130">
+        <v>1.03</v>
+      </c>
+      <c r="AG130">
+        <v>13</v>
+      </c>
+      <c r="AH130">
+        <v>1.22</v>
+      </c>
+      <c r="AI130">
+        <v>4</v>
+      </c>
+      <c r="AJ130">
+        <v>1.67</v>
+      </c>
+      <c r="AK130">
+        <v>2.05</v>
+      </c>
+      <c r="AL130">
+        <v>1.68</v>
+      </c>
+      <c r="AM130">
+        <v>2.15</v>
+      </c>
+      <c r="AN130">
+        <v>1.95</v>
+      </c>
+      <c r="AO130">
+        <v>1.2</v>
+      </c>
+      <c r="AP130">
+        <v>1.25</v>
+      </c>
+      <c r="AQ130">
+        <v>1.5</v>
+      </c>
+      <c r="AR130">
+        <v>1.75</v>
+      </c>
+      <c r="AS130">
+        <v>1.44</v>
+      </c>
+      <c r="AT130">
+        <v>1.67</v>
+      </c>
+      <c r="AU130">
+        <v>1.53</v>
+      </c>
+      <c r="AV130">
+        <v>1.6</v>
+      </c>
+      <c r="AW130">
+        <v>3.13</v>
+      </c>
+      <c r="AX130">
+        <v>2.7</v>
+      </c>
+      <c r="AY130">
+        <v>9.4</v>
+      </c>
+      <c r="AZ130">
+        <v>1.59</v>
+      </c>
+      <c r="BA130">
+        <v>1.17</v>
+      </c>
+      <c r="BB130">
+        <v>1.3</v>
+      </c>
+      <c r="BC130">
+        <v>1.54</v>
+      </c>
+      <c r="BD130">
+        <v>1.93</v>
+      </c>
+      <c r="BE130">
+        <v>2.45</v>
+      </c>
+      <c r="BF130">
+        <v>8</v>
+      </c>
+      <c r="BG130">
+        <v>10</v>
+      </c>
+      <c r="BH130">
+        <v>6</v>
+      </c>
+      <c r="BI130">
+        <v>3</v>
+      </c>
+      <c r="BJ130">
+        <v>14</v>
+      </c>
+      <c r="BK130">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:63">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>4867489</v>
+      </c>
+      <c r="C131" t="s">
+        <v>63</v>
+      </c>
+      <c r="D131" t="s">
+        <v>64</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45143.41666666666</v>
+      </c>
+      <c r="F131">
+        <v>17</v>
+      </c>
+      <c r="G131" t="s">
+        <v>77</v>
+      </c>
+      <c r="H131" t="s">
+        <v>65</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>2</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>2</v>
+      </c>
+      <c r="O131" t="s">
+        <v>175</v>
+      </c>
+      <c r="P131" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q131">
+        <v>3</v>
+      </c>
+      <c r="R131">
+        <v>7</v>
+      </c>
+      <c r="S131">
+        <v>10</v>
+      </c>
+      <c r="T131">
+        <v>3.6</v>
+      </c>
+      <c r="U131">
+        <v>2.25</v>
+      </c>
+      <c r="V131">
+        <v>2.85</v>
+      </c>
+      <c r="W131">
+        <v>1.34</v>
+      </c>
+      <c r="X131">
+        <v>3</v>
+      </c>
+      <c r="Y131">
+        <v>2.6</v>
+      </c>
+      <c r="Z131">
+        <v>1.44</v>
+      </c>
+      <c r="AA131">
+        <v>6.4</v>
+      </c>
+      <c r="AB131">
+        <v>1.09</v>
+      </c>
+      <c r="AC131">
+        <v>3.23</v>
+      </c>
+      <c r="AD131">
+        <v>3.48</v>
+      </c>
+      <c r="AE131">
+        <v>2.1</v>
+      </c>
+      <c r="AF131">
+        <v>1.03</v>
+      </c>
+      <c r="AG131">
+        <v>13</v>
+      </c>
+      <c r="AH131">
+        <v>1.25</v>
+      </c>
+      <c r="AI131">
+        <v>3.75</v>
+      </c>
+      <c r="AJ131">
+        <v>1.73</v>
+      </c>
+      <c r="AK131">
+        <v>1.91</v>
+      </c>
+      <c r="AL131">
+        <v>1.62</v>
+      </c>
+      <c r="AM131">
+        <v>2.2</v>
+      </c>
+      <c r="AN131">
+        <v>1.68</v>
+      </c>
+      <c r="AO131">
+        <v>1.25</v>
+      </c>
+      <c r="AP131">
+        <v>1.36</v>
+      </c>
+      <c r="AQ131">
+        <v>1.75</v>
+      </c>
+      <c r="AR131">
+        <v>0.63</v>
+      </c>
+      <c r="AS131">
+        <v>1.89</v>
+      </c>
+      <c r="AT131">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU131">
+        <v>1.27</v>
+      </c>
+      <c r="AV131">
+        <v>1.4</v>
+      </c>
+      <c r="AW131">
+        <v>2.67</v>
+      </c>
+      <c r="AX131">
+        <v>2.18</v>
+      </c>
+      <c r="AY131">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ131">
+        <v>1.9</v>
+      </c>
+      <c r="BA131">
+        <v>1.31</v>
+      </c>
+      <c r="BB131">
+        <v>1.83</v>
+      </c>
+      <c r="BC131">
+        <v>2</v>
+      </c>
+      <c r="BD131">
+        <v>2.6</v>
+      </c>
+      <c r="BE131">
+        <v>3.64</v>
+      </c>
+      <c r="BF131">
+        <v>3</v>
+      </c>
+      <c r="BG131">
+        <v>12</v>
+      </c>
+      <c r="BH131">
+        <v>5</v>
+      </c>
+      <c r="BI131">
+        <v>10</v>
+      </c>
+      <c r="BJ131">
+        <v>8</v>
+      </c>
+      <c r="BK131">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="132" spans="1:63">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>4867485</v>
+      </c>
+      <c r="C132" t="s">
+        <v>63</v>
+      </c>
+      <c r="D132" t="s">
+        <v>64</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45143.41666666666</v>
+      </c>
+      <c r="F132">
+        <v>17</v>
+      </c>
+      <c r="G132" t="s">
+        <v>74</v>
+      </c>
+      <c r="H132" t="s">
+        <v>69</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+      <c r="N132">
+        <v>1</v>
+      </c>
+      <c r="O132" t="s">
+        <v>83</v>
+      </c>
+      <c r="P132" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q132">
+        <v>2</v>
+      </c>
+      <c r="R132">
+        <v>2</v>
+      </c>
+      <c r="S132">
+        <v>4</v>
+      </c>
+      <c r="T132">
+        <v>2.85</v>
+      </c>
+      <c r="U132">
+        <v>2.2</v>
+      </c>
+      <c r="V132">
+        <v>3.6</v>
+      </c>
+      <c r="W132">
+        <v>1.34</v>
+      </c>
+      <c r="X132">
+        <v>3</v>
+      </c>
+      <c r="Y132">
+        <v>2.7</v>
+      </c>
+      <c r="Z132">
+        <v>1.41</v>
+      </c>
+      <c r="AA132">
+        <v>6.45</v>
+      </c>
+      <c r="AB132">
+        <v>1.09</v>
+      </c>
+      <c r="AC132">
+        <v>2.13</v>
+      </c>
+      <c r="AD132">
+        <v>3.41</v>
+      </c>
+      <c r="AE132">
+        <v>3.43</v>
+      </c>
+      <c r="AF132">
+        <v>1.04</v>
+      </c>
+      <c r="AG132">
+        <v>12</v>
+      </c>
+      <c r="AH132">
+        <v>1.28</v>
+      </c>
+      <c r="AI132">
+        <v>3.75</v>
+      </c>
+      <c r="AJ132">
+        <v>1.81</v>
+      </c>
+      <c r="AK132">
+        <v>1.96</v>
+      </c>
+      <c r="AL132">
+        <v>1.68</v>
+      </c>
+      <c r="AM132">
+        <v>2.15</v>
+      </c>
+      <c r="AN132">
+        <v>1.36</v>
+      </c>
+      <c r="AO132">
+        <v>1.25</v>
+      </c>
+      <c r="AP132">
+        <v>1.68</v>
+      </c>
+      <c r="AQ132">
+        <v>1.75</v>
+      </c>
+      <c r="AR132">
+        <v>1.13</v>
+      </c>
+      <c r="AS132">
+        <v>1.56</v>
+      </c>
+      <c r="AT132">
+        <v>1.33</v>
+      </c>
+      <c r="AU132">
+        <v>1.67</v>
+      </c>
+      <c r="AV132">
+        <v>1.35</v>
+      </c>
+      <c r="AW132">
+        <v>3.02</v>
+      </c>
+      <c r="AX132">
+        <v>1.71</v>
+      </c>
+      <c r="AY132">
+        <v>7.5</v>
+      </c>
+      <c r="AZ132">
+        <v>2.6</v>
+      </c>
+      <c r="BA132">
+        <v>1.15</v>
+      </c>
+      <c r="BB132">
+        <v>1.25</v>
+      </c>
+      <c r="BC132">
+        <v>1.45</v>
+      </c>
+      <c r="BD132">
+        <v>1.8</v>
+      </c>
+      <c r="BE132">
+        <v>2.28</v>
+      </c>
+      <c r="BF132">
+        <v>0</v>
+      </c>
+      <c r="BG132">
+        <v>5</v>
+      </c>
+      <c r="BH132">
+        <v>5</v>
+      </c>
+      <c r="BI132">
+        <v>3</v>
+      </c>
+      <c r="BJ132">
+        <v>5</v>
+      </c>
+      <c r="BK132">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:63">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>4867486</v>
+      </c>
+      <c r="C133" t="s">
+        <v>63</v>
+      </c>
+      <c r="D133" t="s">
+        <v>64</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45143.41666666666</v>
+      </c>
+      <c r="F133">
+        <v>17</v>
+      </c>
+      <c r="G133" t="s">
+        <v>71</v>
+      </c>
+      <c r="H133" t="s">
+        <v>68</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>2</v>
+      </c>
+      <c r="N133">
+        <v>2</v>
+      </c>
+      <c r="O133" t="s">
+        <v>83</v>
+      </c>
+      <c r="P133" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q133">
+        <v>1</v>
+      </c>
+      <c r="R133">
+        <v>3</v>
+      </c>
+      <c r="S133">
+        <v>4</v>
+      </c>
+      <c r="T133">
+        <v>3.2</v>
+      </c>
+      <c r="U133">
+        <v>2.2</v>
+      </c>
+      <c r="V133">
+        <v>3.25</v>
+      </c>
+      <c r="W133">
+        <v>1.34</v>
+      </c>
+      <c r="X133">
+        <v>3</v>
+      </c>
+      <c r="Y133">
+        <v>2.6</v>
+      </c>
+      <c r="Z133">
+        <v>1.44</v>
+      </c>
+      <c r="AA133">
+        <v>6.45</v>
+      </c>
+      <c r="AB133">
+        <v>1.09</v>
+      </c>
+      <c r="AC133">
+        <v>2.55</v>
+      </c>
+      <c r="AD133">
+        <v>3.44</v>
+      </c>
+      <c r="AE133">
+        <v>2.57</v>
+      </c>
+      <c r="AF133">
+        <v>1.04</v>
+      </c>
+      <c r="AG133">
+        <v>12</v>
+      </c>
+      <c r="AH133">
+        <v>1.25</v>
+      </c>
+      <c r="AI133">
+        <v>3.75</v>
+      </c>
+      <c r="AJ133">
+        <v>1.67</v>
+      </c>
+      <c r="AK133">
+        <v>2</v>
+      </c>
+      <c r="AL133">
+        <v>1.65</v>
+      </c>
+      <c r="AM133">
+        <v>2.2</v>
+      </c>
+      <c r="AN133">
+        <v>1.5</v>
+      </c>
+      <c r="AO133">
+        <v>1.25</v>
+      </c>
+      <c r="AP133">
+        <v>1.52</v>
+      </c>
+      <c r="AQ133">
+        <v>2</v>
+      </c>
+      <c r="AR133">
+        <v>2.13</v>
+      </c>
+      <c r="AS133">
+        <v>1.78</v>
+      </c>
+      <c r="AT133">
+        <v>2.22</v>
+      </c>
+      <c r="AU133">
+        <v>1.46</v>
+      </c>
+      <c r="AV133">
+        <v>1.5</v>
+      </c>
+      <c r="AW133">
+        <v>2.96</v>
+      </c>
+      <c r="AX133">
+        <v>1.97</v>
+      </c>
+      <c r="AY133">
+        <v>8.5</v>
+      </c>
+      <c r="AZ133">
+        <v>2.08</v>
+      </c>
+      <c r="BA133">
+        <v>1.28</v>
+      </c>
+      <c r="BB133">
+        <v>1.52</v>
+      </c>
+      <c r="BC133">
+        <v>1.8</v>
+      </c>
+      <c r="BD133">
+        <v>2.48</v>
+      </c>
+      <c r="BE133">
+        <v>3.42</v>
+      </c>
+      <c r="BF133">
+        <v>3</v>
+      </c>
+      <c r="BG133">
+        <v>3</v>
+      </c>
+      <c r="BH133">
+        <v>2</v>
+      </c>
+      <c r="BI133">
+        <v>2</v>
+      </c>
+      <c r="BJ133">
+        <v>5</v>
+      </c>
+      <c r="BK133">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="242">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -544,6 +544,12 @@
     <t>['51', '77']</t>
   </si>
   <si>
+    <t>['30', '74', '90+2']</t>
+  </si>
+  <si>
+    <t>['19', '43']</t>
+  </si>
+  <si>
     <t>['50', '80']</t>
   </si>
   <si>
@@ -725,6 +731,15 @@
   </si>
   <si>
     <t>['68', '78']</t>
+  </si>
+  <si>
+    <t>['17', '64']</t>
+  </si>
+  <si>
+    <t>['54', '64', '77']</t>
+  </si>
+  <si>
+    <t>['59', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK133"/>
+  <dimension ref="A1:BK136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1330,7 +1345,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1420,7 +1435,7 @@
         <v>2</v>
       </c>
       <c r="AT2">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1712,7 +1727,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -1799,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT4">
         <v>0.63</v>
@@ -2094,7 +2109,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2285,7 +2300,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2566,7 +2581,7 @@
         <v>1.78</v>
       </c>
       <c r="AT8">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2945,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT10">
         <v>0.5600000000000001</v>
@@ -3049,7 +3064,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -3240,7 +3255,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3327,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT12">
         <v>1</v>
@@ -4004,7 +4019,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4285,7 +4300,7 @@
         <v>1.44</v>
       </c>
       <c r="AT17">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4386,7 +4401,7 @@
         <v>83</v>
       </c>
       <c r="P18" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -4476,7 +4491,7 @@
         <v>1</v>
       </c>
       <c r="AT18">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU18">
         <v>1.48</v>
@@ -4959,7 +4974,7 @@
         <v>83</v>
       </c>
       <c r="P21" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q21">
         <v>2</v>
@@ -5150,7 +5165,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -5341,7 +5356,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5619,7 +5634,7 @@
         <v>1</v>
       </c>
       <c r="AS24">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT24">
         <v>0.63</v>
@@ -5723,7 +5738,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -6192,7 +6207,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT27">
         <v>0.88</v>
@@ -6487,7 +6502,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -6678,7 +6693,7 @@
         <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -6869,7 +6884,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q31">
         <v>11</v>
@@ -7341,7 +7356,7 @@
         <v>2.25</v>
       </c>
       <c r="AT33">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU33">
         <v>1.76</v>
@@ -7442,7 +7457,7 @@
         <v>83</v>
       </c>
       <c r="P34" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q34">
         <v>11</v>
@@ -7914,7 +7929,7 @@
         <v>1.78</v>
       </c>
       <c r="AT36">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU36">
         <v>1.24</v>
@@ -8102,7 +8117,7 @@
         <v>1.5</v>
       </c>
       <c r="AS37">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT37">
         <v>0.5600000000000001</v>
@@ -8397,7 +8412,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q39">
         <v>7</v>
@@ -8484,10 +8499,10 @@
         <v>3</v>
       </c>
       <c r="AS39">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT39">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU39">
         <v>1.61</v>
@@ -8588,7 +8603,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -8779,7 +8794,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -9161,7 +9176,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9352,7 +9367,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9442,7 +9457,7 @@
         <v>1.89</v>
       </c>
       <c r="AT44">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU44">
         <v>1.11</v>
@@ -9543,7 +9558,7 @@
         <v>113</v>
       </c>
       <c r="P45" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9630,10 +9645,10 @@
         <v>0.5</v>
       </c>
       <c r="AS45">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT45">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU45">
         <v>1.56</v>
@@ -9734,7 +9749,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q46">
         <v>9</v>
@@ -9821,7 +9836,7 @@
         <v>0</v>
       </c>
       <c r="AS46">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT46">
         <v>1</v>
@@ -10015,7 +10030,7 @@
         <v>2</v>
       </c>
       <c r="AT47">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU47">
         <v>1.45</v>
@@ -10116,7 +10131,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10307,7 +10322,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10498,7 +10513,7 @@
         <v>118</v>
       </c>
       <c r="P50" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10689,7 +10704,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -11071,7 +11086,7 @@
         <v>120</v>
       </c>
       <c r="P53" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q53">
         <v>2</v>
@@ -11262,7 +11277,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11540,7 +11555,7 @@
         <v>2.33</v>
       </c>
       <c r="AS55">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT55">
         <v>1.33</v>
@@ -11644,7 +11659,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q56">
         <v>7</v>
@@ -12217,7 +12232,7 @@
         <v>124</v>
       </c>
       <c r="P59" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12307,7 +12322,7 @@
         <v>1.56</v>
       </c>
       <c r="AT59">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU59">
         <v>1.67</v>
@@ -12495,7 +12510,7 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT60">
         <v>1</v>
@@ -12599,7 +12614,7 @@
         <v>125</v>
       </c>
       <c r="P61" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -12686,7 +12701,7 @@
         <v>0</v>
       </c>
       <c r="AS61">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT61">
         <v>1</v>
@@ -12790,7 +12805,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13172,7 +13187,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13453,7 +13468,7 @@
         <v>1.25</v>
       </c>
       <c r="AT65">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU65">
         <v>1.96</v>
@@ -14318,7 +14333,7 @@
         <v>132</v>
       </c>
       <c r="P70" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -14405,10 +14420,10 @@
         <v>2.25</v>
       </c>
       <c r="AS70">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT70">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU70">
         <v>1.51</v>
@@ -14700,7 +14715,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q72">
         <v>9</v>
@@ -15172,7 +15187,7 @@
         <v>2.38</v>
       </c>
       <c r="AT74">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU74">
         <v>1.25</v>
@@ -15273,7 +15288,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15464,7 +15479,7 @@
         <v>138</v>
       </c>
       <c r="P76" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q76">
         <v>7</v>
@@ -15655,7 +15670,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q77">
         <v>9</v>
@@ -15745,7 +15760,7 @@
         <v>1.89</v>
       </c>
       <c r="AT77">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU77">
         <v>1.22</v>
@@ -16037,7 +16052,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16419,7 +16434,7 @@
         <v>83</v>
       </c>
       <c r="P81" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -16506,7 +16521,7 @@
         <v>0.5</v>
       </c>
       <c r="AS81">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT81">
         <v>0.63</v>
@@ -16610,7 +16625,7 @@
         <v>83</v>
       </c>
       <c r="P82" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -16992,7 +17007,7 @@
         <v>88</v>
       </c>
       <c r="P84" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q84">
         <v>1</v>
@@ -17082,7 +17097,7 @@
         <v>1.5</v>
       </c>
       <c r="AT84">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU84">
         <v>1.78</v>
@@ -17270,7 +17285,7 @@
         <v>1</v>
       </c>
       <c r="AS85">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT85">
         <v>1</v>
@@ -17461,7 +17476,7 @@
         <v>0.8</v>
       </c>
       <c r="AS86">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT86">
         <v>0.5600000000000001</v>
@@ -17565,7 +17580,7 @@
         <v>83</v>
       </c>
       <c r="P87" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -17756,7 +17771,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -17947,7 +17962,7 @@
         <v>83</v>
       </c>
       <c r="P89" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18138,7 +18153,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18801,7 +18816,7 @@
         <v>2.38</v>
       </c>
       <c r="AT93">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU93">
         <v>1.35</v>
@@ -19093,7 +19108,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q95">
         <v>1</v>
@@ -19371,10 +19386,10 @@
         <v>0.8</v>
       </c>
       <c r="AS96">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT96">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU96">
         <v>2.14</v>
@@ -19475,7 +19490,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -19666,7 +19681,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -19857,7 +19872,7 @@
         <v>152</v>
       </c>
       <c r="P99" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q99">
         <v>8</v>
@@ -20048,7 +20063,7 @@
         <v>153</v>
       </c>
       <c r="P100" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q100">
         <v>2</v>
@@ -20138,7 +20153,7 @@
         <v>1</v>
       </c>
       <c r="AT100">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU100">
         <v>1.48</v>
@@ -20708,7 +20723,7 @@
         <v>1.83</v>
       </c>
       <c r="AS103">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT103">
         <v>1.63</v>
@@ -20812,7 +20827,7 @@
         <v>83</v>
       </c>
       <c r="P104" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -20899,7 +20914,7 @@
         <v>2.33</v>
       </c>
       <c r="AS104">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT104">
         <v>2.22</v>
@@ -21194,7 +21209,7 @@
         <v>156</v>
       </c>
       <c r="P106" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -21475,7 +21490,7 @@
         <v>1.78</v>
       </c>
       <c r="AT107">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU107">
         <v>1.45</v>
@@ -21576,7 +21591,7 @@
         <v>123</v>
       </c>
       <c r="P108" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q108">
         <v>11</v>
@@ -21958,7 +21973,7 @@
         <v>159</v>
       </c>
       <c r="P110" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22236,7 +22251,7 @@
         <v>0.67</v>
       </c>
       <c r="AS111">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT111">
         <v>0.63</v>
@@ -22340,7 +22355,7 @@
         <v>161</v>
       </c>
       <c r="P112" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q112">
         <v>1</v>
@@ -22722,7 +22737,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -23000,7 +23015,7 @@
         <v>0.71</v>
       </c>
       <c r="AS115">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT115">
         <v>0.63</v>
@@ -23104,7 +23119,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23295,7 +23310,7 @@
         <v>165</v>
       </c>
       <c r="P117" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q117">
         <v>13</v>
@@ -23385,7 +23400,7 @@
         <v>1</v>
       </c>
       <c r="AT117">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU117">
         <v>1.42</v>
@@ -23486,7 +23501,7 @@
         <v>166</v>
       </c>
       <c r="P118" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -23868,7 +23883,7 @@
         <v>168</v>
       </c>
       <c r="P120" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q120">
         <v>7</v>
@@ -24059,7 +24074,7 @@
         <v>83</v>
       </c>
       <c r="P121" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q121">
         <v>8</v>
@@ -24146,10 +24161,10 @@
         <v>2.14</v>
       </c>
       <c r="AS121">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT121">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU121">
         <v>2.2</v>
@@ -24441,7 +24456,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24531,7 +24546,7 @@
         <v>1.5</v>
       </c>
       <c r="AT123">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU123">
         <v>1.68</v>
@@ -25014,7 +25029,7 @@
         <v>83</v>
       </c>
       <c r="P126" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -25101,7 +25116,7 @@
         <v>0.57</v>
       </c>
       <c r="AS126">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT126">
         <v>0.88</v>
@@ -25587,7 +25602,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -25778,7 +25793,7 @@
         <v>174</v>
       </c>
       <c r="P130" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -26351,7 +26366,7 @@
         <v>83</v>
       </c>
       <c r="P133" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q133">
         <v>1</v>
@@ -26493,6 +26508,579 @@
       </c>
       <c r="BK133">
         <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:63">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>4867490</v>
+      </c>
+      <c r="C134" t="s">
+        <v>63</v>
+      </c>
+      <c r="D134" t="s">
+        <v>64</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45144.41666666666</v>
+      </c>
+      <c r="F134">
+        <v>17</v>
+      </c>
+      <c r="G134" t="s">
+        <v>75</v>
+      </c>
+      <c r="H134" t="s">
+        <v>78</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>2</v>
+      </c>
+      <c r="N134">
+        <v>2</v>
+      </c>
+      <c r="O134" t="s">
+        <v>83</v>
+      </c>
+      <c r="P134" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q134">
+        <v>6</v>
+      </c>
+      <c r="R134">
+        <v>3</v>
+      </c>
+      <c r="S134">
+        <v>9</v>
+      </c>
+      <c r="T134">
+        <v>4.75</v>
+      </c>
+      <c r="U134">
+        <v>2.4</v>
+      </c>
+      <c r="V134">
+        <v>2.1</v>
+      </c>
+      <c r="W134">
+        <v>1.28</v>
+      </c>
+      <c r="X134">
+        <v>3.4</v>
+      </c>
+      <c r="Y134">
+        <v>2.39</v>
+      </c>
+      <c r="Z134">
+        <v>1.52</v>
+      </c>
+      <c r="AA134">
+        <v>5.45</v>
+      </c>
+      <c r="AB134">
+        <v>1.12</v>
+      </c>
+      <c r="AC134">
+        <v>4.33</v>
+      </c>
+      <c r="AD134">
+        <v>3.75</v>
+      </c>
+      <c r="AE134">
+        <v>1.65</v>
+      </c>
+      <c r="AF134">
+        <v>1.02</v>
+      </c>
+      <c r="AG134">
+        <v>17</v>
+      </c>
+      <c r="AH134">
+        <v>1.2</v>
+      </c>
+      <c r="AI134">
+        <v>4.5</v>
+      </c>
+      <c r="AJ134">
+        <v>1.67</v>
+      </c>
+      <c r="AK134">
+        <v>2.15</v>
+      </c>
+      <c r="AL134">
+        <v>1.68</v>
+      </c>
+      <c r="AM134">
+        <v>2.15</v>
+      </c>
+      <c r="AN134">
+        <v>2.3</v>
+      </c>
+      <c r="AO134">
+        <v>1.18</v>
+      </c>
+      <c r="AP134">
+        <v>1.17</v>
+      </c>
+      <c r="AQ134">
+        <v>1.29</v>
+      </c>
+      <c r="AR134">
+        <v>2.25</v>
+      </c>
+      <c r="AS134">
+        <v>1.13</v>
+      </c>
+      <c r="AT134">
+        <v>2.33</v>
+      </c>
+      <c r="AU134">
+        <v>1.44</v>
+      </c>
+      <c r="AV134">
+        <v>1.73</v>
+      </c>
+      <c r="AW134">
+        <v>3.17</v>
+      </c>
+      <c r="AX134">
+        <v>3.9</v>
+      </c>
+      <c r="AY134">
+        <v>9</v>
+      </c>
+      <c r="AZ134">
+        <v>1.36</v>
+      </c>
+      <c r="BA134">
+        <v>0</v>
+      </c>
+      <c r="BB134">
+        <v>1.19</v>
+      </c>
+      <c r="BC134">
+        <v>1.34</v>
+      </c>
+      <c r="BD134">
+        <v>1.58</v>
+      </c>
+      <c r="BE134">
+        <v>1.93</v>
+      </c>
+      <c r="BF134">
+        <v>5</v>
+      </c>
+      <c r="BG134">
+        <v>4</v>
+      </c>
+      <c r="BH134">
+        <v>3</v>
+      </c>
+      <c r="BI134">
+        <v>4</v>
+      </c>
+      <c r="BJ134">
+        <v>8</v>
+      </c>
+      <c r="BK134">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:63">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>4867484</v>
+      </c>
+      <c r="C135" t="s">
+        <v>63</v>
+      </c>
+      <c r="D135" t="s">
+        <v>64</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45144.5</v>
+      </c>
+      <c r="F135">
+        <v>17</v>
+      </c>
+      <c r="G135" t="s">
+        <v>73</v>
+      </c>
+      <c r="H135" t="s">
+        <v>66</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
+      <c r="L135">
+        <v>3</v>
+      </c>
+      <c r="M135">
+        <v>3</v>
+      </c>
+      <c r="N135">
+        <v>6</v>
+      </c>
+      <c r="O135" t="s">
+        <v>176</v>
+      </c>
+      <c r="P135" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q135">
+        <v>9</v>
+      </c>
+      <c r="R135">
+        <v>2</v>
+      </c>
+      <c r="S135">
+        <v>11</v>
+      </c>
+      <c r="T135">
+        <v>1.72</v>
+      </c>
+      <c r="U135">
+        <v>2.8</v>
+      </c>
+      <c r="V135">
+        <v>7</v>
+      </c>
+      <c r="W135">
+        <v>1.21</v>
+      </c>
+      <c r="X135">
+        <v>3.95</v>
+      </c>
+      <c r="Y135">
+        <v>2.12</v>
+      </c>
+      <c r="Z135">
+        <v>1.66</v>
+      </c>
+      <c r="AA135">
+        <v>4.45</v>
+      </c>
+      <c r="AB135">
+        <v>1.17</v>
+      </c>
+      <c r="AC135">
+        <v>1.45</v>
+      </c>
+      <c r="AD135">
+        <v>4.4</v>
+      </c>
+      <c r="AE135">
+        <v>6.1</v>
+      </c>
+      <c r="AF135">
+        <v>1.02</v>
+      </c>
+      <c r="AG135">
+        <v>17</v>
+      </c>
+      <c r="AH135">
+        <v>1.14</v>
+      </c>
+      <c r="AI135">
+        <v>5.5</v>
+      </c>
+      <c r="AJ135">
+        <v>1.61</v>
+      </c>
+      <c r="AK135">
+        <v>2.09</v>
+      </c>
+      <c r="AL135">
+        <v>1.75</v>
+      </c>
+      <c r="AM135">
+        <v>2</v>
+      </c>
+      <c r="AN135">
+        <v>1.04</v>
+      </c>
+      <c r="AO135">
+        <v>1.1</v>
+      </c>
+      <c r="AP135">
+        <v>3.5</v>
+      </c>
+      <c r="AQ135">
+        <v>1.63</v>
+      </c>
+      <c r="AR135">
+        <v>1.25</v>
+      </c>
+      <c r="AS135">
+        <v>1.56</v>
+      </c>
+      <c r="AT135">
+        <v>1.22</v>
+      </c>
+      <c r="AU135">
+        <v>2.08</v>
+      </c>
+      <c r="AV135">
+        <v>1.45</v>
+      </c>
+      <c r="AW135">
+        <v>3.53</v>
+      </c>
+      <c r="AX135">
+        <v>1.17</v>
+      </c>
+      <c r="AY135">
+        <v>13.25</v>
+      </c>
+      <c r="AZ135">
+        <v>5.8</v>
+      </c>
+      <c r="BA135">
+        <v>0</v>
+      </c>
+      <c r="BB135">
+        <v>1.22</v>
+      </c>
+      <c r="BC135">
+        <v>1.32</v>
+      </c>
+      <c r="BD135">
+        <v>1.55</v>
+      </c>
+      <c r="BE135">
+        <v>1.92</v>
+      </c>
+      <c r="BF135">
+        <v>6</v>
+      </c>
+      <c r="BG135">
+        <v>4</v>
+      </c>
+      <c r="BH135">
+        <v>8</v>
+      </c>
+      <c r="BI135">
+        <v>5</v>
+      </c>
+      <c r="BJ135">
+        <v>14</v>
+      </c>
+      <c r="BK135">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:63">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>4867491</v>
+      </c>
+      <c r="C136" t="s">
+        <v>63</v>
+      </c>
+      <c r="D136" t="s">
+        <v>64</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45145.58333333334</v>
+      </c>
+      <c r="F136">
+        <v>17</v>
+      </c>
+      <c r="G136" t="s">
+        <v>67</v>
+      </c>
+      <c r="H136" t="s">
+        <v>76</v>
+      </c>
+      <c r="I136">
+        <v>2</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>2</v>
+      </c>
+      <c r="L136">
+        <v>2</v>
+      </c>
+      <c r="M136">
+        <v>2</v>
+      </c>
+      <c r="N136">
+        <v>4</v>
+      </c>
+      <c r="O136" t="s">
+        <v>177</v>
+      </c>
+      <c r="P136" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q136">
+        <v>2</v>
+      </c>
+      <c r="R136">
+        <v>11</v>
+      </c>
+      <c r="S136">
+        <v>13</v>
+      </c>
+      <c r="T136">
+        <v>3</v>
+      </c>
+      <c r="U136">
+        <v>2.15</v>
+      </c>
+      <c r="V136">
+        <v>3.6</v>
+      </c>
+      <c r="W136">
+        <v>1.38</v>
+      </c>
+      <c r="X136">
+        <v>2.85</v>
+      </c>
+      <c r="Y136">
+        <v>2.8</v>
+      </c>
+      <c r="Z136">
+        <v>1.39</v>
+      </c>
+      <c r="AA136">
+        <v>6.95</v>
+      </c>
+      <c r="AB136">
+        <v>1.07</v>
+      </c>
+      <c r="AC136">
+        <v>2.32</v>
+      </c>
+      <c r="AD136">
+        <v>3.15</v>
+      </c>
+      <c r="AE136">
+        <v>2.97</v>
+      </c>
+      <c r="AF136">
+        <v>1.06</v>
+      </c>
+      <c r="AG136">
+        <v>7.2</v>
+      </c>
+      <c r="AH136">
+        <v>1.25</v>
+      </c>
+      <c r="AI136">
+        <v>3.5</v>
+      </c>
+      <c r="AJ136">
+        <v>1.87</v>
+      </c>
+      <c r="AK136">
+        <v>1.83</v>
+      </c>
+      <c r="AL136">
+        <v>1.72</v>
+      </c>
+      <c r="AM136">
+        <v>2.05</v>
+      </c>
+      <c r="AN136">
+        <v>1.4</v>
+      </c>
+      <c r="AO136">
+        <v>1.25</v>
+      </c>
+      <c r="AP136">
+        <v>1.6</v>
+      </c>
+      <c r="AQ136">
+        <v>1.5</v>
+      </c>
+      <c r="AR136">
+        <v>0.71</v>
+      </c>
+      <c r="AS136">
+        <v>1.44</v>
+      </c>
+      <c r="AT136">
+        <v>0.75</v>
+      </c>
+      <c r="AU136">
+        <v>1.37</v>
+      </c>
+      <c r="AV136">
+        <v>1.66</v>
+      </c>
+      <c r="AW136">
+        <v>3.03</v>
+      </c>
+      <c r="AX136">
+        <v>1.8</v>
+      </c>
+      <c r="AY136">
+        <v>7.2</v>
+      </c>
+      <c r="AZ136">
+        <v>2.4</v>
+      </c>
+      <c r="BA136">
+        <v>1.25</v>
+      </c>
+      <c r="BB136">
+        <v>1.44</v>
+      </c>
+      <c r="BC136">
+        <v>1.83</v>
+      </c>
+      <c r="BD136">
+        <v>2.3</v>
+      </c>
+      <c r="BE136">
+        <v>3.15</v>
+      </c>
+      <c r="BF136">
+        <v>4</v>
+      </c>
+      <c r="BG136">
+        <v>7</v>
+      </c>
+      <c r="BH136">
+        <v>1</v>
+      </c>
+      <c r="BI136">
+        <v>2</v>
+      </c>
+      <c r="BJ136">
+        <v>5</v>
+      </c>
+      <c r="BK136">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="244">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -550,6 +550,9 @@
     <t>['19', '43']</t>
   </si>
   <si>
+    <t>['13', '85']</t>
+  </si>
+  <si>
     <t>['50', '80']</t>
   </si>
   <si>
@@ -740,6 +743,9 @@
   </si>
   <si>
     <t>['59', '90+5']</t>
+  </si>
+  <si>
+    <t>['42', '60', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -1101,7 +1107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK136"/>
+  <dimension ref="A1:BK137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1345,7 +1351,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1727,7 +1733,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -2109,7 +2115,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2300,7 +2306,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2769,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT9">
         <v>1.67</v>
@@ -3064,7 +3070,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -3255,7 +3261,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3918,7 +3924,7 @@
         <v>2.25</v>
       </c>
       <c r="AT15">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4019,7 +4025,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4401,7 +4407,7 @@
         <v>83</v>
       </c>
       <c r="P18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -4488,7 +4494,7 @@
         <v>3</v>
       </c>
       <c r="AS18">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT18">
         <v>2.33</v>
@@ -4974,7 +4980,7 @@
         <v>83</v>
       </c>
       <c r="P21" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q21">
         <v>2</v>
@@ -5165,7 +5171,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -5356,7 +5362,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5637,7 +5643,7 @@
         <v>1.44</v>
       </c>
       <c r="AT24">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU24">
         <v>1.45</v>
@@ -5738,7 +5744,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -6502,7 +6508,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -6693,7 +6699,7 @@
         <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -6884,7 +6890,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q31">
         <v>11</v>
@@ -7457,7 +7463,7 @@
         <v>83</v>
       </c>
       <c r="P34" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q34">
         <v>11</v>
@@ -8412,7 +8418,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q39">
         <v>7</v>
@@ -8603,7 +8609,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -8693,7 +8699,7 @@
         <v>2.38</v>
       </c>
       <c r="AT40">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU40">
         <v>1.36</v>
@@ -8794,7 +8800,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -8881,7 +8887,7 @@
         <v>2</v>
       </c>
       <c r="AS41">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT41">
         <v>1.63</v>
@@ -9176,7 +9182,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9367,7 +9373,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9558,7 +9564,7 @@
         <v>113</v>
       </c>
       <c r="P45" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9749,7 +9755,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q46">
         <v>9</v>
@@ -10131,7 +10137,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10322,7 +10328,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10513,7 +10519,7 @@
         <v>118</v>
       </c>
       <c r="P50" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10704,7 +10710,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -11086,7 +11092,7 @@
         <v>120</v>
       </c>
       <c r="P53" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q53">
         <v>2</v>
@@ -11277,7 +11283,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11659,7 +11665,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q56">
         <v>7</v>
@@ -11940,7 +11946,7 @@
         <v>1.33</v>
       </c>
       <c r="AT57">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU57">
         <v>1.46</v>
@@ -12232,7 +12238,7 @@
         <v>124</v>
       </c>
       <c r="P59" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12614,7 +12620,7 @@
         <v>125</v>
       </c>
       <c r="P61" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -12805,7 +12811,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13083,7 +13089,7 @@
         <v>1.67</v>
       </c>
       <c r="AS63">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT63">
         <v>2.22</v>
@@ -13187,7 +13193,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14333,7 +14339,7 @@
         <v>132</v>
       </c>
       <c r="P70" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -14715,7 +14721,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q72">
         <v>9</v>
@@ -15288,7 +15294,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15479,7 +15485,7 @@
         <v>138</v>
       </c>
       <c r="P76" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q76">
         <v>7</v>
@@ -15670,7 +15676,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q77">
         <v>9</v>
@@ -15948,7 +15954,7 @@
         <v>0</v>
       </c>
       <c r="AS78">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT78">
         <v>0.11</v>
@@ -16052,7 +16058,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16434,7 +16440,7 @@
         <v>83</v>
       </c>
       <c r="P81" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -16524,7 +16530,7 @@
         <v>1.56</v>
       </c>
       <c r="AT81">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU81">
         <v>2.15</v>
@@ -16625,7 +16631,7 @@
         <v>83</v>
       </c>
       <c r="P82" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -17007,7 +17013,7 @@
         <v>88</v>
       </c>
       <c r="P84" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q84">
         <v>1</v>
@@ -17580,7 +17586,7 @@
         <v>83</v>
       </c>
       <c r="P87" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -17771,7 +17777,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -17858,7 +17864,7 @@
         <v>1.5</v>
       </c>
       <c r="AS88">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT88">
         <v>1</v>
@@ -17962,7 +17968,7 @@
         <v>83</v>
       </c>
       <c r="P89" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18153,7 +18159,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -19108,7 +19114,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q95">
         <v>1</v>
@@ -19490,7 +19496,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -19580,7 +19586,7 @@
         <v>1.5</v>
       </c>
       <c r="AT97">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU97">
         <v>1.66</v>
@@ -19681,7 +19687,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -19872,7 +19878,7 @@
         <v>152</v>
       </c>
       <c r="P99" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q99">
         <v>8</v>
@@ -20063,7 +20069,7 @@
         <v>153</v>
       </c>
       <c r="P100" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q100">
         <v>2</v>
@@ -20535,7 +20541,7 @@
         <v>2</v>
       </c>
       <c r="AT102">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU102">
         <v>1.65</v>
@@ -20827,7 +20833,7 @@
         <v>83</v>
       </c>
       <c r="P104" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21105,7 +21111,7 @@
         <v>1.33</v>
       </c>
       <c r="AS105">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT105">
         <v>1.33</v>
@@ -21209,7 +21215,7 @@
         <v>156</v>
       </c>
       <c r="P106" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -21591,7 +21597,7 @@
         <v>123</v>
       </c>
       <c r="P108" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q108">
         <v>11</v>
@@ -21973,7 +21979,7 @@
         <v>159</v>
       </c>
       <c r="P110" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22355,7 +22361,7 @@
         <v>161</v>
       </c>
       <c r="P112" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q112">
         <v>1</v>
@@ -22737,7 +22743,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -23018,7 +23024,7 @@
         <v>1.13</v>
       </c>
       <c r="AT115">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU115">
         <v>1.47</v>
@@ -23119,7 +23125,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23310,7 +23316,7 @@
         <v>165</v>
       </c>
       <c r="P117" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q117">
         <v>13</v>
@@ -23501,7 +23507,7 @@
         <v>166</v>
       </c>
       <c r="P118" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -23883,7 +23889,7 @@
         <v>168</v>
       </c>
       <c r="P120" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q120">
         <v>7</v>
@@ -23970,7 +23976,7 @@
         <v>0.71</v>
       </c>
       <c r="AS120">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT120">
         <v>1</v>
@@ -24074,7 +24080,7 @@
         <v>83</v>
       </c>
       <c r="P121" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q121">
         <v>8</v>
@@ -24456,7 +24462,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -25029,7 +25035,7 @@
         <v>83</v>
       </c>
       <c r="P126" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -25602,7 +25608,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -25793,7 +25799,7 @@
         <v>174</v>
       </c>
       <c r="P130" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -26366,7 +26372,7 @@
         <v>83</v>
       </c>
       <c r="P133" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q133">
         <v>1</v>
@@ -26557,7 +26563,7 @@
         <v>83</v>
       </c>
       <c r="P134" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -26748,7 +26754,7 @@
         <v>176</v>
       </c>
       <c r="P135" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q135">
         <v>9</v>
@@ -26939,7 +26945,7 @@
         <v>177</v>
       </c>
       <c r="P136" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q136">
         <v>2</v>
@@ -27081,6 +27087,197 @@
       </c>
       <c r="BK136">
         <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:63">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>4867487</v>
+      </c>
+      <c r="C137" t="s">
+        <v>63</v>
+      </c>
+      <c r="D137" t="s">
+        <v>64</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45146.58333333334</v>
+      </c>
+      <c r="F137">
+        <v>17</v>
+      </c>
+      <c r="G137" t="s">
+        <v>72</v>
+      </c>
+      <c r="H137" t="s">
+        <v>70</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137">
+        <v>2</v>
+      </c>
+      <c r="L137">
+        <v>2</v>
+      </c>
+      <c r="M137">
+        <v>3</v>
+      </c>
+      <c r="N137">
+        <v>5</v>
+      </c>
+      <c r="O137" t="s">
+        <v>178</v>
+      </c>
+      <c r="P137" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q137">
+        <v>4</v>
+      </c>
+      <c r="R137">
+        <v>9</v>
+      </c>
+      <c r="S137">
+        <v>13</v>
+      </c>
+      <c r="T137">
+        <v>2.75</v>
+      </c>
+      <c r="U137">
+        <v>2.2</v>
+      </c>
+      <c r="V137">
+        <v>3.75</v>
+      </c>
+      <c r="W137">
+        <v>1.36</v>
+      </c>
+      <c r="X137">
+        <v>3</v>
+      </c>
+      <c r="Y137">
+        <v>2.75</v>
+      </c>
+      <c r="Z137">
+        <v>1.4</v>
+      </c>
+      <c r="AA137">
+        <v>7</v>
+      </c>
+      <c r="AB137">
+        <v>1.1</v>
+      </c>
+      <c r="AC137">
+        <v>2.15</v>
+      </c>
+      <c r="AD137">
+        <v>3.5</v>
+      </c>
+      <c r="AE137">
+        <v>3.25</v>
+      </c>
+      <c r="AF137">
+        <v>1.05</v>
+      </c>
+      <c r="AG137">
+        <v>11.5</v>
+      </c>
+      <c r="AH137">
+        <v>1.3</v>
+      </c>
+      <c r="AI137">
+        <v>3.65</v>
+      </c>
+      <c r="AJ137">
+        <v>1.95</v>
+      </c>
+      <c r="AK137">
+        <v>1.85</v>
+      </c>
+      <c r="AL137">
+        <v>1.7</v>
+      </c>
+      <c r="AM137">
+        <v>2.05</v>
+      </c>
+      <c r="AN137">
+        <v>1.3</v>
+      </c>
+      <c r="AO137">
+        <v>1.3</v>
+      </c>
+      <c r="AP137">
+        <v>1.74</v>
+      </c>
+      <c r="AQ137">
+        <v>1</v>
+      </c>
+      <c r="AR137">
+        <v>0.63</v>
+      </c>
+      <c r="AS137">
+        <v>0.89</v>
+      </c>
+      <c r="AT137">
+        <v>0.89</v>
+      </c>
+      <c r="AU137">
+        <v>1.6</v>
+      </c>
+      <c r="AV137">
+        <v>1.63</v>
+      </c>
+      <c r="AW137">
+        <v>3.23</v>
+      </c>
+      <c r="AX137">
+        <v>1.65</v>
+      </c>
+      <c r="AY137">
+        <v>7.05</v>
+      </c>
+      <c r="AZ137">
+        <v>2.75</v>
+      </c>
+      <c r="BA137">
+        <v>1.14</v>
+      </c>
+      <c r="BB137">
+        <v>1.3</v>
+      </c>
+      <c r="BC137">
+        <v>1.55</v>
+      </c>
+      <c r="BD137">
+        <v>1.93</v>
+      </c>
+      <c r="BE137">
+        <v>2.5</v>
+      </c>
+      <c r="BF137">
+        <v>5</v>
+      </c>
+      <c r="BG137">
+        <v>8</v>
+      </c>
+      <c r="BH137">
+        <v>2</v>
+      </c>
+      <c r="BI137">
+        <v>8</v>
+      </c>
+      <c r="BJ137">
+        <v>7</v>
+      </c>
+      <c r="BK137">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="251">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -553,6 +553,15 @@
     <t>['13', '85']</t>
   </si>
   <si>
+    <t>['7', '32', '33', '58', '68']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['49', '54', '83']</t>
+  </si>
+  <si>
     <t>['50', '80']</t>
   </si>
   <si>
@@ -664,9 +673,6 @@
     <t>['80', '90+1']</t>
   </si>
   <si>
-    <t>['90+3']</t>
-  </si>
-  <si>
     <t>['7', '80']</t>
   </si>
   <si>
@@ -746,6 +752,21 @@
   </si>
   <si>
     <t>['42', '60', '90+3']</t>
+  </si>
+  <si>
+    <t>['9', '45', '64', '86']</t>
+  </si>
+  <si>
+    <t>['19']</t>
+  </si>
+  <si>
+    <t>['85', '90+5']</t>
+  </si>
+  <si>
+    <t>['40', '45+2']</t>
+  </si>
+  <si>
+    <t>['70']</t>
   </si>
 </sst>
 </file>
@@ -1107,7 +1128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK137"/>
+  <dimension ref="A1:BK143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1351,7 +1372,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1438,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT2">
         <v>2.33</v>
@@ -1632,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="AT3">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1733,7 +1754,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -1823,7 +1844,7 @@
         <v>1.44</v>
       </c>
       <c r="AT4">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2011,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT5">
         <v>0.11</v>
@@ -2115,7 +2136,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2202,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT6">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2306,7 +2327,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -3070,7 +3091,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -3261,7 +3282,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3733,7 +3754,7 @@
         <v>1.89</v>
       </c>
       <c r="AT14">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3921,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT15">
         <v>0.89</v>
@@ -4025,7 +4046,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4112,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT16">
         <v>1</v>
@@ -4407,7 +4428,7 @@
         <v>83</v>
       </c>
       <c r="P18" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -4685,7 +4706,7 @@
         <v>1</v>
       </c>
       <c r="AS19">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT19">
         <v>1</v>
@@ -4980,7 +5001,7 @@
         <v>83</v>
       </c>
       <c r="P21" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q21">
         <v>2</v>
@@ -5171,7 +5192,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -5258,10 +5279,10 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT22">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU22">
         <v>1.32</v>
@@ -5362,7 +5383,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5452,7 +5473,7 @@
         <v>1.78</v>
       </c>
       <c r="AT23">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU23">
         <v>1.04</v>
@@ -5744,7 +5765,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -6216,7 +6237,7 @@
         <v>1.56</v>
       </c>
       <c r="AT27">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU27">
         <v>2.43</v>
@@ -6404,10 +6425,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT28">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU28">
         <v>1.36</v>
@@ -6508,7 +6529,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -6699,7 +6720,7 @@
         <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -6890,7 +6911,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q31">
         <v>11</v>
@@ -7168,7 +7189,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT32">
         <v>0.11</v>
@@ -7359,7 +7380,7 @@
         <v>1</v>
       </c>
       <c r="AS33">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT33">
         <v>0.75</v>
@@ -7463,7 +7484,7 @@
         <v>83</v>
       </c>
       <c r="P34" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q34">
         <v>11</v>
@@ -7550,7 +7571,7 @@
         <v>2</v>
       </c>
       <c r="AS34">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT34">
         <v>1.33</v>
@@ -7744,7 +7765,7 @@
         <v>1.56</v>
       </c>
       <c r="AT35">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU35">
         <v>1.5</v>
@@ -8418,7 +8439,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q39">
         <v>7</v>
@@ -8609,7 +8630,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -8696,7 +8717,7 @@
         <v>0.5</v>
       </c>
       <c r="AS40">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT40">
         <v>0.89</v>
@@ -8800,7 +8821,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -8890,7 +8911,7 @@
         <v>0.89</v>
       </c>
       <c r="AT41">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU41">
         <v>1.28</v>
@@ -9182,7 +9203,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9269,7 +9290,7 @@
         <v>1</v>
       </c>
       <c r="AS43">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT43">
         <v>1</v>
@@ -9373,7 +9394,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9564,7 +9585,7 @@
         <v>113</v>
       </c>
       <c r="P45" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9755,7 +9776,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q46">
         <v>9</v>
@@ -10033,7 +10054,7 @@
         <v>3</v>
       </c>
       <c r="AS47">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT47">
         <v>1.22</v>
@@ -10137,7 +10158,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10328,7 +10349,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10418,7 +10439,7 @@
         <v>1.56</v>
       </c>
       <c r="AT49">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU49">
         <v>1.63</v>
@@ -10519,7 +10540,7 @@
         <v>118</v>
       </c>
       <c r="P50" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10710,7 +10731,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -10797,10 +10818,10 @@
         <v>1.33</v>
       </c>
       <c r="AS51">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT51">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU51">
         <v>1.37</v>
@@ -10988,10 +11009,10 @@
         <v>0</v>
       </c>
       <c r="AS52">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT52">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU52">
         <v>1.99</v>
@@ -11092,7 +11113,7 @@
         <v>120</v>
       </c>
       <c r="P53" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q53">
         <v>2</v>
@@ -11179,7 +11200,7 @@
         <v>1.33</v>
       </c>
       <c r="AS53">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT53">
         <v>0.5600000000000001</v>
@@ -11283,7 +11304,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11665,7 +11686,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q56">
         <v>7</v>
@@ -11755,7 +11776,7 @@
         <v>1</v>
       </c>
       <c r="AT56">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU56">
         <v>1.17</v>
@@ -12134,10 +12155,10 @@
         <v>1</v>
       </c>
       <c r="AS58">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT58">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU58">
         <v>1.6</v>
@@ -12238,7 +12259,7 @@
         <v>124</v>
       </c>
       <c r="P59" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12620,7 +12641,7 @@
         <v>125</v>
       </c>
       <c r="P61" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -12811,7 +12832,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13193,7 +13214,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13280,7 +13301,7 @@
         <v>2.33</v>
       </c>
       <c r="AS64">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT64">
         <v>1.67</v>
@@ -13665,7 +13686,7 @@
         <v>1.44</v>
       </c>
       <c r="AT66">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU66">
         <v>1.3</v>
@@ -13853,10 +13874,10 @@
         <v>0.33</v>
       </c>
       <c r="AS67">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT67">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU67">
         <v>1.36</v>
@@ -14238,7 +14259,7 @@
         <v>1.25</v>
       </c>
       <c r="AT69">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU69">
         <v>2.01</v>
@@ -14339,7 +14360,7 @@
         <v>132</v>
       </c>
       <c r="P70" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -14721,7 +14742,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q72">
         <v>9</v>
@@ -14808,7 +14829,7 @@
         <v>2</v>
       </c>
       <c r="AS72">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT72">
         <v>2.22</v>
@@ -15002,7 +15023,7 @@
         <v>1.33</v>
       </c>
       <c r="AT73">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU73">
         <v>1.48</v>
@@ -15190,7 +15211,7 @@
         <v>1</v>
       </c>
       <c r="AS74">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT74">
         <v>0.75</v>
@@ -15294,7 +15315,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15381,7 +15402,7 @@
         <v>1.6</v>
       </c>
       <c r="AS75">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT75">
         <v>1.33</v>
@@ -15485,7 +15506,7 @@
         <v>138</v>
       </c>
       <c r="P76" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q76">
         <v>7</v>
@@ -15676,7 +15697,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q77">
         <v>9</v>
@@ -16058,7 +16079,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16336,7 +16357,7 @@
         <v>1</v>
       </c>
       <c r="AS80">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT80">
         <v>1</v>
@@ -16440,7 +16461,7 @@
         <v>83</v>
       </c>
       <c r="P81" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -16631,7 +16652,7 @@
         <v>83</v>
       </c>
       <c r="P82" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -16718,7 +16739,7 @@
         <v>2.2</v>
       </c>
       <c r="AS82">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT82">
         <v>2.22</v>
@@ -16912,7 +16933,7 @@
         <v>1.33</v>
       </c>
       <c r="AT83">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU83">
         <v>1.49</v>
@@ -17013,7 +17034,7 @@
         <v>88</v>
       </c>
       <c r="P84" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q84">
         <v>1</v>
@@ -17100,7 +17121,7 @@
         <v>1.8</v>
       </c>
       <c r="AS84">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT84">
         <v>2.33</v>
@@ -17586,7 +17607,7 @@
         <v>83</v>
       </c>
       <c r="P87" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -17676,7 +17697,7 @@
         <v>1.25</v>
       </c>
       <c r="AT87">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU87">
         <v>2.14</v>
@@ -17777,7 +17798,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -17968,7 +17989,7 @@
         <v>83</v>
       </c>
       <c r="P89" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18058,7 +18079,7 @@
         <v>1</v>
       </c>
       <c r="AT89">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU89">
         <v>1.46</v>
@@ -18159,7 +18180,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18437,7 +18458,7 @@
         <v>0.17</v>
       </c>
       <c r="AS91">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT91">
         <v>0.11</v>
@@ -18819,7 +18840,7 @@
         <v>1.8</v>
       </c>
       <c r="AS93">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT93">
         <v>1.22</v>
@@ -19013,7 +19034,7 @@
         <v>1.44</v>
       </c>
       <c r="AT94">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU94">
         <v>1.3</v>
@@ -19114,7 +19135,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q95">
         <v>1</v>
@@ -19201,10 +19222,10 @@
         <v>0.8</v>
       </c>
       <c r="AS95">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT95">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU95">
         <v>1.6</v>
@@ -19496,7 +19517,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -19583,7 +19604,7 @@
         <v>1</v>
       </c>
       <c r="AS97">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT97">
         <v>0.89</v>
@@ -19687,7 +19708,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -19878,7 +19899,7 @@
         <v>152</v>
       </c>
       <c r="P99" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q99">
         <v>8</v>
@@ -20069,7 +20090,7 @@
         <v>153</v>
       </c>
       <c r="P100" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q100">
         <v>2</v>
@@ -20538,7 +20559,7 @@
         <v>0.83</v>
       </c>
       <c r="AS102">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT102">
         <v>0.89</v>
@@ -20732,7 +20753,7 @@
         <v>1.13</v>
       </c>
       <c r="AT103">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU103">
         <v>1.55</v>
@@ -20833,7 +20854,7 @@
         <v>83</v>
       </c>
       <c r="P104" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21215,7 +21236,7 @@
         <v>156</v>
       </c>
       <c r="P106" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -21302,7 +21323,7 @@
         <v>0.14</v>
       </c>
       <c r="AS106">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT106">
         <v>0.11</v>
@@ -21597,7 +21618,7 @@
         <v>123</v>
       </c>
       <c r="P108" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q108">
         <v>11</v>
@@ -21687,7 +21708,7 @@
         <v>1.25</v>
       </c>
       <c r="AT108">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU108">
         <v>2.13</v>
@@ -21875,7 +21896,7 @@
         <v>2.43</v>
       </c>
       <c r="AS109">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT109">
         <v>2.22</v>
@@ -21979,7 +22000,7 @@
         <v>159</v>
       </c>
       <c r="P110" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22066,10 +22087,10 @@
         <v>0.67</v>
       </c>
       <c r="AS110">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT110">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU110">
         <v>1.6</v>
@@ -22260,7 +22281,7 @@
         <v>1.56</v>
       </c>
       <c r="AT111">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU111">
         <v>2.14</v>
@@ -22361,7 +22382,7 @@
         <v>161</v>
       </c>
       <c r="P112" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q112">
         <v>1</v>
@@ -22743,7 +22764,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -23125,7 +23146,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23316,7 +23337,7 @@
         <v>165</v>
       </c>
       <c r="P117" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q117">
         <v>13</v>
@@ -23507,7 +23528,7 @@
         <v>166</v>
       </c>
       <c r="P118" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -23594,7 +23615,7 @@
         <v>1.33</v>
       </c>
       <c r="AS118">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT118">
         <v>1</v>
@@ -23785,7 +23806,7 @@
         <v>1.57</v>
       </c>
       <c r="AS119">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT119">
         <v>1.67</v>
@@ -23889,7 +23910,7 @@
         <v>168</v>
       </c>
       <c r="P120" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q120">
         <v>7</v>
@@ -24080,7 +24101,7 @@
         <v>83</v>
       </c>
       <c r="P121" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q121">
         <v>8</v>
@@ -24462,7 +24483,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24549,7 +24570,7 @@
         <v>1.29</v>
       </c>
       <c r="AS123">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT123">
         <v>1.22</v>
@@ -24931,7 +24952,7 @@
         <v>1.14</v>
       </c>
       <c r="AS125">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT125">
         <v>1</v>
@@ -25035,7 +25056,7 @@
         <v>83</v>
       </c>
       <c r="P126" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -25125,7 +25146,7 @@
         <v>1.44</v>
       </c>
       <c r="AT126">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU126">
         <v>1.39</v>
@@ -25313,10 +25334,10 @@
         <v>0.71</v>
       </c>
       <c r="AS127">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT127">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU127">
         <v>1.88</v>
@@ -25507,7 +25528,7 @@
         <v>1.33</v>
       </c>
       <c r="AT128">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU128">
         <v>1.65</v>
@@ -25608,7 +25629,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -25695,10 +25716,10 @@
         <v>1.14</v>
       </c>
       <c r="AS129">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT129">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU129">
         <v>1.58</v>
@@ -25799,7 +25820,7 @@
         <v>174</v>
       </c>
       <c r="P130" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -26372,7 +26393,7 @@
         <v>83</v>
       </c>
       <c r="P133" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q133">
         <v>1</v>
@@ -26563,7 +26584,7 @@
         <v>83</v>
       </c>
       <c r="P134" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -26754,7 +26775,7 @@
         <v>176</v>
       </c>
       <c r="P135" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q135">
         <v>9</v>
@@ -26945,7 +26966,7 @@
         <v>177</v>
       </c>
       <c r="P136" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q136">
         <v>2</v>
@@ -27136,7 +27157,7 @@
         <v>178</v>
       </c>
       <c r="P137" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q137">
         <v>4</v>
@@ -27278,6 +27299,1152 @@
       </c>
       <c r="BK137">
         <v>16</v>
+      </c>
+    </row>
+    <row r="138" spans="1:63">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>4867495</v>
+      </c>
+      <c r="C138" t="s">
+        <v>63</v>
+      </c>
+      <c r="D138" t="s">
+        <v>64</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45150.33333333334</v>
+      </c>
+      <c r="F138">
+        <v>18</v>
+      </c>
+      <c r="G138" t="s">
+        <v>65</v>
+      </c>
+      <c r="H138" t="s">
+        <v>73</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>2</v>
+      </c>
+      <c r="K138">
+        <v>2</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>4</v>
+      </c>
+      <c r="N138">
+        <v>4</v>
+      </c>
+      <c r="O138" t="s">
+        <v>83</v>
+      </c>
+      <c r="P138" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q138">
+        <v>2</v>
+      </c>
+      <c r="R138">
+        <v>5</v>
+      </c>
+      <c r="S138">
+        <v>7</v>
+      </c>
+      <c r="T138">
+        <v>3.9</v>
+      </c>
+      <c r="U138">
+        <v>2.2</v>
+      </c>
+      <c r="V138">
+        <v>2.5</v>
+      </c>
+      <c r="W138">
+        <v>1.36</v>
+      </c>
+      <c r="X138">
+        <v>2.98</v>
+      </c>
+      <c r="Y138">
+        <v>2.71</v>
+      </c>
+      <c r="Z138">
+        <v>1.43</v>
+      </c>
+      <c r="AA138">
+        <v>6.65</v>
+      </c>
+      <c r="AB138">
+        <v>1.09</v>
+      </c>
+      <c r="AC138">
+        <v>3.5</v>
+      </c>
+      <c r="AD138">
+        <v>3.45</v>
+      </c>
+      <c r="AE138">
+        <v>1.83</v>
+      </c>
+      <c r="AF138">
+        <v>1.04</v>
+      </c>
+      <c r="AG138">
+        <v>13.5</v>
+      </c>
+      <c r="AH138">
+        <v>1.26</v>
+      </c>
+      <c r="AI138">
+        <v>3.93</v>
+      </c>
+      <c r="AJ138">
+        <v>1.8</v>
+      </c>
+      <c r="AK138">
+        <v>1.9</v>
+      </c>
+      <c r="AL138">
+        <v>1.7</v>
+      </c>
+      <c r="AM138">
+        <v>2.1</v>
+      </c>
+      <c r="AN138">
+        <v>1.78</v>
+      </c>
+      <c r="AO138">
+        <v>1.3</v>
+      </c>
+      <c r="AP138">
+        <v>1.3</v>
+      </c>
+      <c r="AQ138">
+        <v>2</v>
+      </c>
+      <c r="AR138">
+        <v>1.63</v>
+      </c>
+      <c r="AS138">
+        <v>1.78</v>
+      </c>
+      <c r="AT138">
+        <v>1.78</v>
+      </c>
+      <c r="AU138">
+        <v>1.53</v>
+      </c>
+      <c r="AV138">
+        <v>1.81</v>
+      </c>
+      <c r="AW138">
+        <v>3.34</v>
+      </c>
+      <c r="AX138">
+        <v>2.75</v>
+      </c>
+      <c r="AY138">
+        <v>7.5</v>
+      </c>
+      <c r="AZ138">
+        <v>1.66</v>
+      </c>
+      <c r="BA138">
+        <v>1.22</v>
+      </c>
+      <c r="BB138">
+        <v>1.42</v>
+      </c>
+      <c r="BC138">
+        <v>1.74</v>
+      </c>
+      <c r="BD138">
+        <v>2.23</v>
+      </c>
+      <c r="BE138">
+        <v>3</v>
+      </c>
+      <c r="BF138">
+        <v>7</v>
+      </c>
+      <c r="BG138">
+        <v>10</v>
+      </c>
+      <c r="BH138">
+        <v>2</v>
+      </c>
+      <c r="BI138">
+        <v>1</v>
+      </c>
+      <c r="BJ138">
+        <v>9</v>
+      </c>
+      <c r="BK138">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:63">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>4867496</v>
+      </c>
+      <c r="C139" t="s">
+        <v>63</v>
+      </c>
+      <c r="D139" t="s">
+        <v>64</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45150.41666666666</v>
+      </c>
+      <c r="F139">
+        <v>18</v>
+      </c>
+      <c r="G139" t="s">
+        <v>68</v>
+      </c>
+      <c r="H139" t="s">
+        <v>74</v>
+      </c>
+      <c r="I139">
+        <v>3</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
+      </c>
+      <c r="K139">
+        <v>4</v>
+      </c>
+      <c r="L139">
+        <v>5</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+      <c r="N139">
+        <v>6</v>
+      </c>
+      <c r="O139" t="s">
+        <v>179</v>
+      </c>
+      <c r="P139" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q139">
+        <v>3</v>
+      </c>
+      <c r="R139">
+        <v>3</v>
+      </c>
+      <c r="S139">
+        <v>6</v>
+      </c>
+      <c r="T139">
+        <v>2.38</v>
+      </c>
+      <c r="U139">
+        <v>2.25</v>
+      </c>
+      <c r="V139">
+        <v>4.75</v>
+      </c>
+      <c r="W139">
+        <v>1.36</v>
+      </c>
+      <c r="X139">
+        <v>3</v>
+      </c>
+      <c r="Y139">
+        <v>2.75</v>
+      </c>
+      <c r="Z139">
+        <v>1.4</v>
+      </c>
+      <c r="AA139">
+        <v>8</v>
+      </c>
+      <c r="AB139">
+        <v>1.08</v>
+      </c>
+      <c r="AC139">
+        <v>1.8</v>
+      </c>
+      <c r="AD139">
+        <v>3.5</v>
+      </c>
+      <c r="AE139">
+        <v>3.6</v>
+      </c>
+      <c r="AF139">
+        <v>1.03</v>
+      </c>
+      <c r="AG139">
+        <v>13</v>
+      </c>
+      <c r="AH139">
+        <v>1.25</v>
+      </c>
+      <c r="AI139">
+        <v>3.65</v>
+      </c>
+      <c r="AJ139">
+        <v>1.75</v>
+      </c>
+      <c r="AK139">
+        <v>1.95</v>
+      </c>
+      <c r="AL139">
+        <v>1.8</v>
+      </c>
+      <c r="AM139">
+        <v>1.95</v>
+      </c>
+      <c r="AN139">
+        <v>1.25</v>
+      </c>
+      <c r="AO139">
+        <v>1.25</v>
+      </c>
+      <c r="AP139">
+        <v>1.9</v>
+      </c>
+      <c r="AQ139">
+        <v>2.38</v>
+      </c>
+      <c r="AR139">
+        <v>0.88</v>
+      </c>
+      <c r="AS139">
+        <v>2.44</v>
+      </c>
+      <c r="AT139">
+        <v>0.78</v>
+      </c>
+      <c r="AU139">
+        <v>1.61</v>
+      </c>
+      <c r="AV139">
+        <v>1.46</v>
+      </c>
+      <c r="AW139">
+        <v>3.07</v>
+      </c>
+      <c r="AX139">
+        <v>1.64</v>
+      </c>
+      <c r="AY139">
+        <v>7.5</v>
+      </c>
+      <c r="AZ139">
+        <v>2.75</v>
+      </c>
+      <c r="BA139">
+        <v>1.15</v>
+      </c>
+      <c r="BB139">
+        <v>1.27</v>
+      </c>
+      <c r="BC139">
+        <v>1.48</v>
+      </c>
+      <c r="BD139">
+        <v>1.88</v>
+      </c>
+      <c r="BE139">
+        <v>2.35</v>
+      </c>
+      <c r="BF139">
+        <v>16</v>
+      </c>
+      <c r="BG139">
+        <v>4</v>
+      </c>
+      <c r="BH139">
+        <v>4</v>
+      </c>
+      <c r="BI139">
+        <v>2</v>
+      </c>
+      <c r="BJ139">
+        <v>20</v>
+      </c>
+      <c r="BK139">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:63">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>4867497</v>
+      </c>
+      <c r="C140" t="s">
+        <v>63</v>
+      </c>
+      <c r="D140" t="s">
+        <v>64</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45150.41666666666</v>
+      </c>
+      <c r="F140">
+        <v>18</v>
+      </c>
+      <c r="G140" t="s">
+        <v>79</v>
+      </c>
+      <c r="H140" t="s">
+        <v>77</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+      <c r="M140">
+        <v>2</v>
+      </c>
+      <c r="N140">
+        <v>3</v>
+      </c>
+      <c r="O140" t="s">
+        <v>180</v>
+      </c>
+      <c r="P140" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q140">
+        <v>5</v>
+      </c>
+      <c r="R140">
+        <v>5</v>
+      </c>
+      <c r="S140">
+        <v>10</v>
+      </c>
+      <c r="T140">
+        <v>1.69</v>
+      </c>
+      <c r="U140">
+        <v>2.79</v>
+      </c>
+      <c r="V140">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="W140">
+        <v>1.25</v>
+      </c>
+      <c r="X140">
+        <v>3.6</v>
+      </c>
+      <c r="Y140">
+        <v>2.32</v>
+      </c>
+      <c r="Z140">
+        <v>1.58</v>
+      </c>
+      <c r="AA140">
+        <v>4.75</v>
+      </c>
+      <c r="AB140">
+        <v>1.15</v>
+      </c>
+      <c r="AC140">
+        <v>1.22</v>
+      </c>
+      <c r="AD140">
+        <v>5.25</v>
+      </c>
+      <c r="AE140">
+        <v>8.5</v>
+      </c>
+      <c r="AF140">
+        <v>1.02</v>
+      </c>
+      <c r="AG140">
+        <v>13</v>
+      </c>
+      <c r="AH140">
+        <v>1.15</v>
+      </c>
+      <c r="AI140">
+        <v>4.75</v>
+      </c>
+      <c r="AJ140">
+        <v>1.53</v>
+      </c>
+      <c r="AK140">
+        <v>2.35</v>
+      </c>
+      <c r="AL140">
+        <v>1.95</v>
+      </c>
+      <c r="AM140">
+        <v>1.75</v>
+      </c>
+      <c r="AN140">
+        <v>1.05</v>
+      </c>
+      <c r="AO140">
+        <v>1.13</v>
+      </c>
+      <c r="AP140">
+        <v>3.75</v>
+      </c>
+      <c r="AQ140">
+        <v>1.88</v>
+      </c>
+      <c r="AR140">
+        <v>0.63</v>
+      </c>
+      <c r="AS140">
+        <v>1.67</v>
+      </c>
+      <c r="AT140">
+        <v>0.89</v>
+      </c>
+      <c r="AU140">
+        <v>1.52</v>
+      </c>
+      <c r="AV140">
+        <v>0.78</v>
+      </c>
+      <c r="AW140">
+        <v>2.3</v>
+      </c>
+      <c r="AX140">
+        <v>1.13</v>
+      </c>
+      <c r="AY140">
+        <v>11.5</v>
+      </c>
+      <c r="AZ140">
+        <v>8</v>
+      </c>
+      <c r="BA140">
+        <v>1.32</v>
+      </c>
+      <c r="BB140">
+        <v>1.58</v>
+      </c>
+      <c r="BC140">
+        <v>2.02</v>
+      </c>
+      <c r="BD140">
+        <v>2.7</v>
+      </c>
+      <c r="BE140">
+        <v>3.8</v>
+      </c>
+      <c r="BF140">
+        <v>5</v>
+      </c>
+      <c r="BG140">
+        <v>5</v>
+      </c>
+      <c r="BH140">
+        <v>19</v>
+      </c>
+      <c r="BI140">
+        <v>1</v>
+      </c>
+      <c r="BJ140">
+        <v>24</v>
+      </c>
+      <c r="BK140">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:63">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>4867498</v>
+      </c>
+      <c r="C141" t="s">
+        <v>63</v>
+      </c>
+      <c r="D141" t="s">
+        <v>64</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45150.41666666666</v>
+      </c>
+      <c r="F141">
+        <v>18</v>
+      </c>
+      <c r="G141" t="s">
+        <v>69</v>
+      </c>
+      <c r="H141" t="s">
+        <v>80</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="M141">
+        <v>1</v>
+      </c>
+      <c r="N141">
+        <v>2</v>
+      </c>
+      <c r="O141" t="s">
+        <v>167</v>
+      </c>
+      <c r="P141" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q141">
+        <v>6</v>
+      </c>
+      <c r="R141">
+        <v>4</v>
+      </c>
+      <c r="S141">
+        <v>10</v>
+      </c>
+      <c r="T141">
+        <v>2.38</v>
+      </c>
+      <c r="U141">
+        <v>2.2</v>
+      </c>
+      <c r="V141">
+        <v>4</v>
+      </c>
+      <c r="W141">
+        <v>1.36</v>
+      </c>
+      <c r="X141">
+        <v>3</v>
+      </c>
+      <c r="Y141">
+        <v>2.5</v>
+      </c>
+      <c r="Z141">
+        <v>1.5</v>
+      </c>
+      <c r="AA141">
+        <v>6</v>
+      </c>
+      <c r="AB141">
+        <v>1.11</v>
+      </c>
+      <c r="AC141">
+        <v>1.8</v>
+      </c>
+      <c r="AD141">
+        <v>3.35</v>
+      </c>
+      <c r="AE141">
+        <v>3.75</v>
+      </c>
+      <c r="AF141">
+        <v>1.05</v>
+      </c>
+      <c r="AG141">
+        <v>9</v>
+      </c>
+      <c r="AH141">
+        <v>1.29</v>
+      </c>
+      <c r="AI141">
+        <v>3.5</v>
+      </c>
+      <c r="AJ141">
+        <v>1.85</v>
+      </c>
+      <c r="AK141">
+        <v>1.85</v>
+      </c>
+      <c r="AL141">
+        <v>1.73</v>
+      </c>
+      <c r="AM141">
+        <v>2</v>
+      </c>
+      <c r="AN141">
+        <v>1.22</v>
+      </c>
+      <c r="AO141">
+        <v>1.29</v>
+      </c>
+      <c r="AP141">
+        <v>1.91</v>
+      </c>
+      <c r="AQ141">
+        <v>1.5</v>
+      </c>
+      <c r="AR141">
+        <v>1</v>
+      </c>
+      <c r="AS141">
+        <v>1.44</v>
+      </c>
+      <c r="AT141">
+        <v>1</v>
+      </c>
+      <c r="AU141">
+        <v>1.6</v>
+      </c>
+      <c r="AV141">
+        <v>1.46</v>
+      </c>
+      <c r="AW141">
+        <v>3.06</v>
+      </c>
+      <c r="AX141">
+        <v>1.65</v>
+      </c>
+      <c r="AY141">
+        <v>7.5</v>
+      </c>
+      <c r="AZ141">
+        <v>2.75</v>
+      </c>
+      <c r="BA141">
+        <v>1.22</v>
+      </c>
+      <c r="BB141">
+        <v>1.3</v>
+      </c>
+      <c r="BC141">
+        <v>1.55</v>
+      </c>
+      <c r="BD141">
+        <v>2</v>
+      </c>
+      <c r="BE141">
+        <v>2.5</v>
+      </c>
+      <c r="BF141">
+        <v>7</v>
+      </c>
+      <c r="BG141">
+        <v>5</v>
+      </c>
+      <c r="BH141">
+        <v>12</v>
+      </c>
+      <c r="BI141">
+        <v>4</v>
+      </c>
+      <c r="BJ141">
+        <v>19</v>
+      </c>
+      <c r="BK141">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:63">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>4867493</v>
+      </c>
+      <c r="C142" t="s">
+        <v>63</v>
+      </c>
+      <c r="D142" t="s">
+        <v>64</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45151.41666666666</v>
+      </c>
+      <c r="F142">
+        <v>18</v>
+      </c>
+      <c r="G142" t="s">
+        <v>78</v>
+      </c>
+      <c r="H142" t="s">
+        <v>72</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>2</v>
+      </c>
+      <c r="K142">
+        <v>2</v>
+      </c>
+      <c r="L142">
+        <v>3</v>
+      </c>
+      <c r="M142">
+        <v>2</v>
+      </c>
+      <c r="N142">
+        <v>5</v>
+      </c>
+      <c r="O142" t="s">
+        <v>181</v>
+      </c>
+      <c r="P142" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q142">
+        <v>10</v>
+      </c>
+      <c r="R142">
+        <v>1</v>
+      </c>
+      <c r="S142">
+        <v>11</v>
+      </c>
+      <c r="T142">
+        <v>2.21</v>
+      </c>
+      <c r="U142">
+        <v>2.25</v>
+      </c>
+      <c r="V142">
+        <v>4.8</v>
+      </c>
+      <c r="W142">
+        <v>1.36</v>
+      </c>
+      <c r="X142">
+        <v>3</v>
+      </c>
+      <c r="Y142">
+        <v>2.62</v>
+      </c>
+      <c r="Z142">
+        <v>1.44</v>
+      </c>
+      <c r="AA142">
+        <v>6.5</v>
+      </c>
+      <c r="AB142">
+        <v>1.1</v>
+      </c>
+      <c r="AC142">
+        <v>1.6</v>
+      </c>
+      <c r="AD142">
+        <v>3.9</v>
+      </c>
+      <c r="AE142">
+        <v>4.5</v>
+      </c>
+      <c r="AF142">
+        <v>1.04</v>
+      </c>
+      <c r="AG142">
+        <v>8.5</v>
+      </c>
+      <c r="AH142">
+        <v>1.18</v>
+      </c>
+      <c r="AI142">
+        <v>4.2</v>
+      </c>
+      <c r="AJ142">
+        <v>1.83</v>
+      </c>
+      <c r="AK142">
+        <v>2.05</v>
+      </c>
+      <c r="AL142">
+        <v>1.74</v>
+      </c>
+      <c r="AM142">
+        <v>1.98</v>
+      </c>
+      <c r="AN142">
+        <v>1.09</v>
+      </c>
+      <c r="AO142">
+        <v>1.22</v>
+      </c>
+      <c r="AP142">
+        <v>2.35</v>
+      </c>
+      <c r="AQ142">
+        <v>2.25</v>
+      </c>
+      <c r="AR142">
+        <v>1.13</v>
+      </c>
+      <c r="AS142">
+        <v>2.33</v>
+      </c>
+      <c r="AT142">
+        <v>1</v>
+      </c>
+      <c r="AU142">
+        <v>1.83</v>
+      </c>
+      <c r="AV142">
+        <v>1.37</v>
+      </c>
+      <c r="AW142">
+        <v>3.2</v>
+      </c>
+      <c r="AX142">
+        <v>1.37</v>
+      </c>
+      <c r="AY142">
+        <v>8.5</v>
+      </c>
+      <c r="AZ142">
+        <v>3.85</v>
+      </c>
+      <c r="BA142">
+        <v>0</v>
+      </c>
+      <c r="BB142">
+        <v>1.29</v>
+      </c>
+      <c r="BC142">
+        <v>1.5</v>
+      </c>
+      <c r="BD142">
+        <v>1.9</v>
+      </c>
+      <c r="BE142">
+        <v>2.43</v>
+      </c>
+      <c r="BF142">
+        <v>8</v>
+      </c>
+      <c r="BG142">
+        <v>5</v>
+      </c>
+      <c r="BH142">
+        <v>8</v>
+      </c>
+      <c r="BI142">
+        <v>3</v>
+      </c>
+      <c r="BJ142">
+        <v>16</v>
+      </c>
+      <c r="BK142">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:63">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>4867499</v>
+      </c>
+      <c r="C143" t="s">
+        <v>63</v>
+      </c>
+      <c r="D143" t="s">
+        <v>64</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45151.41666666666</v>
+      </c>
+      <c r="F143">
+        <v>18</v>
+      </c>
+      <c r="G143" t="s">
+        <v>66</v>
+      </c>
+      <c r="H143" t="s">
+        <v>67</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+      <c r="N143">
+        <v>2</v>
+      </c>
+      <c r="O143" t="s">
+        <v>139</v>
+      </c>
+      <c r="P143" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q143">
+        <v>3</v>
+      </c>
+      <c r="R143">
+        <v>6</v>
+      </c>
+      <c r="S143">
+        <v>9</v>
+      </c>
+      <c r="T143">
+        <v>3</v>
+      </c>
+      <c r="U143">
+        <v>2.25</v>
+      </c>
+      <c r="V143">
+        <v>3.1</v>
+      </c>
+      <c r="W143">
+        <v>1.33</v>
+      </c>
+      <c r="X143">
+        <v>3</v>
+      </c>
+      <c r="Y143">
+        <v>2.4</v>
+      </c>
+      <c r="Z143">
+        <v>1.5</v>
+      </c>
+      <c r="AA143">
+        <v>5.5</v>
+      </c>
+      <c r="AB143">
+        <v>1.11</v>
+      </c>
+      <c r="AC143">
+        <v>2.48</v>
+      </c>
+      <c r="AD143">
+        <v>3.4</v>
+      </c>
+      <c r="AE143">
+        <v>2.48</v>
+      </c>
+      <c r="AF143">
+        <v>1.04</v>
+      </c>
+      <c r="AG143">
+        <v>8.5</v>
+      </c>
+      <c r="AH143">
+        <v>1.18</v>
+      </c>
+      <c r="AI143">
+        <v>4.2</v>
+      </c>
+      <c r="AJ143">
+        <v>1.68</v>
+      </c>
+      <c r="AK143">
+        <v>1.99</v>
+      </c>
+      <c r="AL143">
+        <v>1.57</v>
+      </c>
+      <c r="AM143">
+        <v>2.25</v>
+      </c>
+      <c r="AN143">
+        <v>1.4</v>
+      </c>
+      <c r="AO143">
+        <v>1.3</v>
+      </c>
+      <c r="AP143">
+        <v>1.47</v>
+      </c>
+      <c r="AQ143">
+        <v>1</v>
+      </c>
+      <c r="AR143">
+        <v>1</v>
+      </c>
+      <c r="AS143">
+        <v>1</v>
+      </c>
+      <c r="AT143">
+        <v>1</v>
+      </c>
+      <c r="AU143">
+        <v>1.53</v>
+      </c>
+      <c r="AV143">
+        <v>1.22</v>
+      </c>
+      <c r="AW143">
+        <v>2.75</v>
+      </c>
+      <c r="AX143">
+        <v>2.07</v>
+      </c>
+      <c r="AY143">
+        <v>7.5</v>
+      </c>
+      <c r="AZ143">
+        <v>2.07</v>
+      </c>
+      <c r="BA143">
+        <v>1.18</v>
+      </c>
+      <c r="BB143">
+        <v>1.34</v>
+      </c>
+      <c r="BC143">
+        <v>1.61</v>
+      </c>
+      <c r="BD143">
+        <v>2.02</v>
+      </c>
+      <c r="BE143">
+        <v>2.7</v>
+      </c>
+      <c r="BF143">
+        <v>5</v>
+      </c>
+      <c r="BG143">
+        <v>4</v>
+      </c>
+      <c r="BH143">
+        <v>2</v>
+      </c>
+      <c r="BI143">
+        <v>5</v>
+      </c>
+      <c r="BJ143">
+        <v>7</v>
+      </c>
+      <c r="BK143">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="254">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -562,6 +562,12 @@
     <t>['49', '54', '83']</t>
   </si>
   <si>
+    <t>['4', '45+5', '90+6']</t>
+  </si>
+  <si>
+    <t>['90+2']</t>
+  </si>
+  <si>
     <t>['50', '80']</t>
   </si>
   <si>
@@ -767,6 +773,9 @@
   </si>
   <si>
     <t>['70']</t>
+  </si>
+  <si>
+    <t>['26', '55']</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK143"/>
+  <dimension ref="A1:BK145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1372,7 +1381,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1754,7 +1763,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -2035,7 +2044,7 @@
         <v>2.44</v>
       </c>
       <c r="AT5">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2136,7 +2145,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2327,7 +2336,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2414,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT7">
         <v>1</v>
@@ -3091,7 +3100,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -3282,7 +3291,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3372,7 +3381,7 @@
         <v>1.13</v>
       </c>
       <c r="AT12">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3560,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT13">
         <v>1.33</v>
@@ -4046,7 +4055,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4428,7 +4437,7 @@
         <v>83</v>
       </c>
       <c r="P18" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -4900,7 +4909,7 @@
         <v>1.56</v>
       </c>
       <c r="AT20">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="AU20">
         <v>1.03</v>
@@ -5001,7 +5010,7 @@
         <v>83</v>
       </c>
       <c r="P21" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q21">
         <v>2</v>
@@ -5088,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT21">
         <v>0.5600000000000001</v>
@@ -5192,7 +5201,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -5383,7 +5392,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5765,7 +5774,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -6529,7 +6538,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -6720,7 +6729,7 @@
         <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -6911,7 +6920,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q31">
         <v>11</v>
@@ -6998,10 +7007,10 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT31">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU31">
         <v>2.48</v>
@@ -7192,7 +7201,7 @@
         <v>1.44</v>
       </c>
       <c r="AT32">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="AU32">
         <v>1.34</v>
@@ -7484,7 +7493,7 @@
         <v>83</v>
       </c>
       <c r="P34" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q34">
         <v>11</v>
@@ -8335,7 +8344,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT38">
         <v>1</v>
@@ -8439,7 +8448,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q39">
         <v>7</v>
@@ -8630,7 +8639,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -8821,7 +8830,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -9203,7 +9212,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9293,7 +9302,7 @@
         <v>1.44</v>
       </c>
       <c r="AT43">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU43">
         <v>1.88</v>
@@ -9394,7 +9403,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9585,7 +9594,7 @@
         <v>113</v>
       </c>
       <c r="P45" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9776,7 +9785,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q46">
         <v>9</v>
@@ -10158,7 +10167,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10245,7 +10254,7 @@
         <v>3</v>
       </c>
       <c r="AS48">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT48">
         <v>1.67</v>
@@ -10349,7 +10358,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10540,7 +10549,7 @@
         <v>118</v>
       </c>
       <c r="P50" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10731,7 +10740,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -11113,7 +11122,7 @@
         <v>120</v>
       </c>
       <c r="P53" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q53">
         <v>2</v>
@@ -11304,7 +11313,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11394,7 +11403,7 @@
         <v>1.89</v>
       </c>
       <c r="AT54">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="AU54">
         <v>1.01</v>
@@ -11686,7 +11695,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q56">
         <v>7</v>
@@ -11964,7 +11973,7 @@
         <v>0.33</v>
       </c>
       <c r="AS57">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT57">
         <v>0.89</v>
@@ -12259,7 +12268,7 @@
         <v>124</v>
       </c>
       <c r="P59" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12540,7 +12549,7 @@
         <v>1.56</v>
       </c>
       <c r="AT60">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU60">
         <v>2.16</v>
@@ -12641,7 +12650,7 @@
         <v>125</v>
       </c>
       <c r="P61" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -12832,7 +12841,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13214,7 +13223,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13492,7 +13501,7 @@
         <v>2</v>
       </c>
       <c r="AS65">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT65">
         <v>1.22</v>
@@ -14256,7 +14265,7 @@
         <v>1</v>
       </c>
       <c r="AS69">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT69">
         <v>0.89</v>
@@ -14360,7 +14369,7 @@
         <v>132</v>
       </c>
       <c r="P70" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -14641,7 +14650,7 @@
         <v>1</v>
       </c>
       <c r="AT71">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="AU71">
         <v>1.39</v>
@@ -14742,7 +14751,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q72">
         <v>9</v>
@@ -15020,7 +15029,7 @@
         <v>0.25</v>
       </c>
       <c r="AS73">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT73">
         <v>1</v>
@@ -15315,7 +15324,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15506,7 +15515,7 @@
         <v>138</v>
       </c>
       <c r="P76" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q76">
         <v>7</v>
@@ -15697,7 +15706,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q77">
         <v>9</v>
@@ -15978,7 +15987,7 @@
         <v>0.89</v>
       </c>
       <c r="AT78">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="AU78">
         <v>1.16</v>
@@ -16079,7 +16088,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16461,7 +16470,7 @@
         <v>83</v>
       </c>
       <c r="P81" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -16652,7 +16661,7 @@
         <v>83</v>
       </c>
       <c r="P82" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -16930,7 +16939,7 @@
         <v>0.8</v>
       </c>
       <c r="AS83">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT83">
         <v>0.89</v>
@@ -17034,7 +17043,7 @@
         <v>88</v>
       </c>
       <c r="P84" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q84">
         <v>1</v>
@@ -17694,7 +17703,7 @@
         <v>0.25</v>
       </c>
       <c r="AS87">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT87">
         <v>0.78</v>
@@ -17798,7 +17807,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -17888,7 +17897,7 @@
         <v>0.89</v>
       </c>
       <c r="AT88">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU88">
         <v>1.44</v>
@@ -17989,7 +17998,7 @@
         <v>83</v>
       </c>
       <c r="P89" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18180,7 +18189,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18461,7 +18470,7 @@
         <v>2.33</v>
       </c>
       <c r="AT91">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="AU91">
         <v>1.7</v>
@@ -19135,7 +19144,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q95">
         <v>1</v>
@@ -19517,7 +19526,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -19708,7 +19717,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -19798,7 +19807,7 @@
         <v>1.56</v>
       </c>
       <c r="AT98">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU98">
         <v>1.77</v>
@@ -19899,7 +19908,7 @@
         <v>152</v>
       </c>
       <c r="P99" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q99">
         <v>8</v>
@@ -19986,7 +19995,7 @@
         <v>1.67</v>
       </c>
       <c r="AS99">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT99">
         <v>1.67</v>
@@ -20090,7 +20099,7 @@
         <v>153</v>
       </c>
       <c r="P100" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q100">
         <v>2</v>
@@ -20854,7 +20863,7 @@
         <v>83</v>
       </c>
       <c r="P104" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21236,7 +21245,7 @@
         <v>156</v>
       </c>
       <c r="P106" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -21326,7 +21335,7 @@
         <v>1.67</v>
       </c>
       <c r="AT106">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="AU106">
         <v>1.37</v>
@@ -21618,7 +21627,7 @@
         <v>123</v>
       </c>
       <c r="P108" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q108">
         <v>11</v>
@@ -21705,7 +21714,7 @@
         <v>0.83</v>
       </c>
       <c r="AS108">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT108">
         <v>1</v>
@@ -22000,7 +22009,7 @@
         <v>159</v>
       </c>
       <c r="P110" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22382,7 +22391,7 @@
         <v>161</v>
       </c>
       <c r="P112" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q112">
         <v>1</v>
@@ -22660,7 +22669,7 @@
         <v>0.67</v>
       </c>
       <c r="AS113">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT113">
         <v>1</v>
@@ -22764,7 +22773,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -23146,7 +23155,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23337,7 +23346,7 @@
         <v>165</v>
       </c>
       <c r="P117" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q117">
         <v>13</v>
@@ -23528,7 +23537,7 @@
         <v>166</v>
       </c>
       <c r="P118" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -23618,7 +23627,7 @@
         <v>2.44</v>
       </c>
       <c r="AT118">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU118">
         <v>1.55</v>
@@ -23910,7 +23919,7 @@
         <v>168</v>
       </c>
       <c r="P120" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q120">
         <v>7</v>
@@ -24101,7 +24110,7 @@
         <v>83</v>
       </c>
       <c r="P121" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q121">
         <v>8</v>
@@ -24382,7 +24391,7 @@
         <v>1.44</v>
       </c>
       <c r="AT122">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="AU122">
         <v>1.39</v>
@@ -24483,7 +24492,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24761,7 +24770,7 @@
         <v>0.57</v>
       </c>
       <c r="AS124">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT124">
         <v>0.5600000000000001</v>
@@ -24955,7 +24964,7 @@
         <v>1.67</v>
       </c>
       <c r="AT125">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU125">
         <v>1.42</v>
@@ -25056,7 +25065,7 @@
         <v>83</v>
       </c>
       <c r="P126" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -25525,7 +25534,7 @@
         <v>1.71</v>
       </c>
       <c r="AS128">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT128">
         <v>1.78</v>
@@ -25629,7 +25638,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -25820,7 +25829,7 @@
         <v>174</v>
       </c>
       <c r="P130" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -25969,7 +25978,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>4867489</v>
+        <v>4867486</v>
       </c>
       <c r="C131" t="s">
         <v>63</v>
@@ -25984,10 +25993,10 @@
         <v>17</v>
       </c>
       <c r="G131" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H131" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -25999,37 +26008,37 @@
         <v>0</v>
       </c>
       <c r="L131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N131">
         <v>2</v>
       </c>
       <c r="O131" t="s">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="P131" t="s">
-        <v>83</v>
+        <v>243</v>
       </c>
       <c r="Q131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R131">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S131">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="T131">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="U131">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V131">
-        <v>2.85</v>
+        <v>3.25</v>
       </c>
       <c r="W131">
         <v>1.34</v>
@@ -26044,25 +26053,25 @@
         <v>1.44</v>
       </c>
       <c r="AA131">
-        <v>6.4</v>
+        <v>6.45</v>
       </c>
       <c r="AB131">
         <v>1.09</v>
       </c>
       <c r="AC131">
-        <v>3.23</v>
+        <v>2.55</v>
       </c>
       <c r="AD131">
-        <v>3.48</v>
+        <v>3.44</v>
       </c>
       <c r="AE131">
-        <v>2.1</v>
+        <v>2.57</v>
       </c>
       <c r="AF131">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AG131">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH131">
         <v>1.25</v>
@@ -26071,88 +26080,88 @@
         <v>3.75</v>
       </c>
       <c r="AJ131">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AK131">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AL131">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="AM131">
         <v>2.2</v>
       </c>
       <c r="AN131">
-        <v>1.68</v>
+        <v>1.5</v>
       </c>
       <c r="AO131">
         <v>1.25</v>
       </c>
       <c r="AP131">
-        <v>1.36</v>
+        <v>1.52</v>
       </c>
       <c r="AQ131">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR131">
-        <v>0.63</v>
+        <v>2.13</v>
       </c>
       <c r="AS131">
-        <v>1.89</v>
+        <v>1.78</v>
       </c>
       <c r="AT131">
-        <v>0.5600000000000001</v>
+        <v>2.22</v>
       </c>
       <c r="AU131">
-        <v>1.27</v>
+        <v>1.46</v>
       </c>
       <c r="AV131">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AW131">
-        <v>2.67</v>
+        <v>2.96</v>
       </c>
       <c r="AX131">
-        <v>2.18</v>
+        <v>1.97</v>
       </c>
       <c r="AY131">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="AZ131">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="BA131">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="BB131">
-        <v>1.83</v>
+        <v>1.52</v>
       </c>
       <c r="BC131">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="BD131">
-        <v>2.6</v>
+        <v>2.48</v>
       </c>
       <c r="BE131">
-        <v>3.64</v>
+        <v>3.42</v>
       </c>
       <c r="BF131">
         <v>3</v>
       </c>
       <c r="BG131">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="BH131">
+        <v>2</v>
+      </c>
+      <c r="BI131">
+        <v>2</v>
+      </c>
+      <c r="BJ131">
         <v>5</v>
       </c>
-      <c r="BI131">
-        <v>10</v>
-      </c>
-      <c r="BJ131">
-        <v>8</v>
-      </c>
       <c r="BK131">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:63">
@@ -26160,7 +26169,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>4867485</v>
+        <v>4867489</v>
       </c>
       <c r="C132" t="s">
         <v>63</v>
@@ -26175,10 +26184,10 @@
         <v>17</v>
       </c>
       <c r="G132" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H132" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I132">
         <v>0</v>
@@ -26190,37 +26199,37 @@
         <v>0</v>
       </c>
       <c r="L132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O132" t="s">
+        <v>175</v>
+      </c>
+      <c r="P132" t="s">
         <v>83</v>
       </c>
-      <c r="P132" t="s">
-        <v>128</v>
-      </c>
       <c r="Q132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R132">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S132">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="T132">
+        <v>3.6</v>
+      </c>
+      <c r="U132">
+        <v>2.25</v>
+      </c>
+      <c r="V132">
         <v>2.85</v>
-      </c>
-      <c r="U132">
-        <v>2.2</v>
-      </c>
-      <c r="V132">
-        <v>3.6</v>
       </c>
       <c r="W132">
         <v>1.34</v>
@@ -26229,121 +26238,121 @@
         <v>3</v>
       </c>
       <c r="Y132">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="Z132">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="AA132">
-        <v>6.45</v>
+        <v>6.4</v>
       </c>
       <c r="AB132">
         <v>1.09</v>
       </c>
       <c r="AC132">
-        <v>2.13</v>
+        <v>3.23</v>
       </c>
       <c r="AD132">
-        <v>3.41</v>
+        <v>3.48</v>
       </c>
       <c r="AE132">
-        <v>3.43</v>
+        <v>2.1</v>
       </c>
       <c r="AF132">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AG132">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH132">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AI132">
         <v>3.75</v>
       </c>
       <c r="AJ132">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="AK132">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="AL132">
+        <v>1.62</v>
+      </c>
+      <c r="AM132">
+        <v>2.2</v>
+      </c>
+      <c r="AN132">
         <v>1.68</v>
-      </c>
-      <c r="AM132">
-        <v>2.15</v>
-      </c>
-      <c r="AN132">
-        <v>1.36</v>
       </c>
       <c r="AO132">
         <v>1.25</v>
       </c>
       <c r="AP132">
-        <v>1.68</v>
+        <v>1.36</v>
       </c>
       <c r="AQ132">
         <v>1.75</v>
       </c>
       <c r="AR132">
-        <v>1.13</v>
+        <v>0.63</v>
       </c>
       <c r="AS132">
-        <v>1.56</v>
+        <v>1.89</v>
       </c>
       <c r="AT132">
-        <v>1.33</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU132">
-        <v>1.67</v>
+        <v>1.27</v>
       </c>
       <c r="AV132">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AW132">
-        <v>3.02</v>
+        <v>2.67</v>
       </c>
       <c r="AX132">
-        <v>1.71</v>
+        <v>2.18</v>
       </c>
       <c r="AY132">
-        <v>7.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AZ132">
+        <v>1.9</v>
+      </c>
+      <c r="BA132">
+        <v>1.31</v>
+      </c>
+      <c r="BB132">
+        <v>1.83</v>
+      </c>
+      <c r="BC132">
+        <v>2</v>
+      </c>
+      <c r="BD132">
         <v>2.6</v>
       </c>
-      <c r="BA132">
-        <v>1.15</v>
-      </c>
-      <c r="BB132">
-        <v>1.25</v>
-      </c>
-      <c r="BC132">
-        <v>1.45</v>
-      </c>
-      <c r="BD132">
-        <v>1.8</v>
-      </c>
       <c r="BE132">
-        <v>2.28</v>
+        <v>3.64</v>
       </c>
       <c r="BF132">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BG132">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BH132">
         <v>5</v>
       </c>
       <c r="BI132">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BJ132">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BK132">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="133" spans="1:63">
@@ -26351,7 +26360,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>4867486</v>
+        <v>4867485</v>
       </c>
       <c r="C133" t="s">
         <v>63</v>
@@ -26366,10 +26375,10 @@
         <v>17</v>
       </c>
       <c r="G133" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H133" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I133">
         <v>0</v>
@@ -26384,34 +26393,34 @@
         <v>0</v>
       </c>
       <c r="M133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O133" t="s">
         <v>83</v>
       </c>
       <c r="P133" t="s">
-        <v>241</v>
+        <v>128</v>
       </c>
       <c r="Q133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S133">
         <v>4</v>
       </c>
       <c r="T133">
-        <v>3.2</v>
+        <v>2.85</v>
       </c>
       <c r="U133">
         <v>2.2</v>
       </c>
       <c r="V133">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="W133">
         <v>1.34</v>
@@ -26420,10 +26429,10 @@
         <v>3</v>
       </c>
       <c r="Y133">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="Z133">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AA133">
         <v>6.45</v>
@@ -26432,13 +26441,13 @@
         <v>1.09</v>
       </c>
       <c r="AC133">
-        <v>2.55</v>
+        <v>2.13</v>
       </c>
       <c r="AD133">
-        <v>3.44</v>
+        <v>3.41</v>
       </c>
       <c r="AE133">
-        <v>2.57</v>
+        <v>3.43</v>
       </c>
       <c r="AF133">
         <v>1.04</v>
@@ -26447,94 +26456,94 @@
         <v>12</v>
       </c>
       <c r="AH133">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AI133">
         <v>3.75</v>
       </c>
       <c r="AJ133">
-        <v>1.67</v>
+        <v>1.81</v>
       </c>
       <c r="AK133">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="AL133">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AM133">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="AN133">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AO133">
         <v>1.25</v>
       </c>
       <c r="AP133">
-        <v>1.52</v>
+        <v>1.68</v>
       </c>
       <c r="AQ133">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR133">
-        <v>2.13</v>
+        <v>1.13</v>
       </c>
       <c r="AS133">
-        <v>1.78</v>
+        <v>1.56</v>
       </c>
       <c r="AT133">
-        <v>2.22</v>
+        <v>1.33</v>
       </c>
       <c r="AU133">
-        <v>1.46</v>
+        <v>1.67</v>
       </c>
       <c r="AV133">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="AW133">
-        <v>2.96</v>
+        <v>3.02</v>
       </c>
       <c r="AX133">
-        <v>1.97</v>
+        <v>1.71</v>
       </c>
       <c r="AY133">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AZ133">
-        <v>2.08</v>
+        <v>2.6</v>
       </c>
       <c r="BA133">
-        <v>1.28</v>
+        <v>1.15</v>
       </c>
       <c r="BB133">
-        <v>1.52</v>
+        <v>1.25</v>
       </c>
       <c r="BC133">
+        <v>1.45</v>
+      </c>
+      <c r="BD133">
         <v>1.8</v>
       </c>
-      <c r="BD133">
-        <v>2.48</v>
-      </c>
       <c r="BE133">
-        <v>3.42</v>
+        <v>2.28</v>
       </c>
       <c r="BF133">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BG133">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH133">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BI133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ133">
         <v>5</v>
       </c>
       <c r="BK133">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134" spans="1:63">
@@ -26584,7 +26593,7 @@
         <v>83</v>
       </c>
       <c r="P134" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -26775,7 +26784,7 @@
         <v>176</v>
       </c>
       <c r="P135" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q135">
         <v>9</v>
@@ -26966,7 +26975,7 @@
         <v>177</v>
       </c>
       <c r="P136" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q136">
         <v>2</v>
@@ -27157,7 +27166,7 @@
         <v>178</v>
       </c>
       <c r="P137" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q137">
         <v>4</v>
@@ -27348,7 +27357,7 @@
         <v>83</v>
       </c>
       <c r="P138" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -27539,7 +27548,7 @@
         <v>179</v>
       </c>
       <c r="P139" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -27730,7 +27739,7 @@
         <v>180</v>
       </c>
       <c r="P140" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q140">
         <v>5</v>
@@ -27921,7 +27930,7 @@
         <v>167</v>
       </c>
       <c r="P141" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q141">
         <v>6</v>
@@ -28112,7 +28121,7 @@
         <v>181</v>
       </c>
       <c r="P142" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q142">
         <v>10</v>
@@ -28303,7 +28312,7 @@
         <v>139</v>
       </c>
       <c r="P143" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -28445,6 +28454,388 @@
       </c>
       <c r="BK143">
         <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:63">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>4867494</v>
+      </c>
+      <c r="C144" t="s">
+        <v>63</v>
+      </c>
+      <c r="D144" t="s">
+        <v>64</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45152.58333333334</v>
+      </c>
+      <c r="F144">
+        <v>18</v>
+      </c>
+      <c r="G144" t="s">
+        <v>76</v>
+      </c>
+      <c r="H144" t="s">
+        <v>71</v>
+      </c>
+      <c r="I144">
+        <v>2</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>2</v>
+      </c>
+      <c r="L144">
+        <v>3</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>3</v>
+      </c>
+      <c r="O144" t="s">
+        <v>182</v>
+      </c>
+      <c r="P144" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q144">
+        <v>6</v>
+      </c>
+      <c r="R144">
+        <v>8</v>
+      </c>
+      <c r="S144">
+        <v>14</v>
+      </c>
+      <c r="T144">
+        <v>2.62</v>
+      </c>
+      <c r="U144">
+        <v>2.2</v>
+      </c>
+      <c r="V144">
+        <v>3.5</v>
+      </c>
+      <c r="W144">
+        <v>1.33</v>
+      </c>
+      <c r="X144">
+        <v>3.25</v>
+      </c>
+      <c r="Y144">
+        <v>2.5</v>
+      </c>
+      <c r="Z144">
+        <v>1.5</v>
+      </c>
+      <c r="AA144">
+        <v>6</v>
+      </c>
+      <c r="AB144">
+        <v>1.11</v>
+      </c>
+      <c r="AC144">
+        <v>2.18</v>
+      </c>
+      <c r="AD144">
+        <v>3.17</v>
+      </c>
+      <c r="AE144">
+        <v>2.8</v>
+      </c>
+      <c r="AF144">
+        <v>1.05</v>
+      </c>
+      <c r="AG144">
+        <v>9</v>
+      </c>
+      <c r="AH144">
+        <v>1.25</v>
+      </c>
+      <c r="AI144">
+        <v>3.75</v>
+      </c>
+      <c r="AJ144">
+        <v>1.7</v>
+      </c>
+      <c r="AK144">
+        <v>1.95</v>
+      </c>
+      <c r="AL144">
+        <v>1.67</v>
+      </c>
+      <c r="AM144">
+        <v>2.1</v>
+      </c>
+      <c r="AN144">
+        <v>1.29</v>
+      </c>
+      <c r="AO144">
+        <v>1.3</v>
+      </c>
+      <c r="AP144">
+        <v>1.73</v>
+      </c>
+      <c r="AQ144">
+        <v>1.33</v>
+      </c>
+      <c r="AR144">
+        <v>1</v>
+      </c>
+      <c r="AS144">
+        <v>1.5</v>
+      </c>
+      <c r="AT144">
+        <v>0.89</v>
+      </c>
+      <c r="AU144">
+        <v>1.59</v>
+      </c>
+      <c r="AV144">
+        <v>1.09</v>
+      </c>
+      <c r="AW144">
+        <v>2.68</v>
+      </c>
+      <c r="AX144">
+        <v>1.74</v>
+      </c>
+      <c r="AY144">
+        <v>7.5</v>
+      </c>
+      <c r="AZ144">
+        <v>2.6</v>
+      </c>
+      <c r="BA144">
+        <v>1.2</v>
+      </c>
+      <c r="BB144">
+        <v>1.4</v>
+      </c>
+      <c r="BC144">
+        <v>1.71</v>
+      </c>
+      <c r="BD144">
+        <v>2.14</v>
+      </c>
+      <c r="BE144">
+        <v>2.84</v>
+      </c>
+      <c r="BF144">
+        <v>9</v>
+      </c>
+      <c r="BG144">
+        <v>4</v>
+      </c>
+      <c r="BH144">
+        <v>11</v>
+      </c>
+      <c r="BI144">
+        <v>4</v>
+      </c>
+      <c r="BJ144">
+        <v>20</v>
+      </c>
+      <c r="BK144">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:63">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>4867492</v>
+      </c>
+      <c r="C145" t="s">
+        <v>63</v>
+      </c>
+      <c r="D145" t="s">
+        <v>64</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45152.58333333334</v>
+      </c>
+      <c r="F145">
+        <v>18</v>
+      </c>
+      <c r="G145" t="s">
+        <v>70</v>
+      </c>
+      <c r="H145" t="s">
+        <v>75</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>1</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145">
+        <v>2</v>
+      </c>
+      <c r="N145">
+        <v>3</v>
+      </c>
+      <c r="O145" t="s">
+        <v>183</v>
+      </c>
+      <c r="P145" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q145">
+        <v>7</v>
+      </c>
+      <c r="R145">
+        <v>7</v>
+      </c>
+      <c r="S145">
+        <v>14</v>
+      </c>
+      <c r="T145">
+        <v>2.22</v>
+      </c>
+      <c r="U145">
+        <v>2.24</v>
+      </c>
+      <c r="V145">
+        <v>4.8</v>
+      </c>
+      <c r="W145">
+        <v>1.33</v>
+      </c>
+      <c r="X145">
+        <v>3.15</v>
+      </c>
+      <c r="Y145">
+        <v>2.46</v>
+      </c>
+      <c r="Z145">
+        <v>1.51</v>
+      </c>
+      <c r="AA145">
+        <v>5.75</v>
+      </c>
+      <c r="AB145">
+        <v>1.12</v>
+      </c>
+      <c r="AC145">
+        <v>1.74</v>
+      </c>
+      <c r="AD145">
+        <v>3.44</v>
+      </c>
+      <c r="AE145">
+        <v>3.79</v>
+      </c>
+      <c r="AF145">
+        <v>1</v>
+      </c>
+      <c r="AG145">
+        <v>10.5</v>
+      </c>
+      <c r="AH145">
+        <v>1.19</v>
+      </c>
+      <c r="AI145">
+        <v>4.1</v>
+      </c>
+      <c r="AJ145">
+        <v>1.67</v>
+      </c>
+      <c r="AK145">
+        <v>2</v>
+      </c>
+      <c r="AL145">
+        <v>1.65</v>
+      </c>
+      <c r="AM145">
+        <v>2.11</v>
+      </c>
+      <c r="AN145">
+        <v>1.16</v>
+      </c>
+      <c r="AO145">
+        <v>1.24</v>
+      </c>
+      <c r="AP145">
+        <v>2.11</v>
+      </c>
+      <c r="AQ145">
+        <v>1.25</v>
+      </c>
+      <c r="AR145">
+        <v>0.11</v>
+      </c>
+      <c r="AS145">
+        <v>1.11</v>
+      </c>
+      <c r="AT145">
+        <v>0.4</v>
+      </c>
+      <c r="AU145">
+        <v>1.92</v>
+      </c>
+      <c r="AV145">
+        <v>1.35</v>
+      </c>
+      <c r="AW145">
+        <v>3.27</v>
+      </c>
+      <c r="AX145">
+        <v>1.45</v>
+      </c>
+      <c r="AY145">
+        <v>8.5</v>
+      </c>
+      <c r="AZ145">
+        <v>3.35</v>
+      </c>
+      <c r="BA145">
+        <v>0</v>
+      </c>
+      <c r="BB145">
+        <v>1.19</v>
+      </c>
+      <c r="BC145">
+        <v>1.34</v>
+      </c>
+      <c r="BD145">
+        <v>1.58</v>
+      </c>
+      <c r="BE145">
+        <v>1.95</v>
+      </c>
+      <c r="BF145">
+        <v>9</v>
+      </c>
+      <c r="BG145">
+        <v>6</v>
+      </c>
+      <c r="BH145">
+        <v>7</v>
+      </c>
+      <c r="BI145">
+        <v>5</v>
+      </c>
+      <c r="BJ145">
+        <v>16</v>
+      </c>
+      <c r="BK145">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="260">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -568,6 +568,21 @@
     <t>['90+2']</t>
   </si>
   <si>
+    <t>['43', '55', '76']</t>
+  </si>
+  <si>
+    <t>['28', '29', '45+1', '74']</t>
+  </si>
+  <si>
+    <t>['1', '49']</t>
+  </si>
+  <si>
+    <t>['48', '71', '76']</t>
+  </si>
+  <si>
+    <t>['66', '86']</t>
+  </si>
+  <si>
     <t>['50', '80']</t>
   </si>
   <si>
@@ -776,6 +791,9 @@
   </si>
   <si>
     <t>['26', '55']</t>
+  </si>
+  <si>
+    <t>['70', '82']</t>
   </si>
 </sst>
 </file>
@@ -1137,7 +1155,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK145"/>
+  <dimension ref="A1:BK150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1381,7 +1399,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1471,7 +1489,7 @@
         <v>1.78</v>
       </c>
       <c r="AT2">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1763,7 +1781,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -2041,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT5">
         <v>0.4</v>
@@ -2145,7 +2163,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2336,7 +2354,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2426,7 +2444,7 @@
         <v>1.11</v>
       </c>
       <c r="AT7">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2614,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT8">
         <v>0.75</v>
@@ -2996,10 +3014,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT10">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3100,7 +3118,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -3187,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT11">
         <v>2.22</v>
@@ -3291,7 +3309,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3378,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT12">
         <v>0.89</v>
@@ -4055,7 +4073,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4336,7 +4354,7 @@
         <v>1.44</v>
       </c>
       <c r="AT17">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4437,7 +4455,7 @@
         <v>83</v>
       </c>
       <c r="P18" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -4527,7 +4545,7 @@
         <v>0.89</v>
       </c>
       <c r="AT18">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AU18">
         <v>1.48</v>
@@ -4718,7 +4736,7 @@
         <v>1.67</v>
       </c>
       <c r="AT19">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU19">
         <v>1.41</v>
@@ -4906,7 +4924,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT20">
         <v>0.4</v>
@@ -5010,7 +5028,7 @@
         <v>83</v>
       </c>
       <c r="P21" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q21">
         <v>2</v>
@@ -5100,7 +5118,7 @@
         <v>1.5</v>
       </c>
       <c r="AT21">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU21">
         <v>1.17</v>
@@ -5201,7 +5219,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -5288,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT22">
         <v>1.78</v>
@@ -5392,7 +5410,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5479,7 +5497,7 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT23">
         <v>0.89</v>
@@ -5774,7 +5792,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -6243,7 +6261,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT27">
         <v>0.78</v>
@@ -6538,7 +6556,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -6729,7 +6747,7 @@
         <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -6920,7 +6938,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q31">
         <v>11</v>
@@ -7493,7 +7511,7 @@
         <v>83</v>
       </c>
       <c r="P34" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q34">
         <v>11</v>
@@ -7771,7 +7789,7 @@
         <v>1.5</v>
       </c>
       <c r="AS35">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT35">
         <v>0.89</v>
@@ -7962,10 +7980,10 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT36">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AU36">
         <v>1.24</v>
@@ -8153,10 +8171,10 @@
         <v>1.5</v>
       </c>
       <c r="AS37">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT37">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU37">
         <v>1.83</v>
@@ -8347,7 +8365,7 @@
         <v>1.5</v>
       </c>
       <c r="AT38">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU38">
         <v>1.13</v>
@@ -8448,7 +8466,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q39">
         <v>7</v>
@@ -8538,7 +8556,7 @@
         <v>1.44</v>
       </c>
       <c r="AT39">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU39">
         <v>1.61</v>
@@ -8639,7 +8657,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -8726,7 +8744,7 @@
         <v>0.5</v>
       </c>
       <c r="AS40">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT40">
         <v>0.89</v>
@@ -8830,7 +8848,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -9212,7 +9230,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9403,7 +9421,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9493,7 +9511,7 @@
         <v>1.89</v>
       </c>
       <c r="AT44">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AU44">
         <v>1.11</v>
@@ -9594,7 +9612,7 @@
         <v>113</v>
       </c>
       <c r="P45" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9681,7 +9699,7 @@
         <v>0.5</v>
       </c>
       <c r="AS45">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT45">
         <v>0.75</v>
@@ -9785,7 +9803,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q46">
         <v>9</v>
@@ -9872,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="AS46">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT46">
         <v>1</v>
@@ -10066,7 +10084,7 @@
         <v>1.78</v>
       </c>
       <c r="AT47">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU47">
         <v>1.45</v>
@@ -10167,7 +10185,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10358,7 +10376,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10445,7 +10463,7 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT49">
         <v>1</v>
@@ -10549,7 +10567,7 @@
         <v>118</v>
       </c>
       <c r="P50" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10636,10 +10654,10 @@
         <v>0.33</v>
       </c>
       <c r="AS50">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT50">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU50">
         <v>1.32</v>
@@ -10740,7 +10758,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -11122,7 +11140,7 @@
         <v>120</v>
       </c>
       <c r="P53" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q53">
         <v>2</v>
@@ -11209,10 +11227,10 @@
         <v>1.33</v>
       </c>
       <c r="AS53">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT53">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU53">
         <v>1.19</v>
@@ -11313,7 +11331,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11695,7 +11713,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q56">
         <v>7</v>
@@ -12268,7 +12286,7 @@
         <v>124</v>
       </c>
       <c r="P59" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12355,7 +12373,7 @@
         <v>1.33</v>
       </c>
       <c r="AS59">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT59">
         <v>0.75</v>
@@ -12546,7 +12564,7 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT60">
         <v>0.89</v>
@@ -12650,7 +12668,7 @@
         <v>125</v>
       </c>
       <c r="P61" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -12737,7 +12755,7 @@
         <v>0</v>
       </c>
       <c r="AS61">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT61">
         <v>1</v>
@@ -12841,7 +12859,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13223,7 +13241,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13504,7 +13522,7 @@
         <v>1.11</v>
       </c>
       <c r="AT65">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU65">
         <v>1.96</v>
@@ -14074,10 +14092,10 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT68">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU68">
         <v>1.46</v>
@@ -14369,7 +14387,7 @@
         <v>132</v>
       </c>
       <c r="P70" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -14459,7 +14477,7 @@
         <v>1.44</v>
       </c>
       <c r="AT70">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AU70">
         <v>1.51</v>
@@ -14751,7 +14769,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q72">
         <v>9</v>
@@ -15220,7 +15238,7 @@
         <v>1</v>
       </c>
       <c r="AS74">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT74">
         <v>0.75</v>
@@ -15324,7 +15342,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15515,7 +15533,7 @@
         <v>138</v>
       </c>
       <c r="P76" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q76">
         <v>7</v>
@@ -15602,7 +15620,7 @@
         <v>0.75</v>
       </c>
       <c r="AS76">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT76">
         <v>1</v>
@@ -15706,7 +15724,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q77">
         <v>9</v>
@@ -15796,7 +15814,7 @@
         <v>1.89</v>
       </c>
       <c r="AT77">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU77">
         <v>1.22</v>
@@ -16088,7 +16106,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16175,7 +16193,7 @@
         <v>1.75</v>
       </c>
       <c r="AS79">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT79">
         <v>1.67</v>
@@ -16369,7 +16387,7 @@
         <v>2.33</v>
       </c>
       <c r="AT80">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU80">
         <v>1.72</v>
@@ -16470,7 +16488,7 @@
         <v>83</v>
       </c>
       <c r="P81" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -16557,7 +16575,7 @@
         <v>0.5</v>
       </c>
       <c r="AS81">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT81">
         <v>0.89</v>
@@ -16661,7 +16679,7 @@
         <v>83</v>
       </c>
       <c r="P82" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -17043,7 +17061,7 @@
         <v>88</v>
       </c>
       <c r="P84" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q84">
         <v>1</v>
@@ -17133,7 +17151,7 @@
         <v>1.44</v>
       </c>
       <c r="AT84">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AU84">
         <v>1.78</v>
@@ -17321,10 +17339,10 @@
         <v>1</v>
       </c>
       <c r="AS85">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT85">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU85">
         <v>1.52</v>
@@ -17515,7 +17533,7 @@
         <v>1.44</v>
       </c>
       <c r="AT86">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU86">
         <v>1.62</v>
@@ -17807,7 +17825,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -17998,7 +18016,7 @@
         <v>83</v>
       </c>
       <c r="P89" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18189,7 +18207,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18658,7 +18676,7 @@
         <v>0.8</v>
       </c>
       <c r="AS92">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT92">
         <v>1</v>
@@ -18849,10 +18867,10 @@
         <v>1.8</v>
       </c>
       <c r="AS93">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT93">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU93">
         <v>1.35</v>
@@ -19144,7 +19162,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q95">
         <v>1</v>
@@ -19422,7 +19440,7 @@
         <v>0.8</v>
       </c>
       <c r="AS96">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT96">
         <v>0.75</v>
@@ -19526,7 +19544,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -19717,7 +19735,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -19804,7 +19822,7 @@
         <v>1.4</v>
       </c>
       <c r="AS98">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT98">
         <v>0.89</v>
@@ -19908,7 +19926,7 @@
         <v>152</v>
       </c>
       <c r="P99" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q99">
         <v>8</v>
@@ -20099,7 +20117,7 @@
         <v>153</v>
       </c>
       <c r="P100" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q100">
         <v>2</v>
@@ -20189,7 +20207,7 @@
         <v>1</v>
       </c>
       <c r="AT100">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AU100">
         <v>1.48</v>
@@ -20380,7 +20398,7 @@
         <v>1.89</v>
       </c>
       <c r="AT101">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU101">
         <v>1.33</v>
@@ -20759,7 +20777,7 @@
         <v>1.83</v>
       </c>
       <c r="AS103">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT103">
         <v>1.78</v>
@@ -20863,7 +20881,7 @@
         <v>83</v>
       </c>
       <c r="P104" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21245,7 +21263,7 @@
         <v>156</v>
       </c>
       <c r="P106" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -21523,10 +21541,10 @@
         <v>1.5</v>
       </c>
       <c r="AS107">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT107">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU107">
         <v>1.45</v>
@@ -21627,7 +21645,7 @@
         <v>123</v>
       </c>
       <c r="P108" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q108">
         <v>11</v>
@@ -22009,7 +22027,7 @@
         <v>159</v>
       </c>
       <c r="P110" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22287,7 +22305,7 @@
         <v>0.67</v>
       </c>
       <c r="AS111">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT111">
         <v>0.89</v>
@@ -22391,7 +22409,7 @@
         <v>161</v>
       </c>
       <c r="P112" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q112">
         <v>1</v>
@@ -22481,7 +22499,7 @@
         <v>1.44</v>
       </c>
       <c r="AT112">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU112">
         <v>1.36</v>
@@ -22773,7 +22791,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -22860,10 +22878,10 @@
         <v>0.71</v>
       </c>
       <c r="AS114">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT114">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU114">
         <v>1.72</v>
@@ -23051,7 +23069,7 @@
         <v>0.71</v>
       </c>
       <c r="AS115">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT115">
         <v>0.89</v>
@@ -23155,7 +23173,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23346,7 +23364,7 @@
         <v>165</v>
       </c>
       <c r="P117" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q117">
         <v>13</v>
@@ -23537,7 +23555,7 @@
         <v>166</v>
       </c>
       <c r="P118" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -23624,7 +23642,7 @@
         <v>1.33</v>
       </c>
       <c r="AS118">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT118">
         <v>0.89</v>
@@ -23919,7 +23937,7 @@
         <v>168</v>
       </c>
       <c r="P120" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q120">
         <v>7</v>
@@ -24110,7 +24128,7 @@
         <v>83</v>
       </c>
       <c r="P121" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q121">
         <v>8</v>
@@ -24197,10 +24215,10 @@
         <v>2.14</v>
       </c>
       <c r="AS121">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT121">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AU121">
         <v>2.2</v>
@@ -24492,7 +24510,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24582,7 +24600,7 @@
         <v>1.44</v>
       </c>
       <c r="AT123">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU123">
         <v>1.68</v>
@@ -24773,7 +24791,7 @@
         <v>1.11</v>
       </c>
       <c r="AT124">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU124">
         <v>2.05</v>
@@ -25065,7 +25083,7 @@
         <v>83</v>
       </c>
       <c r="P126" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -25638,7 +25656,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -25725,7 +25743,7 @@
         <v>1.14</v>
       </c>
       <c r="AS129">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT129">
         <v>1</v>
@@ -25829,7 +25847,7 @@
         <v>174</v>
       </c>
       <c r="P130" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -26020,7 +26038,7 @@
         <v>83</v>
       </c>
       <c r="P131" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q131">
         <v>1</v>
@@ -26107,7 +26125,7 @@
         <v>2.13</v>
       </c>
       <c r="AS131">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT131">
         <v>2.22</v>
@@ -26301,7 +26319,7 @@
         <v>1.89</v>
       </c>
       <c r="AT132">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU132">
         <v>1.27</v>
@@ -26489,7 +26507,7 @@
         <v>1.13</v>
       </c>
       <c r="AS133">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT133">
         <v>1.33</v>
@@ -26593,7 +26611,7 @@
         <v>83</v>
       </c>
       <c r="P134" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -26680,10 +26698,10 @@
         <v>2.25</v>
       </c>
       <c r="AS134">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT134">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AU134">
         <v>1.44</v>
@@ -26784,7 +26802,7 @@
         <v>176</v>
       </c>
       <c r="P135" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q135">
         <v>9</v>
@@ -26871,10 +26889,10 @@
         <v>1.25</v>
       </c>
       <c r="AS135">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT135">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU135">
         <v>2.08</v>
@@ -26975,7 +26993,7 @@
         <v>177</v>
       </c>
       <c r="P136" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q136">
         <v>2</v>
@@ -27166,7 +27184,7 @@
         <v>178</v>
       </c>
       <c r="P137" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q137">
         <v>4</v>
@@ -27357,7 +27375,7 @@
         <v>83</v>
       </c>
       <c r="P138" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -27548,7 +27566,7 @@
         <v>179</v>
       </c>
       <c r="P139" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -27635,7 +27653,7 @@
         <v>0.88</v>
       </c>
       <c r="AS139">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT139">
         <v>0.78</v>
@@ -27739,7 +27757,7 @@
         <v>180</v>
       </c>
       <c r="P140" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q140">
         <v>5</v>
@@ -27930,7 +27948,7 @@
         <v>167</v>
       </c>
       <c r="P141" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q141">
         <v>6</v>
@@ -28020,7 +28038,7 @@
         <v>1.44</v>
       </c>
       <c r="AT141">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU141">
         <v>1.6</v>
@@ -28121,7 +28139,7 @@
         <v>181</v>
       </c>
       <c r="P142" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q142">
         <v>10</v>
@@ -28312,7 +28330,7 @@
         <v>139</v>
       </c>
       <c r="P143" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -28694,7 +28712,7 @@
         <v>183</v>
       </c>
       <c r="P145" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q145">
         <v>7</v>
@@ -28836,6 +28854,961 @@
       </c>
       <c r="BK145">
         <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:63">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>4867500</v>
+      </c>
+      <c r="C146" t="s">
+        <v>63</v>
+      </c>
+      <c r="D146" t="s">
+        <v>64</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45156.58333333334</v>
+      </c>
+      <c r="F146">
+        <v>19</v>
+      </c>
+      <c r="G146" t="s">
+        <v>73</v>
+      </c>
+      <c r="H146" t="s">
+        <v>80</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>3</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>3</v>
+      </c>
+      <c r="O146" t="s">
+        <v>184</v>
+      </c>
+      <c r="P146" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q146">
+        <v>4</v>
+      </c>
+      <c r="R146">
+        <v>4</v>
+      </c>
+      <c r="S146">
+        <v>8</v>
+      </c>
+      <c r="T146">
+        <v>1.95</v>
+      </c>
+      <c r="U146">
+        <v>2.38</v>
+      </c>
+      <c r="V146">
+        <v>6</v>
+      </c>
+      <c r="W146">
+        <v>1.33</v>
+      </c>
+      <c r="X146">
+        <v>3</v>
+      </c>
+      <c r="Y146">
+        <v>2.5</v>
+      </c>
+      <c r="Z146">
+        <v>1.48</v>
+      </c>
+      <c r="AA146">
+        <v>5.5</v>
+      </c>
+      <c r="AB146">
+        <v>1.11</v>
+      </c>
+      <c r="AC146">
+        <v>1.4</v>
+      </c>
+      <c r="AD146">
+        <v>4.5</v>
+      </c>
+      <c r="AE146">
+        <v>6.8</v>
+      </c>
+      <c r="AF146">
+        <v>1</v>
+      </c>
+      <c r="AG146">
+        <v>11</v>
+      </c>
+      <c r="AH146">
+        <v>1.22</v>
+      </c>
+      <c r="AI146">
+        <v>3.8</v>
+      </c>
+      <c r="AJ146">
+        <v>1.7</v>
+      </c>
+      <c r="AK146">
+        <v>2</v>
+      </c>
+      <c r="AL146">
+        <v>1.91</v>
+      </c>
+      <c r="AM146">
+        <v>1.8</v>
+      </c>
+      <c r="AN146">
+        <v>1.13</v>
+      </c>
+      <c r="AO146">
+        <v>1.2</v>
+      </c>
+      <c r="AP146">
+        <v>2.7</v>
+      </c>
+      <c r="AQ146">
+        <v>1.56</v>
+      </c>
+      <c r="AR146">
+        <v>1</v>
+      </c>
+      <c r="AS146">
+        <v>1.7</v>
+      </c>
+      <c r="AT146">
+        <v>0.9</v>
+      </c>
+      <c r="AU146">
+        <v>2.06</v>
+      </c>
+      <c r="AV146">
+        <v>1.44</v>
+      </c>
+      <c r="AW146">
+        <v>3.5</v>
+      </c>
+      <c r="AX146">
+        <v>1.2</v>
+      </c>
+      <c r="AY146">
+        <v>11</v>
+      </c>
+      <c r="AZ146">
+        <v>5.75</v>
+      </c>
+      <c r="BA146">
+        <v>0</v>
+      </c>
+      <c r="BB146">
+        <v>1.24</v>
+      </c>
+      <c r="BC146">
+        <v>1.4</v>
+      </c>
+      <c r="BD146">
+        <v>1.67</v>
+      </c>
+      <c r="BE146">
+        <v>2</v>
+      </c>
+      <c r="BF146">
+        <v>7</v>
+      </c>
+      <c r="BG146">
+        <v>3</v>
+      </c>
+      <c r="BH146">
+        <v>3</v>
+      </c>
+      <c r="BI146">
+        <v>6</v>
+      </c>
+      <c r="BJ146">
+        <v>10</v>
+      </c>
+      <c r="BK146">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:63">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>4867507</v>
+      </c>
+      <c r="C147" t="s">
+        <v>63</v>
+      </c>
+      <c r="D147" t="s">
+        <v>64</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45156.58333333334</v>
+      </c>
+      <c r="F147">
+        <v>19</v>
+      </c>
+      <c r="G147" t="s">
+        <v>68</v>
+      </c>
+      <c r="H147" t="s">
+        <v>78</v>
+      </c>
+      <c r="I147">
+        <v>3</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>3</v>
+      </c>
+      <c r="L147">
+        <v>4</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>4</v>
+      </c>
+      <c r="O147" t="s">
+        <v>185</v>
+      </c>
+      <c r="P147" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q147">
+        <v>4</v>
+      </c>
+      <c r="R147">
+        <v>2</v>
+      </c>
+      <c r="S147">
+        <v>6</v>
+      </c>
+      <c r="T147">
+        <v>3.3</v>
+      </c>
+      <c r="U147">
+        <v>2.15</v>
+      </c>
+      <c r="V147">
+        <v>3</v>
+      </c>
+      <c r="W147">
+        <v>1.33</v>
+      </c>
+      <c r="X147">
+        <v>3</v>
+      </c>
+      <c r="Y147">
+        <v>2.5</v>
+      </c>
+      <c r="Z147">
+        <v>1.48</v>
+      </c>
+      <c r="AA147">
+        <v>5.75</v>
+      </c>
+      <c r="AB147">
+        <v>1.1</v>
+      </c>
+      <c r="AC147">
+        <v>2.75</v>
+      </c>
+      <c r="AD147">
+        <v>3.4</v>
+      </c>
+      <c r="AE147">
+        <v>2.38</v>
+      </c>
+      <c r="AF147">
+        <v>1.05</v>
+      </c>
+      <c r="AG147">
+        <v>9</v>
+      </c>
+      <c r="AH147">
+        <v>1.25</v>
+      </c>
+      <c r="AI147">
+        <v>3.6</v>
+      </c>
+      <c r="AJ147">
+        <v>1.86</v>
+      </c>
+      <c r="AK147">
+        <v>2</v>
+      </c>
+      <c r="AL147">
+        <v>1.67</v>
+      </c>
+      <c r="AM147">
+        <v>2.1</v>
+      </c>
+      <c r="AN147">
+        <v>1.5</v>
+      </c>
+      <c r="AO147">
+        <v>1.3</v>
+      </c>
+      <c r="AP147">
+        <v>1.44</v>
+      </c>
+      <c r="AQ147">
+        <v>2.44</v>
+      </c>
+      <c r="AR147">
+        <v>2.33</v>
+      </c>
+      <c r="AS147">
+        <v>2.5</v>
+      </c>
+      <c r="AT147">
+        <v>2.1</v>
+      </c>
+      <c r="AU147">
+        <v>1.74</v>
+      </c>
+      <c r="AV147">
+        <v>1.67</v>
+      </c>
+      <c r="AW147">
+        <v>3.41</v>
+      </c>
+      <c r="AX147">
+        <v>2.15</v>
+      </c>
+      <c r="AY147">
+        <v>7.5</v>
+      </c>
+      <c r="AZ147">
+        <v>2</v>
+      </c>
+      <c r="BA147">
+        <v>1.2</v>
+      </c>
+      <c r="BB147">
+        <v>1.36</v>
+      </c>
+      <c r="BC147">
+        <v>1.62</v>
+      </c>
+      <c r="BD147">
+        <v>1.96</v>
+      </c>
+      <c r="BE147">
+        <v>2.43</v>
+      </c>
+      <c r="BF147">
+        <v>6</v>
+      </c>
+      <c r="BG147">
+        <v>4</v>
+      </c>
+      <c r="BH147">
+        <v>5</v>
+      </c>
+      <c r="BI147">
+        <v>4</v>
+      </c>
+      <c r="BJ147">
+        <v>11</v>
+      </c>
+      <c r="BK147">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:63">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>4867505</v>
+      </c>
+      <c r="C148" t="s">
+        <v>63</v>
+      </c>
+      <c r="D148" t="s">
+        <v>64</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45157.33333333334</v>
+      </c>
+      <c r="F148">
+        <v>19</v>
+      </c>
+      <c r="G148" t="s">
+        <v>75</v>
+      </c>
+      <c r="H148" t="s">
+        <v>66</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <v>2</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>2</v>
+      </c>
+      <c r="O148" t="s">
+        <v>186</v>
+      </c>
+      <c r="P148" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q148">
+        <v>8</v>
+      </c>
+      <c r="R148">
+        <v>7</v>
+      </c>
+      <c r="S148">
+        <v>15</v>
+      </c>
+      <c r="T148">
+        <v>2.78</v>
+      </c>
+      <c r="U148">
+        <v>2.26</v>
+      </c>
+      <c r="V148">
+        <v>3.3</v>
+      </c>
+      <c r="W148">
+        <v>1.3</v>
+      </c>
+      <c r="X148">
+        <v>3.4</v>
+      </c>
+      <c r="Y148">
+        <v>2.38</v>
+      </c>
+      <c r="Z148">
+        <v>1.53</v>
+      </c>
+      <c r="AA148">
+        <v>5</v>
+      </c>
+      <c r="AB148">
+        <v>1.14</v>
+      </c>
+      <c r="AC148">
+        <v>2.25</v>
+      </c>
+      <c r="AD148">
+        <v>3.6</v>
+      </c>
+      <c r="AE148">
+        <v>2.83</v>
+      </c>
+      <c r="AF148">
+        <v>1.03</v>
+      </c>
+      <c r="AG148">
+        <v>11</v>
+      </c>
+      <c r="AH148">
+        <v>1.2</v>
+      </c>
+      <c r="AI148">
+        <v>4.33</v>
+      </c>
+      <c r="AJ148">
+        <v>1.67</v>
+      </c>
+      <c r="AK148">
+        <v>2.1</v>
+      </c>
+      <c r="AL148">
+        <v>1.54</v>
+      </c>
+      <c r="AM148">
+        <v>2.32</v>
+      </c>
+      <c r="AN148">
+        <v>1.4</v>
+      </c>
+      <c r="AO148">
+        <v>1.26</v>
+      </c>
+      <c r="AP148">
+        <v>1.57</v>
+      </c>
+      <c r="AQ148">
+        <v>1.13</v>
+      </c>
+      <c r="AR148">
+        <v>1.22</v>
+      </c>
+      <c r="AS148">
+        <v>1.33</v>
+      </c>
+      <c r="AT148">
+        <v>1.1</v>
+      </c>
+      <c r="AU148">
+        <v>1.44</v>
+      </c>
+      <c r="AV148">
+        <v>1.41</v>
+      </c>
+      <c r="AW148">
+        <v>2.85</v>
+      </c>
+      <c r="AX148">
+        <v>1.87</v>
+      </c>
+      <c r="AY148">
+        <v>7.5</v>
+      </c>
+      <c r="AZ148">
+        <v>2.3</v>
+      </c>
+      <c r="BA148">
+        <v>0</v>
+      </c>
+      <c r="BB148">
+        <v>1.22</v>
+      </c>
+      <c r="BC148">
+        <v>1.4</v>
+      </c>
+      <c r="BD148">
+        <v>1.68</v>
+      </c>
+      <c r="BE148">
+        <v>2.12</v>
+      </c>
+      <c r="BF148">
+        <v>9</v>
+      </c>
+      <c r="BG148">
+        <v>0</v>
+      </c>
+      <c r="BH148">
+        <v>8</v>
+      </c>
+      <c r="BI148">
+        <v>7</v>
+      </c>
+      <c r="BJ148">
+        <v>17</v>
+      </c>
+      <c r="BK148">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:63">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>4867502</v>
+      </c>
+      <c r="C149" t="s">
+        <v>63</v>
+      </c>
+      <c r="D149" t="s">
+        <v>64</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45157.33333333334</v>
+      </c>
+      <c r="F149">
+        <v>19</v>
+      </c>
+      <c r="G149" t="s">
+        <v>74</v>
+      </c>
+      <c r="H149" t="s">
+        <v>65</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>3</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>3</v>
+      </c>
+      <c r="O149" t="s">
+        <v>187</v>
+      </c>
+      <c r="P149" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q149">
+        <v>7</v>
+      </c>
+      <c r="R149">
+        <v>6</v>
+      </c>
+      <c r="S149">
+        <v>13</v>
+      </c>
+      <c r="T149">
+        <v>2.8</v>
+      </c>
+      <c r="U149">
+        <v>2.25</v>
+      </c>
+      <c r="V149">
+        <v>3.3</v>
+      </c>
+      <c r="W149">
+        <v>1.33</v>
+      </c>
+      <c r="X149">
+        <v>3</v>
+      </c>
+      <c r="Y149">
+        <v>2.5</v>
+      </c>
+      <c r="Z149">
+        <v>1.48</v>
+      </c>
+      <c r="AA149">
+        <v>5.5</v>
+      </c>
+      <c r="AB149">
+        <v>1.11</v>
+      </c>
+      <c r="AC149">
+        <v>2.3</v>
+      </c>
+      <c r="AD149">
+        <v>3.2</v>
+      </c>
+      <c r="AE149">
+        <v>2.75</v>
+      </c>
+      <c r="AF149">
+        <v>1.04</v>
+      </c>
+      <c r="AG149">
+        <v>10</v>
+      </c>
+      <c r="AH149">
+        <v>1.25</v>
+      </c>
+      <c r="AI149">
+        <v>3.6</v>
+      </c>
+      <c r="AJ149">
+        <v>1.83</v>
+      </c>
+      <c r="AK149">
+        <v>1.87</v>
+      </c>
+      <c r="AL149">
+        <v>1.62</v>
+      </c>
+      <c r="AM149">
+        <v>2.2</v>
+      </c>
+      <c r="AN149">
+        <v>1.43</v>
+      </c>
+      <c r="AO149">
+        <v>1.29</v>
+      </c>
+      <c r="AP149">
+        <v>1.62</v>
+      </c>
+      <c r="AQ149">
+        <v>1.56</v>
+      </c>
+      <c r="AR149">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS149">
+        <v>1.7</v>
+      </c>
+      <c r="AT149">
+        <v>0.5</v>
+      </c>
+      <c r="AU149">
+        <v>1.58</v>
+      </c>
+      <c r="AV149">
+        <v>1.56</v>
+      </c>
+      <c r="AW149">
+        <v>3.14</v>
+      </c>
+      <c r="AX149">
+        <v>1.72</v>
+      </c>
+      <c r="AY149">
+        <v>7.5</v>
+      </c>
+      <c r="AZ149">
+        <v>2.6</v>
+      </c>
+      <c r="BA149">
+        <v>1.18</v>
+      </c>
+      <c r="BB149">
+        <v>1.3</v>
+      </c>
+      <c r="BC149">
+        <v>1.55</v>
+      </c>
+      <c r="BD149">
+        <v>1.98</v>
+      </c>
+      <c r="BE149">
+        <v>2.5</v>
+      </c>
+      <c r="BF149">
+        <v>5</v>
+      </c>
+      <c r="BG149">
+        <v>5</v>
+      </c>
+      <c r="BH149">
+        <v>5</v>
+      </c>
+      <c r="BI149">
+        <v>9</v>
+      </c>
+      <c r="BJ149">
+        <v>10</v>
+      </c>
+      <c r="BK149">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150" spans="1:63">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>4867503</v>
+      </c>
+      <c r="C150" t="s">
+        <v>63</v>
+      </c>
+      <c r="D150" t="s">
+        <v>64</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45157.41666666666</v>
+      </c>
+      <c r="F150">
+        <v>19</v>
+      </c>
+      <c r="G150" t="s">
+        <v>71</v>
+      </c>
+      <c r="H150" t="s">
+        <v>72</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>2</v>
+      </c>
+      <c r="M150">
+        <v>2</v>
+      </c>
+      <c r="N150">
+        <v>4</v>
+      </c>
+      <c r="O150" t="s">
+        <v>188</v>
+      </c>
+      <c r="P150" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q150">
+        <v>8</v>
+      </c>
+      <c r="R150">
+        <v>3</v>
+      </c>
+      <c r="S150">
+        <v>11</v>
+      </c>
+      <c r="T150">
+        <v>2.8</v>
+      </c>
+      <c r="U150">
+        <v>2.15</v>
+      </c>
+      <c r="V150">
+        <v>3.6</v>
+      </c>
+      <c r="W150">
+        <v>1.36</v>
+      </c>
+      <c r="X150">
+        <v>2.9</v>
+      </c>
+      <c r="Y150">
+        <v>2.62</v>
+      </c>
+      <c r="Z150">
+        <v>1.42</v>
+      </c>
+      <c r="AA150">
+        <v>6</v>
+      </c>
+      <c r="AB150">
+        <v>1.09</v>
+      </c>
+      <c r="AC150">
+        <v>2.2</v>
+      </c>
+      <c r="AD150">
+        <v>3.1</v>
+      </c>
+      <c r="AE150">
+        <v>3</v>
+      </c>
+      <c r="AF150">
+        <v>1.02</v>
+      </c>
+      <c r="AG150">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH150">
+        <v>1.22</v>
+      </c>
+      <c r="AI150">
+        <v>3.8</v>
+      </c>
+      <c r="AJ150">
+        <v>1.79</v>
+      </c>
+      <c r="AK150">
+        <v>1.98</v>
+      </c>
+      <c r="AL150">
+        <v>1.65</v>
+      </c>
+      <c r="AM150">
+        <v>2.1</v>
+      </c>
+      <c r="AN150">
+        <v>1.4</v>
+      </c>
+      <c r="AO150">
+        <v>1.29</v>
+      </c>
+      <c r="AP150">
+        <v>1.65</v>
+      </c>
+      <c r="AQ150">
+        <v>1.78</v>
+      </c>
+      <c r="AR150">
+        <v>1</v>
+      </c>
+      <c r="AS150">
+        <v>1.7</v>
+      </c>
+      <c r="AT150">
+        <v>1</v>
+      </c>
+      <c r="AU150">
+        <v>1.39</v>
+      </c>
+      <c r="AV150">
+        <v>1.32</v>
+      </c>
+      <c r="AW150">
+        <v>2.71</v>
+      </c>
+      <c r="AX150">
+        <v>1.79</v>
+      </c>
+      <c r="AY150">
+        <v>7.5</v>
+      </c>
+      <c r="AZ150">
+        <v>2.43</v>
+      </c>
+      <c r="BA150">
+        <v>1.2</v>
+      </c>
+      <c r="BB150">
+        <v>1.3</v>
+      </c>
+      <c r="BC150">
+        <v>1.55</v>
+      </c>
+      <c r="BD150">
+        <v>2</v>
+      </c>
+      <c r="BE150">
+        <v>2.5</v>
+      </c>
+      <c r="BF150">
+        <v>3</v>
+      </c>
+      <c r="BG150">
+        <v>3</v>
+      </c>
+      <c r="BH150">
+        <v>5</v>
+      </c>
+      <c r="BI150">
+        <v>3</v>
+      </c>
+      <c r="BJ150">
+        <v>8</v>
+      </c>
+      <c r="BK150">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="266">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -583,6 +583,15 @@
     <t>['66', '86']</t>
   </si>
   <si>
+    <t>['70', '72']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['33', '41']</t>
+  </si>
+  <si>
     <t>['50', '80']</t>
   </si>
   <si>
@@ -794,6 +803,15 @@
   </si>
   <si>
     <t>['70', '82']</t>
+  </si>
+  <si>
+    <t>['5']</t>
+  </si>
+  <si>
+    <t>['4', '11', '90+6']</t>
+  </si>
+  <si>
+    <t>['80', '90']</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1173,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK150"/>
+  <dimension ref="A1:BK153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1399,7 +1417,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1781,7 +1799,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -1868,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT4">
         <v>0.89</v>
@@ -2163,7 +2181,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2354,7 +2372,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2441,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT7">
         <v>0.9</v>
@@ -2635,7 +2653,7 @@
         <v>1.7</v>
       </c>
       <c r="AT8">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2826,7 +2844,7 @@
         <v>0.89</v>
       </c>
       <c r="AT9">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3118,7 +3136,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -3309,7 +3327,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3590,7 +3608,7 @@
         <v>1.5</v>
       </c>
       <c r="AT13">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3778,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT14">
         <v>1</v>
@@ -4073,7 +4091,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4455,7 +4473,7 @@
         <v>83</v>
       </c>
       <c r="P18" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -5028,7 +5046,7 @@
         <v>83</v>
       </c>
       <c r="P21" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q21">
         <v>2</v>
@@ -5219,7 +5237,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -5410,7 +5428,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5688,7 +5706,7 @@
         <v>1</v>
       </c>
       <c r="AS24">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT24">
         <v>0.89</v>
@@ -5792,7 +5810,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -5882,7 +5900,7 @@
         <v>1</v>
       </c>
       <c r="AT25">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU25">
         <v>1.61</v>
@@ -6556,7 +6574,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -6643,7 +6661,7 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT29">
         <v>2.22</v>
@@ -6747,7 +6765,7 @@
         <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -6837,7 +6855,7 @@
         <v>1</v>
       </c>
       <c r="AT30">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU30">
         <v>1.31</v>
@@ -6938,7 +6956,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q31">
         <v>11</v>
@@ -7025,7 +7043,7 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT31">
         <v>0.89</v>
@@ -7410,7 +7428,7 @@
         <v>2.33</v>
       </c>
       <c r="AT33">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU33">
         <v>1.76</v>
@@ -7511,7 +7529,7 @@
         <v>83</v>
       </c>
       <c r="P34" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q34">
         <v>11</v>
@@ -7601,7 +7619,7 @@
         <v>1.67</v>
       </c>
       <c r="AT34">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU34">
         <v>1.32</v>
@@ -8466,7 +8484,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q39">
         <v>7</v>
@@ -8553,7 +8571,7 @@
         <v>3</v>
       </c>
       <c r="AS39">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT39">
         <v>1.1</v>
@@ -8657,7 +8675,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -8848,7 +8866,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -9230,7 +9248,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9421,7 +9439,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9508,7 +9526,7 @@
         <v>2</v>
       </c>
       <c r="AS44">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT44">
         <v>2.1</v>
@@ -9612,7 +9630,7 @@
         <v>113</v>
       </c>
       <c r="P45" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9702,7 +9720,7 @@
         <v>1.33</v>
       </c>
       <c r="AT45">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU45">
         <v>1.56</v>
@@ -9803,7 +9821,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q46">
         <v>9</v>
@@ -10185,7 +10203,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10272,10 +10290,10 @@
         <v>3</v>
       </c>
       <c r="AS48">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT48">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU48">
         <v>2.24</v>
@@ -10376,7 +10394,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10567,7 +10585,7 @@
         <v>118</v>
       </c>
       <c r="P50" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10758,7 +10776,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -11140,7 +11158,7 @@
         <v>120</v>
       </c>
       <c r="P53" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q53">
         <v>2</v>
@@ -11331,7 +11349,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11418,7 +11436,7 @@
         <v>0</v>
       </c>
       <c r="AS54">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT54">
         <v>0.4</v>
@@ -11609,10 +11627,10 @@
         <v>2.33</v>
       </c>
       <c r="AS55">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT55">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU55">
         <v>1.57</v>
@@ -11713,7 +11731,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q56">
         <v>7</v>
@@ -12286,7 +12304,7 @@
         <v>124</v>
       </c>
       <c r="P59" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12376,7 +12394,7 @@
         <v>1.7</v>
       </c>
       <c r="AT59">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU59">
         <v>1.67</v>
@@ -12668,7 +12686,7 @@
         <v>125</v>
       </c>
       <c r="P61" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -12859,7 +12877,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -12949,7 +12967,7 @@
         <v>1.44</v>
       </c>
       <c r="AT62">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU62">
         <v>1.38</v>
@@ -13241,7 +13259,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13331,7 +13349,7 @@
         <v>2.33</v>
       </c>
       <c r="AT64">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU64">
         <v>1.91</v>
@@ -13519,7 +13537,7 @@
         <v>2</v>
       </c>
       <c r="AS65">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT65">
         <v>1.1</v>
@@ -14283,7 +14301,7 @@
         <v>1</v>
       </c>
       <c r="AS69">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT69">
         <v>0.89</v>
@@ -14387,7 +14405,7 @@
         <v>132</v>
       </c>
       <c r="P70" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -14474,7 +14492,7 @@
         <v>2.25</v>
       </c>
       <c r="AS70">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT70">
         <v>2.1</v>
@@ -14769,7 +14787,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q72">
         <v>9</v>
@@ -15241,7 +15259,7 @@
         <v>2.5</v>
       </c>
       <c r="AT74">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU74">
         <v>1.25</v>
@@ -15342,7 +15360,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15432,7 +15450,7 @@
         <v>1.78</v>
       </c>
       <c r="AT75">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU75">
         <v>1.67</v>
@@ -15533,7 +15551,7 @@
         <v>138</v>
       </c>
       <c r="P76" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q76">
         <v>7</v>
@@ -15724,7 +15742,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q77">
         <v>9</v>
@@ -15811,7 +15829,7 @@
         <v>1.5</v>
       </c>
       <c r="AS77">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT77">
         <v>1.1</v>
@@ -16106,7 +16124,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16196,7 +16214,7 @@
         <v>1.7</v>
       </c>
       <c r="AT79">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU79">
         <v>1.5</v>
@@ -16488,7 +16506,7 @@
         <v>83</v>
       </c>
       <c r="P81" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -16679,7 +16697,7 @@
         <v>83</v>
       </c>
       <c r="P82" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -17061,7 +17079,7 @@
         <v>88</v>
       </c>
       <c r="P84" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q84">
         <v>1</v>
@@ -17530,7 +17548,7 @@
         <v>0.8</v>
       </c>
       <c r="AS86">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT86">
         <v>0.5</v>
@@ -17721,7 +17739,7 @@
         <v>0.25</v>
       </c>
       <c r="AS87">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT87">
         <v>0.78</v>
@@ -17825,7 +17843,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -18016,7 +18034,7 @@
         <v>83</v>
       </c>
       <c r="P89" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18207,7 +18225,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18294,10 +18312,10 @@
         <v>2</v>
       </c>
       <c r="AS90">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT90">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU90">
         <v>1.4</v>
@@ -19162,7 +19180,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q95">
         <v>1</v>
@@ -19443,7 +19461,7 @@
         <v>1.7</v>
       </c>
       <c r="AT96">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU96">
         <v>2.14</v>
@@ -19544,7 +19562,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -19735,7 +19753,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -19926,7 +19944,7 @@
         <v>152</v>
       </c>
       <c r="P99" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q99">
         <v>8</v>
@@ -20016,7 +20034,7 @@
         <v>1.5</v>
       </c>
       <c r="AT99">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU99">
         <v>1.61</v>
@@ -20117,7 +20135,7 @@
         <v>153</v>
       </c>
       <c r="P100" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q100">
         <v>2</v>
@@ -20395,7 +20413,7 @@
         <v>0.83</v>
       </c>
       <c r="AS101">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT101">
         <v>0.9</v>
@@ -20881,7 +20899,7 @@
         <v>83</v>
       </c>
       <c r="P104" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -20968,7 +20986,7 @@
         <v>2.33</v>
       </c>
       <c r="AS104">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT104">
         <v>2.22</v>
@@ -21162,7 +21180,7 @@
         <v>0.89</v>
       </c>
       <c r="AT105">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU105">
         <v>1.57</v>
@@ -21263,7 +21281,7 @@
         <v>156</v>
       </c>
       <c r="P106" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -21645,7 +21663,7 @@
         <v>123</v>
       </c>
       <c r="P108" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q108">
         <v>11</v>
@@ -21732,7 +21750,7 @@
         <v>0.83</v>
       </c>
       <c r="AS108">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT108">
         <v>1</v>
@@ -22027,7 +22045,7 @@
         <v>159</v>
       </c>
       <c r="P110" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22409,7 +22427,7 @@
         <v>161</v>
       </c>
       <c r="P112" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q112">
         <v>1</v>
@@ -22791,7 +22809,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -23173,7 +23191,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23260,10 +23278,10 @@
         <v>1.14</v>
       </c>
       <c r="AS116">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT116">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU116">
         <v>1.3</v>
@@ -23364,7 +23382,7 @@
         <v>165</v>
       </c>
       <c r="P117" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q117">
         <v>13</v>
@@ -23454,7 +23472,7 @@
         <v>1</v>
       </c>
       <c r="AT117">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU117">
         <v>1.42</v>
@@ -23555,7 +23573,7 @@
         <v>166</v>
       </c>
       <c r="P118" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -23836,7 +23854,7 @@
         <v>1.78</v>
       </c>
       <c r="AT119">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU119">
         <v>1.6</v>
@@ -23937,7 +23955,7 @@
         <v>168</v>
       </c>
       <c r="P120" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q120">
         <v>7</v>
@@ -24128,7 +24146,7 @@
         <v>83</v>
       </c>
       <c r="P121" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q121">
         <v>8</v>
@@ -24510,7 +24528,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24788,7 +24806,7 @@
         <v>0.57</v>
       </c>
       <c r="AS124">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT124">
         <v>0.5</v>
@@ -25083,7 +25101,7 @@
         <v>83</v>
       </c>
       <c r="P126" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -25170,7 +25188,7 @@
         <v>0.57</v>
       </c>
       <c r="AS126">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT126">
         <v>0.78</v>
@@ -25656,7 +25674,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -25847,7 +25865,7 @@
         <v>174</v>
       </c>
       <c r="P130" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -25937,7 +25955,7 @@
         <v>1.44</v>
       </c>
       <c r="AT130">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU130">
         <v>1.53</v>
@@ -26038,7 +26056,7 @@
         <v>83</v>
       </c>
       <c r="P131" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q131">
         <v>1</v>
@@ -26316,7 +26334,7 @@
         <v>0.63</v>
       </c>
       <c r="AS132">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT132">
         <v>0.5</v>
@@ -26510,7 +26528,7 @@
         <v>1.7</v>
       </c>
       <c r="AT133">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU133">
         <v>1.67</v>
@@ -26611,7 +26629,7 @@
         <v>83</v>
       </c>
       <c r="P134" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -26802,7 +26820,7 @@
         <v>176</v>
       </c>
       <c r="P135" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q135">
         <v>9</v>
@@ -26993,7 +27011,7 @@
         <v>177</v>
       </c>
       <c r="P136" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q136">
         <v>2</v>
@@ -27080,10 +27098,10 @@
         <v>0.71</v>
       </c>
       <c r="AS136">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT136">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU136">
         <v>1.37</v>
@@ -27184,7 +27202,7 @@
         <v>178</v>
       </c>
       <c r="P137" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q137">
         <v>4</v>
@@ -27375,7 +27393,7 @@
         <v>83</v>
       </c>
       <c r="P138" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -27566,7 +27584,7 @@
         <v>179</v>
       </c>
       <c r="P139" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -27757,7 +27775,7 @@
         <v>180</v>
       </c>
       <c r="P140" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q140">
         <v>5</v>
@@ -27948,7 +27966,7 @@
         <v>167</v>
       </c>
       <c r="P141" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q141">
         <v>6</v>
@@ -28139,7 +28157,7 @@
         <v>181</v>
       </c>
       <c r="P142" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q142">
         <v>10</v>
@@ -28330,7 +28348,7 @@
         <v>139</v>
       </c>
       <c r="P143" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -28712,7 +28730,7 @@
         <v>183</v>
       </c>
       <c r="P145" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q145">
         <v>7</v>
@@ -28799,7 +28817,7 @@
         <v>0.11</v>
       </c>
       <c r="AS145">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT145">
         <v>0.4</v>
@@ -29414,19 +29432,19 @@
         <v>9</v>
       </c>
       <c r="BG148">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH148">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BI148">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BJ148">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BK148">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="149" spans="1:63">
@@ -29608,16 +29626,16 @@
         <v>5</v>
       </c>
       <c r="BH149">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BI149">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BJ149">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BK149">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="150" spans="1:63">
@@ -29667,7 +29685,7 @@
         <v>188</v>
       </c>
       <c r="P150" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q150">
         <v>8</v>
@@ -29793,22 +29811,595 @@
         <v>2.5</v>
       </c>
       <c r="BF150">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG150">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH150">
+        <v>3</v>
+      </c>
+      <c r="BI150">
+        <v>3</v>
+      </c>
+      <c r="BJ150">
+        <v>7</v>
+      </c>
+      <c r="BK150">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:63">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>4867504</v>
+      </c>
+      <c r="C151" t="s">
+        <v>63</v>
+      </c>
+      <c r="D151" t="s">
+        <v>64</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45157.5</v>
+      </c>
+      <c r="F151">
+        <v>19</v>
+      </c>
+      <c r="G151" t="s">
+        <v>77</v>
+      </c>
+      <c r="H151" t="s">
+        <v>76</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>1</v>
+      </c>
+      <c r="K151">
+        <v>1</v>
+      </c>
+      <c r="L151">
+        <v>2</v>
+      </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+      <c r="N151">
+        <v>3</v>
+      </c>
+      <c r="O151" t="s">
+        <v>189</v>
+      </c>
+      <c r="P151" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q151">
+        <v>4</v>
+      </c>
+      <c r="R151">
+        <v>7</v>
+      </c>
+      <c r="S151">
+        <v>11</v>
+      </c>
+      <c r="T151">
+        <v>3.6</v>
+      </c>
+      <c r="U151">
+        <v>2.15</v>
+      </c>
+      <c r="V151">
+        <v>2.6</v>
+      </c>
+      <c r="W151">
+        <v>1.36</v>
+      </c>
+      <c r="X151">
+        <v>3</v>
+      </c>
+      <c r="Y151">
+        <v>2.62</v>
+      </c>
+      <c r="Z151">
+        <v>1.44</v>
+      </c>
+      <c r="AA151">
+        <v>6</v>
+      </c>
+      <c r="AB151">
+        <v>1.11</v>
+      </c>
+      <c r="AC151">
+        <v>3.49</v>
+      </c>
+      <c r="AD151">
+        <v>3.5</v>
+      </c>
+      <c r="AE151">
+        <v>1.95</v>
+      </c>
+      <c r="AF151">
+        <v>1.05</v>
+      </c>
+      <c r="AG151">
+        <v>9</v>
+      </c>
+      <c r="AH151">
+        <v>1.29</v>
+      </c>
+      <c r="AI151">
+        <v>3.5</v>
+      </c>
+      <c r="AJ151">
+        <v>1.74</v>
+      </c>
+      <c r="AK151">
+        <v>1.98</v>
+      </c>
+      <c r="AL151">
+        <v>1.67</v>
+      </c>
+      <c r="AM151">
+        <v>2.1</v>
+      </c>
+      <c r="AN151">
+        <v>1.73</v>
+      </c>
+      <c r="AO151">
+        <v>1.3</v>
+      </c>
+      <c r="AP151">
+        <v>1.29</v>
+      </c>
+      <c r="AQ151">
+        <v>1.89</v>
+      </c>
+      <c r="AR151">
+        <v>0.75</v>
+      </c>
+      <c r="AS151">
+        <v>2</v>
+      </c>
+      <c r="AT151">
+        <v>0.67</v>
+      </c>
+      <c r="AU151">
+        <v>1.25</v>
+      </c>
+      <c r="AV151">
+        <v>1.65</v>
+      </c>
+      <c r="AW151">
+        <v>2.9</v>
+      </c>
+      <c r="AX151">
+        <v>2.75</v>
+      </c>
+      <c r="AY151">
+        <v>7.5</v>
+      </c>
+      <c r="AZ151">
+        <v>1.65</v>
+      </c>
+      <c r="BA151">
+        <v>1.17</v>
+      </c>
+      <c r="BB151">
+        <v>1.32</v>
+      </c>
+      <c r="BC151">
+        <v>1.58</v>
+      </c>
+      <c r="BD151">
+        <v>1.98</v>
+      </c>
+      <c r="BE151">
+        <v>2.6</v>
+      </c>
+      <c r="BF151">
+        <v>3</v>
+      </c>
+      <c r="BG151">
+        <v>3</v>
+      </c>
+      <c r="BH151">
+        <v>0</v>
+      </c>
+      <c r="BI151">
+        <v>2</v>
+      </c>
+      <c r="BJ151">
+        <v>3</v>
+      </c>
+      <c r="BK151">
         <v>5</v>
       </c>
-      <c r="BI150">
-        <v>3</v>
-      </c>
-      <c r="BJ150">
+    </row>
+    <row r="152" spans="1:63">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>4867506</v>
+      </c>
+      <c r="C152" t="s">
+        <v>63</v>
+      </c>
+      <c r="D152" t="s">
+        <v>64</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45158.41666666666</v>
+      </c>
+      <c r="F152">
+        <v>19</v>
+      </c>
+      <c r="G152" t="s">
+        <v>67</v>
+      </c>
+      <c r="H152" t="s">
+        <v>79</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>2</v>
+      </c>
+      <c r="K152">
+        <v>2</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+      <c r="M152">
+        <v>3</v>
+      </c>
+      <c r="N152">
+        <v>4</v>
+      </c>
+      <c r="O152" t="s">
+        <v>190</v>
+      </c>
+      <c r="P152" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q152">
+        <v>5</v>
+      </c>
+      <c r="R152">
+        <v>5</v>
+      </c>
+      <c r="S152">
+        <v>10</v>
+      </c>
+      <c r="T152">
+        <v>3.6</v>
+      </c>
+      <c r="U152">
+        <v>2.15</v>
+      </c>
+      <c r="V152">
+        <v>2.55</v>
+      </c>
+      <c r="W152">
+        <v>1.36</v>
+      </c>
+      <c r="X152">
+        <v>2.9</v>
+      </c>
+      <c r="Y152">
+        <v>2.65</v>
+      </c>
+      <c r="Z152">
+        <v>1.42</v>
+      </c>
+      <c r="AA152">
+        <v>5.75</v>
+      </c>
+      <c r="AB152">
+        <v>1.1</v>
+      </c>
+      <c r="AC152">
+        <v>3.35</v>
+      </c>
+      <c r="AD152">
+        <v>3.6</v>
+      </c>
+      <c r="AE152">
+        <v>1.98</v>
+      </c>
+      <c r="AF152">
+        <v>1.05</v>
+      </c>
+      <c r="AG152">
+        <v>12.75</v>
+      </c>
+      <c r="AH152">
+        <v>1.25</v>
+      </c>
+      <c r="AI152">
+        <v>3.6</v>
+      </c>
+      <c r="AJ152">
+        <v>1.84</v>
+      </c>
+      <c r="AK152">
+        <v>2.02</v>
+      </c>
+      <c r="AL152">
+        <v>1.67</v>
+      </c>
+      <c r="AM152">
+        <v>2.1</v>
+      </c>
+      <c r="AN152">
+        <v>1.75</v>
+      </c>
+      <c r="AO152">
+        <v>1.3</v>
+      </c>
+      <c r="AP152">
+        <v>1.32</v>
+      </c>
+      <c r="AQ152">
+        <v>1.44</v>
+      </c>
+      <c r="AR152">
+        <v>1.67</v>
+      </c>
+      <c r="AS152">
+        <v>1.3</v>
+      </c>
+      <c r="AT152">
+        <v>1.8</v>
+      </c>
+      <c r="AU152">
+        <v>1.32</v>
+      </c>
+      <c r="AV152">
+        <v>1.64</v>
+      </c>
+      <c r="AW152">
+        <v>2.96</v>
+      </c>
+      <c r="AX152">
+        <v>2.7</v>
+      </c>
+      <c r="AY152">
+        <v>7</v>
+      </c>
+      <c r="AZ152">
+        <v>1.7</v>
+      </c>
+      <c r="BA152">
+        <v>1.18</v>
+      </c>
+      <c r="BB152">
+        <v>1.31</v>
+      </c>
+      <c r="BC152">
+        <v>1.55</v>
+      </c>
+      <c r="BD152">
+        <v>1.88</v>
+      </c>
+      <c r="BE152">
+        <v>2.5</v>
+      </c>
+      <c r="BF152">
+        <v>3</v>
+      </c>
+      <c r="BG152">
+        <v>7</v>
+      </c>
+      <c r="BH152">
+        <v>5</v>
+      </c>
+      <c r="BI152">
+        <v>3</v>
+      </c>
+      <c r="BJ152">
         <v>8</v>
       </c>
-      <c r="BK150">
+      <c r="BK152">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:63">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>4867501</v>
+      </c>
+      <c r="C153" t="s">
+        <v>63</v>
+      </c>
+      <c r="D153" t="s">
+        <v>64</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45158.41666666666</v>
+      </c>
+      <c r="F153">
+        <v>19</v>
+      </c>
+      <c r="G153" t="s">
+        <v>70</v>
+      </c>
+      <c r="H153" t="s">
+        <v>69</v>
+      </c>
+      <c r="I153">
+        <v>2</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>2</v>
+      </c>
+      <c r="L153">
+        <v>2</v>
+      </c>
+      <c r="M153">
+        <v>2</v>
+      </c>
+      <c r="N153">
+        <v>4</v>
+      </c>
+      <c r="O153" t="s">
+        <v>191</v>
+      </c>
+      <c r="P153" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q153">
+        <v>7</v>
+      </c>
+      <c r="R153">
+        <v>2</v>
+      </c>
+      <c r="S153">
+        <v>9</v>
+      </c>
+      <c r="T153">
+        <v>2.5</v>
+      </c>
+      <c r="U153">
+        <v>2.1</v>
+      </c>
+      <c r="V153">
+        <v>4.2</v>
+      </c>
+      <c r="W153">
+        <v>1.35</v>
+      </c>
+      <c r="X153">
+        <v>2.9</v>
+      </c>
+      <c r="Y153">
+        <v>2.75</v>
+      </c>
+      <c r="Z153">
+        <v>1.4</v>
+      </c>
+      <c r="AA153">
+        <v>5.8</v>
+      </c>
+      <c r="AB153">
+        <v>1.1</v>
+      </c>
+      <c r="AC153">
+        <v>2.26</v>
+      </c>
+      <c r="AD153">
+        <v>3.6</v>
+      </c>
+      <c r="AE153">
+        <v>2.78</v>
+      </c>
+      <c r="AF153">
+        <v>1.05</v>
+      </c>
+      <c r="AG153">
+        <v>7.8</v>
+      </c>
+      <c r="AH153">
+        <v>1.27</v>
+      </c>
+      <c r="AI153">
+        <v>3.4</v>
+      </c>
+      <c r="AJ153">
+        <v>1.84</v>
+      </c>
+      <c r="AK153">
+        <v>2.02</v>
+      </c>
+      <c r="AL153">
+        <v>1.67</v>
+      </c>
+      <c r="AM153">
+        <v>2.05</v>
+      </c>
+      <c r="AN153">
+        <v>1.33</v>
+      </c>
+      <c r="AO153">
+        <v>1.3</v>
+      </c>
+      <c r="AP153">
+        <v>1.73</v>
+      </c>
+      <c r="AQ153">
+        <v>1.11</v>
+      </c>
+      <c r="AR153">
+        <v>1.33</v>
+      </c>
+      <c r="AS153">
+        <v>1.1</v>
+      </c>
+      <c r="AT153">
+        <v>1.3</v>
+      </c>
+      <c r="AU153">
+        <v>1.95</v>
+      </c>
+      <c r="AV153">
+        <v>1.33</v>
+      </c>
+      <c r="AW153">
+        <v>3.28</v>
+      </c>
+      <c r="AX153">
+        <v>1.72</v>
+      </c>
+      <c r="AY153">
+        <v>7.5</v>
+      </c>
+      <c r="AZ153">
+        <v>2.6</v>
+      </c>
+      <c r="BA153">
+        <v>1.18</v>
+      </c>
+      <c r="BB153">
+        <v>1.3</v>
+      </c>
+      <c r="BC153">
+        <v>1.55</v>
+      </c>
+      <c r="BD153">
+        <v>2</v>
+      </c>
+      <c r="BE153">
+        <v>2.5</v>
+      </c>
+      <c r="BF153">
+        <v>5</v>
+      </c>
+      <c r="BG153">
+        <v>7</v>
+      </c>
+      <c r="BH153">
+        <v>1</v>
+      </c>
+      <c r="BI153">
+        <v>4</v>
+      </c>
+      <c r="BJ153">
         <v>6</v>
+      </c>
+      <c r="BK153">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="271">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -592,6 +592,18 @@
     <t>['33', '41']</t>
   </si>
   <si>
+    <t>['19']</t>
+  </si>
+  <si>
+    <t>['63', '73', '89']</t>
+  </si>
+  <si>
+    <t>['15', '58']</t>
+  </si>
+  <si>
+    <t>['69', '87']</t>
+  </si>
+  <si>
     <t>['50', '80']</t>
   </si>
   <si>
@@ -787,9 +799,6 @@
     <t>['9', '45', '64', '86']</t>
   </si>
   <si>
-    <t>['19']</t>
-  </si>
-  <si>
     <t>['85', '90+5']</t>
   </si>
   <si>
@@ -812,6 +821,12 @@
   </si>
   <si>
     <t>['80', '90']</t>
+  </si>
+  <si>
+    <t>['72']</t>
+  </si>
+  <si>
+    <t>['55', '58']</t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1188,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK153"/>
+  <dimension ref="A1:BK157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1417,7 +1432,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1504,10 +1519,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT2">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1799,7 +1814,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -2181,7 +2196,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2268,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT6">
         <v>1.78</v>
@@ -2372,7 +2387,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -3136,7 +3151,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -3226,7 +3241,7 @@
         <v>1.7</v>
       </c>
       <c r="AT11">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3327,7 +3342,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3605,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT13">
         <v>1.3</v>
@@ -3990,7 +4005,7 @@
         <v>2.33</v>
       </c>
       <c r="AT15">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4091,7 +4106,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4178,7 +4193,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT16">
         <v>1</v>
@@ -4473,7 +4488,7 @@
         <v>83</v>
       </c>
       <c r="P18" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -4563,7 +4578,7 @@
         <v>0.89</v>
       </c>
       <c r="AT18">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU18">
         <v>1.48</v>
@@ -4751,7 +4766,7 @@
         <v>1</v>
       </c>
       <c r="AS19">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT19">
         <v>0.9</v>
@@ -5046,7 +5061,7 @@
         <v>83</v>
       </c>
       <c r="P21" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q21">
         <v>2</v>
@@ -5133,7 +5148,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT21">
         <v>0.5</v>
@@ -5237,7 +5252,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -5428,7 +5443,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5709,7 +5724,7 @@
         <v>1.3</v>
       </c>
       <c r="AT24">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU24">
         <v>1.45</v>
@@ -5810,7 +5825,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -6470,7 +6485,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT28">
         <v>1</v>
@@ -6574,7 +6589,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -6664,7 +6679,7 @@
         <v>2</v>
       </c>
       <c r="AT29">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AU29">
         <v>1.12</v>
@@ -6765,7 +6780,7 @@
         <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -6956,7 +6971,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q31">
         <v>11</v>
@@ -7234,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT32">
         <v>0.4</v>
@@ -7529,7 +7544,7 @@
         <v>83</v>
       </c>
       <c r="P34" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q34">
         <v>11</v>
@@ -7616,7 +7631,7 @@
         <v>2</v>
       </c>
       <c r="AS34">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT34">
         <v>1.3</v>
@@ -8001,7 +8016,7 @@
         <v>1.7</v>
       </c>
       <c r="AT36">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU36">
         <v>1.24</v>
@@ -8380,7 +8395,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT38">
         <v>0.9</v>
@@ -8484,7 +8499,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q39">
         <v>7</v>
@@ -8675,7 +8690,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -8765,7 +8780,7 @@
         <v>2.5</v>
       </c>
       <c r="AT40">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU40">
         <v>1.36</v>
@@ -8866,7 +8881,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -9147,7 +9162,7 @@
         <v>1.44</v>
       </c>
       <c r="AT42">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AU42">
         <v>1.43</v>
@@ -9248,7 +9263,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9335,7 +9350,7 @@
         <v>1</v>
       </c>
       <c r="AS43">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT43">
         <v>0.89</v>
@@ -9439,7 +9454,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9529,7 +9544,7 @@
         <v>2</v>
       </c>
       <c r="AT44">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU44">
         <v>1.11</v>
@@ -9630,7 +9645,7 @@
         <v>113</v>
       </c>
       <c r="P45" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9821,7 +9836,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q46">
         <v>9</v>
@@ -10099,7 +10114,7 @@
         <v>3</v>
       </c>
       <c r="AS47">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT47">
         <v>1.1</v>
@@ -10203,7 +10218,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10394,7 +10409,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10585,7 +10600,7 @@
         <v>118</v>
       </c>
       <c r="P50" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10776,7 +10791,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -10863,7 +10878,7 @@
         <v>1.33</v>
       </c>
       <c r="AS51">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT51">
         <v>1.78</v>
@@ -11158,7 +11173,7 @@
         <v>120</v>
       </c>
       <c r="P53" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q53">
         <v>2</v>
@@ -11349,7 +11364,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11731,7 +11746,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q56">
         <v>7</v>
@@ -12009,10 +12024,10 @@
         <v>0.33</v>
       </c>
       <c r="AS57">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT57">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU57">
         <v>1.46</v>
@@ -12200,7 +12215,7 @@
         <v>1</v>
       </c>
       <c r="AS58">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT58">
         <v>0.89</v>
@@ -12304,7 +12319,7 @@
         <v>124</v>
       </c>
       <c r="P59" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12686,7 +12701,7 @@
         <v>125</v>
       </c>
       <c r="P61" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -12877,7 +12892,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13158,7 +13173,7 @@
         <v>0.89</v>
       </c>
       <c r="AT63">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AU63">
         <v>1.24</v>
@@ -13259,7 +13274,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13919,7 +13934,7 @@
         <v>0.33</v>
       </c>
       <c r="AS67">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT67">
         <v>0.78</v>
@@ -14405,7 +14420,7 @@
         <v>132</v>
       </c>
       <c r="P70" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -14495,7 +14510,7 @@
         <v>1.3</v>
       </c>
       <c r="AT70">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU70">
         <v>1.51</v>
@@ -14787,7 +14802,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q72">
         <v>9</v>
@@ -14874,10 +14889,10 @@
         <v>2</v>
       </c>
       <c r="AS72">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT72">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AU72">
         <v>1.9</v>
@@ -15065,7 +15080,7 @@
         <v>0.25</v>
       </c>
       <c r="AS73">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT73">
         <v>1</v>
@@ -15360,7 +15375,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15447,7 +15462,7 @@
         <v>1.6</v>
       </c>
       <c r="AS75">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT75">
         <v>1.3</v>
@@ -15551,7 +15566,7 @@
         <v>138</v>
       </c>
       <c r="P76" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q76">
         <v>7</v>
@@ -15742,7 +15757,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q77">
         <v>9</v>
@@ -16124,7 +16139,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16506,7 +16521,7 @@
         <v>83</v>
       </c>
       <c r="P81" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -16596,7 +16611,7 @@
         <v>1.7</v>
       </c>
       <c r="AT81">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU81">
         <v>2.15</v>
@@ -16697,7 +16712,7 @@
         <v>83</v>
       </c>
       <c r="P82" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -16784,10 +16799,10 @@
         <v>2.2</v>
       </c>
       <c r="AS82">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT82">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AU82">
         <v>1.29</v>
@@ -16975,7 +16990,7 @@
         <v>0.8</v>
       </c>
       <c r="AS83">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT83">
         <v>0.89</v>
@@ -17079,7 +17094,7 @@
         <v>88</v>
       </c>
       <c r="P84" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q84">
         <v>1</v>
@@ -17166,10 +17181,10 @@
         <v>1.8</v>
       </c>
       <c r="AS84">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT84">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU84">
         <v>1.78</v>
@@ -17843,7 +17858,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -18034,7 +18049,7 @@
         <v>83</v>
       </c>
       <c r="P89" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18225,7 +18240,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -19180,7 +19195,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q95">
         <v>1</v>
@@ -19267,7 +19282,7 @@
         <v>0.8</v>
       </c>
       <c r="AS95">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT95">
         <v>0.78</v>
@@ -19562,7 +19577,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -19649,10 +19664,10 @@
         <v>1</v>
       </c>
       <c r="AS97">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT97">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU97">
         <v>1.66</v>
@@ -19753,7 +19768,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -19944,7 +19959,7 @@
         <v>152</v>
       </c>
       <c r="P99" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q99">
         <v>8</v>
@@ -20031,7 +20046,7 @@
         <v>1.67</v>
       </c>
       <c r="AS99">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT99">
         <v>1.8</v>
@@ -20135,7 +20150,7 @@
         <v>153</v>
       </c>
       <c r="P100" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q100">
         <v>2</v>
@@ -20225,7 +20240,7 @@
         <v>1</v>
       </c>
       <c r="AT100">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU100">
         <v>1.48</v>
@@ -20604,10 +20619,10 @@
         <v>0.83</v>
       </c>
       <c r="AS102">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT102">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU102">
         <v>1.65</v>
@@ -20899,7 +20914,7 @@
         <v>83</v>
       </c>
       <c r="P104" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -20989,7 +21004,7 @@
         <v>1.3</v>
       </c>
       <c r="AT104">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AU104">
         <v>1.47</v>
@@ -21281,7 +21296,7 @@
         <v>156</v>
       </c>
       <c r="P106" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -21368,7 +21383,7 @@
         <v>0.14</v>
       </c>
       <c r="AS106">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT106">
         <v>0.4</v>
@@ -21663,7 +21678,7 @@
         <v>123</v>
       </c>
       <c r="P108" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q108">
         <v>11</v>
@@ -21944,7 +21959,7 @@
         <v>2.33</v>
       </c>
       <c r="AT109">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AU109">
         <v>1.84</v>
@@ -22045,7 +22060,7 @@
         <v>159</v>
       </c>
       <c r="P110" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22132,7 +22147,7 @@
         <v>0.67</v>
       </c>
       <c r="AS110">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT110">
         <v>0.78</v>
@@ -22427,7 +22442,7 @@
         <v>161</v>
       </c>
       <c r="P112" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q112">
         <v>1</v>
@@ -22705,7 +22720,7 @@
         <v>0.67</v>
       </c>
       <c r="AS113">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT113">
         <v>1</v>
@@ -22809,7 +22824,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -23090,7 +23105,7 @@
         <v>1.33</v>
       </c>
       <c r="AT115">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU115">
         <v>1.47</v>
@@ -23191,7 +23206,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23382,7 +23397,7 @@
         <v>165</v>
       </c>
       <c r="P117" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q117">
         <v>13</v>
@@ -23573,7 +23588,7 @@
         <v>166</v>
       </c>
       <c r="P118" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -23851,7 +23866,7 @@
         <v>1.57</v>
       </c>
       <c r="AS119">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT119">
         <v>1.8</v>
@@ -23955,7 +23970,7 @@
         <v>168</v>
       </c>
       <c r="P120" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q120">
         <v>7</v>
@@ -24146,7 +24161,7 @@
         <v>83</v>
       </c>
       <c r="P121" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q121">
         <v>8</v>
@@ -24236,7 +24251,7 @@
         <v>1.7</v>
       </c>
       <c r="AT121">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU121">
         <v>2.2</v>
@@ -24528,7 +24543,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24615,7 +24630,7 @@
         <v>1.29</v>
       </c>
       <c r="AS123">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT123">
         <v>1.1</v>
@@ -24997,7 +25012,7 @@
         <v>1.14</v>
       </c>
       <c r="AS125">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT125">
         <v>0.89</v>
@@ -25101,7 +25116,7 @@
         <v>83</v>
       </c>
       <c r="P126" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -25570,7 +25585,7 @@
         <v>1.71</v>
       </c>
       <c r="AS128">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT128">
         <v>1.78</v>
@@ -25674,7 +25689,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -25865,7 +25880,7 @@
         <v>174</v>
       </c>
       <c r="P130" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -26056,7 +26071,7 @@
         <v>83</v>
       </c>
       <c r="P131" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q131">
         <v>1</v>
@@ -26146,7 +26161,7 @@
         <v>1.7</v>
       </c>
       <c r="AT131">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AU131">
         <v>1.46</v>
@@ -26629,7 +26644,7 @@
         <v>83</v>
       </c>
       <c r="P134" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -26719,7 +26734,7 @@
         <v>1.33</v>
       </c>
       <c r="AT134">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU134">
         <v>1.44</v>
@@ -26820,7 +26835,7 @@
         <v>176</v>
       </c>
       <c r="P135" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q135">
         <v>9</v>
@@ -27011,7 +27026,7 @@
         <v>177</v>
       </c>
       <c r="P136" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q136">
         <v>2</v>
@@ -27202,7 +27217,7 @@
         <v>178</v>
       </c>
       <c r="P137" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q137">
         <v>4</v>
@@ -27292,7 +27307,7 @@
         <v>0.89</v>
       </c>
       <c r="AT137">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU137">
         <v>1.6</v>
@@ -27393,7 +27408,7 @@
         <v>83</v>
       </c>
       <c r="P138" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -27480,7 +27495,7 @@
         <v>1.63</v>
       </c>
       <c r="AS138">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT138">
         <v>1.78</v>
@@ -27584,7 +27599,7 @@
         <v>179</v>
       </c>
       <c r="P139" t="s">
-        <v>257</v>
+        <v>192</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -27775,7 +27790,7 @@
         <v>180</v>
       </c>
       <c r="P140" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q140">
         <v>5</v>
@@ -27862,7 +27877,7 @@
         <v>0.63</v>
       </c>
       <c r="AS140">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT140">
         <v>0.89</v>
@@ -27966,7 +27981,7 @@
         <v>167</v>
       </c>
       <c r="P141" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q141">
         <v>6</v>
@@ -28053,7 +28068,7 @@
         <v>1</v>
       </c>
       <c r="AS141">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT141">
         <v>0.9</v>
@@ -28157,7 +28172,7 @@
         <v>181</v>
       </c>
       <c r="P142" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q142">
         <v>10</v>
@@ -28348,7 +28363,7 @@
         <v>139</v>
       </c>
       <c r="P143" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -28626,7 +28641,7 @@
         <v>1</v>
       </c>
       <c r="AS144">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT144">
         <v>0.89</v>
@@ -28730,7 +28745,7 @@
         <v>183</v>
       </c>
       <c r="P145" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q145">
         <v>7</v>
@@ -29202,7 +29217,7 @@
         <v>2.5</v>
       </c>
       <c r="AT147">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU147">
         <v>1.74</v>
@@ -29685,7 +29700,7 @@
         <v>188</v>
       </c>
       <c r="P150" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q150">
         <v>8</v>
@@ -29876,7 +29891,7 @@
         <v>189</v>
       </c>
       <c r="P151" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -30067,7 +30082,7 @@
         <v>190</v>
       </c>
       <c r="P152" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q152">
         <v>5</v>
@@ -30258,7 +30273,7 @@
         <v>191</v>
       </c>
       <c r="P153" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q153">
         <v>7</v>
@@ -30400,6 +30415,770 @@
       </c>
       <c r="BK153">
         <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="1:63">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>4867509</v>
+      </c>
+      <c r="C154" t="s">
+        <v>63</v>
+      </c>
+      <c r="D154" t="s">
+        <v>64</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45164.41666666666</v>
+      </c>
+      <c r="F154">
+        <v>20</v>
+      </c>
+      <c r="G154" t="s">
+        <v>76</v>
+      </c>
+      <c r="H154" t="s">
+        <v>78</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>1</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="M154">
+        <v>1</v>
+      </c>
+      <c r="N154">
+        <v>2</v>
+      </c>
+      <c r="O154" t="s">
+        <v>192</v>
+      </c>
+      <c r="P154" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q154">
+        <v>8</v>
+      </c>
+      <c r="R154">
+        <v>3</v>
+      </c>
+      <c r="S154">
+        <v>11</v>
+      </c>
+      <c r="T154">
+        <v>3.6</v>
+      </c>
+      <c r="U154">
+        <v>2.15</v>
+      </c>
+      <c r="V154">
+        <v>2.8</v>
+      </c>
+      <c r="W154">
+        <v>1.38</v>
+      </c>
+      <c r="X154">
+        <v>2.8</v>
+      </c>
+      <c r="Y154">
+        <v>2.7</v>
+      </c>
+      <c r="Z154">
+        <v>1.4</v>
+      </c>
+      <c r="AA154">
+        <v>6</v>
+      </c>
+      <c r="AB154">
+        <v>1.09</v>
+      </c>
+      <c r="AC154">
+        <v>2.92</v>
+      </c>
+      <c r="AD154">
+        <v>3.02</v>
+      </c>
+      <c r="AE154">
+        <v>2.18</v>
+      </c>
+      <c r="AF154">
+        <v>1.05</v>
+      </c>
+      <c r="AG154">
+        <v>12</v>
+      </c>
+      <c r="AH154">
+        <v>1.29</v>
+      </c>
+      <c r="AI154">
+        <v>3.4</v>
+      </c>
+      <c r="AJ154">
+        <v>1.91</v>
+      </c>
+      <c r="AK154">
+        <v>1.93</v>
+      </c>
+      <c r="AL154">
+        <v>1.73</v>
+      </c>
+      <c r="AM154">
+        <v>2.06</v>
+      </c>
+      <c r="AN154">
+        <v>1.62</v>
+      </c>
+      <c r="AO154">
+        <v>1.33</v>
+      </c>
+      <c r="AP154">
+        <v>1.38</v>
+      </c>
+      <c r="AQ154">
+        <v>1.5</v>
+      </c>
+      <c r="AR154">
+        <v>2.1</v>
+      </c>
+      <c r="AS154">
+        <v>1.45</v>
+      </c>
+      <c r="AT154">
+        <v>2</v>
+      </c>
+      <c r="AU154">
+        <v>1.68</v>
+      </c>
+      <c r="AV154">
+        <v>1.61</v>
+      </c>
+      <c r="AW154">
+        <v>3.29</v>
+      </c>
+      <c r="AX154">
+        <v>2.4</v>
+      </c>
+      <c r="AY154">
+        <v>7</v>
+      </c>
+      <c r="AZ154">
+        <v>1.85</v>
+      </c>
+      <c r="BA154">
+        <v>0</v>
+      </c>
+      <c r="BB154">
+        <v>1.22</v>
+      </c>
+      <c r="BC154">
+        <v>1.44</v>
+      </c>
+      <c r="BD154">
+        <v>1.83</v>
+      </c>
+      <c r="BE154">
+        <v>2.11</v>
+      </c>
+      <c r="BF154">
+        <v>7</v>
+      </c>
+      <c r="BG154">
+        <v>7</v>
+      </c>
+      <c r="BH154">
+        <v>8</v>
+      </c>
+      <c r="BI154">
+        <v>3</v>
+      </c>
+      <c r="BJ154">
+        <v>15</v>
+      </c>
+      <c r="BK154">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:63">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>4867512</v>
+      </c>
+      <c r="C155" t="s">
+        <v>63</v>
+      </c>
+      <c r="D155" t="s">
+        <v>64</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45165.33333333334</v>
+      </c>
+      <c r="F155">
+        <v>20</v>
+      </c>
+      <c r="G155" t="s">
+        <v>65</v>
+      </c>
+      <c r="H155" t="s">
+        <v>68</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>3</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <v>3</v>
+      </c>
+      <c r="O155" t="s">
+        <v>193</v>
+      </c>
+      <c r="P155" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q155">
+        <v>5</v>
+      </c>
+      <c r="R155">
+        <v>3</v>
+      </c>
+      <c r="S155">
+        <v>8</v>
+      </c>
+      <c r="T155">
+        <v>3.75</v>
+      </c>
+      <c r="U155">
+        <v>2.2</v>
+      </c>
+      <c r="V155">
+        <v>2.88</v>
+      </c>
+      <c r="W155">
+        <v>1.4</v>
+      </c>
+      <c r="X155">
+        <v>2.75</v>
+      </c>
+      <c r="Y155">
+        <v>2.75</v>
+      </c>
+      <c r="Z155">
+        <v>1.4</v>
+      </c>
+      <c r="AA155">
+        <v>8</v>
+      </c>
+      <c r="AB155">
+        <v>1.08</v>
+      </c>
+      <c r="AC155">
+        <v>2.8</v>
+      </c>
+      <c r="AD155">
+        <v>3.3</v>
+      </c>
+      <c r="AE155">
+        <v>2.4</v>
+      </c>
+      <c r="AF155">
+        <v>1.05</v>
+      </c>
+      <c r="AG155">
+        <v>12</v>
+      </c>
+      <c r="AH155">
+        <v>1.29</v>
+      </c>
+      <c r="AI155">
+        <v>3.67</v>
+      </c>
+      <c r="AJ155">
+        <v>1.9</v>
+      </c>
+      <c r="AK155">
+        <v>1.91</v>
+      </c>
+      <c r="AL155">
+        <v>1.75</v>
+      </c>
+      <c r="AM155">
+        <v>2</v>
+      </c>
+      <c r="AN155">
+        <v>1.68</v>
+      </c>
+      <c r="AO155">
+        <v>1.25</v>
+      </c>
+      <c r="AP155">
+        <v>1.36</v>
+      </c>
+      <c r="AQ155">
+        <v>1.78</v>
+      </c>
+      <c r="AR155">
+        <v>2.22</v>
+      </c>
+      <c r="AS155">
+        <v>1.9</v>
+      </c>
+      <c r="AT155">
+        <v>2</v>
+      </c>
+      <c r="AU155">
+        <v>1.52</v>
+      </c>
+      <c r="AV155">
+        <v>1.43</v>
+      </c>
+      <c r="AW155">
+        <v>2.95</v>
+      </c>
+      <c r="AX155">
+        <v>2.6</v>
+      </c>
+      <c r="AY155">
+        <v>6.5</v>
+      </c>
+      <c r="AZ155">
+        <v>1.78</v>
+      </c>
+      <c r="BA155">
+        <v>1.3</v>
+      </c>
+      <c r="BB155">
+        <v>1.57</v>
+      </c>
+      <c r="BC155">
+        <v>1.92</v>
+      </c>
+      <c r="BD155">
+        <v>2.42</v>
+      </c>
+      <c r="BE155">
+        <v>3</v>
+      </c>
+      <c r="BF155">
+        <v>9</v>
+      </c>
+      <c r="BG155">
+        <v>3</v>
+      </c>
+      <c r="BH155">
+        <v>3</v>
+      </c>
+      <c r="BI155">
+        <v>8</v>
+      </c>
+      <c r="BJ155">
+        <v>12</v>
+      </c>
+      <c r="BK155">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:63">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>4867513</v>
+      </c>
+      <c r="C156" t="s">
+        <v>63</v>
+      </c>
+      <c r="D156" t="s">
+        <v>64</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45165.41666666666</v>
+      </c>
+      <c r="F156">
+        <v>20</v>
+      </c>
+      <c r="G156" t="s">
+        <v>79</v>
+      </c>
+      <c r="H156" t="s">
+        <v>70</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>1</v>
+      </c>
+      <c r="L156">
+        <v>2</v>
+      </c>
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="N156">
+        <v>2</v>
+      </c>
+      <c r="O156" t="s">
+        <v>194</v>
+      </c>
+      <c r="P156" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q156">
+        <v>10</v>
+      </c>
+      <c r="R156">
+        <v>6</v>
+      </c>
+      <c r="S156">
+        <v>16</v>
+      </c>
+      <c r="T156">
+        <v>2.05</v>
+      </c>
+      <c r="U156">
+        <v>2.35</v>
+      </c>
+      <c r="V156">
+        <v>5</v>
+      </c>
+      <c r="W156">
+        <v>1.32</v>
+      </c>
+      <c r="X156">
+        <v>3.2</v>
+      </c>
+      <c r="Y156">
+        <v>2.4</v>
+      </c>
+      <c r="Z156">
+        <v>1.5</v>
+      </c>
+      <c r="AA156">
+        <v>6</v>
+      </c>
+      <c r="AB156">
+        <v>1.12</v>
+      </c>
+      <c r="AC156">
+        <v>1.6</v>
+      </c>
+      <c r="AD156">
+        <v>4</v>
+      </c>
+      <c r="AE156">
+        <v>5</v>
+      </c>
+      <c r="AF156">
+        <v>1.04</v>
+      </c>
+      <c r="AG156">
+        <v>15</v>
+      </c>
+      <c r="AH156">
+        <v>1.22</v>
+      </c>
+      <c r="AI156">
+        <v>4.33</v>
+      </c>
+      <c r="AJ156">
+        <v>1.62</v>
+      </c>
+      <c r="AK156">
+        <v>2.3</v>
+      </c>
+      <c r="AL156">
+        <v>1.67</v>
+      </c>
+      <c r="AM156">
+        <v>2.1</v>
+      </c>
+      <c r="AN156">
+        <v>1.17</v>
+      </c>
+      <c r="AO156">
+        <v>1.25</v>
+      </c>
+      <c r="AP156">
+        <v>2.25</v>
+      </c>
+      <c r="AQ156">
+        <v>1.67</v>
+      </c>
+      <c r="AR156">
+        <v>0.89</v>
+      </c>
+      <c r="AS156">
+        <v>1.8</v>
+      </c>
+      <c r="AT156">
+        <v>0.8</v>
+      </c>
+      <c r="AU156">
+        <v>1.62</v>
+      </c>
+      <c r="AV156">
+        <v>1.69</v>
+      </c>
+      <c r="AW156">
+        <v>3.31</v>
+      </c>
+      <c r="AX156">
+        <v>1.38</v>
+      </c>
+      <c r="AY156">
+        <v>8</v>
+      </c>
+      <c r="AZ156">
+        <v>4</v>
+      </c>
+      <c r="BA156">
+        <v>1.13</v>
+      </c>
+      <c r="BB156">
+        <v>1.29</v>
+      </c>
+      <c r="BC156">
+        <v>1.48</v>
+      </c>
+      <c r="BD156">
+        <v>2</v>
+      </c>
+      <c r="BE156">
+        <v>2.16</v>
+      </c>
+      <c r="BF156">
+        <v>7</v>
+      </c>
+      <c r="BG156">
+        <v>8</v>
+      </c>
+      <c r="BH156">
+        <v>7</v>
+      </c>
+      <c r="BI156">
+        <v>4</v>
+      </c>
+      <c r="BJ156">
+        <v>14</v>
+      </c>
+      <c r="BK156">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157" spans="1:63">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>4867514</v>
+      </c>
+      <c r="C157" t="s">
+        <v>63</v>
+      </c>
+      <c r="D157" t="s">
+        <v>64</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45165.41666666666</v>
+      </c>
+      <c r="F157">
+        <v>20</v>
+      </c>
+      <c r="G157" t="s">
+        <v>69</v>
+      </c>
+      <c r="H157" t="s">
+        <v>67</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>2</v>
+      </c>
+      <c r="M157">
+        <v>2</v>
+      </c>
+      <c r="N157">
+        <v>4</v>
+      </c>
+      <c r="O157" t="s">
+        <v>195</v>
+      </c>
+      <c r="P157" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q157">
+        <v>6</v>
+      </c>
+      <c r="R157">
+        <v>2</v>
+      </c>
+      <c r="S157">
+        <v>8</v>
+      </c>
+      <c r="T157">
+        <v>2.55</v>
+      </c>
+      <c r="U157">
+        <v>2.15</v>
+      </c>
+      <c r="V157">
+        <v>3.9</v>
+      </c>
+      <c r="W157">
+        <v>1.35</v>
+      </c>
+      <c r="X157">
+        <v>2.95</v>
+      </c>
+      <c r="Y157">
+        <v>2.65</v>
+      </c>
+      <c r="Z157">
+        <v>1.42</v>
+      </c>
+      <c r="AA157">
+        <v>6.75</v>
+      </c>
+      <c r="AB157">
+        <v>1.1</v>
+      </c>
+      <c r="AC157">
+        <v>1.95</v>
+      </c>
+      <c r="AD157">
+        <v>3.5</v>
+      </c>
+      <c r="AE157">
+        <v>3.6</v>
+      </c>
+      <c r="AF157">
+        <v>1.05</v>
+      </c>
+      <c r="AG157">
+        <v>13</v>
+      </c>
+      <c r="AH157">
+        <v>1.27</v>
+      </c>
+      <c r="AI157">
+        <v>3.85</v>
+      </c>
+      <c r="AJ157">
+        <v>1.85</v>
+      </c>
+      <c r="AK157">
+        <v>1.95</v>
+      </c>
+      <c r="AL157">
+        <v>1.72</v>
+      </c>
+      <c r="AM157">
+        <v>2.1</v>
+      </c>
+      <c r="AN157">
+        <v>1.3</v>
+      </c>
+      <c r="AO157">
+        <v>1.3</v>
+      </c>
+      <c r="AP157">
+        <v>1.78</v>
+      </c>
+      <c r="AQ157">
+        <v>1.44</v>
+      </c>
+      <c r="AR157">
+        <v>1</v>
+      </c>
+      <c r="AS157">
+        <v>1.4</v>
+      </c>
+      <c r="AT157">
+        <v>1</v>
+      </c>
+      <c r="AU157">
+        <v>1.66</v>
+      </c>
+      <c r="AV157">
+        <v>1.2</v>
+      </c>
+      <c r="AW157">
+        <v>2.86</v>
+      </c>
+      <c r="AX157">
+        <v>1.69</v>
+      </c>
+      <c r="AY157">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ157">
+        <v>2.54</v>
+      </c>
+      <c r="BA157">
+        <v>1.2</v>
+      </c>
+      <c r="BB157">
+        <v>1.36</v>
+      </c>
+      <c r="BC157">
+        <v>1.69</v>
+      </c>
+      <c r="BD157">
+        <v>2.1</v>
+      </c>
+      <c r="BE157">
+        <v>2.38</v>
+      </c>
+      <c r="BF157">
+        <v>5</v>
+      </c>
+      <c r="BG157">
+        <v>4</v>
+      </c>
+      <c r="BH157">
+        <v>5</v>
+      </c>
+      <c r="BI157">
+        <v>2</v>
+      </c>
+      <c r="BJ157">
+        <v>10</v>
+      </c>
+      <c r="BK157">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="275">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -604,6 +604,15 @@
     <t>['69', '87']</t>
   </si>
   <si>
+    <t>['17', '36', '44']</t>
+  </si>
+  <si>
+    <t>['29', '52']</t>
+  </si>
+  <si>
+    <t>['18', '58', '75']</t>
+  </si>
+  <si>
     <t>['50', '80']</t>
   </si>
   <si>
@@ -827,6 +836,9 @@
   </si>
   <si>
     <t>['55', '58']</t>
+  </si>
+  <si>
+    <t>['68']</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1200,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK157"/>
+  <dimension ref="A1:BK160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1432,7 +1444,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1710,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT3">
         <v>0.78</v>
@@ -1814,7 +1826,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -1904,7 +1916,7 @@
         <v>1.3</v>
       </c>
       <c r="AT4">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2095,7 +2107,7 @@
         <v>2.5</v>
       </c>
       <c r="AT5">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2196,7 +2208,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2387,7 +2399,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -3047,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT10">
         <v>0.5</v>
@@ -3151,7 +3163,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -3342,7 +3354,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3432,7 +3444,7 @@
         <v>1.33</v>
       </c>
       <c r="AT12">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -4106,7 +4118,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4384,7 +4396,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT17">
         <v>1.1</v>
@@ -4488,7 +4500,7 @@
         <v>83</v>
       </c>
       <c r="P18" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -4960,7 +4972,7 @@
         <v>1.7</v>
       </c>
       <c r="AT20">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU20">
         <v>1.03</v>
@@ -5061,7 +5073,7 @@
         <v>83</v>
       </c>
       <c r="P21" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q21">
         <v>2</v>
@@ -5252,7 +5264,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -5443,7 +5455,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5533,7 +5545,7 @@
         <v>1.7</v>
       </c>
       <c r="AT23">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU23">
         <v>1.04</v>
@@ -5825,7 +5837,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -5912,7 +5924,7 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT25">
         <v>1.3</v>
@@ -6103,7 +6115,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT26">
         <v>1</v>
@@ -6294,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT27">
         <v>0.78</v>
@@ -6589,7 +6601,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -6780,7 +6792,7 @@
         <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -6867,7 +6879,7 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT30">
         <v>1.8</v>
@@ -6971,7 +6983,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q31">
         <v>11</v>
@@ -7061,7 +7073,7 @@
         <v>1.1</v>
       </c>
       <c r="AT31">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU31">
         <v>2.48</v>
@@ -7252,7 +7264,7 @@
         <v>1.4</v>
       </c>
       <c r="AT32">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU32">
         <v>1.34</v>
@@ -7544,7 +7556,7 @@
         <v>83</v>
       </c>
       <c r="P34" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q34">
         <v>11</v>
@@ -7825,7 +7837,7 @@
         <v>1.7</v>
       </c>
       <c r="AT35">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU35">
         <v>1.5</v>
@@ -8499,7 +8511,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q39">
         <v>7</v>
@@ -8690,7 +8702,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -8881,7 +8893,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -9159,7 +9171,7 @@
         <v>2</v>
       </c>
       <c r="AS42">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT42">
         <v>2</v>
@@ -9263,7 +9275,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9353,7 +9365,7 @@
         <v>1.4</v>
       </c>
       <c r="AT43">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU43">
         <v>1.88</v>
@@ -9454,7 +9466,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9645,7 +9657,7 @@
         <v>113</v>
       </c>
       <c r="P45" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9836,7 +9848,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q46">
         <v>9</v>
@@ -9923,7 +9935,7 @@
         <v>0</v>
       </c>
       <c r="AS46">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT46">
         <v>1</v>
@@ -10218,7 +10230,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10409,7 +10421,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10600,7 +10612,7 @@
         <v>118</v>
       </c>
       <c r="P50" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10791,7 +10803,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -11173,7 +11185,7 @@
         <v>120</v>
       </c>
       <c r="P53" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q53">
         <v>2</v>
@@ -11364,7 +11376,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11454,7 +11466,7 @@
         <v>2</v>
       </c>
       <c r="AT54">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU54">
         <v>1.01</v>
@@ -11746,7 +11758,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q56">
         <v>7</v>
@@ -11833,7 +11845,7 @@
         <v>0</v>
       </c>
       <c r="AS56">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT56">
         <v>1</v>
@@ -12218,7 +12230,7 @@
         <v>1.9</v>
       </c>
       <c r="AT58">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU58">
         <v>1.6</v>
@@ -12319,7 +12331,7 @@
         <v>124</v>
       </c>
       <c r="P59" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12597,10 +12609,10 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT60">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU60">
         <v>2.16</v>
@@ -12701,7 +12713,7 @@
         <v>125</v>
       </c>
       <c r="P61" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -12892,7 +12904,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -12979,7 +12991,7 @@
         <v>1.75</v>
       </c>
       <c r="AS62">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT62">
         <v>1.3</v>
@@ -13274,7 +13286,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13743,7 +13755,7 @@
         <v>1.75</v>
       </c>
       <c r="AS66">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT66">
         <v>1.78</v>
@@ -14319,7 +14331,7 @@
         <v>1.1</v>
       </c>
       <c r="AT69">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU69">
         <v>2.01</v>
@@ -14420,7 +14432,7 @@
         <v>132</v>
       </c>
       <c r="P70" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -14698,10 +14710,10 @@
         <v>0</v>
       </c>
       <c r="AS71">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT71">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU71">
         <v>1.39</v>
@@ -14802,7 +14814,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q72">
         <v>9</v>
@@ -15375,7 +15387,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15566,7 +15578,7 @@
         <v>138</v>
       </c>
       <c r="P76" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q76">
         <v>7</v>
@@ -15757,7 +15769,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q77">
         <v>9</v>
@@ -16038,7 +16050,7 @@
         <v>0.89</v>
       </c>
       <c r="AT78">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU78">
         <v>1.16</v>
@@ -16139,7 +16151,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16521,7 +16533,7 @@
         <v>83</v>
       </c>
       <c r="P81" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -16608,7 +16620,7 @@
         <v>0.5</v>
       </c>
       <c r="AS81">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT81">
         <v>0.8</v>
@@ -16712,7 +16724,7 @@
         <v>83</v>
       </c>
       <c r="P82" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -16993,7 +17005,7 @@
         <v>1.45</v>
       </c>
       <c r="AT83">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU83">
         <v>1.49</v>
@@ -17094,7 +17106,7 @@
         <v>88</v>
       </c>
       <c r="P84" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q84">
         <v>1</v>
@@ -17858,7 +17870,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -17948,7 +17960,7 @@
         <v>0.89</v>
       </c>
       <c r="AT88">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU88">
         <v>1.44</v>
@@ -18049,7 +18061,7 @@
         <v>83</v>
       </c>
       <c r="P89" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18136,7 +18148,7 @@
         <v>1.6</v>
       </c>
       <c r="AS89">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT89">
         <v>1.78</v>
@@ -18240,7 +18252,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18521,7 +18533,7 @@
         <v>2.33</v>
       </c>
       <c r="AT91">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU91">
         <v>1.7</v>
@@ -19091,7 +19103,7 @@
         <v>0.4</v>
       </c>
       <c r="AS94">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT94">
         <v>1</v>
@@ -19195,7 +19207,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q95">
         <v>1</v>
@@ -19473,7 +19485,7 @@
         <v>0.8</v>
       </c>
       <c r="AS96">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT96">
         <v>0.67</v>
@@ -19577,7 +19589,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -19768,7 +19780,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -19858,7 +19870,7 @@
         <v>1.7</v>
       </c>
       <c r="AT98">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU98">
         <v>1.77</v>
@@ -19959,7 +19971,7 @@
         <v>152</v>
       </c>
       <c r="P99" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q99">
         <v>8</v>
@@ -20150,7 +20162,7 @@
         <v>153</v>
       </c>
       <c r="P100" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q100">
         <v>2</v>
@@ -20237,7 +20249,7 @@
         <v>2</v>
       </c>
       <c r="AS100">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT100">
         <v>2</v>
@@ -20914,7 +20926,7 @@
         <v>83</v>
       </c>
       <c r="P104" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21296,7 +21308,7 @@
         <v>156</v>
       </c>
       <c r="P106" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -21386,7 +21398,7 @@
         <v>1.8</v>
       </c>
       <c r="AT106">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU106">
         <v>1.37</v>
@@ -21678,7 +21690,7 @@
         <v>123</v>
       </c>
       <c r="P108" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q108">
         <v>11</v>
@@ -22060,7 +22072,7 @@
         <v>159</v>
       </c>
       <c r="P110" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22338,10 +22350,10 @@
         <v>0.67</v>
       </c>
       <c r="AS111">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT111">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU111">
         <v>2.14</v>
@@ -22442,7 +22454,7 @@
         <v>161</v>
       </c>
       <c r="P112" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q112">
         <v>1</v>
@@ -22529,7 +22541,7 @@
         <v>0.67</v>
       </c>
       <c r="AS112">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT112">
         <v>0.5</v>
@@ -22824,7 +22836,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -23206,7 +23218,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23397,7 +23409,7 @@
         <v>165</v>
       </c>
       <c r="P117" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q117">
         <v>13</v>
@@ -23484,7 +23496,7 @@
         <v>0.67</v>
       </c>
       <c r="AS117">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT117">
         <v>0.67</v>
@@ -23588,7 +23600,7 @@
         <v>166</v>
       </c>
       <c r="P118" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -23678,7 +23690,7 @@
         <v>2.5</v>
       </c>
       <c r="AT118">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU118">
         <v>1.55</v>
@@ -23970,7 +23982,7 @@
         <v>168</v>
       </c>
       <c r="P120" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q120">
         <v>7</v>
@@ -24161,7 +24173,7 @@
         <v>83</v>
       </c>
       <c r="P121" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q121">
         <v>8</v>
@@ -24248,7 +24260,7 @@
         <v>2.14</v>
       </c>
       <c r="AS121">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT121">
         <v>2</v>
@@ -24439,10 +24451,10 @@
         <v>0.13</v>
       </c>
       <c r="AS122">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT122">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU122">
         <v>1.39</v>
@@ -24543,7 +24555,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -25015,7 +25027,7 @@
         <v>1.8</v>
       </c>
       <c r="AT125">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU125">
         <v>1.42</v>
@@ -25116,7 +25128,7 @@
         <v>83</v>
       </c>
       <c r="P126" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -25397,7 +25409,7 @@
         <v>2.33</v>
       </c>
       <c r="AT127">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU127">
         <v>1.88</v>
@@ -25689,7 +25701,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -25880,7 +25892,7 @@
         <v>174</v>
       </c>
       <c r="P130" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -25967,7 +25979,7 @@
         <v>1.75</v>
       </c>
       <c r="AS130">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT130">
         <v>1.8</v>
@@ -26071,7 +26083,7 @@
         <v>83</v>
       </c>
       <c r="P131" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q131">
         <v>1</v>
@@ -26644,7 +26656,7 @@
         <v>83</v>
       </c>
       <c r="P134" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -26835,7 +26847,7 @@
         <v>176</v>
       </c>
       <c r="P135" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q135">
         <v>9</v>
@@ -26922,7 +26934,7 @@
         <v>1.25</v>
       </c>
       <c r="AS135">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT135">
         <v>1.1</v>
@@ -27026,7 +27038,7 @@
         <v>177</v>
       </c>
       <c r="P136" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q136">
         <v>2</v>
@@ -27217,7 +27229,7 @@
         <v>178</v>
       </c>
       <c r="P137" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q137">
         <v>4</v>
@@ -27408,7 +27420,7 @@
         <v>83</v>
       </c>
       <c r="P138" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -27790,7 +27802,7 @@
         <v>180</v>
       </c>
       <c r="P140" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q140">
         <v>5</v>
@@ -27880,7 +27892,7 @@
         <v>1.8</v>
       </c>
       <c r="AT140">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU140">
         <v>1.52</v>
@@ -27981,7 +27993,7 @@
         <v>167</v>
       </c>
       <c r="P141" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q141">
         <v>6</v>
@@ -28172,7 +28184,7 @@
         <v>181</v>
       </c>
       <c r="P142" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q142">
         <v>10</v>
@@ -28363,7 +28375,7 @@
         <v>139</v>
       </c>
       <c r="P143" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -28450,7 +28462,7 @@
         <v>1</v>
       </c>
       <c r="AS143">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT143">
         <v>1</v>
@@ -28644,7 +28656,7 @@
         <v>1.45</v>
       </c>
       <c r="AT144">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU144">
         <v>1.59</v>
@@ -28745,7 +28757,7 @@
         <v>183</v>
       </c>
       <c r="P145" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q145">
         <v>7</v>
@@ -28835,7 +28847,7 @@
         <v>1.1</v>
       </c>
       <c r="AT145">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU145">
         <v>1.92</v>
@@ -29023,7 +29035,7 @@
         <v>1</v>
       </c>
       <c r="AS146">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT146">
         <v>0.9</v>
@@ -29700,7 +29712,7 @@
         <v>188</v>
       </c>
       <c r="P150" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q150">
         <v>8</v>
@@ -29891,7 +29903,7 @@
         <v>189</v>
       </c>
       <c r="P151" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -30082,7 +30094,7 @@
         <v>190</v>
       </c>
       <c r="P152" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q152">
         <v>5</v>
@@ -30273,7 +30285,7 @@
         <v>191</v>
       </c>
       <c r="P153" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q153">
         <v>7</v>
@@ -30464,7 +30476,7 @@
         <v>192</v>
       </c>
       <c r="P154" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q154">
         <v>8</v>
@@ -31037,7 +31049,7 @@
         <v>195</v>
       </c>
       <c r="P157" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q157">
         <v>6</v>
@@ -31179,6 +31191,579 @@
       </c>
       <c r="BK157">
         <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:63">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>4867508</v>
+      </c>
+      <c r="C158" t="s">
+        <v>63</v>
+      </c>
+      <c r="D158" t="s">
+        <v>64</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45166.58333333334</v>
+      </c>
+      <c r="F158">
+        <v>20</v>
+      </c>
+      <c r="G158" t="s">
+        <v>73</v>
+      </c>
+      <c r="H158" t="s">
+        <v>75</v>
+      </c>
+      <c r="I158">
+        <v>3</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>3</v>
+      </c>
+      <c r="L158">
+        <v>3</v>
+      </c>
+      <c r="M158">
+        <v>1</v>
+      </c>
+      <c r="N158">
+        <v>4</v>
+      </c>
+      <c r="O158" t="s">
+        <v>196</v>
+      </c>
+      <c r="P158" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q158">
+        <v>13</v>
+      </c>
+      <c r="R158">
+        <v>1</v>
+      </c>
+      <c r="S158">
+        <v>14</v>
+      </c>
+      <c r="T158">
+        <v>1.72</v>
+      </c>
+      <c r="U158">
+        <v>2.65</v>
+      </c>
+      <c r="V158">
+        <v>7.5</v>
+      </c>
+      <c r="W158">
+        <v>1.27</v>
+      </c>
+      <c r="X158">
+        <v>3.45</v>
+      </c>
+      <c r="Y158">
+        <v>2.34</v>
+      </c>
+      <c r="Z158">
+        <v>1.54</v>
+      </c>
+      <c r="AA158">
+        <v>5.4</v>
+      </c>
+      <c r="AB158">
+        <v>1.12</v>
+      </c>
+      <c r="AC158">
+        <v>1.28</v>
+      </c>
+      <c r="AD158">
+        <v>5.4</v>
+      </c>
+      <c r="AE158">
+        <v>8.6</v>
+      </c>
+      <c r="AF158">
+        <v>1.02</v>
+      </c>
+      <c r="AG158">
+        <v>17</v>
+      </c>
+      <c r="AH158">
+        <v>1.16</v>
+      </c>
+      <c r="AI158">
+        <v>5</v>
+      </c>
+      <c r="AJ158">
+        <v>1.57</v>
+      </c>
+      <c r="AK158">
+        <v>2.25</v>
+      </c>
+      <c r="AL158">
+        <v>2</v>
+      </c>
+      <c r="AM158">
+        <v>1.8</v>
+      </c>
+      <c r="AN158">
+        <v>1.02</v>
+      </c>
+      <c r="AO158">
+        <v>1.1</v>
+      </c>
+      <c r="AP158">
+        <v>3.6</v>
+      </c>
+      <c r="AQ158">
+        <v>1.7</v>
+      </c>
+      <c r="AR158">
+        <v>0.4</v>
+      </c>
+      <c r="AS158">
+        <v>1.82</v>
+      </c>
+      <c r="AT158">
+        <v>0.36</v>
+      </c>
+      <c r="AU158">
+        <v>2</v>
+      </c>
+      <c r="AV158">
+        <v>1.36</v>
+      </c>
+      <c r="AW158">
+        <v>3.36</v>
+      </c>
+      <c r="AX158">
+        <v>1.15</v>
+      </c>
+      <c r="AY158">
+        <v>11</v>
+      </c>
+      <c r="AZ158">
+        <v>7</v>
+      </c>
+      <c r="BA158">
+        <v>0</v>
+      </c>
+      <c r="BB158">
+        <v>1.17</v>
+      </c>
+      <c r="BC158">
+        <v>1.33</v>
+      </c>
+      <c r="BD158">
+        <v>1.48</v>
+      </c>
+      <c r="BE158">
+        <v>1.66</v>
+      </c>
+      <c r="BF158">
+        <v>8</v>
+      </c>
+      <c r="BG158">
+        <v>2</v>
+      </c>
+      <c r="BH158">
+        <v>6</v>
+      </c>
+      <c r="BI158">
+        <v>6</v>
+      </c>
+      <c r="BJ158">
+        <v>14</v>
+      </c>
+      <c r="BK158">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:63">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>4867511</v>
+      </c>
+      <c r="C159" t="s">
+        <v>63</v>
+      </c>
+      <c r="D159" t="s">
+        <v>64</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45166.58333333334</v>
+      </c>
+      <c r="F159">
+        <v>20</v>
+      </c>
+      <c r="G159" t="s">
+        <v>80</v>
+      </c>
+      <c r="H159" t="s">
+        <v>77</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>1</v>
+      </c>
+      <c r="L159">
+        <v>2</v>
+      </c>
+      <c r="M159">
+        <v>1</v>
+      </c>
+      <c r="N159">
+        <v>3</v>
+      </c>
+      <c r="O159" t="s">
+        <v>197</v>
+      </c>
+      <c r="P159" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q159">
+        <v>9</v>
+      </c>
+      <c r="R159">
+        <v>3</v>
+      </c>
+      <c r="S159">
+        <v>12</v>
+      </c>
+      <c r="T159">
+        <v>2.5</v>
+      </c>
+      <c r="U159">
+        <v>2.25</v>
+      </c>
+      <c r="V159">
+        <v>4.33</v>
+      </c>
+      <c r="W159">
+        <v>1.34</v>
+      </c>
+      <c r="X159">
+        <v>3</v>
+      </c>
+      <c r="Y159">
+        <v>2.7</v>
+      </c>
+      <c r="Z159">
+        <v>1.41</v>
+      </c>
+      <c r="AA159">
+        <v>6.45</v>
+      </c>
+      <c r="AB159">
+        <v>1.09</v>
+      </c>
+      <c r="AC159">
+        <v>1.88</v>
+      </c>
+      <c r="AD159">
+        <v>3.55</v>
+      </c>
+      <c r="AE159">
+        <v>3.75</v>
+      </c>
+      <c r="AF159">
+        <v>1.04</v>
+      </c>
+      <c r="AG159">
+        <v>12</v>
+      </c>
+      <c r="AH159">
+        <v>1.28</v>
+      </c>
+      <c r="AI159">
+        <v>3.6</v>
+      </c>
+      <c r="AJ159">
+        <v>1.96</v>
+      </c>
+      <c r="AK159">
+        <v>1.9</v>
+      </c>
+      <c r="AL159">
+        <v>1.75</v>
+      </c>
+      <c r="AM159">
+        <v>2.05</v>
+      </c>
+      <c r="AN159">
+        <v>1.25</v>
+      </c>
+      <c r="AO159">
+        <v>1.22</v>
+      </c>
+      <c r="AP159">
+        <v>1.95</v>
+      </c>
+      <c r="AQ159">
+        <v>1.44</v>
+      </c>
+      <c r="AR159">
+        <v>0.89</v>
+      </c>
+      <c r="AS159">
+        <v>1.6</v>
+      </c>
+      <c r="AT159">
+        <v>0.8</v>
+      </c>
+      <c r="AU159">
+        <v>1.57</v>
+      </c>
+      <c r="AV159">
+        <v>0.8</v>
+      </c>
+      <c r="AW159">
+        <v>2.37</v>
+      </c>
+      <c r="AX159">
+        <v>1.38</v>
+      </c>
+      <c r="AY159">
+        <v>8</v>
+      </c>
+      <c r="AZ159">
+        <v>4</v>
+      </c>
+      <c r="BA159">
+        <v>1.19</v>
+      </c>
+      <c r="BB159">
+        <v>1.36</v>
+      </c>
+      <c r="BC159">
+        <v>1.74</v>
+      </c>
+      <c r="BD159">
+        <v>2.16</v>
+      </c>
+      <c r="BE159">
+        <v>2.46</v>
+      </c>
+      <c r="BF159">
+        <v>7</v>
+      </c>
+      <c r="BG159">
+        <v>4</v>
+      </c>
+      <c r="BH159">
+        <v>10</v>
+      </c>
+      <c r="BI159">
+        <v>2</v>
+      </c>
+      <c r="BJ159">
+        <v>17</v>
+      </c>
+      <c r="BK159">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:63">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>4867515</v>
+      </c>
+      <c r="C160" t="s">
+        <v>63</v>
+      </c>
+      <c r="D160" t="s">
+        <v>64</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45166.58333333334</v>
+      </c>
+      <c r="F160">
+        <v>20</v>
+      </c>
+      <c r="G160" t="s">
+        <v>66</v>
+      </c>
+      <c r="H160" t="s">
+        <v>71</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160">
+        <v>2</v>
+      </c>
+      <c r="K160">
+        <v>3</v>
+      </c>
+      <c r="L160">
+        <v>3</v>
+      </c>
+      <c r="M160">
+        <v>2</v>
+      </c>
+      <c r="N160">
+        <v>5</v>
+      </c>
+      <c r="O160" t="s">
+        <v>198</v>
+      </c>
+      <c r="P160" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q160">
+        <v>4</v>
+      </c>
+      <c r="R160">
+        <v>6</v>
+      </c>
+      <c r="S160">
+        <v>10</v>
+      </c>
+      <c r="T160">
+        <v>2.89</v>
+      </c>
+      <c r="U160">
+        <v>2.39</v>
+      </c>
+      <c r="V160">
+        <v>3.39</v>
+      </c>
+      <c r="W160">
+        <v>1.27</v>
+      </c>
+      <c r="X160">
+        <v>3.4</v>
+      </c>
+      <c r="Y160">
+        <v>2.49</v>
+      </c>
+      <c r="Z160">
+        <v>1.52</v>
+      </c>
+      <c r="AA160">
+        <v>6.25</v>
+      </c>
+      <c r="AB160">
+        <v>1.1</v>
+      </c>
+      <c r="AC160">
+        <v>2.33</v>
+      </c>
+      <c r="AD160">
+        <v>3.7</v>
+      </c>
+      <c r="AE160">
+        <v>2.64</v>
+      </c>
+      <c r="AF160">
+        <v>1.03</v>
+      </c>
+      <c r="AG160">
+        <v>15</v>
+      </c>
+      <c r="AH160">
+        <v>1.2</v>
+      </c>
+      <c r="AI160">
+        <v>4.44</v>
+      </c>
+      <c r="AJ160">
+        <v>1.65</v>
+      </c>
+      <c r="AK160">
+        <v>2.1</v>
+      </c>
+      <c r="AL160">
+        <v>1.52</v>
+      </c>
+      <c r="AM160">
+        <v>2.45</v>
+      </c>
+      <c r="AN160">
+        <v>1.45</v>
+      </c>
+      <c r="AO160">
+        <v>1.25</v>
+      </c>
+      <c r="AP160">
+        <v>1.62</v>
+      </c>
+      <c r="AQ160">
+        <v>1</v>
+      </c>
+      <c r="AR160">
+        <v>0.89</v>
+      </c>
+      <c r="AS160">
+        <v>1.2</v>
+      </c>
+      <c r="AT160">
+        <v>0.8</v>
+      </c>
+      <c r="AU160">
+        <v>1.46</v>
+      </c>
+      <c r="AV160">
+        <v>1.1</v>
+      </c>
+      <c r="AW160">
+        <v>2.56</v>
+      </c>
+      <c r="AX160">
+        <v>1.95</v>
+      </c>
+      <c r="AY160">
+        <v>7</v>
+      </c>
+      <c r="AZ160">
+        <v>2.25</v>
+      </c>
+      <c r="BA160">
+        <v>1.2</v>
+      </c>
+      <c r="BB160">
+        <v>1.33</v>
+      </c>
+      <c r="BC160">
+        <v>1.69</v>
+      </c>
+      <c r="BD160">
+        <v>2.11</v>
+      </c>
+      <c r="BE160">
+        <v>2.39</v>
+      </c>
+      <c r="BF160">
+        <v>7</v>
+      </c>
+      <c r="BG160">
+        <v>4</v>
+      </c>
+      <c r="BH160">
+        <v>3</v>
+      </c>
+      <c r="BI160">
+        <v>6</v>
+      </c>
+      <c r="BJ160">
+        <v>10</v>
+      </c>
+      <c r="BK160">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="277">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -613,6 +613,9 @@
     <t>['18', '58', '75']</t>
   </si>
   <si>
+    <t>['85']</t>
+  </si>
+  <si>
     <t>['50', '80']</t>
   </si>
   <si>
@@ -839,6 +842,9 @@
   </si>
   <si>
     <t>['68']</t>
+  </si>
+  <si>
+    <t>['10', '90+6']</t>
   </si>
 </sst>
 </file>
@@ -1200,7 +1206,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK160"/>
+  <dimension ref="A1:BK161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1444,7 +1450,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1725,7 +1731,7 @@
         <v>1.2</v>
       </c>
       <c r="AT3">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1826,7 +1832,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -2208,7 +2214,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2399,7 +2405,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2868,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT9">
         <v>1.8</v>
@@ -3163,7 +3169,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -3354,7 +3360,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -4118,7 +4124,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4500,7 +4506,7 @@
         <v>83</v>
       </c>
       <c r="P18" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -4587,7 +4593,7 @@
         <v>3</v>
       </c>
       <c r="AS18">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT18">
         <v>2</v>
@@ -5073,7 +5079,7 @@
         <v>83</v>
       </c>
       <c r="P21" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q21">
         <v>2</v>
@@ -5264,7 +5270,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -5455,7 +5461,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5837,7 +5843,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -6309,7 +6315,7 @@
         <v>1.82</v>
       </c>
       <c r="AT27">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU27">
         <v>2.43</v>
@@ -6601,7 +6607,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -6792,7 +6798,7 @@
         <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -6983,7 +6989,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q31">
         <v>11</v>
@@ -7556,7 +7562,7 @@
         <v>83</v>
       </c>
       <c r="P34" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q34">
         <v>11</v>
@@ -8511,7 +8517,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q39">
         <v>7</v>
@@ -8702,7 +8708,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -8893,7 +8899,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -8980,7 +8986,7 @@
         <v>2</v>
       </c>
       <c r="AS41">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT41">
         <v>1.78</v>
@@ -9275,7 +9281,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9466,7 +9472,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9657,7 +9663,7 @@
         <v>113</v>
       </c>
       <c r="P45" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9848,7 +9854,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q46">
         <v>9</v>
@@ -10230,7 +10236,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10421,7 +10427,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10612,7 +10618,7 @@
         <v>118</v>
       </c>
       <c r="P50" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10803,7 +10809,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -11084,7 +11090,7 @@
         <v>2.33</v>
       </c>
       <c r="AT52">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU52">
         <v>1.99</v>
@@ -11185,7 +11191,7 @@
         <v>120</v>
       </c>
       <c r="P53" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q53">
         <v>2</v>
@@ -11376,7 +11382,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11758,7 +11764,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q56">
         <v>7</v>
@@ -12331,7 +12337,7 @@
         <v>124</v>
       </c>
       <c r="P59" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12713,7 +12719,7 @@
         <v>125</v>
       </c>
       <c r="P61" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -12904,7 +12910,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13182,7 +13188,7 @@
         <v>1.67</v>
       </c>
       <c r="AS63">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT63">
         <v>2</v>
@@ -13286,7 +13292,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13949,7 +13955,7 @@
         <v>1.8</v>
       </c>
       <c r="AT67">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU67">
         <v>1.36</v>
@@ -14432,7 +14438,7 @@
         <v>132</v>
       </c>
       <c r="P70" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -14814,7 +14820,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q72">
         <v>9</v>
@@ -15387,7 +15393,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15578,7 +15584,7 @@
         <v>138</v>
       </c>
       <c r="P76" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q76">
         <v>7</v>
@@ -15769,7 +15775,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q77">
         <v>9</v>
@@ -16047,7 +16053,7 @@
         <v>0</v>
       </c>
       <c r="AS78">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT78">
         <v>0.36</v>
@@ -16151,7 +16157,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16533,7 +16539,7 @@
         <v>83</v>
       </c>
       <c r="P81" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -16724,7 +16730,7 @@
         <v>83</v>
       </c>
       <c r="P82" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -17106,7 +17112,7 @@
         <v>88</v>
       </c>
       <c r="P84" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q84">
         <v>1</v>
@@ -17769,7 +17775,7 @@
         <v>1.1</v>
       </c>
       <c r="AT87">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU87">
         <v>2.14</v>
@@ -17870,7 +17876,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -17957,7 +17963,7 @@
         <v>1.5</v>
       </c>
       <c r="AS88">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT88">
         <v>0.8</v>
@@ -18061,7 +18067,7 @@
         <v>83</v>
       </c>
       <c r="P89" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18252,7 +18258,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -19207,7 +19213,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q95">
         <v>1</v>
@@ -19297,7 +19303,7 @@
         <v>1.9</v>
       </c>
       <c r="AT95">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU95">
         <v>1.6</v>
@@ -19589,7 +19595,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -19780,7 +19786,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -19971,7 +19977,7 @@
         <v>152</v>
       </c>
       <c r="P99" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q99">
         <v>8</v>
@@ -20162,7 +20168,7 @@
         <v>153</v>
       </c>
       <c r="P100" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q100">
         <v>2</v>
@@ -20926,7 +20932,7 @@
         <v>83</v>
       </c>
       <c r="P104" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21204,7 +21210,7 @@
         <v>1.33</v>
       </c>
       <c r="AS105">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT105">
         <v>1.3</v>
@@ -21308,7 +21314,7 @@
         <v>156</v>
       </c>
       <c r="P106" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -21690,7 +21696,7 @@
         <v>123</v>
       </c>
       <c r="P108" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q108">
         <v>11</v>
@@ -22072,7 +22078,7 @@
         <v>159</v>
       </c>
       <c r="P110" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22162,7 +22168,7 @@
         <v>1.4</v>
       </c>
       <c r="AT110">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU110">
         <v>1.6</v>
@@ -22454,7 +22460,7 @@
         <v>161</v>
       </c>
       <c r="P112" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q112">
         <v>1</v>
@@ -22836,7 +22842,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -23218,7 +23224,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23409,7 +23415,7 @@
         <v>165</v>
       </c>
       <c r="P117" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q117">
         <v>13</v>
@@ -23600,7 +23606,7 @@
         <v>166</v>
       </c>
       <c r="P118" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -23982,7 +23988,7 @@
         <v>168</v>
       </c>
       <c r="P120" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q120">
         <v>7</v>
@@ -24069,7 +24075,7 @@
         <v>0.71</v>
       </c>
       <c r="AS120">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT120">
         <v>1</v>
@@ -24173,7 +24179,7 @@
         <v>83</v>
       </c>
       <c r="P121" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q121">
         <v>8</v>
@@ -24555,7 +24561,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -25128,7 +25134,7 @@
         <v>83</v>
       </c>
       <c r="P126" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -25218,7 +25224,7 @@
         <v>1.3</v>
       </c>
       <c r="AT126">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU126">
         <v>1.39</v>
@@ -25701,7 +25707,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -25892,7 +25898,7 @@
         <v>174</v>
       </c>
       <c r="P130" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -26083,7 +26089,7 @@
         <v>83</v>
       </c>
       <c r="P131" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q131">
         <v>1</v>
@@ -26656,7 +26662,7 @@
         <v>83</v>
       </c>
       <c r="P134" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -26847,7 +26853,7 @@
         <v>176</v>
       </c>
       <c r="P135" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q135">
         <v>9</v>
@@ -27038,7 +27044,7 @@
         <v>177</v>
       </c>
       <c r="P136" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q136">
         <v>2</v>
@@ -27229,7 +27235,7 @@
         <v>178</v>
       </c>
       <c r="P137" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q137">
         <v>4</v>
@@ -27316,7 +27322,7 @@
         <v>0.63</v>
       </c>
       <c r="AS137">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT137">
         <v>0.8</v>
@@ -27420,7 +27426,7 @@
         <v>83</v>
       </c>
       <c r="P138" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -27701,7 +27707,7 @@
         <v>2.5</v>
       </c>
       <c r="AT139">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU139">
         <v>1.61</v>
@@ -27802,7 +27808,7 @@
         <v>180</v>
       </c>
       <c r="P140" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q140">
         <v>5</v>
@@ -27993,7 +27999,7 @@
         <v>167</v>
       </c>
       <c r="P141" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q141">
         <v>6</v>
@@ -28184,7 +28190,7 @@
         <v>181</v>
       </c>
       <c r="P142" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q142">
         <v>10</v>
@@ -28375,7 +28381,7 @@
         <v>139</v>
       </c>
       <c r="P143" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -28757,7 +28763,7 @@
         <v>183</v>
       </c>
       <c r="P145" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q145">
         <v>7</v>
@@ -29712,7 +29718,7 @@
         <v>188</v>
       </c>
       <c r="P150" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q150">
         <v>8</v>
@@ -29903,7 +29909,7 @@
         <v>189</v>
       </c>
       <c r="P151" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -30094,7 +30100,7 @@
         <v>190</v>
       </c>
       <c r="P152" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q152">
         <v>5</v>
@@ -30285,7 +30291,7 @@
         <v>191</v>
       </c>
       <c r="P153" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q153">
         <v>7</v>
@@ -30476,7 +30482,7 @@
         <v>192</v>
       </c>
       <c r="P154" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q154">
         <v>8</v>
@@ -31049,7 +31055,7 @@
         <v>195</v>
       </c>
       <c r="P157" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q157">
         <v>6</v>
@@ -31240,7 +31246,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q158">
         <v>13</v>
@@ -31431,7 +31437,7 @@
         <v>197</v>
       </c>
       <c r="P159" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q159">
         <v>9</v>
@@ -31764,6 +31770,197 @@
       </c>
       <c r="BK160">
         <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:63">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>4867510</v>
+      </c>
+      <c r="C161" t="s">
+        <v>63</v>
+      </c>
+      <c r="D161" t="s">
+        <v>64</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45167.58333333334</v>
+      </c>
+      <c r="F161">
+        <v>20</v>
+      </c>
+      <c r="G161" t="s">
+        <v>72</v>
+      </c>
+      <c r="H161" t="s">
+        <v>74</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>1</v>
+      </c>
+      <c r="K161">
+        <v>1</v>
+      </c>
+      <c r="L161">
+        <v>1</v>
+      </c>
+      <c r="M161">
+        <v>2</v>
+      </c>
+      <c r="N161">
+        <v>3</v>
+      </c>
+      <c r="O161" t="s">
+        <v>199</v>
+      </c>
+      <c r="P161" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q161">
+        <v>8</v>
+      </c>
+      <c r="R161">
+        <v>3</v>
+      </c>
+      <c r="S161">
+        <v>11</v>
+      </c>
+      <c r="T161">
+        <v>2.9</v>
+      </c>
+      <c r="U161">
+        <v>2.15</v>
+      </c>
+      <c r="V161">
+        <v>3.75</v>
+      </c>
+      <c r="W161">
+        <v>1.36</v>
+      </c>
+      <c r="X161">
+        <v>2.9</v>
+      </c>
+      <c r="Y161">
+        <v>2.8</v>
+      </c>
+      <c r="Z161">
+        <v>1.39</v>
+      </c>
+      <c r="AA161">
+        <v>6.95</v>
+      </c>
+      <c r="AB161">
+        <v>1.07</v>
+      </c>
+      <c r="AC161">
+        <v>2.15</v>
+      </c>
+      <c r="AD161">
+        <v>3.66</v>
+      </c>
+      <c r="AE161">
+        <v>3.26</v>
+      </c>
+      <c r="AF161">
+        <v>1.04</v>
+      </c>
+      <c r="AG161">
+        <v>12</v>
+      </c>
+      <c r="AH161">
+        <v>1.3</v>
+      </c>
+      <c r="AI161">
+        <v>3.4</v>
+      </c>
+      <c r="AJ161">
+        <v>1.96</v>
+      </c>
+      <c r="AK161">
+        <v>1.9</v>
+      </c>
+      <c r="AL161">
+        <v>1.75</v>
+      </c>
+      <c r="AM161">
+        <v>2</v>
+      </c>
+      <c r="AN161">
+        <v>1.36</v>
+      </c>
+      <c r="AO161">
+        <v>1.25</v>
+      </c>
+      <c r="AP161">
+        <v>1.68</v>
+      </c>
+      <c r="AQ161">
+        <v>0.89</v>
+      </c>
+      <c r="AR161">
+        <v>0.78</v>
+      </c>
+      <c r="AS161">
+        <v>0.8</v>
+      </c>
+      <c r="AT161">
+        <v>1</v>
+      </c>
+      <c r="AU161">
+        <v>1.55</v>
+      </c>
+      <c r="AV161">
+        <v>1.41</v>
+      </c>
+      <c r="AW161">
+        <v>2.96</v>
+      </c>
+      <c r="AX161">
+        <v>2.05</v>
+      </c>
+      <c r="AY161">
+        <v>7.5</v>
+      </c>
+      <c r="AZ161">
+        <v>2.1</v>
+      </c>
+      <c r="BA161">
+        <v>1.13</v>
+      </c>
+      <c r="BB161">
+        <v>1.21</v>
+      </c>
+      <c r="BC161">
+        <v>1.48</v>
+      </c>
+      <c r="BD161">
+        <v>1.76</v>
+      </c>
+      <c r="BE161">
+        <v>2.14</v>
+      </c>
+      <c r="BF161">
+        <v>4</v>
+      </c>
+      <c r="BG161">
+        <v>4</v>
+      </c>
+      <c r="BH161">
+        <v>4</v>
+      </c>
+      <c r="BI161">
+        <v>8</v>
+      </c>
+      <c r="BJ161">
+        <v>8</v>
+      </c>
+      <c r="BK161">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="285">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -616,6 +616,21 @@
     <t>['85']</t>
   </si>
   <si>
+    <t>['24', '31']</t>
+  </si>
+  <si>
+    <t>['15']</t>
+  </si>
+  <si>
+    <t>['73']</t>
+  </si>
+  <si>
+    <t>['28', '60', '89']</t>
+  </si>
+  <si>
+    <t>['67', '88']</t>
+  </si>
+  <si>
     <t>['50', '80']</t>
   </si>
   <si>
@@ -677,9 +692,6 @@
   </si>
   <si>
     <t>['5', '40']</t>
-  </si>
-  <si>
-    <t>['15']</t>
   </si>
   <si>
     <t>['65', '86', '90+5']</t>
@@ -845,6 +857,18 @@
   </si>
   <si>
     <t>['10', '90+6']</t>
+  </si>
+  <si>
+    <t>['35', '44', '53']</t>
+  </si>
+  <si>
+    <t>['4']</t>
+  </si>
+  <si>
+    <t>['57', '78']</t>
+  </si>
+  <si>
+    <t>['39', '72']</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK161"/>
+  <dimension ref="A1:BK169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1450,7 +1474,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1832,7 +1856,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -1919,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT4">
         <v>0.8</v>
@@ -2110,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AT5">
         <v>0.36</v>
@@ -2214,7 +2238,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2304,7 +2328,7 @@
         <v>1.4</v>
       </c>
       <c r="AT6">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2405,7 +2429,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2492,10 +2516,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT7">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2686,7 +2710,7 @@
         <v>1.7</v>
       </c>
       <c r="AT8">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2874,10 +2898,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT9">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3068,7 +3092,7 @@
         <v>1.82</v>
       </c>
       <c r="AT10">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3169,7 +3193,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -3256,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT11">
         <v>2</v>
@@ -3360,7 +3384,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3447,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT12">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3641,7 +3665,7 @@
         <v>1.45</v>
       </c>
       <c r="AT13">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3829,7 +3853,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT14">
         <v>1</v>
@@ -4020,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT15">
         <v>0.8</v>
@@ -4124,7 +4148,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4405,7 +4429,7 @@
         <v>1.6</v>
       </c>
       <c r="AT17">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4506,7 +4530,7 @@
         <v>83</v>
       </c>
       <c r="P18" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -4593,7 +4617,7 @@
         <v>3</v>
       </c>
       <c r="AS18">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT18">
         <v>2</v>
@@ -4787,7 +4811,7 @@
         <v>1.8</v>
       </c>
       <c r="AT19">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU19">
         <v>1.41</v>
@@ -4975,7 +4999,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT20">
         <v>0.36</v>
@@ -5079,7 +5103,7 @@
         <v>83</v>
       </c>
       <c r="P21" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q21">
         <v>2</v>
@@ -5169,7 +5193,7 @@
         <v>1.45</v>
       </c>
       <c r="AT21">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU21">
         <v>1.17</v>
@@ -5270,7 +5294,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -5357,10 +5381,10 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AT22">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU22">
         <v>1.32</v>
@@ -5461,7 +5485,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5739,7 +5763,7 @@
         <v>1</v>
       </c>
       <c r="AS24">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT24">
         <v>0.8</v>
@@ -5843,7 +5867,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -5933,7 +5957,7 @@
         <v>1.2</v>
       </c>
       <c r="AT25">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU25">
         <v>1.61</v>
@@ -6607,7 +6631,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -6694,7 +6718,7 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT29">
         <v>2</v>
@@ -6798,7 +6822,7 @@
         <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -6888,7 +6912,7 @@
         <v>1.2</v>
       </c>
       <c r="AT30">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU30">
         <v>1.31</v>
@@ -6989,7 +7013,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q31">
         <v>11</v>
@@ -7076,10 +7100,10 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT31">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU31">
         <v>2.48</v>
@@ -7458,10 +7482,10 @@
         <v>1</v>
       </c>
       <c r="AS33">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT33">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU33">
         <v>1.76</v>
@@ -7562,7 +7586,7 @@
         <v>83</v>
       </c>
       <c r="P34" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q34">
         <v>11</v>
@@ -7652,7 +7676,7 @@
         <v>1.8</v>
       </c>
       <c r="AT34">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU34">
         <v>1.32</v>
@@ -7840,7 +7864,7 @@
         <v>1.5</v>
       </c>
       <c r="AS35">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT35">
         <v>0.8</v>
@@ -8222,10 +8246,10 @@
         <v>1.5</v>
       </c>
       <c r="AS37">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT37">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU37">
         <v>1.83</v>
@@ -8416,7 +8440,7 @@
         <v>1.45</v>
       </c>
       <c r="AT38">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU38">
         <v>1.13</v>
@@ -8517,7 +8541,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q39">
         <v>7</v>
@@ -8604,10 +8628,10 @@
         <v>3</v>
       </c>
       <c r="AS39">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT39">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU39">
         <v>1.61</v>
@@ -8708,7 +8732,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -8795,7 +8819,7 @@
         <v>0.5</v>
       </c>
       <c r="AS40">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AT40">
         <v>0.8</v>
@@ -8899,7 +8923,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -8986,10 +9010,10 @@
         <v>2</v>
       </c>
       <c r="AS41">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT41">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU41">
         <v>1.28</v>
@@ -9281,7 +9305,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9371,7 +9395,7 @@
         <v>1.4</v>
       </c>
       <c r="AT43">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU43">
         <v>1.88</v>
@@ -9472,7 +9496,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9559,7 +9583,7 @@
         <v>2</v>
       </c>
       <c r="AS44">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT44">
         <v>2</v>
@@ -9663,7 +9687,7 @@
         <v>113</v>
       </c>
       <c r="P45" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9750,10 +9774,10 @@
         <v>0.5</v>
       </c>
       <c r="AS45">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT45">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU45">
         <v>1.56</v>
@@ -9854,7 +9878,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q46">
         <v>9</v>
@@ -10135,7 +10159,7 @@
         <v>1.9</v>
       </c>
       <c r="AT47">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU47">
         <v>1.45</v>
@@ -10236,7 +10260,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10323,10 +10347,10 @@
         <v>3</v>
       </c>
       <c r="AS48">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT48">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU48">
         <v>2.24</v>
@@ -10427,7 +10451,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10514,7 +10538,7 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT49">
         <v>1</v>
@@ -10618,7 +10642,7 @@
         <v>118</v>
       </c>
       <c r="P50" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10708,7 +10732,7 @@
         <v>1.7</v>
       </c>
       <c r="AT50">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU50">
         <v>1.32</v>
@@ -10809,7 +10833,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -10899,7 +10923,7 @@
         <v>1.8</v>
       </c>
       <c r="AT51">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU51">
         <v>1.37</v>
@@ -11087,7 +11111,7 @@
         <v>0</v>
       </c>
       <c r="AS52">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT52">
         <v>1</v>
@@ -11191,7 +11215,7 @@
         <v>120</v>
       </c>
       <c r="P53" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="Q53">
         <v>2</v>
@@ -11278,10 +11302,10 @@
         <v>1.33</v>
       </c>
       <c r="AS53">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AT53">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU53">
         <v>1.19</v>
@@ -11382,7 +11406,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11469,7 +11493,7 @@
         <v>0</v>
       </c>
       <c r="AS54">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT54">
         <v>0.36</v>
@@ -11660,10 +11684,10 @@
         <v>2.33</v>
       </c>
       <c r="AS55">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT55">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU55">
         <v>1.57</v>
@@ -11764,7 +11788,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q56">
         <v>7</v>
@@ -12337,7 +12361,7 @@
         <v>124</v>
       </c>
       <c r="P59" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12424,10 +12448,10 @@
         <v>1.33</v>
       </c>
       <c r="AS59">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT59">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU59">
         <v>1.67</v>
@@ -12618,7 +12642,7 @@
         <v>1.82</v>
       </c>
       <c r="AT60">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU60">
         <v>2.16</v>
@@ -12719,7 +12743,7 @@
         <v>125</v>
       </c>
       <c r="P61" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -12806,7 +12830,7 @@
         <v>0</v>
       </c>
       <c r="AS61">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT61">
         <v>1</v>
@@ -12910,7 +12934,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13000,7 +13024,7 @@
         <v>1.6</v>
       </c>
       <c r="AT62">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU62">
         <v>1.38</v>
@@ -13188,7 +13212,7 @@
         <v>1.67</v>
       </c>
       <c r="AS63">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT63">
         <v>2</v>
@@ -13292,7 +13316,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13379,10 +13403,10 @@
         <v>2.33</v>
       </c>
       <c r="AS64">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT64">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU64">
         <v>1.91</v>
@@ -13570,10 +13594,10 @@
         <v>2</v>
       </c>
       <c r="AS65">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT65">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU65">
         <v>1.96</v>
@@ -13764,7 +13788,7 @@
         <v>1.6</v>
       </c>
       <c r="AT66">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU66">
         <v>1.3</v>
@@ -14146,7 +14170,7 @@
         <v>1.7</v>
       </c>
       <c r="AT68">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU68">
         <v>1.46</v>
@@ -14334,7 +14358,7 @@
         <v>1</v>
       </c>
       <c r="AS69">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT69">
         <v>0.8</v>
@@ -14438,7 +14462,7 @@
         <v>132</v>
       </c>
       <c r="P70" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -14525,7 +14549,7 @@
         <v>2.25</v>
       </c>
       <c r="AS70">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT70">
         <v>2</v>
@@ -14820,7 +14844,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q72">
         <v>9</v>
@@ -15289,10 +15313,10 @@
         <v>1</v>
       </c>
       <c r="AS74">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AT74">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU74">
         <v>1.25</v>
@@ -15393,7 +15417,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15483,7 +15507,7 @@
         <v>1.9</v>
       </c>
       <c r="AT75">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU75">
         <v>1.67</v>
@@ -15584,7 +15608,7 @@
         <v>138</v>
       </c>
       <c r="P76" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q76">
         <v>7</v>
@@ -15671,7 +15695,7 @@
         <v>0.75</v>
       </c>
       <c r="AS76">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT76">
         <v>1</v>
@@ -15775,7 +15799,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q77">
         <v>9</v>
@@ -15862,10 +15886,10 @@
         <v>1.5</v>
       </c>
       <c r="AS77">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT77">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU77">
         <v>1.22</v>
@@ -16053,7 +16077,7 @@
         <v>0</v>
       </c>
       <c r="AS78">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT78">
         <v>0.36</v>
@@ -16157,7 +16181,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16247,7 +16271,7 @@
         <v>1.7</v>
       </c>
       <c r="AT79">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU79">
         <v>1.5</v>
@@ -16435,10 +16459,10 @@
         <v>1</v>
       </c>
       <c r="AS80">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT80">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU80">
         <v>1.72</v>
@@ -16539,7 +16563,7 @@
         <v>83</v>
       </c>
       <c r="P81" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -16730,7 +16754,7 @@
         <v>83</v>
       </c>
       <c r="P82" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -17112,7 +17136,7 @@
         <v>88</v>
       </c>
       <c r="P84" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q84">
         <v>1</v>
@@ -17390,10 +17414,10 @@
         <v>1</v>
       </c>
       <c r="AS85">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT85">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU85">
         <v>1.52</v>
@@ -17581,10 +17605,10 @@
         <v>0.8</v>
       </c>
       <c r="AS86">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT86">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU86">
         <v>1.62</v>
@@ -17772,7 +17796,7 @@
         <v>0.25</v>
       </c>
       <c r="AS87">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT87">
         <v>1</v>
@@ -17876,7 +17900,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -17963,10 +17987,10 @@
         <v>1.5</v>
       </c>
       <c r="AS88">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT88">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU88">
         <v>1.44</v>
@@ -18067,7 +18091,7 @@
         <v>83</v>
       </c>
       <c r="P89" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18157,7 +18181,7 @@
         <v>1.2</v>
       </c>
       <c r="AT89">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU89">
         <v>1.46</v>
@@ -18258,7 +18282,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18345,10 +18369,10 @@
         <v>2</v>
       </c>
       <c r="AS90">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT90">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU90">
         <v>1.4</v>
@@ -18536,7 +18560,7 @@
         <v>0.17</v>
       </c>
       <c r="AS91">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT91">
         <v>0.36</v>
@@ -18918,10 +18942,10 @@
         <v>1.8</v>
       </c>
       <c r="AS93">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AT93">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU93">
         <v>1.35</v>
@@ -19213,7 +19237,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q95">
         <v>1</v>
@@ -19494,7 +19518,7 @@
         <v>1.82</v>
       </c>
       <c r="AT96">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU96">
         <v>2.14</v>
@@ -19595,7 +19619,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -19786,7 +19810,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -19873,10 +19897,10 @@
         <v>1.4</v>
       </c>
       <c r="AS98">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT98">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU98">
         <v>1.77</v>
@@ -19977,7 +20001,7 @@
         <v>152</v>
       </c>
       <c r="P99" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q99">
         <v>8</v>
@@ -20067,7 +20091,7 @@
         <v>1.45</v>
       </c>
       <c r="AT99">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU99">
         <v>1.61</v>
@@ -20168,7 +20192,7 @@
         <v>153</v>
       </c>
       <c r="P100" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q100">
         <v>2</v>
@@ -20446,10 +20470,10 @@
         <v>0.83</v>
       </c>
       <c r="AS101">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT101">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU101">
         <v>1.33</v>
@@ -20828,10 +20852,10 @@
         <v>1.83</v>
       </c>
       <c r="AS103">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT103">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU103">
         <v>1.55</v>
@@ -20932,7 +20956,7 @@
         <v>83</v>
       </c>
       <c r="P104" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21019,7 +21043,7 @@
         <v>2.33</v>
       </c>
       <c r="AS104">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT104">
         <v>2</v>
@@ -21210,10 +21234,10 @@
         <v>1.33</v>
       </c>
       <c r="AS105">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT105">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU105">
         <v>1.57</v>
@@ -21314,7 +21338,7 @@
         <v>156</v>
       </c>
       <c r="P106" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -21595,7 +21619,7 @@
         <v>1.7</v>
       </c>
       <c r="AT107">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU107">
         <v>1.45</v>
@@ -21696,7 +21720,7 @@
         <v>123</v>
       </c>
       <c r="P108" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q108">
         <v>11</v>
@@ -21783,7 +21807,7 @@
         <v>0.83</v>
       </c>
       <c r="AS108">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT108">
         <v>1</v>
@@ -21974,7 +21998,7 @@
         <v>2.43</v>
       </c>
       <c r="AS109">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT109">
         <v>2</v>
@@ -22078,7 +22102,7 @@
         <v>159</v>
       </c>
       <c r="P110" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22460,7 +22484,7 @@
         <v>161</v>
       </c>
       <c r="P112" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q112">
         <v>1</v>
@@ -22550,7 +22574,7 @@
         <v>1.6</v>
       </c>
       <c r="AT112">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU112">
         <v>1.36</v>
@@ -22842,7 +22866,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -22929,10 +22953,10 @@
         <v>0.71</v>
       </c>
       <c r="AS114">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT114">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU114">
         <v>1.72</v>
@@ -23120,7 +23144,7 @@
         <v>0.71</v>
       </c>
       <c r="AS115">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT115">
         <v>0.8</v>
@@ -23224,7 +23248,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23311,10 +23335,10 @@
         <v>1.14</v>
       </c>
       <c r="AS116">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT116">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU116">
         <v>1.3</v>
@@ -23415,7 +23439,7 @@
         <v>165</v>
       </c>
       <c r="P117" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q117">
         <v>13</v>
@@ -23505,7 +23529,7 @@
         <v>1.2</v>
       </c>
       <c r="AT117">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU117">
         <v>1.42</v>
@@ -23606,7 +23630,7 @@
         <v>166</v>
       </c>
       <c r="P118" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -23693,10 +23717,10 @@
         <v>1.33</v>
       </c>
       <c r="AS118">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AT118">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU118">
         <v>1.55</v>
@@ -23887,7 +23911,7 @@
         <v>1.9</v>
       </c>
       <c r="AT119">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU119">
         <v>1.6</v>
@@ -23988,7 +24012,7 @@
         <v>168</v>
       </c>
       <c r="P120" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q120">
         <v>7</v>
@@ -24075,7 +24099,7 @@
         <v>0.71</v>
       </c>
       <c r="AS120">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT120">
         <v>1</v>
@@ -24179,7 +24203,7 @@
         <v>83</v>
       </c>
       <c r="P121" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q121">
         <v>8</v>
@@ -24561,7 +24585,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24651,7 +24675,7 @@
         <v>1.4</v>
       </c>
       <c r="AT123">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU123">
         <v>1.68</v>
@@ -24839,10 +24863,10 @@
         <v>0.57</v>
       </c>
       <c r="AS124">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT124">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU124">
         <v>2.05</v>
@@ -25033,7 +25057,7 @@
         <v>1.8</v>
       </c>
       <c r="AT125">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU125">
         <v>1.42</v>
@@ -25134,7 +25158,7 @@
         <v>83</v>
       </c>
       <c r="P126" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -25221,7 +25245,7 @@
         <v>0.57</v>
       </c>
       <c r="AS126">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT126">
         <v>1</v>
@@ -25412,7 +25436,7 @@
         <v>0.71</v>
       </c>
       <c r="AS127">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT127">
         <v>0.8</v>
@@ -25606,7 +25630,7 @@
         <v>1.45</v>
       </c>
       <c r="AT128">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU128">
         <v>1.65</v>
@@ -25707,7 +25731,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -25794,7 +25818,7 @@
         <v>1.14</v>
       </c>
       <c r="AS129">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AT129">
         <v>1</v>
@@ -25898,7 +25922,7 @@
         <v>174</v>
       </c>
       <c r="P130" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -25988,7 +26012,7 @@
         <v>1.6</v>
       </c>
       <c r="AT130">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU130">
         <v>1.53</v>
@@ -26089,7 +26113,7 @@
         <v>83</v>
       </c>
       <c r="P131" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q131">
         <v>1</v>
@@ -26367,10 +26391,10 @@
         <v>0.63</v>
       </c>
       <c r="AS132">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT132">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU132">
         <v>1.27</v>
@@ -26558,10 +26582,10 @@
         <v>1.13</v>
       </c>
       <c r="AS133">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT133">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU133">
         <v>1.67</v>
@@ -26662,7 +26686,7 @@
         <v>83</v>
       </c>
       <c r="P134" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -26749,7 +26773,7 @@
         <v>2.25</v>
       </c>
       <c r="AS134">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT134">
         <v>2</v>
@@ -26853,7 +26877,7 @@
         <v>176</v>
       </c>
       <c r="P135" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q135">
         <v>9</v>
@@ -26943,7 +26967,7 @@
         <v>1.82</v>
       </c>
       <c r="AT135">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU135">
         <v>2.08</v>
@@ -27044,7 +27068,7 @@
         <v>177</v>
       </c>
       <c r="P136" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q136">
         <v>2</v>
@@ -27131,10 +27155,10 @@
         <v>0.71</v>
       </c>
       <c r="AS136">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT136">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU136">
         <v>1.37</v>
@@ -27235,7 +27259,7 @@
         <v>178</v>
       </c>
       <c r="P137" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q137">
         <v>4</v>
@@ -27322,7 +27346,7 @@
         <v>0.63</v>
       </c>
       <c r="AS137">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT137">
         <v>0.8</v>
@@ -27426,7 +27450,7 @@
         <v>83</v>
       </c>
       <c r="P138" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -27516,7 +27540,7 @@
         <v>1.9</v>
       </c>
       <c r="AT138">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU138">
         <v>1.53</v>
@@ -27704,7 +27728,7 @@
         <v>0.88</v>
       </c>
       <c r="AS139">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AT139">
         <v>1</v>
@@ -27808,7 +27832,7 @@
         <v>180</v>
       </c>
       <c r="P140" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q140">
         <v>5</v>
@@ -27999,7 +28023,7 @@
         <v>167</v>
       </c>
       <c r="P141" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q141">
         <v>6</v>
@@ -28089,7 +28113,7 @@
         <v>1.4</v>
       </c>
       <c r="AT141">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU141">
         <v>1.6</v>
@@ -28190,7 +28214,7 @@
         <v>181</v>
       </c>
       <c r="P142" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q142">
         <v>10</v>
@@ -28277,7 +28301,7 @@
         <v>1.13</v>
       </c>
       <c r="AS142">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT142">
         <v>1</v>
@@ -28381,7 +28405,7 @@
         <v>139</v>
       </c>
       <c r="P143" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -28662,7 +28686,7 @@
         <v>1.45</v>
       </c>
       <c r="AT144">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU144">
         <v>1.59</v>
@@ -28763,7 +28787,7 @@
         <v>183</v>
       </c>
       <c r="P145" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q145">
         <v>7</v>
@@ -28850,7 +28874,7 @@
         <v>0.11</v>
       </c>
       <c r="AS145">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT145">
         <v>0.36</v>
@@ -29044,7 +29068,7 @@
         <v>1.82</v>
       </c>
       <c r="AT146">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU146">
         <v>2.06</v>
@@ -29232,7 +29256,7 @@
         <v>2.33</v>
       </c>
       <c r="AS147">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AT147">
         <v>2</v>
@@ -29423,10 +29447,10 @@
         <v>1.22</v>
       </c>
       <c r="AS148">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT148">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU148">
         <v>1.44</v>
@@ -29614,10 +29638,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS149">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT149">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU149">
         <v>1.58</v>
@@ -29718,7 +29742,7 @@
         <v>188</v>
       </c>
       <c r="P150" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q150">
         <v>8</v>
@@ -29909,7 +29933,7 @@
         <v>189</v>
       </c>
       <c r="P151" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -29996,10 +30020,10 @@
         <v>0.75</v>
       </c>
       <c r="AS151">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT151">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU151">
         <v>1.25</v>
@@ -30100,7 +30124,7 @@
         <v>190</v>
       </c>
       <c r="P152" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q152">
         <v>5</v>
@@ -30187,10 +30211,10 @@
         <v>1.67</v>
       </c>
       <c r="AS152">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT152">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU152">
         <v>1.32</v>
@@ -30291,7 +30315,7 @@
         <v>191</v>
       </c>
       <c r="P153" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q153">
         <v>7</v>
@@ -30378,10 +30402,10 @@
         <v>1.33</v>
       </c>
       <c r="AS153">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT153">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU153">
         <v>1.95</v>
@@ -30482,7 +30506,7 @@
         <v>192</v>
       </c>
       <c r="P154" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q154">
         <v>8</v>
@@ -31055,7 +31079,7 @@
         <v>195</v>
       </c>
       <c r="P157" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q157">
         <v>6</v>
@@ -31246,7 +31270,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q158">
         <v>13</v>
@@ -31437,7 +31461,7 @@
         <v>197</v>
       </c>
       <c r="P159" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q159">
         <v>9</v>
@@ -31718,7 +31742,7 @@
         <v>1.2</v>
       </c>
       <c r="AT160">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU160">
         <v>1.46</v>
@@ -31819,7 +31843,7 @@
         <v>199</v>
       </c>
       <c r="P161" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q161">
         <v>8</v>
@@ -31906,7 +31930,7 @@
         <v>0.78</v>
       </c>
       <c r="AS161">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT161">
         <v>1</v>
@@ -31960,6 +31984,1534 @@
         <v>8</v>
       </c>
       <c r="BK161">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" spans="1:63">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>4867516</v>
+      </c>
+      <c r="C162" t="s">
+        <v>63</v>
+      </c>
+      <c r="D162" t="s">
+        <v>64</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45170.58333333334</v>
+      </c>
+      <c r="F162">
+        <v>21</v>
+      </c>
+      <c r="G162" t="s">
+        <v>70</v>
+      </c>
+      <c r="H162" t="s">
+        <v>76</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>2</v>
+      </c>
+      <c r="K162">
+        <v>2</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+      <c r="M162">
+        <v>3</v>
+      </c>
+      <c r="N162">
+        <v>3</v>
+      </c>
+      <c r="O162" t="s">
+        <v>83</v>
+      </c>
+      <c r="P162" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q162">
+        <v>8</v>
+      </c>
+      <c r="R162">
+        <v>5</v>
+      </c>
+      <c r="S162">
+        <v>13</v>
+      </c>
+      <c r="T162">
+        <v>2.7</v>
+      </c>
+      <c r="U162">
+        <v>2.15</v>
+      </c>
+      <c r="V162">
+        <v>3.5</v>
+      </c>
+      <c r="W162">
+        <v>1.36</v>
+      </c>
+      <c r="X162">
+        <v>3</v>
+      </c>
+      <c r="Y162">
+        <v>2.62</v>
+      </c>
+      <c r="Z162">
+        <v>1.44</v>
+      </c>
+      <c r="AA162">
+        <v>6</v>
+      </c>
+      <c r="AB162">
+        <v>1.11</v>
+      </c>
+      <c r="AC162">
+        <v>2.23</v>
+      </c>
+      <c r="AD162">
+        <v>3.48</v>
+      </c>
+      <c r="AE162">
+        <v>3.2</v>
+      </c>
+      <c r="AF162">
+        <v>1.05</v>
+      </c>
+      <c r="AG162">
+        <v>9</v>
+      </c>
+      <c r="AH162">
+        <v>1.29</v>
+      </c>
+      <c r="AI162">
+        <v>3.5</v>
+      </c>
+      <c r="AJ162">
+        <v>1.84</v>
+      </c>
+      <c r="AK162">
+        <v>1.87</v>
+      </c>
+      <c r="AL162">
+        <v>1.67</v>
+      </c>
+      <c r="AM162">
+        <v>2.1</v>
+      </c>
+      <c r="AN162">
+        <v>1.33</v>
+      </c>
+      <c r="AO162">
+        <v>1.29</v>
+      </c>
+      <c r="AP162">
+        <v>1.67</v>
+      </c>
+      <c r="AQ162">
+        <v>1.1</v>
+      </c>
+      <c r="AR162">
+        <v>0.67</v>
+      </c>
+      <c r="AS162">
+        <v>1</v>
+      </c>
+      <c r="AT162">
+        <v>0.9</v>
+      </c>
+      <c r="AU162">
+        <v>1.87</v>
+      </c>
+      <c r="AV162">
+        <v>1.54</v>
+      </c>
+      <c r="AW162">
+        <v>3.41</v>
+      </c>
+      <c r="AX162">
+        <v>1.7</v>
+      </c>
+      <c r="AY162">
+        <v>7.65</v>
+      </c>
+      <c r="AZ162">
+        <v>2.55</v>
+      </c>
+      <c r="BA162">
+        <v>0</v>
+      </c>
+      <c r="BB162">
+        <v>1.22</v>
+      </c>
+      <c r="BC162">
+        <v>1.38</v>
+      </c>
+      <c r="BD162">
+        <v>1.67</v>
+      </c>
+      <c r="BE162">
+        <v>2.1</v>
+      </c>
+      <c r="BF162">
+        <v>3</v>
+      </c>
+      <c r="BG162">
+        <v>12</v>
+      </c>
+      <c r="BH162">
+        <v>8</v>
+      </c>
+      <c r="BI162">
+        <v>3</v>
+      </c>
+      <c r="BJ162">
+        <v>11</v>
+      </c>
+      <c r="BK162">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="1:63">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>4867518</v>
+      </c>
+      <c r="C163" t="s">
+        <v>63</v>
+      </c>
+      <c r="D163" t="s">
+        <v>64</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45171.33333333334</v>
+      </c>
+      <c r="F163">
+        <v>21</v>
+      </c>
+      <c r="G163" t="s">
+        <v>74</v>
+      </c>
+      <c r="H163" t="s">
+        <v>73</v>
+      </c>
+      <c r="I163">
+        <v>2</v>
+      </c>
+      <c r="J163">
+        <v>1</v>
+      </c>
+      <c r="K163">
+        <v>3</v>
+      </c>
+      <c r="L163">
+        <v>2</v>
+      </c>
+      <c r="M163">
+        <v>1</v>
+      </c>
+      <c r="N163">
+        <v>3</v>
+      </c>
+      <c r="O163" t="s">
+        <v>200</v>
+      </c>
+      <c r="P163" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q163">
+        <v>1</v>
+      </c>
+      <c r="R163">
+        <v>14</v>
+      </c>
+      <c r="S163">
+        <v>15</v>
+      </c>
+      <c r="T163">
+        <v>3.6</v>
+      </c>
+      <c r="U163">
+        <v>2.2</v>
+      </c>
+      <c r="V163">
+        <v>2.7</v>
+      </c>
+      <c r="W163">
+        <v>1.33</v>
+      </c>
+      <c r="X163">
+        <v>3.25</v>
+      </c>
+      <c r="Y163">
+        <v>2.5</v>
+      </c>
+      <c r="Z163">
+        <v>1.5</v>
+      </c>
+      <c r="AA163">
+        <v>5.5</v>
+      </c>
+      <c r="AB163">
+        <v>1.12</v>
+      </c>
+      <c r="AC163">
+        <v>3.84</v>
+      </c>
+      <c r="AD163">
+        <v>2.69</v>
+      </c>
+      <c r="AE163">
+        <v>2.1</v>
+      </c>
+      <c r="AF163">
+        <v>1.04</v>
+      </c>
+      <c r="AG163">
+        <v>10</v>
+      </c>
+      <c r="AH163">
+        <v>1.25</v>
+      </c>
+      <c r="AI163">
+        <v>3.75</v>
+      </c>
+      <c r="AJ163">
+        <v>1.75</v>
+      </c>
+      <c r="AK163">
+        <v>2</v>
+      </c>
+      <c r="AL163">
+        <v>1.67</v>
+      </c>
+      <c r="AM163">
+        <v>2.1</v>
+      </c>
+      <c r="AN163">
+        <v>1.73</v>
+      </c>
+      <c r="AO163">
+        <v>1.3</v>
+      </c>
+      <c r="AP163">
+        <v>1.33</v>
+      </c>
+      <c r="AQ163">
+        <v>1.7</v>
+      </c>
+      <c r="AR163">
+        <v>1.78</v>
+      </c>
+      <c r="AS163">
+        <v>1.82</v>
+      </c>
+      <c r="AT163">
+        <v>1.6</v>
+      </c>
+      <c r="AU163">
+        <v>1.53</v>
+      </c>
+      <c r="AV163">
+        <v>1.81</v>
+      </c>
+      <c r="AW163">
+        <v>3.34</v>
+      </c>
+      <c r="AX163">
+        <v>2.6</v>
+      </c>
+      <c r="AY163">
+        <v>8</v>
+      </c>
+      <c r="AZ163">
+        <v>1.7</v>
+      </c>
+      <c r="BA163">
+        <v>0</v>
+      </c>
+      <c r="BB163">
+        <v>1.19</v>
+      </c>
+      <c r="BC163">
+        <v>1.34</v>
+      </c>
+      <c r="BD163">
+        <v>1.58</v>
+      </c>
+      <c r="BE163">
+        <v>2</v>
+      </c>
+      <c r="BF163">
+        <v>7</v>
+      </c>
+      <c r="BG163">
+        <v>7</v>
+      </c>
+      <c r="BH163">
+        <v>5</v>
+      </c>
+      <c r="BI163">
+        <v>10</v>
+      </c>
+      <c r="BJ163">
+        <v>12</v>
+      </c>
+      <c r="BK163">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="164" spans="1:63">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>4867523</v>
+      </c>
+      <c r="C164" t="s">
+        <v>63</v>
+      </c>
+      <c r="D164" t="s">
+        <v>64</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45171.33333333334</v>
+      </c>
+      <c r="F164">
+        <v>21</v>
+      </c>
+      <c r="G164" t="s">
+        <v>68</v>
+      </c>
+      <c r="H164" t="s">
+        <v>69</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>0</v>
+      </c>
+      <c r="O164" t="s">
+        <v>83</v>
+      </c>
+      <c r="P164" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q164">
+        <v>4</v>
+      </c>
+      <c r="R164">
+        <v>3</v>
+      </c>
+      <c r="S164">
+        <v>7</v>
+      </c>
+      <c r="T164">
+        <v>2.45</v>
+      </c>
+      <c r="U164">
+        <v>2.05</v>
+      </c>
+      <c r="V164">
+        <v>4.33</v>
+      </c>
+      <c r="W164">
+        <v>1.4</v>
+      </c>
+      <c r="X164">
+        <v>2.75</v>
+      </c>
+      <c r="Y164">
+        <v>2.75</v>
+      </c>
+      <c r="Z164">
+        <v>1.4</v>
+      </c>
+      <c r="AA164">
+        <v>6.5</v>
+      </c>
+      <c r="AB164">
+        <v>1.1</v>
+      </c>
+      <c r="AC164">
+        <v>2.44</v>
+      </c>
+      <c r="AD164">
+        <v>2.57</v>
+      </c>
+      <c r="AE164">
+        <v>3.24</v>
+      </c>
+      <c r="AF164">
+        <v>1.07</v>
+      </c>
+      <c r="AG164">
+        <v>7.5</v>
+      </c>
+      <c r="AH164">
+        <v>1.33</v>
+      </c>
+      <c r="AI164">
+        <v>3.25</v>
+      </c>
+      <c r="AJ164">
+        <v>2.08</v>
+      </c>
+      <c r="AK164">
+        <v>1.8</v>
+      </c>
+      <c r="AL164">
+        <v>1.85</v>
+      </c>
+      <c r="AM164">
+        <v>1.85</v>
+      </c>
+      <c r="AN164">
+        <v>1.22</v>
+      </c>
+      <c r="AO164">
+        <v>1.33</v>
+      </c>
+      <c r="AP164">
+        <v>1.75</v>
+      </c>
+      <c r="AQ164">
+        <v>2.5</v>
+      </c>
+      <c r="AR164">
+        <v>1.3</v>
+      </c>
+      <c r="AS164">
+        <v>2.36</v>
+      </c>
+      <c r="AT164">
+        <v>1.27</v>
+      </c>
+      <c r="AU164">
+        <v>1.72</v>
+      </c>
+      <c r="AV164">
+        <v>1.36</v>
+      </c>
+      <c r="AW164">
+        <v>3.08</v>
+      </c>
+      <c r="AX164">
+        <v>1.66</v>
+      </c>
+      <c r="AY164">
+        <v>7.2</v>
+      </c>
+      <c r="AZ164">
+        <v>2.7</v>
+      </c>
+      <c r="BA164">
+        <v>1.28</v>
+      </c>
+      <c r="BB164">
+        <v>1.52</v>
+      </c>
+      <c r="BC164">
+        <v>2</v>
+      </c>
+      <c r="BD164">
+        <v>2.5</v>
+      </c>
+      <c r="BE164">
+        <v>3.45</v>
+      </c>
+      <c r="BF164">
+        <v>5</v>
+      </c>
+      <c r="BG164">
+        <v>2</v>
+      </c>
+      <c r="BH164">
+        <v>3</v>
+      </c>
+      <c r="BI164">
+        <v>4</v>
+      </c>
+      <c r="BJ164">
+        <v>8</v>
+      </c>
+      <c r="BK164">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:63">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>4867517</v>
+      </c>
+      <c r="C165" t="s">
+        <v>63</v>
+      </c>
+      <c r="D165" t="s">
+        <v>64</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45171.41666666666</v>
+      </c>
+      <c r="F165">
+        <v>21</v>
+      </c>
+      <c r="G165" t="s">
+        <v>78</v>
+      </c>
+      <c r="H165" t="s">
+        <v>65</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165">
+        <v>0</v>
+      </c>
+      <c r="O165" t="s">
+        <v>83</v>
+      </c>
+      <c r="P165" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q165">
+        <v>6</v>
+      </c>
+      <c r="R165">
+        <v>2</v>
+      </c>
+      <c r="S165">
+        <v>8</v>
+      </c>
+      <c r="T165">
+        <v>2.05</v>
+      </c>
+      <c r="U165">
+        <v>2.4</v>
+      </c>
+      <c r="V165">
+        <v>5</v>
+      </c>
+      <c r="W165">
+        <v>1.29</v>
+      </c>
+      <c r="X165">
+        <v>3.44</v>
+      </c>
+      <c r="Y165">
+        <v>2.34</v>
+      </c>
+      <c r="Z165">
+        <v>1.56</v>
+      </c>
+      <c r="AA165">
+        <v>5.4</v>
+      </c>
+      <c r="AB165">
+        <v>1.13</v>
+      </c>
+      <c r="AC165">
+        <v>1.57</v>
+      </c>
+      <c r="AD165">
+        <v>4.2</v>
+      </c>
+      <c r="AE165">
+        <v>4.5</v>
+      </c>
+      <c r="AF165">
+        <v>1.02</v>
+      </c>
+      <c r="AG165">
+        <v>10</v>
+      </c>
+      <c r="AH165">
+        <v>1.2</v>
+      </c>
+      <c r="AI165">
+        <v>4</v>
+      </c>
+      <c r="AJ165">
+        <v>1.65</v>
+      </c>
+      <c r="AK165">
+        <v>2.15</v>
+      </c>
+      <c r="AL165">
+        <v>1.7</v>
+      </c>
+      <c r="AM165">
+        <v>2.05</v>
+      </c>
+      <c r="AN165">
+        <v>1.18</v>
+      </c>
+      <c r="AO165">
+        <v>1.2</v>
+      </c>
+      <c r="AP165">
+        <v>2.3</v>
+      </c>
+      <c r="AQ165">
+        <v>2.33</v>
+      </c>
+      <c r="AR165">
+        <v>0.5</v>
+      </c>
+      <c r="AS165">
+        <v>2.2</v>
+      </c>
+      <c r="AT165">
+        <v>0.55</v>
+      </c>
+      <c r="AU165">
+        <v>1.82</v>
+      </c>
+      <c r="AV165">
+        <v>1.55</v>
+      </c>
+      <c r="AW165">
+        <v>3.37</v>
+      </c>
+      <c r="AX165">
+        <v>1.32</v>
+      </c>
+      <c r="AY165">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AZ165">
+        <v>4.25</v>
+      </c>
+      <c r="BA165">
+        <v>1.28</v>
+      </c>
+      <c r="BB165">
+        <v>1.52</v>
+      </c>
+      <c r="BC165">
+        <v>1.95</v>
+      </c>
+      <c r="BD165">
+        <v>2.5</v>
+      </c>
+      <c r="BE165">
+        <v>3.45</v>
+      </c>
+      <c r="BF165">
+        <v>3</v>
+      </c>
+      <c r="BG165">
+        <v>4</v>
+      </c>
+      <c r="BH165">
+        <v>10</v>
+      </c>
+      <c r="BI165">
+        <v>2</v>
+      </c>
+      <c r="BJ165">
+        <v>13</v>
+      </c>
+      <c r="BK165">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:63">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>4867520</v>
+      </c>
+      <c r="C166" t="s">
+        <v>63</v>
+      </c>
+      <c r="D166" t="s">
+        <v>64</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45171.41666666666</v>
+      </c>
+      <c r="F166">
+        <v>21</v>
+      </c>
+      <c r="G166" t="s">
+        <v>77</v>
+      </c>
+      <c r="H166" t="s">
+        <v>71</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>1</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <v>1</v>
+      </c>
+      <c r="O166" t="s">
+        <v>201</v>
+      </c>
+      <c r="P166" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q166">
+        <v>6</v>
+      </c>
+      <c r="R166">
+        <v>3</v>
+      </c>
+      <c r="S166">
+        <v>9</v>
+      </c>
+      <c r="T166">
+        <v>3</v>
+      </c>
+      <c r="U166">
+        <v>2.15</v>
+      </c>
+      <c r="V166">
+        <v>3.1</v>
+      </c>
+      <c r="W166">
+        <v>1.36</v>
+      </c>
+      <c r="X166">
+        <v>3</v>
+      </c>
+      <c r="Y166">
+        <v>2.62</v>
+      </c>
+      <c r="Z166">
+        <v>1.44</v>
+      </c>
+      <c r="AA166">
+        <v>6</v>
+      </c>
+      <c r="AB166">
+        <v>1.11</v>
+      </c>
+      <c r="AC166">
+        <v>2.48</v>
+      </c>
+      <c r="AD166">
+        <v>3.4</v>
+      </c>
+      <c r="AE166">
+        <v>2.48</v>
+      </c>
+      <c r="AF166">
+        <v>1.05</v>
+      </c>
+      <c r="AG166">
+        <v>9</v>
+      </c>
+      <c r="AH166">
+        <v>1.29</v>
+      </c>
+      <c r="AI166">
+        <v>3.5</v>
+      </c>
+      <c r="AJ166">
+        <v>1.75</v>
+      </c>
+      <c r="AK166">
+        <v>2</v>
+      </c>
+      <c r="AL166">
+        <v>1.67</v>
+      </c>
+      <c r="AM166">
+        <v>2.1</v>
+      </c>
+      <c r="AN166">
+        <v>1.5</v>
+      </c>
+      <c r="AO166">
+        <v>1.3</v>
+      </c>
+      <c r="AP166">
+        <v>1.44</v>
+      </c>
+      <c r="AQ166">
+        <v>2</v>
+      </c>
+      <c r="AR166">
+        <v>0.8</v>
+      </c>
+      <c r="AS166">
+        <v>2.09</v>
+      </c>
+      <c r="AT166">
+        <v>0.73</v>
+      </c>
+      <c r="AU166">
+        <v>1.16</v>
+      </c>
+      <c r="AV166">
+        <v>1.13</v>
+      </c>
+      <c r="AW166">
+        <v>2.29</v>
+      </c>
+      <c r="AX166">
+        <v>2.09</v>
+      </c>
+      <c r="AY166">
+        <v>6.5</v>
+      </c>
+      <c r="AZ166">
+        <v>2.09</v>
+      </c>
+      <c r="BA166">
+        <v>1.34</v>
+      </c>
+      <c r="BB166">
+        <v>1.62</v>
+      </c>
+      <c r="BC166">
+        <v>2.1</v>
+      </c>
+      <c r="BD166">
+        <v>2.85</v>
+      </c>
+      <c r="BE166">
+        <v>3.9</v>
+      </c>
+      <c r="BF166">
+        <v>5</v>
+      </c>
+      <c r="BG166">
+        <v>3</v>
+      </c>
+      <c r="BH166">
+        <v>2</v>
+      </c>
+      <c r="BI166">
+        <v>4</v>
+      </c>
+      <c r="BJ166">
+        <v>7</v>
+      </c>
+      <c r="BK166">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:63">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>4867521</v>
+      </c>
+      <c r="C167" t="s">
+        <v>63</v>
+      </c>
+      <c r="D167" t="s">
+        <v>64</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45171.41666666666</v>
+      </c>
+      <c r="F167">
+        <v>21</v>
+      </c>
+      <c r="G167" t="s">
+        <v>75</v>
+      </c>
+      <c r="H167" t="s">
+        <v>79</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>1</v>
+      </c>
+      <c r="M167">
+        <v>2</v>
+      </c>
+      <c r="N167">
+        <v>3</v>
+      </c>
+      <c r="O167" t="s">
+        <v>202</v>
+      </c>
+      <c r="P167" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q167">
+        <v>5</v>
+      </c>
+      <c r="R167">
+        <v>7</v>
+      </c>
+      <c r="S167">
+        <v>12</v>
+      </c>
+      <c r="T167">
+        <v>4.6</v>
+      </c>
+      <c r="U167">
+        <v>2.33</v>
+      </c>
+      <c r="V167">
+        <v>2.18</v>
+      </c>
+      <c r="W167">
+        <v>1.3</v>
+      </c>
+      <c r="X167">
+        <v>3.34</v>
+      </c>
+      <c r="Y167">
+        <v>2.41</v>
+      </c>
+      <c r="Z167">
+        <v>1.53</v>
+      </c>
+      <c r="AA167">
+        <v>5.65</v>
+      </c>
+      <c r="AB167">
+        <v>1.12</v>
+      </c>
+      <c r="AC167">
+        <v>4.5</v>
+      </c>
+      <c r="AD167">
+        <v>3.85</v>
+      </c>
+      <c r="AE167">
+        <v>1.61</v>
+      </c>
+      <c r="AF167">
+        <v>1.02</v>
+      </c>
+      <c r="AG167">
+        <v>10</v>
+      </c>
+      <c r="AH167">
+        <v>1.17</v>
+      </c>
+      <c r="AI167">
+        <v>4.2</v>
+      </c>
+      <c r="AJ167">
+        <v>1.67</v>
+      </c>
+      <c r="AK167">
+        <v>2.15</v>
+      </c>
+      <c r="AL167">
+        <v>1.64</v>
+      </c>
+      <c r="AM167">
+        <v>2.12</v>
+      </c>
+      <c r="AN167">
+        <v>2.12</v>
+      </c>
+      <c r="AO167">
+        <v>1.22</v>
+      </c>
+      <c r="AP167">
+        <v>1.17</v>
+      </c>
+      <c r="AQ167">
+        <v>1.33</v>
+      </c>
+      <c r="AR167">
+        <v>1.8</v>
+      </c>
+      <c r="AS167">
+        <v>1.2</v>
+      </c>
+      <c r="AT167">
+        <v>1.91</v>
+      </c>
+      <c r="AU167">
+        <v>1.52</v>
+      </c>
+      <c r="AV167">
+        <v>1.63</v>
+      </c>
+      <c r="AW167">
+        <v>3.15</v>
+      </c>
+      <c r="AX167">
+        <v>3.35</v>
+      </c>
+      <c r="AY167">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AZ167">
+        <v>1.44</v>
+      </c>
+      <c r="BA167">
+        <v>0</v>
+      </c>
+      <c r="BB167">
+        <v>1.2</v>
+      </c>
+      <c r="BC167">
+        <v>1.32</v>
+      </c>
+      <c r="BD167">
+        <v>1.56</v>
+      </c>
+      <c r="BE167">
+        <v>1.88</v>
+      </c>
+      <c r="BF167">
+        <v>3</v>
+      </c>
+      <c r="BG167">
+        <v>6</v>
+      </c>
+      <c r="BH167">
+        <v>2</v>
+      </c>
+      <c r="BI167">
+        <v>4</v>
+      </c>
+      <c r="BJ167">
+        <v>5</v>
+      </c>
+      <c r="BK167">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:63">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>4867519</v>
+      </c>
+      <c r="C168" t="s">
+        <v>63</v>
+      </c>
+      <c r="D168" t="s">
+        <v>64</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45172.41666666666</v>
+      </c>
+      <c r="F168">
+        <v>21</v>
+      </c>
+      <c r="G168" t="s">
+        <v>72</v>
+      </c>
+      <c r="H168" t="s">
+        <v>66</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168">
+        <v>1</v>
+      </c>
+      <c r="K168">
+        <v>2</v>
+      </c>
+      <c r="L168">
+        <v>3</v>
+      </c>
+      <c r="M168">
+        <v>2</v>
+      </c>
+      <c r="N168">
+        <v>5</v>
+      </c>
+      <c r="O168" t="s">
+        <v>203</v>
+      </c>
+      <c r="P168" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q168">
+        <v>5</v>
+      </c>
+      <c r="R168">
+        <v>4</v>
+      </c>
+      <c r="S168">
+        <v>9</v>
+      </c>
+      <c r="T168">
+        <v>2.5</v>
+      </c>
+      <c r="U168">
+        <v>2.2</v>
+      </c>
+      <c r="V168">
+        <v>3.7</v>
+      </c>
+      <c r="W168">
+        <v>1.33</v>
+      </c>
+      <c r="X168">
+        <v>3.25</v>
+      </c>
+      <c r="Y168">
+        <v>2.5</v>
+      </c>
+      <c r="Z168">
+        <v>1.5</v>
+      </c>
+      <c r="AA168">
+        <v>6</v>
+      </c>
+      <c r="AB168">
+        <v>1.11</v>
+      </c>
+      <c r="AC168">
+        <v>2.13</v>
+      </c>
+      <c r="AD168">
+        <v>3.4</v>
+      </c>
+      <c r="AE168">
+        <v>2.96</v>
+      </c>
+      <c r="AF168">
+        <v>1.04</v>
+      </c>
+      <c r="AG168">
+        <v>10</v>
+      </c>
+      <c r="AH168">
+        <v>1.29</v>
+      </c>
+      <c r="AI168">
+        <v>3.5</v>
+      </c>
+      <c r="AJ168">
+        <v>1.8</v>
+      </c>
+      <c r="AK168">
+        <v>1.95</v>
+      </c>
+      <c r="AL168">
+        <v>1.7</v>
+      </c>
+      <c r="AM168">
+        <v>2.05</v>
+      </c>
+      <c r="AN168">
+        <v>1.29</v>
+      </c>
+      <c r="AO168">
+        <v>1.25</v>
+      </c>
+      <c r="AP168">
+        <v>1.8</v>
+      </c>
+      <c r="AQ168">
+        <v>0.8</v>
+      </c>
+      <c r="AR168">
+        <v>1.1</v>
+      </c>
+      <c r="AS168">
+        <v>1</v>
+      </c>
+      <c r="AT168">
+        <v>1</v>
+      </c>
+      <c r="AU168">
+        <v>1.53</v>
+      </c>
+      <c r="AV168">
+        <v>1.37</v>
+      </c>
+      <c r="AW168">
+        <v>2.9</v>
+      </c>
+      <c r="AX168">
+        <v>1.63</v>
+      </c>
+      <c r="AY168">
+        <v>7.85</v>
+      </c>
+      <c r="AZ168">
+        <v>2.7</v>
+      </c>
+      <c r="BA168">
+        <v>1.13</v>
+      </c>
+      <c r="BB168">
+        <v>1.24</v>
+      </c>
+      <c r="BC168">
+        <v>1.42</v>
+      </c>
+      <c r="BD168">
+        <v>1.74</v>
+      </c>
+      <c r="BE168">
+        <v>2.2</v>
+      </c>
+      <c r="BF168">
+        <v>5</v>
+      </c>
+      <c r="BG168">
+        <v>6</v>
+      </c>
+      <c r="BH168">
+        <v>4</v>
+      </c>
+      <c r="BI168">
+        <v>7</v>
+      </c>
+      <c r="BJ168">
+        <v>9</v>
+      </c>
+      <c r="BK168">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="169" spans="1:63">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>4867522</v>
+      </c>
+      <c r="C169" t="s">
+        <v>63</v>
+      </c>
+      <c r="D169" t="s">
+        <v>64</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45172.41666666666</v>
+      </c>
+      <c r="F169">
+        <v>21</v>
+      </c>
+      <c r="G169" t="s">
+        <v>67</v>
+      </c>
+      <c r="H169" t="s">
+        <v>80</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>2</v>
+      </c>
+      <c r="M169">
+        <v>0</v>
+      </c>
+      <c r="N169">
+        <v>2</v>
+      </c>
+      <c r="O169" t="s">
+        <v>204</v>
+      </c>
+      <c r="P169" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q169">
+        <v>4</v>
+      </c>
+      <c r="R169">
+        <v>5</v>
+      </c>
+      <c r="S169">
+        <v>9</v>
+      </c>
+      <c r="T169">
+        <v>2.56</v>
+      </c>
+      <c r="U169">
+        <v>2.16</v>
+      </c>
+      <c r="V169">
+        <v>3.98</v>
+      </c>
+      <c r="W169">
+        <v>1.37</v>
+      </c>
+      <c r="X169">
+        <v>2.95</v>
+      </c>
+      <c r="Y169">
+        <v>2.71</v>
+      </c>
+      <c r="Z169">
+        <v>1.43</v>
+      </c>
+      <c r="AA169">
+        <v>6.7</v>
+      </c>
+      <c r="AB169">
+        <v>1.09</v>
+      </c>
+      <c r="AC169">
+        <v>2.04</v>
+      </c>
+      <c r="AD169">
+        <v>3.45</v>
+      </c>
+      <c r="AE169">
+        <v>3.1</v>
+      </c>
+      <c r="AF169">
+        <v>1.01</v>
+      </c>
+      <c r="AG169">
+        <v>9.6</v>
+      </c>
+      <c r="AH169">
+        <v>1.25</v>
+      </c>
+      <c r="AI169">
+        <v>3.46</v>
+      </c>
+      <c r="AJ169">
+        <v>1.88</v>
+      </c>
+      <c r="AK169">
+        <v>2</v>
+      </c>
+      <c r="AL169">
+        <v>1.7</v>
+      </c>
+      <c r="AM169">
+        <v>2.03</v>
+      </c>
+      <c r="AN169">
+        <v>1.28</v>
+      </c>
+      <c r="AO169">
+        <v>1.27</v>
+      </c>
+      <c r="AP169">
+        <v>1.74</v>
+      </c>
+      <c r="AQ169">
+        <v>1.3</v>
+      </c>
+      <c r="AR169">
+        <v>0.9</v>
+      </c>
+      <c r="AS169">
+        <v>1.45</v>
+      </c>
+      <c r="AT169">
+        <v>0.82</v>
+      </c>
+      <c r="AU169">
+        <v>1.31</v>
+      </c>
+      <c r="AV169">
+        <v>1.42</v>
+      </c>
+      <c r="AW169">
+        <v>2.73</v>
+      </c>
+      <c r="AX169">
+        <v>1.72</v>
+      </c>
+      <c r="AY169">
+        <v>7.25</v>
+      </c>
+      <c r="AZ169">
+        <v>2.55</v>
+      </c>
+      <c r="BA169">
+        <v>1.18</v>
+      </c>
+      <c r="BB169">
+        <v>1.3</v>
+      </c>
+      <c r="BC169">
+        <v>1.54</v>
+      </c>
+      <c r="BD169">
+        <v>2</v>
+      </c>
+      <c r="BE169">
+        <v>2.5</v>
+      </c>
+      <c r="BF169">
+        <v>8</v>
+      </c>
+      <c r="BG169">
+        <v>2</v>
+      </c>
+      <c r="BH169">
+        <v>2</v>
+      </c>
+      <c r="BI169">
+        <v>10</v>
+      </c>
+      <c r="BJ169">
+        <v>10</v>
+      </c>
+      <c r="BK169">
         <v>12</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK172"/>
+  <dimension ref="A1:BK177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.82</v>
       </c>
       <c r="AT2" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT3" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>2.36</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT8" t="n">
         <v>0.9</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT10" t="n">
         <v>0.55</v>
@@ -2730,7 +2730,7 @@
         <v>1.82</v>
       </c>
       <c r="AT11" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT13" t="n">
         <v>1.27</v>
@@ -3339,7 +3339,7 @@
         <v>2.09</v>
       </c>
       <c r="AT14" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT16" t="n">
         <v>1</v>
@@ -4151,7 +4151,7 @@
         <v>1</v>
       </c>
       <c r="AT18" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU18" t="n">
         <v>1.48</v>
@@ -4351,7 +4351,7 @@
         <v>1</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT19" t="n">
         <v>0.82</v>
@@ -4557,7 +4557,7 @@
         <v>1.82</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU20" t="n">
         <v>1.03</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT21" t="n">
         <v>0.55</v>
@@ -5163,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT23" t="n">
         <v>0.82</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT25" t="n">
         <v>1.27</v>
@@ -5975,10 +5975,10 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT27" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU27" t="n">
         <v>2.43</v>
@@ -6181,7 +6181,7 @@
         <v>1.82</v>
       </c>
       <c r="AT28" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU28" t="n">
         <v>1.36</v>
@@ -6384,7 +6384,7 @@
         <v>2.09</v>
       </c>
       <c r="AT29" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU29" t="n">
         <v>1.12</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT30" t="n">
         <v>1.91</v>
@@ -6993,7 +6993,7 @@
         <v>1.36</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU32" t="n">
         <v>1.34</v>
@@ -7396,7 +7396,7 @@
         <v>2</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT34" t="n">
         <v>1.27</v>
@@ -7802,10 +7802,10 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT36" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU36" t="n">
         <v>1.24</v>
@@ -8208,7 +8208,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT38" t="n">
         <v>0.82</v>
@@ -9023,7 +9023,7 @@
         <v>1.45</v>
       </c>
       <c r="AT42" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU42" t="n">
         <v>1.43</v>
@@ -9429,7 +9429,7 @@
         <v>2.09</v>
       </c>
       <c r="AT44" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU44" t="n">
         <v>1.11</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT46" t="n">
         <v>1</v>
@@ -10444,7 +10444,7 @@
         <v>1.82</v>
       </c>
       <c r="AT49" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU49" t="n">
         <v>1.63</v>
@@ -10644,7 +10644,7 @@
         <v>0.33</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT50" t="n">
         <v>0.82</v>
@@ -10847,7 +10847,7 @@
         <v>1.33</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT51" t="n">
         <v>1.6</v>
@@ -11053,7 +11053,7 @@
         <v>2.2</v>
       </c>
       <c r="AT52" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU52" t="n">
         <v>1.99</v>
@@ -11459,7 +11459,7 @@
         <v>2.09</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU54" t="n">
         <v>1.01</v>
@@ -11862,10 +11862,10 @@
         <v>0</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT56" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU56" t="n">
         <v>1.17</v>
@@ -12065,7 +12065,7 @@
         <v>0.33</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT57" t="n">
         <v>1</v>
@@ -12674,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT60" t="n">
         <v>0.73</v>
@@ -13286,7 +13286,7 @@
         <v>1</v>
       </c>
       <c r="AT63" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU63" t="n">
         <v>1.24</v>
@@ -14095,10 +14095,10 @@
         <v>0.33</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT67" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU67" t="n">
         <v>1.36</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT68" t="n">
         <v>0.55</v>
@@ -14707,7 +14707,7 @@
         <v>1.45</v>
       </c>
       <c r="AT70" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU70" t="n">
         <v>1.51</v>
@@ -14907,10 +14907,10 @@
         <v>0</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU71" t="n">
         <v>1.39</v>
@@ -15113,7 +15113,7 @@
         <v>1.36</v>
       </c>
       <c r="AT72" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU72" t="n">
         <v>1.9</v>
@@ -15313,10 +15313,10 @@
         <v>0.25</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT73" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU73" t="n">
         <v>1.48</v>
@@ -16331,7 +16331,7 @@
         <v>1</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU78" t="n">
         <v>1.16</v>
@@ -16531,7 +16531,7 @@
         <v>1.75</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT79" t="n">
         <v>1.91</v>
@@ -16937,7 +16937,7 @@
         <v>0.5</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT81" t="n">
         <v>1</v>
@@ -17140,10 +17140,10 @@
         <v>2.2</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT82" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU82" t="n">
         <v>1.29</v>
@@ -17343,7 +17343,7 @@
         <v>0.8</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT83" t="n">
         <v>0.82</v>
@@ -17549,7 +17549,7 @@
         <v>1.36</v>
       </c>
       <c r="AT84" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU84" t="n">
         <v>1.78</v>
@@ -18158,7 +18158,7 @@
         <v>1</v>
       </c>
       <c r="AT87" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU87" t="n">
         <v>2.14</v>
@@ -18561,7 +18561,7 @@
         <v>1.6</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT89" t="n">
         <v>1.6</v>
@@ -18970,7 +18970,7 @@
         <v>2.2</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU91" t="n">
         <v>1.7</v>
@@ -19170,7 +19170,7 @@
         <v>0.8</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT92" t="n">
         <v>1</v>
@@ -19579,7 +19579,7 @@
         <v>1.45</v>
       </c>
       <c r="AT94" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU94" t="n">
         <v>1.3</v>
@@ -19782,7 +19782,7 @@
         <v>1.82</v>
       </c>
       <c r="AT95" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU95" t="n">
         <v>1.6</v>
@@ -19982,7 +19982,7 @@
         <v>0.8</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT96" t="n">
         <v>0.9</v>
@@ -20591,7 +20591,7 @@
         <v>1.67</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT99" t="n">
         <v>1.91</v>
@@ -20794,10 +20794,10 @@
         <v>2</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT100" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU100" t="n">
         <v>1.48</v>
@@ -21609,7 +21609,7 @@
         <v>1.45</v>
       </c>
       <c r="AT104" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU104" t="n">
         <v>1.47</v>
@@ -22012,10 +22012,10 @@
         <v>0.14</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU106" t="n">
         <v>1.37</v>
@@ -22215,7 +22215,7 @@
         <v>1.5</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT107" t="n">
         <v>1</v>
@@ -22421,7 +22421,7 @@
         <v>1</v>
       </c>
       <c r="AT108" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU108" t="n">
         <v>2.13</v>
@@ -22624,7 +22624,7 @@
         <v>2.2</v>
       </c>
       <c r="AT109" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU109" t="n">
         <v>1.84</v>
@@ -22827,7 +22827,7 @@
         <v>1.36</v>
       </c>
       <c r="AT110" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU110" t="n">
         <v>1.6</v>
@@ -23027,7 +23027,7 @@
         <v>0.67</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT111" t="n">
         <v>0.82</v>
@@ -23433,7 +23433,7 @@
         <v>0.67</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT113" t="n">
         <v>1</v>
@@ -24245,7 +24245,7 @@
         <v>0.67</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT117" t="n">
         <v>0.9</v>
@@ -25057,10 +25057,10 @@
         <v>2.14</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT121" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU121" t="n">
         <v>2.2</v>
@@ -25263,7 +25263,7 @@
         <v>1.45</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU122" t="n">
         <v>1.39</v>
@@ -25869,7 +25869,7 @@
         <v>1.14</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT125" t="n">
         <v>0.73</v>
@@ -26075,7 +26075,7 @@
         <v>1.45</v>
       </c>
       <c r="AT126" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU126" t="n">
         <v>1.39</v>
@@ -26478,7 +26478,7 @@
         <v>1.71</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT128" t="n">
         <v>1.6</v>
@@ -26684,7 +26684,7 @@
         <v>2.36</v>
       </c>
       <c r="AT129" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU129" t="n">
         <v>1.58</v>
@@ -27087,10 +27087,10 @@
         <v>2.13</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT131" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU131" t="n">
         <v>1.46</v>
@@ -27699,7 +27699,7 @@
         <v>1.2</v>
       </c>
       <c r="AT134" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU134" t="n">
         <v>1.44</v>
@@ -27899,7 +27899,7 @@
         <v>1.25</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT135" t="n">
         <v>1</v>
@@ -28714,7 +28714,7 @@
         <v>2.36</v>
       </c>
       <c r="AT139" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU139" t="n">
         <v>1.61</v>
@@ -28914,7 +28914,7 @@
         <v>0.63</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT140" t="n">
         <v>0.82</v>
@@ -29323,7 +29323,7 @@
         <v>2.2</v>
       </c>
       <c r="AT142" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU142" t="n">
         <v>1.83</v>
@@ -29523,7 +29523,7 @@
         <v>1</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT143" t="n">
         <v>1</v>
@@ -29726,7 +29726,7 @@
         <v>1</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT144" t="n">
         <v>0.73</v>
@@ -29932,7 +29932,7 @@
         <v>1</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU145" t="n">
         <v>1.92</v>
@@ -30132,7 +30132,7 @@
         <v>1</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT146" t="n">
         <v>0.82</v>
@@ -30338,7 +30338,7 @@
         <v>2.36</v>
       </c>
       <c r="AT147" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU147" t="n">
         <v>1.74</v>
@@ -30944,10 +30944,10 @@
         <v>1</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT150" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU150" t="n">
         <v>1.39</v>
@@ -31756,10 +31756,10 @@
         <v>2.1</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT154" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU154" t="n">
         <v>1.68</v>
@@ -31962,7 +31962,7 @@
         <v>1.82</v>
       </c>
       <c r="AT155" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU155" t="n">
         <v>1.52</v>
@@ -32162,7 +32162,7 @@
         <v>0.89</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT156" t="n">
         <v>1</v>
@@ -32568,10 +32568,10 @@
         <v>0.4</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT158" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU158" t="n">
         <v>2</v>
@@ -32974,7 +32974,7 @@
         <v>0.89</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT160" t="n">
         <v>0.73</v>
@@ -33180,7 +33180,7 @@
         <v>1</v>
       </c>
       <c r="AT161" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU161" t="n">
         <v>1.55</v>
@@ -35123,10 +35123,10 @@
         </is>
       </c>
       <c r="Q171" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R171" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S171" t="n">
         <v>11</v>
@@ -35452,7 +35452,7 @@
         <v>6</v>
       </c>
       <c r="BG172" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BH172" t="n">
         <v>6</v>
@@ -35464,7 +35464,1022 @@
         <v>12</v>
       </c>
       <c r="BK172" t="n">
-        <v>12</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="n">
+        <v>4867524</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>45186.33333333334</v>
+      </c>
+      <c r="F173" t="n">
+        <v>22</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>GAIS</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Helsingborg</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>2</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="n">
+        <v>2</v>
+      </c>
+      <c r="L173" t="n">
+        <v>4</v>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="n">
+        <v>5</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>['12', '28', '85', '90']</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="Q173" t="n">
+        <v>4</v>
+      </c>
+      <c r="R173" t="n">
+        <v>2</v>
+      </c>
+      <c r="S173" t="n">
+        <v>6</v>
+      </c>
+      <c r="T173" t="n">
+        <v>2</v>
+      </c>
+      <c r="U173" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V173" t="n">
+        <v>6</v>
+      </c>
+      <c r="W173" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X173" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB173" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC173" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AD173" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE173" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AF173" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG173" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH173" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI173" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ173" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK173" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL173" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM173" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN173" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO173" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP173" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AQ173" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AR173" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS173" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AT173" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AU173" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV173" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW173" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AX173" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AY173" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ173" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BA173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC173" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BD173" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BE173" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BF173" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG173" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH173" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI173" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ173" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK173" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="n">
+        <v>4867531</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>45186.41666666666</v>
+      </c>
+      <c r="F174" t="n">
+        <v>22</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>GIF Sundsvall</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Utsikten</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N174" t="n">
+        <v>1</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q174" t="n">
+        <v>6</v>
+      </c>
+      <c r="R174" t="n">
+        <v>4</v>
+      </c>
+      <c r="S174" t="n">
+        <v>10</v>
+      </c>
+      <c r="T174" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U174" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V174" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W174" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X174" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB174" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC174" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD174" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE174" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AF174" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG174" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH174" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI174" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ174" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AK174" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AL174" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM174" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN174" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO174" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP174" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ174" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR174" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS174" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT174" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AU174" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV174" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW174" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX174" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AY174" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ174" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BA174" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB174" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC174" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD174" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE174" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF174" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG174" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH174" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI174" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ174" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK174" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="n">
+        <v>4867526</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>45186.5</v>
+      </c>
+      <c r="F175" t="n">
+        <v>22</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Skövde AIK</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>1</v>
+      </c>
+      <c r="J175" t="n">
+        <v>3</v>
+      </c>
+      <c r="K175" t="n">
+        <v>4</v>
+      </c>
+      <c r="L175" t="n">
+        <v>5</v>
+      </c>
+      <c r="M175" t="n">
+        <v>3</v>
+      </c>
+      <c r="N175" t="n">
+        <v>8</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>['26', '48', '53', '72', '90+5']</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>['11', '16', '29']</t>
+        </is>
+      </c>
+      <c r="Q175" t="n">
+        <v>5</v>
+      </c>
+      <c r="R175" t="n">
+        <v>3</v>
+      </c>
+      <c r="S175" t="n">
+        <v>8</v>
+      </c>
+      <c r="T175" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U175" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V175" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W175" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X175" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y175" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA175" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB175" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC175" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AD175" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AE175" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AF175" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG175" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH175" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI175" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ175" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK175" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AL175" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM175" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN175" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO175" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP175" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ175" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AR175" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AS175" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT175" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU175" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV175" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW175" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX175" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY175" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ175" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BA175" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB175" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC175" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BD175" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BE175" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BF175" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG175" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH175" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI175" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ175" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK175" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="n">
+        <v>4867525</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>45187.58333333334</v>
+      </c>
+      <c r="F176" t="n">
+        <v>22</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Jönköpings Södra</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Landskrona</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>1</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="n">
+        <v>2</v>
+      </c>
+      <c r="N176" t="n">
+        <v>3</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>['50', '59']</t>
+        </is>
+      </c>
+      <c r="Q176" t="n">
+        <v>6</v>
+      </c>
+      <c r="R176" t="n">
+        <v>5</v>
+      </c>
+      <c r="S176" t="n">
+        <v>11</v>
+      </c>
+      <c r="T176" t="n">
+        <v>3</v>
+      </c>
+      <c r="U176" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V176" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W176" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X176" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB176" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC176" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD176" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE176" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF176" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG176" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH176" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI176" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ176" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AK176" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AL176" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM176" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN176" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO176" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP176" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ176" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AR176" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS176" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT176" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AU176" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV176" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW176" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX176" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY176" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AZ176" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA176" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB176" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BC176" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD176" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE176" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BF176" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG176" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH176" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI176" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ176" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK176" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="n">
+        <v>4867529</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>45187.58333333334</v>
+      </c>
+      <c r="F177" t="n">
+        <v>22</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Öster</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Västerås SK</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>1</v>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="n">
+        <v>2</v>
+      </c>
+      <c r="M177" t="n">
+        <v>2</v>
+      </c>
+      <c r="N177" t="n">
+        <v>4</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>['51', '90+6']</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>['31', '49']</t>
+        </is>
+      </c>
+      <c r="Q177" t="n">
+        <v>8</v>
+      </c>
+      <c r="R177" t="n">
+        <v>5</v>
+      </c>
+      <c r="S177" t="n">
+        <v>13</v>
+      </c>
+      <c r="T177" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U177" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V177" t="n">
+        <v>4</v>
+      </c>
+      <c r="W177" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X177" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB177" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC177" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD177" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE177" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF177" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG177" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH177" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI177" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ177" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AK177" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AL177" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM177" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN177" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO177" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP177" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ177" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR177" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS177" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT177" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AU177" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV177" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW177" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AX177" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AY177" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AZ177" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BA177" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB177" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC177" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BD177" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE177" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF177" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG177" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH177" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI177" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ177" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK177" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK177"/>
+  <dimension ref="A1:BK184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT2" t="n">
         <v>1.92</v>
@@ -1715,7 +1715,7 @@
         <v>1.36</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT11" t="n">
         <v>1.82</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT12" t="n">
         <v>0.73</v>
@@ -3136,7 +3136,7 @@
         <v>1.58</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT14" t="n">
         <v>0.91</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT15" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>1.45</v>
       </c>
       <c r="AT17" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT18" t="n">
         <v>1.92</v>
@@ -4354,7 +4354,7 @@
         <v>1.73</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU19" t="n">
         <v>1.41</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT20" t="n">
         <v>0.33</v>
@@ -4963,7 +4963,7 @@
         <v>2.36</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU22" t="n">
         <v>1.32</v>
@@ -5163,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT23" t="n">
         <v>0.82</v>
@@ -5369,7 +5369,7 @@
         <v>1.45</v>
       </c>
       <c r="AT24" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU24" t="n">
         <v>1.45</v>
@@ -5572,7 +5572,7 @@
         <v>1.36</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU25" t="n">
         <v>1.61</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT28" t="n">
         <v>0.91</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT29" t="n">
         <v>1.82</v>
@@ -6587,7 +6587,7 @@
         <v>1.36</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU30" t="n">
         <v>1.31</v>
@@ -7193,10 +7193,10 @@
         <v>1</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU33" t="n">
         <v>1.76</v>
@@ -7399,7 +7399,7 @@
         <v>1.73</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU34" t="n">
         <v>1.32</v>
@@ -7599,7 +7599,7 @@
         <v>1.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT35" t="n">
         <v>0.82</v>
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT36" t="n">
         <v>1.92</v>
@@ -8005,7 +8005,7 @@
         <v>1.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT37" t="n">
         <v>0.55</v>
@@ -8211,7 +8211,7 @@
         <v>1.58</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU38" t="n">
         <v>1.13</v>
@@ -8414,7 +8414,7 @@
         <v>1.45</v>
       </c>
       <c r="AT39" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU39" t="n">
         <v>1.61</v>
@@ -8617,7 +8617,7 @@
         <v>2.36</v>
       </c>
       <c r="AT40" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU40" t="n">
         <v>1.36</v>
@@ -8817,10 +8817,10 @@
         <v>2</v>
       </c>
       <c r="AS41" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU41" t="n">
         <v>1.28</v>
@@ -9426,7 +9426,7 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT44" t="n">
         <v>1.92</v>
@@ -9629,10 +9629,10 @@
         <v>0.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU45" t="n">
         <v>1.56</v>
@@ -10035,10 +10035,10 @@
         <v>3</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT47" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU47" t="n">
         <v>1.45</v>
@@ -10241,7 +10241,7 @@
         <v>1</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU48" t="n">
         <v>2.24</v>
@@ -10441,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT49" t="n">
         <v>0.91</v>
@@ -10644,10 +10644,10 @@
         <v>0.33</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU50" t="n">
         <v>1.32</v>
@@ -10850,7 +10850,7 @@
         <v>1.73</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU51" t="n">
         <v>1.37</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT52" t="n">
         <v>1.18</v>
@@ -11456,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT54" t="n">
         <v>0.33</v>
@@ -11662,7 +11662,7 @@
         <v>1.45</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU55" t="n">
         <v>1.57</v>
@@ -12068,7 +12068,7 @@
         <v>1.58</v>
       </c>
       <c r="AT57" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU57" t="n">
         <v>1.46</v>
@@ -12268,7 +12268,7 @@
         <v>1</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT58" t="n">
         <v>0.82</v>
@@ -12471,10 +12471,10 @@
         <v>1.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU59" t="n">
         <v>1.67</v>
@@ -12877,7 +12877,7 @@
         <v>0</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT61" t="n">
         <v>1</v>
@@ -13083,7 +13083,7 @@
         <v>1.45</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU62" t="n">
         <v>1.38</v>
@@ -13283,7 +13283,7 @@
         <v>1.67</v>
       </c>
       <c r="AS63" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT63" t="n">
         <v>1.82</v>
@@ -13486,10 +13486,10 @@
         <v>2.33</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU64" t="n">
         <v>1.91</v>
@@ -13692,7 +13692,7 @@
         <v>1</v>
       </c>
       <c r="AT65" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU65" t="n">
         <v>1.96</v>
@@ -13895,7 +13895,7 @@
         <v>1.45</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU66" t="n">
         <v>1.3</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT68" t="n">
         <v>0.55</v>
@@ -15519,7 +15519,7 @@
         <v>2.36</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU74" t="n">
         <v>1.25</v>
@@ -15719,10 +15719,10 @@
         <v>1.6</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU75" t="n">
         <v>1.67</v>
@@ -15922,7 +15922,7 @@
         <v>0.75</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT76" t="n">
         <v>1</v>
@@ -16125,10 +16125,10 @@
         <v>1.5</v>
       </c>
       <c r="AS77" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT77" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU77" t="n">
         <v>1.22</v>
@@ -16328,7 +16328,7 @@
         <v>0</v>
       </c>
       <c r="AS78" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT78" t="n">
         <v>0.33</v>
@@ -16531,10 +16531,10 @@
         <v>1.75</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU79" t="n">
         <v>1.5</v>
@@ -16734,10 +16734,10 @@
         <v>1</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU80" t="n">
         <v>1.72</v>
@@ -16940,7 +16940,7 @@
         <v>1.92</v>
       </c>
       <c r="AT81" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU81" t="n">
         <v>2.15</v>
@@ -17749,10 +17749,10 @@
         <v>1</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU85" t="n">
         <v>1.52</v>
@@ -18358,7 +18358,7 @@
         <v>1.5</v>
       </c>
       <c r="AS88" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT88" t="n">
         <v>0.73</v>
@@ -18564,7 +18564,7 @@
         <v>1.36</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU89" t="n">
         <v>1.46</v>
@@ -18764,10 +18764,10 @@
         <v>2</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU90" t="n">
         <v>1.4</v>
@@ -18967,7 +18967,7 @@
         <v>0.17</v>
       </c>
       <c r="AS91" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT91" t="n">
         <v>0.33</v>
@@ -19170,7 +19170,7 @@
         <v>0.8</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT92" t="n">
         <v>1</v>
@@ -19376,7 +19376,7 @@
         <v>2.36</v>
       </c>
       <c r="AT93" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU93" t="n">
         <v>1.35</v>
@@ -19779,7 +19779,7 @@
         <v>0.8</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT95" t="n">
         <v>1.18</v>
@@ -19985,7 +19985,7 @@
         <v>1.92</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU96" t="n">
         <v>2.14</v>
@@ -20188,7 +20188,7 @@
         <v>1.36</v>
       </c>
       <c r="AT97" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU97" t="n">
         <v>1.66</v>
@@ -20388,7 +20388,7 @@
         <v>1.4</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT98" t="n">
         <v>0.73</v>
@@ -20594,7 +20594,7 @@
         <v>1.58</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU99" t="n">
         <v>1.61</v>
@@ -20997,10 +20997,10 @@
         <v>0.83</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU101" t="n">
         <v>1.33</v>
@@ -21200,10 +21200,10 @@
         <v>0.83</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT102" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU102" t="n">
         <v>1.65</v>
@@ -21403,10 +21403,10 @@
         <v>1.83</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU103" t="n">
         <v>1.55</v>
@@ -21809,10 +21809,10 @@
         <v>1.33</v>
       </c>
       <c r="AS105" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU105" t="n">
         <v>1.57</v>
@@ -22215,10 +22215,10 @@
         <v>1.5</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT107" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU107" t="n">
         <v>1.45</v>
@@ -22621,7 +22621,7 @@
         <v>2.43</v>
       </c>
       <c r="AS109" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT109" t="n">
         <v>1.82</v>
@@ -23636,10 +23636,10 @@
         <v>0.71</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU114" t="n">
         <v>1.72</v>
@@ -23839,10 +23839,10 @@
         <v>0.71</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT115" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU115" t="n">
         <v>1.47</v>
@@ -24042,10 +24042,10 @@
         <v>1.14</v>
       </c>
       <c r="AS116" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU116" t="n">
         <v>1.3</v>
@@ -24248,7 +24248,7 @@
         <v>1.36</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU117" t="n">
         <v>1.42</v>
@@ -24651,10 +24651,10 @@
         <v>1.57</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU119" t="n">
         <v>1.6</v>
@@ -24854,7 +24854,7 @@
         <v>0.71</v>
       </c>
       <c r="AS120" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT120" t="n">
         <v>1</v>
@@ -25466,7 +25466,7 @@
         <v>1.36</v>
       </c>
       <c r="AT123" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU123" t="n">
         <v>1.68</v>
@@ -26275,7 +26275,7 @@
         <v>0.71</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT127" t="n">
         <v>0.82</v>
@@ -26481,7 +26481,7 @@
         <v>1.58</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU128" t="n">
         <v>1.65</v>
@@ -26887,7 +26887,7 @@
         <v>1.45</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU130" t="n">
         <v>1.53</v>
@@ -27087,7 +27087,7 @@
         <v>2.13</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT131" t="n">
         <v>1.82</v>
@@ -27290,7 +27290,7 @@
         <v>0.63</v>
       </c>
       <c r="AS132" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT132" t="n">
         <v>0.55</v>
@@ -27493,10 +27493,10 @@
         <v>1.13</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU133" t="n">
         <v>1.67</v>
@@ -27696,7 +27696,7 @@
         <v>2.25</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT134" t="n">
         <v>1.92</v>
@@ -27902,7 +27902,7 @@
         <v>1.92</v>
       </c>
       <c r="AT135" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU135" t="n">
         <v>2.08</v>
@@ -28105,7 +28105,7 @@
         <v>1.45</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU136" t="n">
         <v>1.37</v>
@@ -28305,10 +28305,10 @@
         <v>0.63</v>
       </c>
       <c r="AS137" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT137" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU137" t="n">
         <v>1.6</v>
@@ -28508,10 +28508,10 @@
         <v>1.63</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU138" t="n">
         <v>1.53</v>
@@ -29120,7 +29120,7 @@
         <v>1.36</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU141" t="n">
         <v>1.6</v>
@@ -29320,7 +29320,7 @@
         <v>1.13</v>
       </c>
       <c r="AS142" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT142" t="n">
         <v>0.91</v>
@@ -30135,7 +30135,7 @@
         <v>1.92</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU146" t="n">
         <v>2.06</v>
@@ -30538,10 +30538,10 @@
         <v>1.22</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT148" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU148" t="n">
         <v>1.44</v>
@@ -30741,7 +30741,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT149" t="n">
         <v>0.55</v>
@@ -30944,7 +30944,7 @@
         <v>1</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT150" t="n">
         <v>0.91</v>
@@ -31147,10 +31147,10 @@
         <v>0.75</v>
       </c>
       <c r="AS151" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT151" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU151" t="n">
         <v>1.25</v>
@@ -31353,7 +31353,7 @@
         <v>1.45</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU152" t="n">
         <v>1.32</v>
@@ -31556,7 +31556,7 @@
         <v>1</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU153" t="n">
         <v>1.95</v>
@@ -31959,7 +31959,7 @@
         <v>2.22</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT155" t="n">
         <v>1.82</v>
@@ -32165,7 +32165,7 @@
         <v>1.73</v>
       </c>
       <c r="AT156" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU156" t="n">
         <v>1.62</v>
@@ -33177,7 +33177,7 @@
         <v>0.78</v>
       </c>
       <c r="AS161" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT161" t="n">
         <v>1.18</v>
@@ -33383,7 +33383,7 @@
         <v>1</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU162" t="n">
         <v>1.87</v>
@@ -33583,10 +33583,10 @@
         <v>1.78</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU163" t="n">
         <v>1.53</v>
@@ -33789,7 +33789,7 @@
         <v>2.36</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU164" t="n">
         <v>1.72</v>
@@ -33989,7 +33989,7 @@
         <v>0.5</v>
       </c>
       <c r="AS165" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT165" t="n">
         <v>0.55</v>
@@ -34192,7 +34192,7 @@
         <v>0.8</v>
       </c>
       <c r="AS166" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT166" t="n">
         <v>0.73</v>
@@ -34395,10 +34395,10 @@
         <v>1.8</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU167" t="n">
         <v>1.52</v>
@@ -34598,10 +34598,10 @@
         <v>1.1</v>
       </c>
       <c r="AS168" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT168" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU168" t="n">
         <v>1.53</v>
@@ -34804,7 +34804,7 @@
         <v>1.45</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU169" t="n">
         <v>1.31</v>
@@ -35007,7 +35007,7 @@
         <v>1.45</v>
       </c>
       <c r="AT170" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU170" t="n">
         <v>1.61</v>
@@ -35207,7 +35207,7 @@
         <v>1</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT171" t="n">
         <v>1</v>
@@ -36222,7 +36222,7 @@
         <v>1</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT176" t="n">
         <v>1.18</v>
@@ -36480,6 +36480,1427 @@
       </c>
       <c r="BK177" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="n">
+        <v>4867535</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>45191.58333333334</v>
+      </c>
+      <c r="F178" t="n">
+        <v>23</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Helsingborg</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>AFC Eskilstuna</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N178" t="n">
+        <v>1</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q178" t="n">
+        <v>13</v>
+      </c>
+      <c r="R178" t="n">
+        <v>4</v>
+      </c>
+      <c r="S178" t="n">
+        <v>17</v>
+      </c>
+      <c r="T178" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U178" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V178" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W178" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X178" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB178" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC178" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD178" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE178" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF178" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG178" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH178" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI178" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ178" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK178" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL178" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM178" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN178" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO178" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP178" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ178" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR178" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AS178" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT178" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU178" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV178" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW178" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX178" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AY178" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ178" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA178" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB178" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC178" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BD178" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE178" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BF178" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG178" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH178" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI178" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ178" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK178" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="n">
+        <v>4867537</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>45191.58333333334</v>
+      </c>
+      <c r="F179" t="n">
+        <v>23</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Brage</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L179" t="n">
+        <v>2</v>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="n">
+        <v>3</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>['84', '90+5']</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="Q179" t="n">
+        <v>9</v>
+      </c>
+      <c r="R179" t="n">
+        <v>4</v>
+      </c>
+      <c r="S179" t="n">
+        <v>13</v>
+      </c>
+      <c r="T179" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U179" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V179" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="W179" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X179" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB179" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC179" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD179" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE179" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AF179" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG179" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH179" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI179" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ179" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK179" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL179" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM179" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN179" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AO179" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP179" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ179" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AR179" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AS179" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AT179" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AU179" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV179" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW179" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX179" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AY179" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ179" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA179" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB179" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC179" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD179" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE179" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF179" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG179" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH179" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI179" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ179" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK179" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="n">
+        <v>4867533</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>45192.33333333334</v>
+      </c>
+      <c r="F180" t="n">
+        <v>23</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Landskrona</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Öster</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J180" t="n">
+        <v>1</v>
+      </c>
+      <c r="K180" t="n">
+        <v>2</v>
+      </c>
+      <c r="L180" t="n">
+        <v>2</v>
+      </c>
+      <c r="M180" t="n">
+        <v>2</v>
+      </c>
+      <c r="N180" t="n">
+        <v>4</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>['32', '58']</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>['15', '88']</t>
+        </is>
+      </c>
+      <c r="Q180" t="n">
+        <v>8</v>
+      </c>
+      <c r="R180" t="n">
+        <v>3</v>
+      </c>
+      <c r="S180" t="n">
+        <v>11</v>
+      </c>
+      <c r="T180" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U180" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V180" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W180" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X180" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC180" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AD180" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AE180" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AF180" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG180" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH180" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI180" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ180" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK180" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AL180" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM180" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN180" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO180" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP180" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ180" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AR180" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AS180" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT180" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AU180" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV180" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW180" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX180" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AY180" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ180" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BA180" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB180" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BC180" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BD180" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BE180" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BF180" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG180" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH180" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI180" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ180" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK180" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="n">
+        <v>4867532</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>45192.41666666666</v>
+      </c>
+      <c r="F181" t="n">
+        <v>23</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Västerås SK</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>GIF Sundsvall</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>1</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="n">
+        <v>2</v>
+      </c>
+      <c r="M181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N181" t="n">
+        <v>2</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>['16', '48']</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q181" t="n">
+        <v>8</v>
+      </c>
+      <c r="R181" t="n">
+        <v>4</v>
+      </c>
+      <c r="S181" t="n">
+        <v>12</v>
+      </c>
+      <c r="T181" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U181" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V181" t="n">
+        <v>6</v>
+      </c>
+      <c r="W181" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X181" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB181" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC181" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AD181" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AE181" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="AF181" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG181" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH181" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI181" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ181" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK181" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL181" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM181" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN181" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO181" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP181" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ181" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR181" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS181" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AT181" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AU181" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV181" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW181" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AX181" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AY181" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ181" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="BA181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB181" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BC181" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BD181" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE181" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BF181" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG181" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH181" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI181" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ181" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK181" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="n">
+        <v>4867536</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>45192.41666666666</v>
+      </c>
+      <c r="F182" t="n">
+        <v>23</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Gefle</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>GAIS</t>
+        </is>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>3</v>
+      </c>
+      <c r="K182" t="n">
+        <v>3</v>
+      </c>
+      <c r="L182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M182" t="n">
+        <v>6</v>
+      </c>
+      <c r="N182" t="n">
+        <v>6</v>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>['2', '37', '43', '51', '74', '90']</t>
+        </is>
+      </c>
+      <c r="Q182" t="n">
+        <v>4</v>
+      </c>
+      <c r="R182" t="n">
+        <v>9</v>
+      </c>
+      <c r="S182" t="n">
+        <v>13</v>
+      </c>
+      <c r="T182" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="U182" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V182" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="W182" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X182" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y182" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z182" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AB182" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC182" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="AD182" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="AE182" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AF182" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG182" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH182" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI182" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AJ182" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK182" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AL182" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM182" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN182" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AO182" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP182" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AQ182" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AR182" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS182" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AT182" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AU182" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AV182" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AW182" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX182" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AY182" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ182" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BA182" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB182" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BC182" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BD182" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BE182" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BF182" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG182" t="n">
+        <v>14</v>
+      </c>
+      <c r="BH182" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI182" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ182" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK182" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="n">
+        <v>4867534</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>45192.41666666666</v>
+      </c>
+      <c r="F183" t="n">
+        <v>23</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Jönköpings Södra</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Örgryte</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
+        <v>1</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="n">
+        <v>2</v>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="n">
+        <v>3</v>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>['23', '90+1']</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="Q183" t="n">
+        <v>1</v>
+      </c>
+      <c r="R183" t="n">
+        <v>5</v>
+      </c>
+      <c r="S183" t="n">
+        <v>6</v>
+      </c>
+      <c r="T183" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U183" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V183" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W183" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X183" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y183" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB183" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC183" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AD183" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AE183" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AF183" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG183" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH183" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI183" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ183" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK183" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL183" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AM183" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AN183" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO183" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP183" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ183" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AR183" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS183" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT183" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AU183" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV183" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW183" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX183" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AY183" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ183" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BA183" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB183" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC183" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BD183" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE183" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BF183" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG183" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH183" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI183" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ183" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK183" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="n">
+        <v>4867538</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>45192.41666666666</v>
+      </c>
+      <c r="F184" t="n">
+        <v>23</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Skövde AIK</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Östersunds FK</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>2</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="n">
+        <v>2</v>
+      </c>
+      <c r="L184" t="n">
+        <v>5</v>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="n">
+        <v>6</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>['4', '9', '53', '66', '90']</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="Q184" t="n">
+        <v>6</v>
+      </c>
+      <c r="R184" t="n">
+        <v>9</v>
+      </c>
+      <c r="S184" t="n">
+        <v>15</v>
+      </c>
+      <c r="T184" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U184" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V184" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W184" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X184" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y184" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB184" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC184" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AD184" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AE184" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AF184" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG184" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH184" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI184" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ184" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK184" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL184" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM184" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN184" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO184" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP184" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ184" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR184" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS184" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT184" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU184" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV184" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW184" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AX184" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AY184" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ184" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BA184" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB184" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BC184" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BD184" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BE184" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BF184" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG184" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH184" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI184" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ184" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK184" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK184"/>
+  <dimension ref="A1:BK185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AT5" t="n">
         <v>0.33</v>
@@ -3745,7 +3745,7 @@
         <v>1.73</v>
       </c>
       <c r="AT16" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AT22" t="n">
         <v>1.73</v>
@@ -5775,7 +5775,7 @@
         <v>1.45</v>
       </c>
       <c r="AT26" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU26" t="n">
         <v>1.29</v>
@@ -8614,7 +8614,7 @@
         <v>0.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AT40" t="n">
         <v>0.92</v>
@@ -9835,7 +9835,7 @@
         <v>1.92</v>
       </c>
       <c r="AT46" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU46" t="n">
         <v>2.12</v>
@@ -11253,7 +11253,7 @@
         <v>1.33</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AT53" t="n">
         <v>0.55</v>
@@ -12880,7 +12880,7 @@
         <v>1.36</v>
       </c>
       <c r="AT61" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU61" t="n">
         <v>1.53</v>
@@ -15516,7 +15516,7 @@
         <v>1</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AT74" t="n">
         <v>0.82</v>
@@ -15925,7 +15925,7 @@
         <v>1.75</v>
       </c>
       <c r="AT76" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU76" t="n">
         <v>1.67</v>
@@ -19173,7 +19173,7 @@
         <v>1.67</v>
       </c>
       <c r="AT92" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU92" t="n">
         <v>1.45</v>
@@ -19373,7 +19373,7 @@
         <v>1.8</v>
       </c>
       <c r="AS93" t="n">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AT93" t="n">
         <v>0.92</v>
@@ -23436,7 +23436,7 @@
         <v>1.58</v>
       </c>
       <c r="AT113" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU113" t="n">
         <v>1.61</v>
@@ -24448,7 +24448,7 @@
         <v>1.33</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AT118" t="n">
         <v>0.73</v>
@@ -24857,7 +24857,7 @@
         <v>1.17</v>
       </c>
       <c r="AT120" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU120" t="n">
         <v>1.56</v>
@@ -26681,7 +26681,7 @@
         <v>1.14</v>
       </c>
       <c r="AS129" t="n">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AT129" t="n">
         <v>0.91</v>
@@ -28711,7 +28711,7 @@
         <v>0.88</v>
       </c>
       <c r="AS139" t="n">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AT139" t="n">
         <v>1.18</v>
@@ -29526,7 +29526,7 @@
         <v>1.36</v>
       </c>
       <c r="AT143" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU143" t="n">
         <v>1.53</v>
@@ -30335,7 +30335,7 @@
         <v>2.33</v>
       </c>
       <c r="AS147" t="n">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AT147" t="n">
         <v>1.92</v>
@@ -32368,7 +32368,7 @@
         <v>1.36</v>
       </c>
       <c r="AT157" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU157" t="n">
         <v>1.66</v>
@@ -33786,7 +33786,7 @@
         <v>1.3</v>
       </c>
       <c r="AS164" t="n">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AT164" t="n">
         <v>1.17</v>
@@ -35210,7 +35210,7 @@
         <v>1.92</v>
       </c>
       <c r="AT171" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU171" t="n">
         <v>1.53</v>
@@ -37156,10 +37156,10 @@
         <v>8</v>
       </c>
       <c r="R181" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S181" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T181" t="n">
         <v>1.73</v>
@@ -37356,13 +37356,13 @@
         </is>
       </c>
       <c r="Q182" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R182" t="n">
         <v>9</v>
       </c>
       <c r="S182" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T182" t="n">
         <v>5.8</v>
@@ -37502,7 +37502,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="n">
-        <v>4867534</v>
+        <v>4867538</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -37522,86 +37522,86 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>Jönköpings Södra</t>
+          <t>Skövde AIK</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Örgryte</t>
+          <t>Östersunds FK</t>
         </is>
       </c>
       <c r="I183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J183" t="n">
         <v>0</v>
       </c>
       <c r="K183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L183" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
       <c r="N183" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>['23', '90+1']</t>
+          <t>['4', '9', '53', '66', '90']</t>
         </is>
       </c>
       <c r="P183" t="inlineStr">
         <is>
-          <t>['51']</t>
+          <t>['87']</t>
         </is>
       </c>
       <c r="Q183" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R183" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="S183" t="n">
+        <v>16</v>
+      </c>
+      <c r="T183" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U183" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V183" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W183" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X183" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y183" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA183" t="n">
         <v>6</v>
       </c>
-      <c r="T183" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="U183" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V183" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="W183" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="X183" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="Y183" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Z183" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AA183" t="n">
-        <v>5.8</v>
-      </c>
       <c r="AB183" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AC183" t="n">
-        <v>2.39</v>
+        <v>2.72</v>
       </c>
       <c r="AD183" t="n">
-        <v>3.11</v>
+        <v>3.16</v>
       </c>
       <c r="AE183" t="n">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AF183" t="n">
         <v>1.04</v>
@@ -37610,94 +37610,94 @@
         <v>8.5</v>
       </c>
       <c r="AH183" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="AI183" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="AJ183" t="n">
-        <v>1.68</v>
+        <v>2.05</v>
       </c>
       <c r="AK183" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AL183" t="n">
-        <v>1.52</v>
+        <v>1.73</v>
       </c>
       <c r="AM183" t="n">
-        <v>2.35</v>
+        <v>2</v>
       </c>
       <c r="AN183" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="AO183" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP183" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ183" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR183" t="n">
         <v>1.27</v>
       </c>
-      <c r="AP183" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AQ183" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AR183" t="n">
-        <v>1</v>
-      </c>
       <c r="AS183" t="n">
-        <v>1.67</v>
+        <v>1.36</v>
       </c>
       <c r="AT183" t="n">
-        <v>0.92</v>
+        <v>1.17</v>
       </c>
       <c r="AU183" t="n">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AV183" t="n">
-        <v>1.66</v>
+        <v>1.3</v>
       </c>
       <c r="AW183" t="n">
-        <v>3.05</v>
+        <v>2.76</v>
       </c>
       <c r="AX183" t="n">
-        <v>2.07</v>
+        <v>2.6</v>
       </c>
       <c r="AY183" t="n">
         <v>7.5</v>
       </c>
       <c r="AZ183" t="n">
-        <v>2.07</v>
+        <v>1.71</v>
       </c>
       <c r="BA183" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="BB183" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="BC183" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="BD183" t="n">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="BE183" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="BF183" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG183" t="n">
         <v>6</v>
       </c>
-      <c r="BG183" t="n">
+      <c r="BH183" t="n">
         <v>5</v>
       </c>
-      <c r="BH183" t="n">
-        <v>2</v>
-      </c>
       <c r="BI183" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ183" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BK183" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="184">
@@ -37705,7 +37705,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="n">
-        <v>4867538</v>
+        <v>4867534</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -37718,93 +37718,93 @@
         </is>
       </c>
       <c r="E184" s="2" t="n">
-        <v>45192.41666666666</v>
+        <v>45192.45833333334</v>
       </c>
       <c r="F184" t="n">
         <v>23</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>Skövde AIK</t>
+          <t>Jönköpings Södra</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Östersunds FK</t>
+          <t>Örgryte</t>
         </is>
       </c>
       <c r="I184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J184" t="n">
         <v>0</v>
       </c>
       <c r="K184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L184" t="n">
+        <v>2</v>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="n">
+        <v>3</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>['23', '90+1']</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="Q184" t="n">
+        <v>1</v>
+      </c>
+      <c r="R184" t="n">
         <v>5</v>
       </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="n">
+      <c r="S184" t="n">
         <v>6</v>
       </c>
-      <c r="O184" t="inlineStr">
-        <is>
-          <t>['4', '9', '53', '66', '90']</t>
-        </is>
-      </c>
-      <c r="P184" t="inlineStr">
-        <is>
-          <t>['87']</t>
-        </is>
-      </c>
-      <c r="Q184" t="n">
-        <v>6</v>
-      </c>
-      <c r="R184" t="n">
-        <v>9</v>
-      </c>
-      <c r="S184" t="n">
-        <v>15</v>
-      </c>
       <c r="T184" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="U184" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="V184" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="W184" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="X184" t="n">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="Y184" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="Z184" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AA184" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AB184" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="AC184" t="n">
-        <v>2.72</v>
+        <v>2.39</v>
       </c>
       <c r="AD184" t="n">
-        <v>3.16</v>
+        <v>3.11</v>
       </c>
       <c r="AE184" t="n">
-        <v>2.25</v>
+        <v>2.57</v>
       </c>
       <c r="AF184" t="n">
         <v>1.04</v>
@@ -37813,94 +37813,297 @@
         <v>8.5</v>
       </c>
       <c r="AH184" t="n">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="AI184" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="AJ184" t="n">
-        <v>2.05</v>
+        <v>1.68</v>
       </c>
       <c r="AK184" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="AL184" t="n">
-        <v>1.73</v>
+        <v>1.52</v>
       </c>
       <c r="AM184" t="n">
-        <v>2</v>
+        <v>2.35</v>
       </c>
       <c r="AN184" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="AO184" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AP184" t="n">
-        <v>1.35</v>
+        <v>1.47</v>
       </c>
       <c r="AQ184" t="n">
-        <v>1.2</v>
+        <v>1.55</v>
       </c>
       <c r="AR184" t="n">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.36</v>
+        <v>1.67</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.17</v>
+        <v>0.92</v>
       </c>
       <c r="AU184" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="AV184" t="n">
-        <v>1.3</v>
+        <v>1.66</v>
       </c>
       <c r="AW184" t="n">
-        <v>2.76</v>
+        <v>3.05</v>
       </c>
       <c r="AX184" t="n">
-        <v>2.6</v>
+        <v>2.07</v>
       </c>
       <c r="AY184" t="n">
         <v>7.5</v>
       </c>
       <c r="AZ184" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BA184" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB184" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC184" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BD184" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE184" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BF184" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG184" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH184" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI184" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ184" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK184" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="n">
+        <v>4867539</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>45193.33333333334</v>
+      </c>
+      <c r="F185" t="n">
+        <v>23</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Utsikten</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Trelleborg</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>2</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="n">
+        <v>2</v>
+      </c>
+      <c r="L185" t="n">
+        <v>2</v>
+      </c>
+      <c r="M185" t="n">
+        <v>3</v>
+      </c>
+      <c r="N185" t="n">
+        <v>5</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>['22', '23']</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>['51', '71', '87']</t>
+        </is>
+      </c>
+      <c r="Q185" t="n">
+        <v>7</v>
+      </c>
+      <c r="R185" t="n">
+        <v>3</v>
+      </c>
+      <c r="S185" t="n">
+        <v>10</v>
+      </c>
+      <c r="T185" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U185" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V185" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W185" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X185" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB185" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC185" t="n">
         <v>1.71</v>
       </c>
-      <c r="BA184" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB184" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="BC184" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="BD184" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="BE184" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="BF184" t="n">
+      <c r="AD185" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE185" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AF185" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG185" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="AH185" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI185" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AJ185" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK185" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL185" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM185" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN185" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO185" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP185" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ185" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AR185" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS185" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AT185" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU185" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV185" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW185" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AX185" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY185" t="n">
         <v>8</v>
       </c>
-      <c r="BG184" t="n">
-        <v>6</v>
-      </c>
-      <c r="BH184" t="n">
+      <c r="AZ185" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BA185" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB185" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC185" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD185" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE185" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF185" t="n">
         <v>5</v>
       </c>
-      <c r="BI184" t="n">
-        <v>6</v>
-      </c>
-      <c r="BJ184" t="n">
-        <v>13</v>
-      </c>
-      <c r="BK184" t="n">
+      <c r="BG185" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH185" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI185" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ185" t="n">
         <v>12</v>
+      </c>
+      <c r="BK185" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ185"/>
+  <dimension ref="A1:AZ192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -839,7 +839,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1176,10 +1176,10 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1516,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ6" t="n">
         <v>1.73</v>
@@ -2199,7 +2199,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -2536,10 +2536,10 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.17</v>
@@ -2879,7 +2879,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3216,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.17</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.92</v>
@@ -3559,7 +3559,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR18" t="n">
         <v>1.48</v>
@@ -3726,7 +3726,7 @@
         <v>1</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ19" t="n">
         <v>0.75</v>
@@ -4066,10 +4066,10 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR21" t="n">
         <v>1.17</v>
@@ -4409,7 +4409,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR23" t="n">
         <v>1.04</v>
@@ -4576,7 +4576,7 @@
         <v>1</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ24" t="n">
         <v>0.92</v>
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.17</v>
@@ -4916,7 +4916,7 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.17</v>
@@ -5089,7 +5089,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR27" t="n">
         <v>2.43</v>
@@ -5259,7 +5259,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR28" t="n">
         <v>1.36</v>
@@ -5429,7 +5429,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AR29" t="n">
         <v>1.12</v>
@@ -5596,7 +5596,7 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.83</v>
@@ -5769,7 +5769,7 @@
         <v>1</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR31" t="n">
         <v>2.48</v>
@@ -5936,7 +5936,7 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ32" t="n">
         <v>0.33</v>
@@ -6276,7 +6276,7 @@
         <v>2</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.17</v>
@@ -6449,7 +6449,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR35" t="n">
         <v>1.5</v>
@@ -6619,7 +6619,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR36" t="n">
         <v>1.24</v>
@@ -6786,10 +6786,10 @@
         <v>1.5</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR37" t="n">
         <v>1.83</v>
@@ -6956,7 +6956,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ38" t="n">
         <v>0.75</v>
@@ -7126,7 +7126,7 @@
         <v>3</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ39" t="n">
         <v>0.92</v>
@@ -7636,10 +7636,10 @@
         <v>2</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AR42" t="n">
         <v>1.43</v>
@@ -7806,10 +7806,10 @@
         <v>1</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR43" t="n">
         <v>1.88</v>
@@ -7979,7 +7979,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR44" t="n">
         <v>1.11</v>
@@ -8146,7 +8146,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ45" t="n">
         <v>0.82</v>
@@ -8829,7 +8829,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR49" t="n">
         <v>1.63</v>
@@ -9166,7 +9166,7 @@
         <v>1.33</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.73</v>
@@ -9339,7 +9339,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR52" t="n">
         <v>1.99</v>
@@ -9509,7 +9509,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR53" t="n">
         <v>1.19</v>
@@ -9846,7 +9846,7 @@
         <v>2.33</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.17</v>
@@ -10016,10 +10016,10 @@
         <v>0</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ56" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR56" t="n">
         <v>1.17</v>
@@ -10186,7 +10186,7 @@
         <v>0.33</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ57" t="n">
         <v>0.92</v>
@@ -10359,7 +10359,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR58" t="n">
         <v>1.6</v>
@@ -10699,7 +10699,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR60" t="n">
         <v>2.16</v>
@@ -10866,7 +10866,7 @@
         <v>0</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.17</v>
@@ -11036,7 +11036,7 @@
         <v>1.75</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.17</v>
@@ -11209,7 +11209,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AR63" t="n">
         <v>1.24</v>
@@ -11716,7 +11716,7 @@
         <v>1.75</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.73</v>
@@ -11886,10 +11886,10 @@
         <v>0.33</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR67" t="n">
         <v>1.36</v>
@@ -12059,7 +12059,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR68" t="n">
         <v>1.46</v>
@@ -12229,7 +12229,7 @@
         <v>1</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR69" t="n">
         <v>2.01</v>
@@ -12396,10 +12396,10 @@
         <v>2.25</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR70" t="n">
         <v>1.51</v>
@@ -12566,7 +12566,7 @@
         <v>0</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ71" t="n">
         <v>0.33</v>
@@ -12736,10 +12736,10 @@
         <v>2</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AR72" t="n">
         <v>1.9</v>
@@ -12906,10 +12906,10 @@
         <v>0.25</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR73" t="n">
         <v>1.48</v>
@@ -14436,10 +14436,10 @@
         <v>2.2</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AR82" t="n">
         <v>1.29</v>
@@ -14606,10 +14606,10 @@
         <v>0.8</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR83" t="n">
         <v>1.49</v>
@@ -14776,10 +14776,10 @@
         <v>1.8</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR84" t="n">
         <v>1.78</v>
@@ -14946,7 +14946,7 @@
         <v>1</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ85" t="n">
         <v>0.75</v>
@@ -15116,10 +15116,10 @@
         <v>0.8</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR86" t="n">
         <v>1.62</v>
@@ -15289,7 +15289,7 @@
         <v>1</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR87" t="n">
         <v>2.14</v>
@@ -15459,7 +15459,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR88" t="n">
         <v>1.44</v>
@@ -15626,7 +15626,7 @@
         <v>1.6</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ89" t="n">
         <v>1.73</v>
@@ -16476,10 +16476,10 @@
         <v>0.4</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR94" t="n">
         <v>1.3</v>
@@ -16649,7 +16649,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR95" t="n">
         <v>1.6</v>
@@ -16986,7 +16986,7 @@
         <v>1</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ97" t="n">
         <v>0.92</v>
@@ -17159,7 +17159,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ98" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR98" t="n">
         <v>1.77</v>
@@ -17326,7 +17326,7 @@
         <v>1.67</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ99" t="n">
         <v>1.83</v>
@@ -17496,10 +17496,10 @@
         <v>2</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR100" t="n">
         <v>1.48</v>
@@ -18006,7 +18006,7 @@
         <v>1.83</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ103" t="n">
         <v>1.73</v>
@@ -18176,10 +18176,10 @@
         <v>2.33</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AR104" t="n">
         <v>1.47</v>
@@ -18516,7 +18516,7 @@
         <v>0.14</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ106" t="n">
         <v>0.33</v>
@@ -18859,7 +18859,7 @@
         <v>1</v>
       </c>
       <c r="AQ108" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR108" t="n">
         <v>2.13</v>
@@ -19029,7 +19029,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AR109" t="n">
         <v>1.84</v>
@@ -19196,10 +19196,10 @@
         <v>0.67</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR110" t="n">
         <v>1.6</v>
@@ -19369,7 +19369,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ111" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR111" t="n">
         <v>2.14</v>
@@ -19536,10 +19536,10 @@
         <v>0.67</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ112" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR112" t="n">
         <v>1.36</v>
@@ -19706,7 +19706,7 @@
         <v>0.67</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ113" t="n">
         <v>1.17</v>
@@ -20046,7 +20046,7 @@
         <v>0.71</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ115" t="n">
         <v>0.92</v>
@@ -20386,7 +20386,7 @@
         <v>0.67</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ117" t="n">
         <v>0.82</v>
@@ -20559,7 +20559,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ118" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR118" t="n">
         <v>1.55</v>
@@ -21069,7 +21069,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR121" t="n">
         <v>2.2</v>
@@ -21236,7 +21236,7 @@
         <v>0.13</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ122" t="n">
         <v>0.33</v>
@@ -21406,7 +21406,7 @@
         <v>1.29</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ123" t="n">
         <v>0.92</v>
@@ -21579,7 +21579,7 @@
         <v>1</v>
       </c>
       <c r="AQ124" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR124" t="n">
         <v>2.05</v>
@@ -21746,10 +21746,10 @@
         <v>1.14</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR125" t="n">
         <v>1.42</v>
@@ -21916,10 +21916,10 @@
         <v>0.57</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR126" t="n">
         <v>1.39</v>
@@ -22089,7 +22089,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ127" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR127" t="n">
         <v>1.88</v>
@@ -22256,7 +22256,7 @@
         <v>1.71</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ128" t="n">
         <v>1.73</v>
@@ -22429,7 +22429,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ129" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR129" t="n">
         <v>1.58</v>
@@ -22596,7 +22596,7 @@
         <v>1.75</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ130" t="n">
         <v>1.83</v>
@@ -22769,7 +22769,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AR131" t="n">
         <v>1.46</v>
@@ -22939,7 +22939,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR132" t="n">
         <v>1.27</v>
@@ -23276,10 +23276,10 @@
         <v>2.25</v>
       </c>
       <c r="AP134" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR134" t="n">
         <v>1.44</v>
@@ -23616,7 +23616,7 @@
         <v>0.71</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ136" t="n">
         <v>0.82</v>
@@ -24129,7 +24129,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR139" t="n">
         <v>1.61</v>
@@ -24296,10 +24296,10 @@
         <v>0.63</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ140" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR140" t="n">
         <v>1.52</v>
@@ -24466,7 +24466,7 @@
         <v>1</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ141" t="n">
         <v>0.75</v>
@@ -24639,7 +24639,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ142" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR142" t="n">
         <v>1.83</v>
@@ -24806,7 +24806,7 @@
         <v>1</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ143" t="n">
         <v>1.17</v>
@@ -24976,10 +24976,10 @@
         <v>1</v>
       </c>
       <c r="AP144" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ144" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR144" t="n">
         <v>1.59</v>
@@ -25489,7 +25489,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR147" t="n">
         <v>1.74</v>
@@ -25656,7 +25656,7 @@
         <v>1.22</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ148" t="n">
         <v>0.92</v>
@@ -25829,7 +25829,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ149" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR149" t="n">
         <v>1.58</v>
@@ -25999,7 +25999,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ150" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR150" t="n">
         <v>1.39</v>
@@ -26336,7 +26336,7 @@
         <v>1.67</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ152" t="n">
         <v>1.83</v>
@@ -26676,10 +26676,10 @@
         <v>2.1</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR154" t="n">
         <v>1.68</v>
@@ -26849,7 +26849,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AR155" t="n">
         <v>1.52</v>
@@ -27016,7 +27016,7 @@
         <v>0.89</v>
       </c>
       <c r="AP156" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ156" t="n">
         <v>0.92</v>
@@ -27186,7 +27186,7 @@
         <v>1</v>
       </c>
       <c r="AP157" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ157" t="n">
         <v>1.17</v>
@@ -27526,10 +27526,10 @@
         <v>0.89</v>
       </c>
       <c r="AP159" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ159" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR159" t="n">
         <v>1.57</v>
@@ -27696,10 +27696,10 @@
         <v>0.89</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ160" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR160" t="n">
         <v>1.46</v>
@@ -27869,7 +27869,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ161" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR161" t="n">
         <v>1.55</v>
@@ -28549,7 +28549,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ165" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR165" t="n">
         <v>1.82</v>
@@ -28719,7 +28719,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ166" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR166" t="n">
         <v>1.16</v>
@@ -28886,7 +28886,7 @@
         <v>1.8</v>
       </c>
       <c r="AP167" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ167" t="n">
         <v>1.83</v>
@@ -29226,7 +29226,7 @@
         <v>0.9</v>
       </c>
       <c r="AP169" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ169" t="n">
         <v>0.75</v>
@@ -29396,7 +29396,7 @@
         <v>0.8</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ170" t="n">
         <v>0.92</v>
@@ -29736,10 +29736,10 @@
         <v>0.8</v>
       </c>
       <c r="AP172" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ172" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR172" t="n">
         <v>1.65</v>
@@ -29909,7 +29909,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ173" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR173" t="n">
         <v>2</v>
@@ -30076,10 +30076,10 @@
         <v>2</v>
       </c>
       <c r="AP174" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ174" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AR174" t="n">
         <v>1.48</v>
@@ -30246,7 +30246,7 @@
         <v>0.36</v>
       </c>
       <c r="AP175" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ175" t="n">
         <v>0.33</v>
@@ -30419,7 +30419,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ176" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR176" t="n">
         <v>1.38</v>
@@ -30586,10 +30586,10 @@
         <v>2</v>
       </c>
       <c r="AP177" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ177" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR177" t="n">
         <v>1.65</v>
@@ -31606,7 +31606,7 @@
         <v>1.27</v>
       </c>
       <c r="AP183" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ183" t="n">
         <v>1.17</v>
@@ -31977,6 +31977,1196 @@
       </c>
       <c r="AZ185" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="n">
+        <v>4867542</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>45196.58333333334</v>
+      </c>
+      <c r="F186" t="n">
+        <v>24</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>AFC Eskilstuna</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Västerås SK</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>1</v>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="n">
+        <v>2</v>
+      </c>
+      <c r="N186" t="n">
+        <v>3</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>['13', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q186" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="R186" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S186" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="T186" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U186" t="n">
+        <v>3</v>
+      </c>
+      <c r="V186" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W186" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X186" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB186" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AC186" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD186" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE186" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF186" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG186" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AH186" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI186" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ186" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK186" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL186" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM186" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AN186" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO186" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AP186" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ186" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR186" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AS186" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AT186" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AU186" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV186" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW186" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX186" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY186" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ186" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="n">
+        <v>4867543</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>45196.58333333334</v>
+      </c>
+      <c r="F187" t="n">
+        <v>24</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Skövde AIK</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Landskrona</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>1</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="n">
+        <v>4</v>
+      </c>
+      <c r="M187" t="n">
+        <v>2</v>
+      </c>
+      <c r="N187" t="n">
+        <v>6</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>['27', '46', '61', '72']</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>['51', '84']</t>
+        </is>
+      </c>
+      <c r="Q187" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R187" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S187" t="n">
+        <v>3</v>
+      </c>
+      <c r="T187" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U187" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V187" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W187" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X187" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC187" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD187" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE187" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF187" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG187" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AH187" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI187" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ187" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK187" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL187" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM187" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AN187" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO187" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP187" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ187" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR187" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AS187" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT187" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU187" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV187" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW187" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX187" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY187" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ187" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>4867545</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>45196.58333333334</v>
+      </c>
+      <c r="F188" t="n">
+        <v>24</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Öster</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Helsingborg</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="n">
+        <v>2</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="Q188" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R188" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S188" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T188" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U188" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="V188" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="W188" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X188" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD188" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE188" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AI188" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ188" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK188" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AL188" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM188" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AN188" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AO188" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AP188" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ188" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR188" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AS188" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT188" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AU188" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW188" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX188" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY188" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ188" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="n">
+        <v>4867546</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>45196.59722222222</v>
+      </c>
+      <c r="F189" t="n">
+        <v>24</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Östersunds FK</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Brage</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>1</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="n">
+        <v>2</v>
+      </c>
+      <c r="M189" t="n">
+        <v>0</v>
+      </c>
+      <c r="N189" t="n">
+        <v>2</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>['31', '82']</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q189" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R189" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S189" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T189" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U189" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="V189" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W189" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X189" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC189" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD189" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AE189" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="AG189" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AH189" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AI189" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AJ189" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK189" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL189" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM189" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN189" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO189" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AP189" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ189" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR189" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AS189" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT189" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AU189" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW189" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX189" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY189" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ189" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="n">
+        <v>4867541</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>45197.58333333334</v>
+      </c>
+      <c r="F190" t="n">
+        <v>24</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Utsikten</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>3</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="n">
+        <v>3</v>
+      </c>
+      <c r="L190" t="n">
+        <v>5</v>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="n">
+        <v>6</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>['3', '12', '21', '50', '66']</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="Q190" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R190" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S190" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T190" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U190" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="V190" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W190" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X190" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB190" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC190" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD190" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE190" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF190" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG190" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AH190" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI190" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ190" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK190" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL190" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM190" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN190" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AO190" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AP190" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AQ190" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR190" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AS190" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT190" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AU190" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV190" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW190" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX190" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY190" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ190" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="n">
+        <v>4867544</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>45197.58333333334</v>
+      </c>
+      <c r="F191" t="n">
+        <v>24</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Trelleborg</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Jönköpings Södra</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>1</v>
+      </c>
+      <c r="J191" t="n">
+        <v>1</v>
+      </c>
+      <c r="K191" t="n">
+        <v>2</v>
+      </c>
+      <c r="L191" t="n">
+        <v>2</v>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="n">
+        <v>3</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>['24', '90']</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="Q191" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="R191" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S191" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T191" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U191" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V191" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="W191" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X191" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB191" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AC191" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD191" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE191" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AF191" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AG191" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AH191" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AI191" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AJ191" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK191" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL191" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM191" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AN191" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO191" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AP191" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ191" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR191" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AS191" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT191" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AU191" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV191" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW191" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX191" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY191" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ191" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="n">
+        <v>4867547</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>45197.58333333334</v>
+      </c>
+      <c r="F192" t="n">
+        <v>24</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>GIF Sundsvall</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Gefle</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="n">
+        <v>0</v>
+      </c>
+      <c r="L192" t="n">
+        <v>2</v>
+      </c>
+      <c r="M192" t="n">
+        <v>2</v>
+      </c>
+      <c r="N192" t="n">
+        <v>4</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>['51', '71']</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>['89', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q192" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R192" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="S192" t="n">
+        <v>4</v>
+      </c>
+      <c r="T192" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U192" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V192" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W192" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X192" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AB192" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AC192" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD192" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE192" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AF192" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AG192" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AH192" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AI192" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ192" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AK192" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL192" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM192" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN192" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO192" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AP192" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ192" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR192" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AS192" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AT192" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AU192" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV192" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW192" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX192" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY192" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ192" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ192"/>
+  <dimension ref="A1:AZ193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1519,7 +1519,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ7" t="n">
         <v>0.75</v>
@@ -4239,7 +4239,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR22" t="n">
         <v>1.32</v>
@@ -5766,7 +5766,7 @@
         <v>1</v>
       </c>
       <c r="AP31" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ31" t="n">
         <v>0.67</v>
@@ -7469,7 +7469,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR41" t="n">
         <v>1.28</v>
@@ -8656,7 +8656,7 @@
         <v>3</v>
       </c>
       <c r="AP48" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ48" t="n">
         <v>1.83</v>
@@ -9169,7 +9169,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR51" t="n">
         <v>1.37</v>
@@ -11546,7 +11546,7 @@
         <v>2</v>
       </c>
       <c r="AP65" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ65" t="n">
         <v>0.92</v>
@@ -11719,7 +11719,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR66" t="n">
         <v>1.3</v>
@@ -12226,7 +12226,7 @@
         <v>1</v>
       </c>
       <c r="AP69" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ69" t="n">
         <v>0.83</v>
@@ -15286,7 +15286,7 @@
         <v>0.25</v>
       </c>
       <c r="AP87" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.08</v>
@@ -15629,7 +15629,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR89" t="n">
         <v>1.46</v>
@@ -18009,7 +18009,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR103" t="n">
         <v>1.55</v>
@@ -18856,7 +18856,7 @@
         <v>0.83</v>
       </c>
       <c r="AP108" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ108" t="n">
         <v>0.92</v>
@@ -21576,7 +21576,7 @@
         <v>0.57</v>
       </c>
       <c r="AP124" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ124" t="n">
         <v>0.5</v>
@@ -22259,7 +22259,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR128" t="n">
         <v>1.65</v>
@@ -23959,7 +23959,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR138" t="n">
         <v>1.53</v>
@@ -25146,7 +25146,7 @@
         <v>0.11</v>
       </c>
       <c r="AP145" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ145" t="n">
         <v>0.33</v>
@@ -26506,7 +26506,7 @@
         <v>1.33</v>
       </c>
       <c r="AP153" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ153" t="n">
         <v>1.17</v>
@@ -28036,7 +28036,7 @@
         <v>0.67</v>
       </c>
       <c r="AP162" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ162" t="n">
         <v>0.82</v>
@@ -28209,7 +28209,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ163" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR163" t="n">
         <v>1.53</v>
@@ -31439,7 +31439,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ182" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR182" t="n">
         <v>1.17</v>
@@ -32131,19 +32131,19 @@
         <v>3.28</v>
       </c>
       <c r="AU186" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV186" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW186" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX186" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY186" t="n">
         <v>7</v>
-      </c>
-      <c r="AW186" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX186" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY186" t="n">
-        <v>6</v>
       </c>
       <c r="AZ186" t="n">
         <v>20</v>
@@ -32301,22 +32301,22 @@
         <v>2.92</v>
       </c>
       <c r="AU187" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV187" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW187" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX187" t="n">
         <v>7</v>
       </c>
       <c r="AY187" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ187" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="188">
@@ -32471,19 +32471,19 @@
         <v>2.97</v>
       </c>
       <c r="AU188" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW188" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX188" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY188" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ188" t="n">
         <v>3</v>
@@ -32664,7 +32664,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="n">
-        <v>4867541</v>
+        <v>4867540</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -32684,149 +32684,149 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>Örebro</t>
+          <t>Örgryte</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Utsikten</t>
+          <t>GAIS</t>
         </is>
       </c>
       <c r="I190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K190" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="n">
+        <v>4</v>
+      </c>
+      <c r="N190" t="n">
         <v>5</v>
       </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="n">
-        <v>6</v>
-      </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>['3', '12', '21', '50', '66']</t>
+          <t>['52']</t>
         </is>
       </c>
       <c r="P190" t="inlineStr">
         <is>
-          <t>['79']</t>
+          <t>['19', '36', '65', '90+3']</t>
         </is>
       </c>
       <c r="Q190" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="R190" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S190" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T190" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U190" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="V190" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W190" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X190" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB190" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AC190" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD190" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE190" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF190" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG190" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AH190" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AI190" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AJ190" t="n">
         <v>2.15</v>
       </c>
-      <c r="S190" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T190" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="U190" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="V190" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="W190" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="X190" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="Y190" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Z190" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AA190" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AB190" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC190" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AD190" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE190" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AF190" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AG190" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="AH190" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AI190" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AJ190" t="n">
-        <v>2.1</v>
-      </c>
       <c r="AK190" t="n">
-        <v>1.42</v>
+        <v>1.75</v>
       </c>
       <c r="AL190" t="n">
         <v>1.25</v>
       </c>
       <c r="AM190" t="n">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="AN190" t="n">
-        <v>1.58</v>
+        <v>1</v>
       </c>
       <c r="AO190" t="n">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
       <c r="AP190" t="n">
-        <v>1.69</v>
+        <v>0.92</v>
       </c>
       <c r="AQ190" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="AR190" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.44</v>
+        <v>1.93</v>
       </c>
       <c r="AT190" t="n">
-        <v>3.21</v>
+        <v>3.76</v>
       </c>
       <c r="AU190" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV190" t="n">
         <v>2</v>
       </c>
       <c r="AW190" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AX190" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AY190" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AZ190" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="191">
@@ -32834,7 +32834,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="n">
-        <v>4867544</v>
+        <v>4867541</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -32854,149 +32854,149 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>Trelleborg</t>
+          <t>Örebro</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Jönköpings Södra</t>
+          <t>Utsikten</t>
         </is>
       </c>
       <c r="I191" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K191" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L191" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
       <c r="N191" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>['24', '90']</t>
+          <t>['3', '12', '21', '50', '66']</t>
         </is>
       </c>
       <c r="P191" t="inlineStr">
         <is>
-          <t>['11']</t>
+          <t>['79']</t>
         </is>
       </c>
       <c r="Q191" t="n">
-        <v>2.65</v>
+        <v>3.1</v>
       </c>
       <c r="R191" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S191" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="T191" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="U191" t="n">
-        <v>3.25</v>
+        <v>2.85</v>
       </c>
       <c r="V191" t="n">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="W191" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="X191" t="n">
-        <v>6.4</v>
+        <v>6.95</v>
       </c>
       <c r="Y191" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="Z191" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB191" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC191" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD191" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE191" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF191" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG191" t="n">
         <v>1.96</v>
       </c>
-      <c r="AA191" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AB191" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AC191" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AD191" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE191" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AF191" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AG191" t="n">
-        <v>1.71</v>
-      </c>
       <c r="AH191" t="n">
-        <v>2.14</v>
+        <v>1.85</v>
       </c>
       <c r="AI191" t="n">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="AJ191" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="AK191" t="n">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="AL191" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AM191" t="n">
-        <v>1.74</v>
+        <v>1.57</v>
       </c>
       <c r="AN191" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AO191" t="n">
-        <v>0.73</v>
+        <v>1.82</v>
       </c>
       <c r="AP191" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ191" t="n">
-        <v>0.67</v>
+        <v>1.67</v>
       </c>
       <c r="AR191" t="n">
-        <v>1.34</v>
+        <v>1.77</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.13</v>
+        <v>1.44</v>
       </c>
       <c r="AT191" t="n">
-        <v>2.47</v>
+        <v>3.21</v>
       </c>
       <c r="AU191" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AV191" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW191" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AX191" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY191" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ191" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192">
@@ -33004,7 +33004,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="n">
-        <v>4867547</v>
+        <v>4867544</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -33024,149 +33024,319 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>GIF Sundsvall</t>
+          <t>Trelleborg</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Gefle</t>
+          <t>Jönköpings Södra</t>
         </is>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L192" t="n">
         <v>2</v>
       </c>
       <c r="M192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N192" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>['51', '71']</t>
+          <t>['24', '90']</t>
         </is>
       </c>
       <c r="P192" t="inlineStr">
         <is>
-          <t>['89', '90+2']</t>
+          <t>['11']</t>
         </is>
       </c>
       <c r="Q192" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="R192" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S192" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T192" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U192" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V192" t="n">
         <v>2.55</v>
       </c>
-      <c r="R192" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="S192" t="n">
-        <v>4</v>
-      </c>
-      <c r="T192" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U192" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="V192" t="n">
-        <v>2.6</v>
-      </c>
       <c r="W192" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="X192" t="n">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="Y192" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="Z192" t="n">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="AA192" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="AB192" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="AC192" t="n">
         <v>1.04</v>
       </c>
       <c r="AD192" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE192" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AF192" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AG192" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AH192" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AI192" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AJ192" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK192" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL192" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM192" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AN192" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO192" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AP192" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ192" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR192" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AS192" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT192" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AU192" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV192" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW192" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX192" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY192" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ192" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="n">
+        <v>4867547</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>45197.58333333334</v>
+      </c>
+      <c r="F193" t="n">
+        <v>24</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>GIF Sundsvall</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Gefle</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="n">
+        <v>0</v>
+      </c>
+      <c r="L193" t="n">
+        <v>2</v>
+      </c>
+      <c r="M193" t="n">
+        <v>2</v>
+      </c>
+      <c r="N193" t="n">
+        <v>4</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>['51', '71']</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>['89', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q193" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R193" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="S193" t="n">
+        <v>4</v>
+      </c>
+      <c r="T193" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U193" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V193" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W193" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X193" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AB193" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AC193" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD193" t="n">
         <v>13</v>
       </c>
-      <c r="AE192" t="n">
+      <c r="AE193" t="n">
         <v>1.23</v>
       </c>
-      <c r="AF192" t="n">
+      <c r="AF193" t="n">
         <v>4.25</v>
       </c>
-      <c r="AG192" t="n">
+      <c r="AG193" t="n">
         <v>1.76</v>
       </c>
-      <c r="AH192" t="n">
+      <c r="AH193" t="n">
         <v>2.07</v>
       </c>
-      <c r="AI192" t="n">
+      <c r="AI193" t="n">
         <v>1.62</v>
       </c>
-      <c r="AJ192" t="n">
+      <c r="AJ193" t="n">
         <v>2.23</v>
       </c>
-      <c r="AK192" t="n">
+      <c r="AK193" t="n">
         <v>1.28</v>
       </c>
-      <c r="AL192" t="n">
+      <c r="AL193" t="n">
         <v>1.29</v>
       </c>
-      <c r="AM192" t="n">
+      <c r="AM193" t="n">
         <v>1.82</v>
       </c>
-      <c r="AN192" t="n">
+      <c r="AN193" t="n">
         <v>1.36</v>
       </c>
-      <c r="AO192" t="n">
+      <c r="AO193" t="n">
         <v>0.82</v>
       </c>
-      <c r="AP192" t="n">
+      <c r="AP193" t="n">
         <v>1.33</v>
       </c>
-      <c r="AQ192" t="n">
+      <c r="AQ193" t="n">
         <v>0.83</v>
       </c>
-      <c r="AR192" t="n">
+      <c r="AR193" t="n">
         <v>1.49</v>
       </c>
-      <c r="AS192" t="n">
+      <c r="AS193" t="n">
         <v>0.9</v>
       </c>
-      <c r="AT192" t="n">
+      <c r="AT193" t="n">
         <v>2.39</v>
       </c>
-      <c r="AU192" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV192" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW192" t="n">
-        <v>3</v>
-      </c>
-      <c r="AX192" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY192" t="n">
-        <v>6</v>
-      </c>
-      <c r="AZ192" t="n">
-        <v>6</v>
+      <c r="AU193" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV193" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW193" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX193" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY193" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ193" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
@@ -32814,19 +32814,19 @@
         <v>4</v>
       </c>
       <c r="AV190" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW190" t="n">
         <v>4</v>
       </c>
       <c r="AX190" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY190" t="n">
         <v>8</v>
       </c>
       <c r="AZ190" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="191">
@@ -32981,22 +32981,22 @@
         <v>3.21</v>
       </c>
       <c r="AU191" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AV191" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX191" t="n">
         <v>5</v>
       </c>
       <c r="AY191" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AZ191" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="192">
@@ -33151,22 +33151,22 @@
         <v>2.47</v>
       </c>
       <c r="AU192" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV192" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW192" t="n">
         <v>4</v>
       </c>
-      <c r="AV192" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW192" t="n">
-        <v>8</v>
-      </c>
       <c r="AX192" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY192" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ192" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="193">
@@ -33327,13 +33327,13 @@
         <v>4</v>
       </c>
       <c r="AW193" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX193" t="n">
         <v>3</v>
       </c>
       <c r="AY193" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ193" t="n">
         <v>7</v>

--- a/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ193"/>
+  <dimension ref="A1:AZ194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ15" t="n">
         <v>0.92</v>
@@ -3219,7 +3219,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4919,7 +4919,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR26" t="n">
         <v>1.29</v>
@@ -6106,7 +6106,7 @@
         <v>1</v>
       </c>
       <c r="AP33" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ33" t="n">
         <v>0.82</v>
@@ -8319,7 +8319,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR46" t="n">
         <v>2.12</v>
@@ -9336,7 +9336,7 @@
         <v>0</v>
       </c>
       <c r="AP52" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.08</v>
@@ -10869,7 +10869,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR61" t="n">
         <v>1.53</v>
@@ -11376,7 +11376,7 @@
         <v>2.33</v>
       </c>
       <c r="AP64" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.83</v>
@@ -13419,7 +13419,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR76" t="n">
         <v>1.67</v>
@@ -14096,7 +14096,7 @@
         <v>1</v>
       </c>
       <c r="AP80" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ80" t="n">
         <v>0.75</v>
@@ -15966,7 +15966,7 @@
         <v>0.17</v>
       </c>
       <c r="AP91" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ91" t="n">
         <v>0.33</v>
@@ -16139,7 +16139,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR92" t="n">
         <v>1.45</v>
@@ -19026,7 +19026,7 @@
         <v>2.43</v>
       </c>
       <c r="AP109" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ109" t="n">
         <v>1.67</v>
@@ -19709,7 +19709,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR113" t="n">
         <v>1.61</v>
@@ -20899,7 +20899,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR120" t="n">
         <v>1.56</v>
@@ -22086,7 +22086,7 @@
         <v>0.71</v>
       </c>
       <c r="AP127" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ127" t="n">
         <v>0.83</v>
@@ -24636,7 +24636,7 @@
         <v>1.13</v>
       </c>
       <c r="AP142" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ142" t="n">
         <v>0.92</v>
@@ -24809,7 +24809,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR143" t="n">
         <v>1.53</v>
@@ -27189,7 +27189,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ157" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR157" t="n">
         <v>1.66</v>
@@ -28546,7 +28546,7 @@
         <v>0.5</v>
       </c>
       <c r="AP165" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ165" t="n">
         <v>0.5</v>
@@ -29569,7 +29569,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ171" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR171" t="n">
         <v>1.53</v>
@@ -31266,7 +31266,7 @@
         <v>1</v>
       </c>
       <c r="AP181" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ181" t="n">
         <v>0.92</v>
@@ -31949,7 +31949,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ185" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR185" t="n">
         <v>1.68</v>
@@ -33337,6 +33337,176 @@
       </c>
       <c r="AZ193" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="n">
+        <v>4867549</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>45200.41666666666</v>
+      </c>
+      <c r="F194" t="n">
+        <v>25</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Västerås SK</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Trelleborg</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>1</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="n">
+        <v>3</v>
+      </c>
+      <c r="M194" t="n">
+        <v>0</v>
+      </c>
+      <c r="N194" t="n">
+        <v>3</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>['29', '52', '55']</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q194" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R194" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S194" t="n">
+        <v>5</v>
+      </c>
+      <c r="T194" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U194" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V194" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W194" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X194" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AC194" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD194" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE194" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF194" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG194" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AH194" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AI194" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AJ194" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK194" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL194" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM194" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN194" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AO194" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP194" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ194" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR194" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AS194" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT194" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AU194" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV194" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW194" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX194" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY194" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ194" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ194"/>
+  <dimension ref="A1:AZ197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ2" t="n">
         <v>2</v>
@@ -1346,10 +1346,10 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1689,7 +1689,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.82</v>
@@ -2709,7 +2709,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR19" t="n">
         <v>1.41</v>
@@ -3899,7 +3899,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR20" t="n">
         <v>1.03</v>
@@ -4236,7 +4236,7 @@
         <v>1</v>
       </c>
       <c r="AP22" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.83</v>
@@ -4406,7 +4406,7 @@
         <v>3</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ23" t="n">
         <v>0.83</v>
@@ -4749,7 +4749,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR25" t="n">
         <v>1.61</v>
@@ -5256,7 +5256,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.92</v>
@@ -5939,7 +5939,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR32" t="n">
         <v>1.34</v>
@@ -6279,7 +6279,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR34" t="n">
         <v>1.32</v>
@@ -6616,7 +6616,7 @@
         <v>3</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ36" t="n">
         <v>2</v>
@@ -6959,7 +6959,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR38" t="n">
         <v>1.13</v>
@@ -7296,7 +7296,7 @@
         <v>0.5</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ40" t="n">
         <v>0.92</v>
@@ -8486,7 +8486,7 @@
         <v>3</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ47" t="n">
         <v>0.92</v>
@@ -8996,10 +8996,10 @@
         <v>0.33</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR50" t="n">
         <v>1.32</v>
@@ -9506,7 +9506,7 @@
         <v>1.33</v>
       </c>
       <c r="AP53" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ53" t="n">
         <v>0.5</v>
@@ -9679,7 +9679,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR54" t="n">
         <v>1.01</v>
@@ -9849,7 +9849,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR55" t="n">
         <v>1.57</v>
@@ -10356,7 +10356,7 @@
         <v>1</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.83</v>
@@ -11039,7 +11039,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR62" t="n">
         <v>1.38</v>
@@ -12056,7 +12056,7 @@
         <v>1</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.5</v>
@@ -12569,7 +12569,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR71" t="n">
         <v>1.39</v>
@@ -13076,7 +13076,7 @@
         <v>1</v>
       </c>
       <c r="AP74" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ74" t="n">
         <v>0.82</v>
@@ -13246,10 +13246,10 @@
         <v>1.6</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR75" t="n">
         <v>1.67</v>
@@ -13759,7 +13759,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR78" t="n">
         <v>1.16</v>
@@ -13926,7 +13926,7 @@
         <v>1.75</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.83</v>
@@ -14099,7 +14099,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR80" t="n">
         <v>1.72</v>
@@ -14949,7 +14949,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ85" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR85" t="n">
         <v>1.52</v>
@@ -15969,7 +15969,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR91" t="n">
         <v>1.7</v>
@@ -16136,7 +16136,7 @@
         <v>0.8</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ92" t="n">
         <v>1.08</v>
@@ -16306,7 +16306,7 @@
         <v>1.8</v>
       </c>
       <c r="AP93" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.92</v>
@@ -16646,7 +16646,7 @@
         <v>0.8</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ95" t="n">
         <v>1.08</v>
@@ -17669,7 +17669,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ101" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR101" t="n">
         <v>1.33</v>
@@ -17836,7 +17836,7 @@
         <v>0.83</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ102" t="n">
         <v>0.92</v>
@@ -18349,7 +18349,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR105" t="n">
         <v>1.57</v>
@@ -18519,7 +18519,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ106" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR106" t="n">
         <v>1.37</v>
@@ -18686,7 +18686,7 @@
         <v>1.5</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ107" t="n">
         <v>0.92</v>
@@ -19879,7 +19879,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ114" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR114" t="n">
         <v>1.72</v>
@@ -20219,7 +20219,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR116" t="n">
         <v>1.3</v>
@@ -20556,7 +20556,7 @@
         <v>1.33</v>
       </c>
       <c r="AP118" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ118" t="n">
         <v>0.67</v>
@@ -20726,7 +20726,7 @@
         <v>1.57</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ119" t="n">
         <v>1.83</v>
@@ -21239,7 +21239,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ122" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR122" t="n">
         <v>1.39</v>
@@ -22426,7 +22426,7 @@
         <v>1.14</v>
       </c>
       <c r="AP129" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ129" t="n">
         <v>0.92</v>
@@ -22766,7 +22766,7 @@
         <v>2.13</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ131" t="n">
         <v>1.67</v>
@@ -23109,7 +23109,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR133" t="n">
         <v>1.67</v>
@@ -23956,7 +23956,7 @@
         <v>1.63</v>
       </c>
       <c r="AP138" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ138" t="n">
         <v>1.83</v>
@@ -24126,7 +24126,7 @@
         <v>0.88</v>
       </c>
       <c r="AP139" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ139" t="n">
         <v>1.08</v>
@@ -24469,7 +24469,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ141" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR141" t="n">
         <v>1.6</v>
@@ -25149,7 +25149,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ145" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR145" t="n">
         <v>1.92</v>
@@ -25319,7 +25319,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ146" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR146" t="n">
         <v>2.06</v>
@@ -25486,7 +25486,7 @@
         <v>2.33</v>
       </c>
       <c r="AP147" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ147" t="n">
         <v>2</v>
@@ -25996,7 +25996,7 @@
         <v>1</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ150" t="n">
         <v>0.92</v>
@@ -26509,7 +26509,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ153" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR153" t="n">
         <v>1.95</v>
@@ -26846,7 +26846,7 @@
         <v>2.22</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ155" t="n">
         <v>1.67</v>
@@ -27359,7 +27359,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ158" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR158" t="n">
         <v>2</v>
@@ -28376,10 +28376,10 @@
         <v>1.3</v>
       </c>
       <c r="AP164" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR164" t="n">
         <v>1.72</v>
@@ -29229,7 +29229,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ169" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR169" t="n">
         <v>1.31</v>
@@ -29566,7 +29566,7 @@
         <v>1</v>
       </c>
       <c r="AP171" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ171" t="n">
         <v>1.08</v>
@@ -30249,7 +30249,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ175" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR175" t="n">
         <v>1.73</v>
@@ -30416,7 +30416,7 @@
         <v>1</v>
       </c>
       <c r="AP176" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ176" t="n">
         <v>1.08</v>
@@ -30759,7 +30759,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ178" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR178" t="n">
         <v>1.52</v>
@@ -30926,7 +30926,7 @@
         <v>0.9</v>
       </c>
       <c r="AP179" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ179" t="n">
         <v>0.82</v>
@@ -31609,7 +31609,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ183" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR183" t="n">
         <v>1.46</v>
@@ -31776,7 +31776,7 @@
         <v>1</v>
       </c>
       <c r="AP184" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ184" t="n">
         <v>0.92</v>
@@ -31946,7 +31946,7 @@
         <v>1</v>
       </c>
       <c r="AP185" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ185" t="n">
         <v>1.08</v>
@@ -33506,6 +33506,516 @@
         <v>21</v>
       </c>
       <c r="AZ194" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="n">
+        <v>4867555</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>45201.58333333334</v>
+      </c>
+      <c r="F195" t="n">
+        <v>25</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Utsikten</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>AFC Eskilstuna</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>1</v>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="n">
+        <v>2</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="Q195" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="R195" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="S195" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="T195" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U195" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="V195" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="W195" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X195" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AC195" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD195" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE195" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF195" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG195" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AH195" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AI195" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ195" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK195" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL195" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM195" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN195" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AO195" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP195" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AQ195" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AR195" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS195" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT195" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU195" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV195" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW195" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX195" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY195" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ195" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="n">
+        <v>4867554</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>45201.58333333334</v>
+      </c>
+      <c r="F196" t="n">
+        <v>25</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Brage</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Skövde AIK</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>2</v>
+      </c>
+      <c r="J196" t="n">
+        <v>1</v>
+      </c>
+      <c r="K196" t="n">
+        <v>3</v>
+      </c>
+      <c r="L196" t="n">
+        <v>3</v>
+      </c>
+      <c r="M196" t="n">
+        <v>2</v>
+      </c>
+      <c r="N196" t="n">
+        <v>5</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>['26', '45', '52']</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>['28', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q196" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R196" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S196" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T196" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U196" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="V196" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="W196" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X196" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="Y196" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AB196" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="AC196" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD196" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE196" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF196" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG196" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH196" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AI196" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AJ196" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK196" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL196" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM196" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN196" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AO196" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AP196" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ196" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AR196" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS196" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT196" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AU196" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV196" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW196" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX196" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY196" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ196" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="n">
+        <v>4867551</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>45201.58333333334</v>
+      </c>
+      <c r="F197" t="n">
+        <v>25</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Jönköpings Södra</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Östersunds FK</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>1</v>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="n">
+        <v>2</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="Q197" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="R197" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S197" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="T197" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U197" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="V197" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="W197" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X197" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AC197" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD197" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="AE197" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AF197" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="AG197" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AH197" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AI197" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AJ197" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK197" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL197" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM197" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AN197" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO197" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP197" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ197" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AR197" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS197" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT197" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AU197" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV197" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW197" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX197" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY197" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ197" t="n">
         <v>4</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP201"/>
+  <dimension ref="A1:BP209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3096,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.08</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.08</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.92</v>
@@ -4622,7 +4622,7 @@
         <v>1</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ19" t="n">
         <v>0.77</v>
@@ -5061,7 +5061,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR21" t="n">
         <v>1.17</v>
@@ -5279,7 +5279,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AR22" t="n">
         <v>1.32</v>
@@ -5497,7 +5497,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR23" t="n">
         <v>1.04</v>
@@ -5712,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.08</v>
@@ -5930,7 +5930,7 @@
         <v>1</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.15</v>
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.08</v>
@@ -6369,7 +6369,7 @@
         <v>2</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR27" t="n">
         <v>2.43</v>
@@ -6587,7 +6587,7 @@
         <v>2</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR28" t="n">
         <v>1.36</v>
@@ -6805,7 +6805,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AR29" t="n">
         <v>1.12</v>
@@ -7020,7 +7020,7 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.69</v>
@@ -7241,7 +7241,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR31" t="n">
         <v>2.48</v>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ32" t="n">
         <v>0.31</v>
@@ -7674,10 +7674,10 @@
         <v>1</v>
       </c>
       <c r="AP33" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR33" t="n">
         <v>1.76</v>
@@ -7892,7 +7892,7 @@
         <v>2</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.15</v>
@@ -8113,7 +8113,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR35" t="n">
         <v>1.5</v>
@@ -8546,10 +8546,10 @@
         <v>1.5</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR37" t="n">
         <v>1.83</v>
@@ -8982,7 +8982,7 @@
         <v>3</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ39" t="n">
         <v>0.92</v>
@@ -9421,7 +9421,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AR41" t="n">
         <v>1.28</v>
@@ -9636,10 +9636,10 @@
         <v>2</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AR42" t="n">
         <v>1.43</v>
@@ -9854,10 +9854,10 @@
         <v>1</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR43" t="n">
         <v>1.88</v>
@@ -10290,10 +10290,10 @@
         <v>0.5</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR45" t="n">
         <v>1.56</v>
@@ -11165,7 +11165,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR49" t="n">
         <v>1.63</v>
@@ -11598,10 +11598,10 @@
         <v>1.33</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AR51" t="n">
         <v>1.37</v>
@@ -11816,10 +11816,10 @@
         <v>0</v>
       </c>
       <c r="AP52" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR52" t="n">
         <v>1.99</v>
@@ -12037,7 +12037,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR53" t="n">
         <v>1.19</v>
@@ -12470,7 +12470,7 @@
         <v>2.33</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.15</v>
@@ -12688,10 +12688,10 @@
         <v>0</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ56" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR56" t="n">
         <v>1.17</v>
@@ -13127,7 +13127,7 @@
         <v>2</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR58" t="n">
         <v>1.6</v>
@@ -13345,7 +13345,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR59" t="n">
         <v>1.67</v>
@@ -13563,7 +13563,7 @@
         <v>2</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR60" t="n">
         <v>2.16</v>
@@ -13778,7 +13778,7 @@
         <v>0</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.08</v>
@@ -13996,7 +13996,7 @@
         <v>1.75</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.15</v>
@@ -14217,7 +14217,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AR63" t="n">
         <v>1.24</v>
@@ -14432,7 +14432,7 @@
         <v>2.33</v>
       </c>
       <c r="AP64" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.69</v>
@@ -14868,10 +14868,10 @@
         <v>1.75</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AR66" t="n">
         <v>1.3</v>
@@ -15086,10 +15086,10 @@
         <v>0.33</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR67" t="n">
         <v>1.36</v>
@@ -15307,7 +15307,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR68" t="n">
         <v>1.46</v>
@@ -15525,7 +15525,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR69" t="n">
         <v>2.01</v>
@@ -15740,7 +15740,7 @@
         <v>2.25</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ70" t="n">
         <v>2</v>
@@ -15958,7 +15958,7 @@
         <v>0</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ71" t="n">
         <v>0.31</v>
@@ -16176,10 +16176,10 @@
         <v>2</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AR72" t="n">
         <v>1.9</v>
@@ -16397,7 +16397,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR73" t="n">
         <v>1.48</v>
@@ -16615,7 +16615,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR74" t="n">
         <v>1.25</v>
@@ -17920,7 +17920,7 @@
         <v>1</v>
       </c>
       <c r="AP80" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ80" t="n">
         <v>0.77</v>
@@ -18356,10 +18356,10 @@
         <v>2.2</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AR82" t="n">
         <v>1.29</v>
@@ -18577,7 +18577,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR83" t="n">
         <v>1.49</v>
@@ -18792,7 +18792,7 @@
         <v>1.8</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ84" t="n">
         <v>2</v>
@@ -19010,7 +19010,7 @@
         <v>1</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ85" t="n">
         <v>0.77</v>
@@ -19228,10 +19228,10 @@
         <v>0.8</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR86" t="n">
         <v>1.62</v>
@@ -19449,7 +19449,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR87" t="n">
         <v>2.14</v>
@@ -19667,7 +19667,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR88" t="n">
         <v>1.44</v>
@@ -19882,10 +19882,10 @@
         <v>1.6</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AR89" t="n">
         <v>1.46</v>
@@ -20318,7 +20318,7 @@
         <v>0.17</v>
       </c>
       <c r="AP91" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ91" t="n">
         <v>0.31</v>
@@ -20972,10 +20972,10 @@
         <v>0.4</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR94" t="n">
         <v>1.3</v>
@@ -21193,7 +21193,7 @@
         <v>2</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR95" t="n">
         <v>1.6</v>
@@ -21411,7 +21411,7 @@
         <v>2</v>
       </c>
       <c r="AQ96" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR96" t="n">
         <v>2.14</v>
@@ -21626,7 +21626,7 @@
         <v>1</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ97" t="n">
         <v>1.08</v>
@@ -21847,7 +21847,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ98" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR98" t="n">
         <v>1.77</v>
@@ -22280,7 +22280,7 @@
         <v>2</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ100" t="n">
         <v>2</v>
@@ -22934,10 +22934,10 @@
         <v>1.83</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AR103" t="n">
         <v>1.55</v>
@@ -23152,10 +23152,10 @@
         <v>2.33</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AR104" t="n">
         <v>1.47</v>
@@ -23588,7 +23588,7 @@
         <v>0.14</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ106" t="n">
         <v>0.31</v>
@@ -24027,7 +24027,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ108" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR108" t="n">
         <v>2.13</v>
@@ -24242,10 +24242,10 @@
         <v>2.43</v>
       </c>
       <c r="AP109" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AR109" t="n">
         <v>1.84</v>
@@ -24460,10 +24460,10 @@
         <v>0.67</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR110" t="n">
         <v>1.6</v>
@@ -24681,7 +24681,7 @@
         <v>2</v>
       </c>
       <c r="AQ111" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR111" t="n">
         <v>2.14</v>
@@ -24896,10 +24896,10 @@
         <v>0.67</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ112" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR112" t="n">
         <v>1.36</v>
@@ -25550,7 +25550,7 @@
         <v>0.71</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ115" t="n">
         <v>1.08</v>
@@ -25986,10 +25986,10 @@
         <v>0.67</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR117" t="n">
         <v>1.42</v>
@@ -26207,7 +26207,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ118" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR118" t="n">
         <v>1.55</v>
@@ -27076,7 +27076,7 @@
         <v>0.13</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ122" t="n">
         <v>0.31</v>
@@ -27294,7 +27294,7 @@
         <v>1.29</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ123" t="n">
         <v>0.92</v>
@@ -27515,7 +27515,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ124" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR124" t="n">
         <v>2.05</v>
@@ -27730,10 +27730,10 @@
         <v>1.14</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR125" t="n">
         <v>1.42</v>
@@ -27948,10 +27948,10 @@
         <v>0.57</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR126" t="n">
         <v>1.39</v>
@@ -28166,10 +28166,10 @@
         <v>0.71</v>
       </c>
       <c r="AP127" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ127" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR127" t="n">
         <v>1.88</v>
@@ -28387,7 +28387,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AR128" t="n">
         <v>1.65</v>
@@ -28605,7 +28605,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ129" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR129" t="n">
         <v>1.58</v>
@@ -28820,7 +28820,7 @@
         <v>1.75</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ130" t="n">
         <v>1.69</v>
@@ -29041,7 +29041,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AR131" t="n">
         <v>1.46</v>
@@ -29259,7 +29259,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR132" t="n">
         <v>1.27</v>
@@ -29692,7 +29692,7 @@
         <v>2.25</v>
       </c>
       <c r="AP134" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ134" t="n">
         <v>2</v>
@@ -30128,10 +30128,10 @@
         <v>0.71</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ136" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR136" t="n">
         <v>1.37</v>
@@ -30567,7 +30567,7 @@
         <v>2</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AR138" t="n">
         <v>1.53</v>
@@ -30785,7 +30785,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR139" t="n">
         <v>1.61</v>
@@ -31000,10 +31000,10 @@
         <v>0.63</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ140" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR140" t="n">
         <v>1.52</v>
@@ -31218,7 +31218,7 @@
         <v>1</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ141" t="n">
         <v>0.77</v>
@@ -31436,10 +31436,10 @@
         <v>1.13</v>
       </c>
       <c r="AP142" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ142" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR142" t="n">
         <v>1.83</v>
@@ -31654,7 +31654,7 @@
         <v>1</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ143" t="n">
         <v>1.08</v>
@@ -31875,7 +31875,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ144" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR144" t="n">
         <v>1.59</v>
@@ -32744,7 +32744,7 @@
         <v>1.22</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ148" t="n">
         <v>0.92</v>
@@ -32965,7 +32965,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ149" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR149" t="n">
         <v>1.58</v>
@@ -33183,7 +33183,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ150" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR150" t="n">
         <v>1.39</v>
@@ -33401,7 +33401,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ151" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR151" t="n">
         <v>1.25</v>
@@ -33616,7 +33616,7 @@
         <v>1.67</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ152" t="n">
         <v>1.69</v>
@@ -34273,7 +34273,7 @@
         <v>2</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AR155" t="n">
         <v>1.52</v>
@@ -34488,7 +34488,7 @@
         <v>0.89</v>
       </c>
       <c r="AP156" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ156" t="n">
         <v>1.08</v>
@@ -34706,7 +34706,7 @@
         <v>1</v>
       </c>
       <c r="AP157" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ157" t="n">
         <v>1.08</v>
@@ -35142,10 +35142,10 @@
         <v>0.89</v>
       </c>
       <c r="AP159" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ159" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR159" t="n">
         <v>1.57</v>
@@ -35360,10 +35360,10 @@
         <v>0.89</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ160" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR160" t="n">
         <v>1.46</v>
@@ -35581,7 +35581,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ161" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR161" t="n">
         <v>1.55</v>
@@ -35799,7 +35799,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ162" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR162" t="n">
         <v>1.87</v>
@@ -36017,7 +36017,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ163" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AR163" t="n">
         <v>1.53</v>
@@ -36450,10 +36450,10 @@
         <v>0.5</v>
       </c>
       <c r="AP165" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ165" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR165" t="n">
         <v>1.82</v>
@@ -36671,7 +36671,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ166" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR166" t="n">
         <v>1.16</v>
@@ -36886,7 +36886,7 @@
         <v>1.8</v>
       </c>
       <c r="AP167" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ167" t="n">
         <v>1.69</v>
@@ -37322,7 +37322,7 @@
         <v>0.9</v>
       </c>
       <c r="AP169" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ169" t="n">
         <v>0.77</v>
@@ -37540,7 +37540,7 @@
         <v>0.8</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ170" t="n">
         <v>1.08</v>
@@ -37976,10 +37976,10 @@
         <v>0.8</v>
       </c>
       <c r="AP172" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ172" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR172" t="n">
         <v>1.65</v>
@@ -38197,7 +38197,7 @@
         <v>2</v>
       </c>
       <c r="AQ173" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR173" t="n">
         <v>2</v>
@@ -38412,10 +38412,10 @@
         <v>2</v>
       </c>
       <c r="AP174" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ174" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AR174" t="n">
         <v>1.48</v>
@@ -38851,7 +38851,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ176" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR176" t="n">
         <v>1.38</v>
@@ -39066,7 +39066,7 @@
         <v>2</v>
       </c>
       <c r="AP177" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ177" t="n">
         <v>2</v>
@@ -39505,7 +39505,7 @@
         <v>2</v>
       </c>
       <c r="AQ179" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR179" t="n">
         <v>1.56</v>
@@ -39938,7 +39938,7 @@
         <v>1</v>
       </c>
       <c r="AP181" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ181" t="n">
         <v>0.92</v>
@@ -40159,7 +40159,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ182" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AR182" t="n">
         <v>1.17</v>
@@ -40374,7 +40374,7 @@
         <v>1.27</v>
       </c>
       <c r="AP183" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ183" t="n">
         <v>1.15</v>
@@ -41028,7 +41028,7 @@
         <v>1.92</v>
       </c>
       <c r="AP186" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ186" t="n">
         <v>2</v>
@@ -41246,10 +41246,10 @@
         <v>1.18</v>
       </c>
       <c r="AP187" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ187" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR187" t="n">
         <v>1.48</v>
@@ -41464,10 +41464,10 @@
         <v>0.91</v>
       </c>
       <c r="AP188" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ188" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR188" t="n">
         <v>1.68</v>
@@ -41682,10 +41682,10 @@
         <v>0.55</v>
       </c>
       <c r="AP189" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ189" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR189" t="n">
         <v>1.65</v>
@@ -41903,7 +41903,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ190" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AR190" t="n">
         <v>1.83</v>
@@ -42121,7 +42121,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ191" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AR191" t="n">
         <v>1.77</v>
@@ -42336,10 +42336,10 @@
         <v>0.73</v>
       </c>
       <c r="AP192" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ192" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR192" t="n">
         <v>1.34</v>
@@ -42554,10 +42554,10 @@
         <v>0.82</v>
       </c>
       <c r="AP193" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ193" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR193" t="n">
         <v>1.49</v>
@@ -42772,7 +42772,7 @@
         <v>1.17</v>
       </c>
       <c r="AP194" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ194" t="n">
         <v>1.08</v>
@@ -43647,7 +43647,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ198" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR198" t="n">
         <v>1.53</v>
@@ -44377,6 +44377,1750 @@
       </c>
       <c r="BP201" t="n">
         <v>1.68</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="n">
+        <v>4867558</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>45206.41666666666</v>
+      </c>
+      <c r="F202" t="n">
+        <v>26</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Västerås SK</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Jönköpings Södra</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>1</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="n">
+        <v>3</v>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="n">
+        <v>4</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>['24', '61', '66']</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="Q202" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R202" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="S202" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="T202" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U202" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="V202" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W202" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X202" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AL202" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN202" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO202" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP202" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AQ202" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AR202" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AS202" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT202" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AU202" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW202" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX202" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ202" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA202" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB202" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC202" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD202" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BE202" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF202" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BG202" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH202" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI202" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ202" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BK202" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL202" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM202" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BN202" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO202" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BP202" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="n">
+        <v>4867559</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>45206.41666666666</v>
+      </c>
+      <c r="F203" t="n">
+        <v>26</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Skövde AIK</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Gefle</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>2</v>
+      </c>
+      <c r="J203" t="n">
+        <v>1</v>
+      </c>
+      <c r="K203" t="n">
+        <v>3</v>
+      </c>
+      <c r="L203" t="n">
+        <v>3</v>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="n">
+        <v>4</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>['4', '15', '63']</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="Q203" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R203" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S203" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T203" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U203" t="n">
+        <v>3</v>
+      </c>
+      <c r="V203" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="W203" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X203" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO203" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AP203" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ203" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AR203" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AS203" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AT203" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU203" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX203" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ203" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA203" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB203" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC203" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD203" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE203" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF203" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BG203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI203" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BJ203" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="BK203" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BL203" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BM203" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BN203" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BO203" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP203" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="n">
+        <v>4867561</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>45206.41666666666</v>
+      </c>
+      <c r="F204" t="n">
+        <v>26</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Öster</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>2</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="n">
+        <v>2</v>
+      </c>
+      <c r="L204" t="n">
+        <v>3</v>
+      </c>
+      <c r="M204" t="n">
+        <v>0</v>
+      </c>
+      <c r="N204" t="n">
+        <v>3</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>['29', '37', '53']</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q204" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R204" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S204" t="n">
+        <v>5</v>
+      </c>
+      <c r="T204" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U204" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="V204" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W204" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X204" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AC204" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD204" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="AE204" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AF204" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AG204" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AH204" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AI204" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ204" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK204" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AL204" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM204" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN204" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO204" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP204" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AQ204" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR204" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AS204" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT204" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AU204" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW204" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX204" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY204" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ204" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA204" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB204" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC204" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD204" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE204" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF204" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BG204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI204" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ204" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BK204" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BL204" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BM204" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BN204" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BO204" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BP204" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="n">
+        <v>4867562</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>45206.5</v>
+      </c>
+      <c r="F205" t="n">
+        <v>26</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Östersunds FK</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Helsingborg</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="n">
+        <v>0</v>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="n">
+        <v>0</v>
+      </c>
+      <c r="N205" t="n">
+        <v>1</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q205" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R205" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S205" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T205" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U205" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V205" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W205" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X205" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD205" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE205" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ205" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK205" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL205" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM205" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN205" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO205" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AP205" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ205" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AR205" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS205" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT205" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AU205" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW205" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX205" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ205" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA205" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB205" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC205" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD205" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE205" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF205" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BG205" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH205" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="BI205" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ205" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BK205" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BL205" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BM205" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BN205" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BO205" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BP205" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="n">
+        <v>4867557</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>45207.33333333334</v>
+      </c>
+      <c r="F206" t="n">
+        <v>26</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>AFC Eskilstuna</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Landskrona</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="n">
+        <v>0</v>
+      </c>
+      <c r="L206" t="n">
+        <v>0</v>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="n">
+        <v>1</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="Q206" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R206" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S206" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="T206" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U206" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V206" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="W206" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X206" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Y206" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB206" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AC206" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD206" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AE206" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AF206" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AG206" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH206" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI206" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AJ206" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AK206" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL206" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM206" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AN206" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO206" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP206" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AQ206" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AR206" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS206" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT206" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AU206" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV206" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW206" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX206" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY206" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ206" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA206" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB206" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC206" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD206" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BE206" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF206" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BG206" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH206" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI206" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BJ206" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BK206" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BL206" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BM206" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BN206" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BO206" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BP206" t="n">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="n">
+        <v>4867560</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>45207.33333333334</v>
+      </c>
+      <c r="F207" t="n">
+        <v>26</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Trelleborg</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>GAIS</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>3</v>
+      </c>
+      <c r="K207" t="n">
+        <v>3</v>
+      </c>
+      <c r="L207" t="n">
+        <v>0</v>
+      </c>
+      <c r="M207" t="n">
+        <v>6</v>
+      </c>
+      <c r="N207" t="n">
+        <v>6</v>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>['25', '30', '32', '58', '66', '78']</t>
+        </is>
+      </c>
+      <c r="Q207" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="R207" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="S207" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="T207" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U207" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="V207" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="W207" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X207" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AC207" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD207" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE207" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF207" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AG207" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH207" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI207" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AJ207" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AK207" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AL207" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM207" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AN207" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AO207" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AP207" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AQ207" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AR207" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AS207" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AT207" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AU207" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV207" t="n">
+        <v>14</v>
+      </c>
+      <c r="AW207" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX207" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY207" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ207" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA207" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB207" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC207" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD207" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BE207" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="BF207" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BG207" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH207" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BI207" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ207" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BK207" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BL207" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BM207" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BN207" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BO207" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BP207" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="n">
+        <v>4867556</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>45207.41666666666</v>
+      </c>
+      <c r="F208" t="n">
+        <v>26</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Örgryte</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Utsikten</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>2</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="n">
+        <v>2</v>
+      </c>
+      <c r="L208" t="n">
+        <v>2</v>
+      </c>
+      <c r="M208" t="n">
+        <v>2</v>
+      </c>
+      <c r="N208" t="n">
+        <v>4</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>['2', '27']</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>['66', '68']</t>
+        </is>
+      </c>
+      <c r="Q208" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="R208" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S208" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T208" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U208" t="n">
+        <v>3</v>
+      </c>
+      <c r="V208" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W208" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X208" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB208" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AC208" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD208" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE208" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF208" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG208" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AH208" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI208" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AJ208" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK208" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL208" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM208" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN208" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AO208" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP208" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AQ208" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AR208" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS208" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT208" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AU208" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV208" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW208" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX208" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY208" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ208" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA208" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB208" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC208" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD208" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE208" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF208" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BG208" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH208" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BI208" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ208" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BK208" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BL208" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BM208" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BN208" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BO208" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BP208" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="n">
+        <v>4867563</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>45207.41666666666</v>
+      </c>
+      <c r="F209" t="n">
+        <v>26</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>GIF Sundsvall</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Brage</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
+        <v>1</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="n">
+        <v>2</v>
+      </c>
+      <c r="N209" t="n">
+        <v>3</v>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>['52', '62']</t>
+        </is>
+      </c>
+      <c r="Q209" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R209" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S209" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="T209" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U209" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V209" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W209" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X209" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="Y209" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z209" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AA209" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB209" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AC209" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD209" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE209" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF209" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG209" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AH209" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI209" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ209" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK209" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL209" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM209" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN209" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO209" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP209" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AQ209" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR209" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS209" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT209" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AU209" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV209" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW209" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX209" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY209" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ209" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA209" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB209" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC209" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD209" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BE209" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF209" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BG209" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH209" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="BI209" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ209" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BK209" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BL209" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BM209" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BN209" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BO209" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BP209" t="n">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP209"/>
+  <dimension ref="A1:BP214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ2" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ9" t="n">
         <v>1.69</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.6899999999999999</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ11" t="n">
         <v>1.62</v>
@@ -3317,7 +3317,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4404,10 +4404,10 @@
         <v>3</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ18" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR18" t="n">
         <v>1.48</v>
@@ -4625,7 +4625,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR19" t="n">
         <v>1.41</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ20" t="n">
         <v>0.31</v>
@@ -5497,7 +5497,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR23" t="n">
         <v>1.04</v>
@@ -5933,7 +5933,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR25" t="n">
         <v>1.61</v>
@@ -6151,7 +6151,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR26" t="n">
         <v>1.29</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ27" t="n">
         <v>1.23</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.85</v>
@@ -7238,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="AP31" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ31" t="n">
         <v>0.62</v>
@@ -7895,7 +7895,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR34" t="n">
         <v>1.32</v>
@@ -8110,10 +8110,10 @@
         <v>1.5</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR35" t="n">
         <v>1.5</v>
@@ -8331,7 +8331,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ36" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR36" t="n">
         <v>1.24</v>
@@ -8767,7 +8767,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR38" t="n">
         <v>1.13</v>
@@ -9418,7 +9418,7 @@
         <v>2</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.92</v>
@@ -10075,7 +10075,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ44" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR44" t="n">
         <v>1.11</v>
@@ -10508,10 +10508,10 @@
         <v>0</v>
       </c>
       <c r="AP46" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR46" t="n">
         <v>2.12</v>
@@ -10726,7 +10726,7 @@
         <v>3</v>
       </c>
       <c r="AP47" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ47" t="n">
         <v>0.92</v>
@@ -10944,7 +10944,7 @@
         <v>3</v>
       </c>
       <c r="AP48" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ48" t="n">
         <v>1.69</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ49" t="n">
         <v>0.85</v>
@@ -11383,7 +11383,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR50" t="n">
         <v>1.32</v>
@@ -12473,7 +12473,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR55" t="n">
         <v>1.57</v>
@@ -13124,10 +13124,10 @@
         <v>1</v>
       </c>
       <c r="AP58" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR58" t="n">
         <v>1.6</v>
@@ -13342,7 +13342,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.6899999999999999</v>
@@ -13560,7 +13560,7 @@
         <v>1</v>
       </c>
       <c r="AP60" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ60" t="n">
         <v>0.62</v>
@@ -13781,7 +13781,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR61" t="n">
         <v>1.53</v>
@@ -13999,7 +13999,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR62" t="n">
         <v>1.38</v>
@@ -14214,7 +14214,7 @@
         <v>1.67</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ63" t="n">
         <v>1.62</v>
@@ -14650,7 +14650,7 @@
         <v>2</v>
       </c>
       <c r="AP65" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ65" t="n">
         <v>0.92</v>
@@ -15522,10 +15522,10 @@
         <v>1</v>
       </c>
       <c r="AP69" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR69" t="n">
         <v>2.01</v>
@@ -15743,7 +15743,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ70" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR70" t="n">
         <v>1.51</v>
@@ -16830,10 +16830,10 @@
         <v>1.6</v>
       </c>
       <c r="AP75" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR75" t="n">
         <v>1.67</v>
@@ -17048,10 +17048,10 @@
         <v>0.75</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR76" t="n">
         <v>1.67</v>
@@ -17484,7 +17484,7 @@
         <v>0</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ78" t="n">
         <v>0.31</v>
@@ -17923,7 +17923,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR80" t="n">
         <v>1.72</v>
@@ -18138,7 +18138,7 @@
         <v>0.5</v>
       </c>
       <c r="AP81" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ81" t="n">
         <v>1.08</v>
@@ -18577,7 +18577,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR83" t="n">
         <v>1.49</v>
@@ -18795,7 +18795,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ84" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR84" t="n">
         <v>1.78</v>
@@ -19013,7 +19013,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ85" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR85" t="n">
         <v>1.52</v>
@@ -19446,7 +19446,7 @@
         <v>0.25</v>
       </c>
       <c r="AP87" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.23</v>
@@ -19664,7 +19664,7 @@
         <v>1.5</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ88" t="n">
         <v>0.62</v>
@@ -20539,7 +20539,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR92" t="n">
         <v>1.45</v>
@@ -21190,7 +21190,7 @@
         <v>0.8</v>
       </c>
       <c r="AP95" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ95" t="n">
         <v>1.23</v>
@@ -21408,7 +21408,7 @@
         <v>0.8</v>
       </c>
       <c r="AP96" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ96" t="n">
         <v>0.6899999999999999</v>
@@ -21844,7 +21844,7 @@
         <v>1.4</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ98" t="n">
         <v>0.62</v>
@@ -22283,7 +22283,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ100" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR100" t="n">
         <v>1.48</v>
@@ -22501,7 +22501,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ101" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR101" t="n">
         <v>1.33</v>
@@ -22716,7 +22716,7 @@
         <v>0.83</v>
       </c>
       <c r="AP102" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.08</v>
@@ -23370,10 +23370,10 @@
         <v>1.33</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR105" t="n">
         <v>1.57</v>
@@ -24024,7 +24024,7 @@
         <v>0.83</v>
       </c>
       <c r="AP108" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ108" t="n">
         <v>0.85</v>
@@ -24678,10 +24678,10 @@
         <v>0.67</v>
       </c>
       <c r="AP111" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ111" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR111" t="n">
         <v>2.14</v>
@@ -25117,7 +25117,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR113" t="n">
         <v>1.61</v>
@@ -25332,10 +25332,10 @@
         <v>0.71</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ114" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR114" t="n">
         <v>1.72</v>
@@ -25771,7 +25771,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR116" t="n">
         <v>1.3</v>
@@ -26422,7 +26422,7 @@
         <v>1.57</v>
       </c>
       <c r="AP119" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ119" t="n">
         <v>1.69</v>
@@ -26640,10 +26640,10 @@
         <v>0.71</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR120" t="n">
         <v>1.56</v>
@@ -26858,10 +26858,10 @@
         <v>2.14</v>
       </c>
       <c r="AP121" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ121" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR121" t="n">
         <v>2.2</v>
@@ -27512,7 +27512,7 @@
         <v>0.57</v>
       </c>
       <c r="AP124" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ124" t="n">
         <v>0.6899999999999999</v>
@@ -28169,7 +28169,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ127" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR127" t="n">
         <v>1.88</v>
@@ -29474,10 +29474,10 @@
         <v>1.13</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR133" t="n">
         <v>1.67</v>
@@ -29695,7 +29695,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ134" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR134" t="n">
         <v>1.44</v>
@@ -29910,7 +29910,7 @@
         <v>1.25</v>
       </c>
       <c r="AP135" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ135" t="n">
         <v>0.92</v>
@@ -30346,7 +30346,7 @@
         <v>0.63</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ137" t="n">
         <v>1.08</v>
@@ -30564,7 +30564,7 @@
         <v>1.63</v>
       </c>
       <c r="AP138" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ138" t="n">
         <v>1.92</v>
@@ -31003,7 +31003,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ140" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR140" t="n">
         <v>1.52</v>
@@ -31221,7 +31221,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ141" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR141" t="n">
         <v>1.6</v>
@@ -31657,7 +31657,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR143" t="n">
         <v>1.53</v>
@@ -32090,7 +32090,7 @@
         <v>0.11</v>
       </c>
       <c r="AP145" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ145" t="n">
         <v>0.31</v>
@@ -32308,10 +32308,10 @@
         <v>1</v>
       </c>
       <c r="AP146" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ146" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR146" t="n">
         <v>2.06</v>
@@ -32529,7 +32529,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ147" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR147" t="n">
         <v>1.74</v>
@@ -32962,7 +32962,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ149" t="n">
         <v>0.6899999999999999</v>
@@ -33834,10 +33834,10 @@
         <v>1.33</v>
       </c>
       <c r="AP153" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ153" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR153" t="n">
         <v>1.95</v>
@@ -34055,7 +34055,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ154" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR154" t="n">
         <v>1.68</v>
@@ -34270,7 +34270,7 @@
         <v>2.22</v>
       </c>
       <c r="AP155" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ155" t="n">
         <v>1.62</v>
@@ -34709,7 +34709,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ157" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR157" t="n">
         <v>1.66</v>
@@ -34924,7 +34924,7 @@
         <v>0.4</v>
       </c>
       <c r="AP158" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ158" t="n">
         <v>0.31</v>
@@ -35145,7 +35145,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ159" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR159" t="n">
         <v>1.57</v>
@@ -35578,7 +35578,7 @@
         <v>0.78</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ161" t="n">
         <v>1.23</v>
@@ -35796,7 +35796,7 @@
         <v>0.67</v>
       </c>
       <c r="AP162" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ162" t="n">
         <v>0.6899999999999999</v>
@@ -36014,7 +36014,7 @@
         <v>1.78</v>
       </c>
       <c r="AP163" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ163" t="n">
         <v>1.92</v>
@@ -36235,7 +36235,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR164" t="n">
         <v>1.72</v>
@@ -37104,7 +37104,7 @@
         <v>1.1</v>
       </c>
       <c r="AP168" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ168" t="n">
         <v>0.92</v>
@@ -37325,7 +37325,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ169" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR169" t="n">
         <v>1.31</v>
@@ -37758,10 +37758,10 @@
         <v>1</v>
       </c>
       <c r="AP171" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ171" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR171" t="n">
         <v>1.53</v>
@@ -37979,7 +37979,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ172" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR172" t="n">
         <v>1.65</v>
@@ -38194,7 +38194,7 @@
         <v>1</v>
       </c>
       <c r="AP173" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ173" t="n">
         <v>0.85</v>
@@ -39069,7 +39069,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ177" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR177" t="n">
         <v>1.65</v>
@@ -39284,10 +39284,10 @@
         <v>0.82</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ178" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR178" t="n">
         <v>1.52</v>
@@ -39502,7 +39502,7 @@
         <v>0.9</v>
       </c>
       <c r="AP179" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ179" t="n">
         <v>0.6899999999999999</v>
@@ -39720,7 +39720,7 @@
         <v>1.91</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ180" t="n">
         <v>1.69</v>
@@ -40377,7 +40377,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ183" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR183" t="n">
         <v>1.46</v>
@@ -40813,7 +40813,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ185" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR185" t="n">
         <v>1.68</v>
@@ -41031,7 +41031,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ186" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR186" t="n">
         <v>1.66</v>
@@ -41900,7 +41900,7 @@
         <v>1.73</v>
       </c>
       <c r="AP190" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ190" t="n">
         <v>1.92</v>
@@ -42557,7 +42557,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ193" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR193" t="n">
         <v>1.49</v>
@@ -42775,7 +42775,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ194" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR194" t="n">
         <v>1.84</v>
@@ -42993,7 +42993,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ195" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR195" t="n">
         <v>1.69</v>
@@ -43208,7 +43208,7 @@
         <v>0.33</v>
       </c>
       <c r="AP196" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ196" t="n">
         <v>0.31</v>
@@ -43429,7 +43429,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ197" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR197" t="n">
         <v>1.38</v>
@@ -43644,7 +43644,7 @@
         <v>0.82</v>
       </c>
       <c r="AP198" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ198" t="n">
         <v>0.6899999999999999</v>
@@ -44080,7 +44080,7 @@
         <v>0.92</v>
       </c>
       <c r="AP200" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ200" t="n">
         <v>0.92</v>
@@ -44298,7 +44298,7 @@
         <v>1.83</v>
       </c>
       <c r="AP201" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ201" t="n">
         <v>1.69</v>
@@ -44737,7 +44737,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ203" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR203" t="n">
         <v>1.47</v>
@@ -45824,7 +45824,7 @@
         <v>1.67</v>
       </c>
       <c r="AP208" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ208" t="n">
         <v>1.62</v>
@@ -46121,6 +46121,1096 @@
       </c>
       <c r="BP209" t="n">
         <v>1.47</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="n">
+        <v>4867564</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>45220.33333333334</v>
+      </c>
+      <c r="F210" t="n">
+        <v>27</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>GAIS</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Östersunds FK</t>
+        </is>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>1</v>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="n">
+        <v>2</v>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="n">
+        <v>3</v>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>['71', '84']</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="Q210" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R210" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S210" t="n">
+        <v>7</v>
+      </c>
+      <c r="T210" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U210" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V210" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W210" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X210" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB210" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC210" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD210" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE210" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF210" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG210" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AH210" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AI210" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ210" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK210" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AL210" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AM210" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN210" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO210" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP210" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AQ210" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AR210" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AS210" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT210" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AU210" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV210" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW210" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX210" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY210" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ210" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA210" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB210" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC210" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD210" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BE210" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BF210" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="BG210" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH210" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI210" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ210" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK210" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BL210" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BM210" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN210" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BO210" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BP210" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="n">
+        <v>4867569</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>45220.41666666666</v>
+      </c>
+      <c r="F211" t="n">
+        <v>27</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Helsingborg</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Gefle</t>
+        </is>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="n">
+        <v>0</v>
+      </c>
+      <c r="L211" t="n">
+        <v>0</v>
+      </c>
+      <c r="M211" t="n">
+        <v>0</v>
+      </c>
+      <c r="N211" t="n">
+        <v>0</v>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q211" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R211" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S211" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T211" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U211" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V211" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W211" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X211" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y211" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z211" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AB211" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC211" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD211" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE211" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF211" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG211" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AH211" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AI211" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ211" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK211" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AL211" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AM211" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AN211" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO211" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AP211" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ211" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AR211" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS211" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AT211" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU211" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV211" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW211" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX211" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY211" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ211" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA211" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB211" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC211" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD211" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BE211" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF211" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BG211" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH211" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BI211" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BJ211" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BK211" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BL211" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BM211" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BN211" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BO211" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BP211" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="n">
+        <v>4867566</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="n">
+        <v>45221.33333333334</v>
+      </c>
+      <c r="F212" t="n">
+        <v>27</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Landskrona</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Västerås SK</t>
+        </is>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="n">
+        <v>0</v>
+      </c>
+      <c r="L212" t="n">
+        <v>0</v>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="n">
+        <v>1</v>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="Q212" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R212" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S212" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T212" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U212" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V212" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W212" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X212" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y212" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z212" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA212" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB212" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AC212" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD212" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE212" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF212" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG212" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AH212" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI212" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ212" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK212" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL212" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM212" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AN212" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AO212" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP212" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ212" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AR212" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS212" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT212" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AU212" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV212" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW212" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX212" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY212" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ212" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA212" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB212" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC212" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD212" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BE212" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF212" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BG212" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH212" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI212" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ212" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK212" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BL212" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BM212" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN212" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO212" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BP212" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="n">
+        <v>4867570</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="n">
+        <v>45221.41666666666</v>
+      </c>
+      <c r="F213" t="n">
+        <v>27</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Brage</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>AFC Eskilstuna</t>
+        </is>
+      </c>
+      <c r="I213" t="n">
+        <v>2</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="n">
+        <v>2</v>
+      </c>
+      <c r="L213" t="n">
+        <v>4</v>
+      </c>
+      <c r="M213" t="n">
+        <v>0</v>
+      </c>
+      <c r="N213" t="n">
+        <v>4</v>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>['14', '20', '75', '90+1']</t>
+        </is>
+      </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q213" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R213" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S213" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T213" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U213" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V213" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W213" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X213" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y213" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z213" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA213" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB213" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AC213" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD213" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE213" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF213" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG213" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AH213" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI213" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ213" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK213" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL213" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM213" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN213" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO213" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AP213" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AQ213" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR213" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS213" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT213" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AU213" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV213" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW213" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX213" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY213" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ213" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA213" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB213" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC213" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD213" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BE213" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF213" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BG213" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH213" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI213" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ213" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BK213" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BL213" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BM213" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN213" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO213" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP213" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" t="n">
+        <v>4867565</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="n">
+        <v>45221.41666666666</v>
+      </c>
+      <c r="F214" t="n">
+        <v>27</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Örgryte</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Trelleborg</t>
+        </is>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="n">
+        <v>2</v>
+      </c>
+      <c r="K214" t="n">
+        <v>2</v>
+      </c>
+      <c r="L214" t="n">
+        <v>0</v>
+      </c>
+      <c r="M214" t="n">
+        <v>2</v>
+      </c>
+      <c r="N214" t="n">
+        <v>2</v>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>['8', '21']</t>
+        </is>
+      </c>
+      <c r="Q214" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R214" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S214" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T214" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U214" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V214" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W214" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X214" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y214" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z214" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AA214" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB214" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AC214" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD214" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE214" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF214" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG214" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AH214" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI214" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ214" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK214" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL214" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM214" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN214" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AO214" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP214" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AQ214" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AR214" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AS214" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT214" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AU214" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV214" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW214" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX214" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY214" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ214" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA214" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB214" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC214" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD214" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE214" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF214" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BG214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI214" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BJ214" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BK214" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BL214" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BM214" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN214" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO214" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BP214" t="n">
+        <v>1.67</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP214"/>
+  <dimension ref="A1:BP217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.6899999999999999</v>
@@ -2445,7 +2445,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.07</v>
@@ -4189,7 +4189,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4843,7 +4843,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="AR20" t="n">
         <v>1.03</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ21" t="n">
         <v>0.6899999999999999</v>
@@ -5276,7 +5276,7 @@
         <v>1</v>
       </c>
       <c r="AP22" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.92</v>
@@ -5494,7 +5494,7 @@
         <v>3</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ23" t="n">
         <v>0.79</v>
@@ -7023,7 +7023,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR30" t="n">
         <v>1.31</v>
@@ -7459,7 +7459,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="AR32" t="n">
         <v>1.34</v>
@@ -8328,7 +8328,7 @@
         <v>3</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ36" t="n">
         <v>2.07</v>
@@ -8764,7 +8764,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ38" t="n">
         <v>0.71</v>
@@ -8985,7 +8985,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR39" t="n">
         <v>1.61</v>
@@ -9200,7 +9200,7 @@
         <v>0.5</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.08</v>
@@ -10729,7 +10729,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR47" t="n">
         <v>1.45</v>
@@ -10947,7 +10947,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR48" t="n">
         <v>2.24</v>
@@ -11380,7 +11380,7 @@
         <v>0.33</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ50" t="n">
         <v>0.71</v>
@@ -12034,7 +12034,7 @@
         <v>1.33</v>
       </c>
       <c r="AP53" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ53" t="n">
         <v>0.6899999999999999</v>
@@ -12255,7 +12255,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="AR54" t="n">
         <v>1.01</v>
@@ -12906,7 +12906,7 @@
         <v>0.33</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.08</v>
@@ -14435,7 +14435,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR64" t="n">
         <v>1.91</v>
@@ -14653,7 +14653,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR65" t="n">
         <v>1.96</v>
@@ -15304,7 +15304,7 @@
         <v>1</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.6899999999999999</v>
@@ -15961,7 +15961,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="AR71" t="n">
         <v>1.39</v>
@@ -16394,7 +16394,7 @@
         <v>0.25</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ73" t="n">
         <v>0.85</v>
@@ -16612,7 +16612,7 @@
         <v>1</v>
       </c>
       <c r="AP74" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ74" t="n">
         <v>0.6899999999999999</v>
@@ -17269,7 +17269,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR77" t="n">
         <v>1.22</v>
@@ -17487,7 +17487,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="AR78" t="n">
         <v>1.16</v>
@@ -17702,10 +17702,10 @@
         <v>1.75</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR79" t="n">
         <v>1.5</v>
@@ -18574,7 +18574,7 @@
         <v>0.8</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ83" t="n">
         <v>0.79</v>
@@ -20103,7 +20103,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR90" t="n">
         <v>1.4</v>
@@ -20321,7 +20321,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="AR91" t="n">
         <v>1.7</v>
@@ -20536,7 +20536,7 @@
         <v>0.8</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ92" t="n">
         <v>1.21</v>
@@ -20754,10 +20754,10 @@
         <v>1.8</v>
       </c>
       <c r="AP93" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR93" t="n">
         <v>1.35</v>
@@ -22062,10 +22062,10 @@
         <v>1.67</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR99" t="n">
         <v>1.61</v>
@@ -23591,7 +23591,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ106" t="n">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="AR106" t="n">
         <v>1.37</v>
@@ -23806,10 +23806,10 @@
         <v>1.5</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR107" t="n">
         <v>1.45</v>
@@ -25114,7 +25114,7 @@
         <v>0.67</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ113" t="n">
         <v>1.21</v>
@@ -26204,7 +26204,7 @@
         <v>1.33</v>
       </c>
       <c r="AP118" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ118" t="n">
         <v>0.62</v>
@@ -26425,7 +26425,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR119" t="n">
         <v>1.6</v>
@@ -27079,7 +27079,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ122" t="n">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="AR122" t="n">
         <v>1.39</v>
@@ -27297,7 +27297,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ123" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR123" t="n">
         <v>1.68</v>
@@ -28384,7 +28384,7 @@
         <v>1.71</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ128" t="n">
         <v>1.92</v>
@@ -28602,7 +28602,7 @@
         <v>1.14</v>
       </c>
       <c r="AP129" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ129" t="n">
         <v>0.85</v>
@@ -28823,7 +28823,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR130" t="n">
         <v>1.53</v>
@@ -29038,7 +29038,7 @@
         <v>2.13</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ131" t="n">
         <v>1.62</v>
@@ -29913,7 +29913,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ135" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR135" t="n">
         <v>2.08</v>
@@ -30782,7 +30782,7 @@
         <v>0.88</v>
       </c>
       <c r="AP139" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ139" t="n">
         <v>1.23</v>
@@ -31872,7 +31872,7 @@
         <v>1</v>
       </c>
       <c r="AP144" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ144" t="n">
         <v>0.62</v>
@@ -32093,7 +32093,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ145" t="n">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="AR145" t="n">
         <v>1.92</v>
@@ -32526,7 +32526,7 @@
         <v>2.33</v>
       </c>
       <c r="AP147" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ147" t="n">
         <v>2.07</v>
@@ -32747,7 +32747,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ148" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR148" t="n">
         <v>1.44</v>
@@ -33180,7 +33180,7 @@
         <v>1</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ150" t="n">
         <v>0.85</v>
@@ -33619,7 +33619,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ152" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR152" t="n">
         <v>1.32</v>
@@ -34052,7 +34052,7 @@
         <v>2.1</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ154" t="n">
         <v>2.07</v>
@@ -34927,7 +34927,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ158" t="n">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="AR158" t="n">
         <v>2</v>
@@ -36232,7 +36232,7 @@
         <v>1.3</v>
       </c>
       <c r="AP164" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ164" t="n">
         <v>1.07</v>
@@ -36889,7 +36889,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ167" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR167" t="n">
         <v>1.52</v>
@@ -37107,7 +37107,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ168" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR168" t="n">
         <v>1.53</v>
@@ -38630,10 +38630,10 @@
         <v>0.36</v>
       </c>
       <c r="AP175" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ175" t="n">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="AR175" t="n">
         <v>1.73</v>
@@ -38848,7 +38848,7 @@
         <v>1</v>
       </c>
       <c r="AP176" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ176" t="n">
         <v>1.23</v>
@@ -39723,7 +39723,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ180" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR180" t="n">
         <v>1.53</v>
@@ -39941,7 +39941,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ181" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR181" t="n">
         <v>1.79</v>
@@ -40592,7 +40592,7 @@
         <v>1</v>
       </c>
       <c r="AP184" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ184" t="n">
         <v>1.08</v>
@@ -40810,7 +40810,7 @@
         <v>1</v>
       </c>
       <c r="AP185" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ185" t="n">
         <v>1.21</v>
@@ -42118,7 +42118,7 @@
         <v>1.82</v>
       </c>
       <c r="AP191" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ191" t="n">
         <v>1.62</v>
@@ -42990,7 +42990,7 @@
         <v>0.75</v>
       </c>
       <c r="AP195" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ195" t="n">
         <v>0.71</v>
@@ -43211,7 +43211,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ196" t="n">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="AR196" t="n">
         <v>1.56</v>
@@ -43426,7 +43426,7 @@
         <v>1.17</v>
       </c>
       <c r="AP197" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ197" t="n">
         <v>1.07</v>
@@ -44083,7 +44083,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ200" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR200" t="n">
         <v>1.51</v>
@@ -44301,7 +44301,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ201" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR201" t="n">
         <v>1.98</v>
@@ -47211,6 +47211,660 @@
       </c>
       <c r="BP214" t="n">
         <v>1.67</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" t="n">
+        <v>4867567</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="n">
+        <v>45222.58333333334</v>
+      </c>
+      <c r="F215" t="n">
+        <v>27</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Jönköpings Södra</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Skövde AIK</t>
+        </is>
+      </c>
+      <c r="I215" t="n">
+        <v>1</v>
+      </c>
+      <c r="J215" t="n">
+        <v>1</v>
+      </c>
+      <c r="K215" t="n">
+        <v>2</v>
+      </c>
+      <c r="L215" t="n">
+        <v>2</v>
+      </c>
+      <c r="M215" t="n">
+        <v>2</v>
+      </c>
+      <c r="N215" t="n">
+        <v>4</v>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>['4', '80']</t>
+        </is>
+      </c>
+      <c r="P215" t="inlineStr">
+        <is>
+          <t>['32', '58']</t>
+        </is>
+      </c>
+      <c r="Q215" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R215" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S215" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T215" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U215" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V215" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W215" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X215" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y215" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z215" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA215" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB215" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AC215" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD215" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE215" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF215" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG215" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AH215" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI215" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AJ215" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK215" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL215" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM215" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN215" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO215" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AP215" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ215" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AR215" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AS215" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT215" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AU215" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV215" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW215" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX215" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY215" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ215" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA215" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB215" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC215" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD215" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BE215" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF215" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BG215" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH215" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI215" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ215" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BK215" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BL215" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BM215" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN215" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BO215" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BP215" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="n">
+        <v>4867571</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="n">
+        <v>45223.58333333334</v>
+      </c>
+      <c r="F216" t="n">
+        <v>27</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Utsikten</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Öster</t>
+        </is>
+      </c>
+      <c r="I216" t="n">
+        <v>2</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="n">
+        <v>2</v>
+      </c>
+      <c r="L216" t="n">
+        <v>2</v>
+      </c>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="n">
+        <v>3</v>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>['21', '43']</t>
+        </is>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="Q216" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R216" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S216" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T216" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U216" t="n">
+        <v>3</v>
+      </c>
+      <c r="V216" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W216" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X216" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y216" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z216" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA216" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB216" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AC216" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD216" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE216" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF216" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG216" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AH216" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI216" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ216" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK216" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL216" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM216" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN216" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AO216" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AP216" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AQ216" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR216" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS216" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT216" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AU216" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV216" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW216" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX216" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY216" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ216" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA216" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB216" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC216" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD216" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BE216" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF216" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BG216" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH216" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI216" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ216" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK216" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BL216" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM216" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN216" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO216" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP216" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="n">
+        <v>4867568</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>45223.58333333334</v>
+      </c>
+      <c r="F217" t="n">
+        <v>27</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>GIF Sundsvall</t>
+        </is>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="n">
+        <v>0</v>
+      </c>
+      <c r="L217" t="n">
+        <v>0</v>
+      </c>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="n">
+        <v>1</v>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="Q217" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R217" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S217" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T217" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U217" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V217" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W217" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X217" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y217" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z217" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA217" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AB217" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AC217" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD217" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE217" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF217" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG217" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AH217" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI217" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ217" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK217" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL217" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM217" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN217" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AO217" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AP217" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ217" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AR217" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AS217" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT217" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AU217" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV217" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW217" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX217" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY217" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ217" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA217" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB217" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC217" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD217" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BE217" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF217" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BG217" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH217" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI217" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BJ217" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BK217" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BL217" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BM217" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BN217" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BO217" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BP217" t="n">
+        <v>1.62</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP217"/>
+  <dimension ref="A1:BP221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1137,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ4" t="n">
         <v>0.79</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ6" t="n">
         <v>1.92</v>
@@ -2227,7 +2227,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.07</v>
@@ -5712,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.08</v>
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.21</v>
@@ -6369,7 +6369,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR27" t="n">
         <v>2.43</v>
@@ -6587,7 +6587,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AR28" t="n">
         <v>1.36</v>
@@ -6802,7 +6802,7 @@
         <v>3</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.62</v>
@@ -7241,7 +7241,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AR31" t="n">
         <v>2.48</v>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ32" t="n">
         <v>0.36</v>
@@ -7677,7 +7677,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR33" t="n">
         <v>1.76</v>
@@ -8982,7 +8982,7 @@
         <v>3</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.07</v>
@@ -9636,7 +9636,7 @@
         <v>2</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.62</v>
@@ -9854,10 +9854,10 @@
         <v>1</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AR43" t="n">
         <v>1.88</v>
@@ -10072,7 +10072,7 @@
         <v>2</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ44" t="n">
         <v>2.07</v>
@@ -10293,7 +10293,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR45" t="n">
         <v>1.56</v>
@@ -11165,7 +11165,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AR49" t="n">
         <v>1.63</v>
@@ -11819,7 +11819,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR52" t="n">
         <v>1.99</v>
@@ -12252,7 +12252,7 @@
         <v>0</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ54" t="n">
         <v>0.36</v>
@@ -12470,7 +12470,7 @@
         <v>2.33</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.07</v>
@@ -12691,7 +12691,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ56" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AR56" t="n">
         <v>1.17</v>
@@ -13345,7 +13345,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR59" t="n">
         <v>1.67</v>
@@ -13563,7 +13563,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AR60" t="n">
         <v>2.16</v>
@@ -13996,7 +13996,7 @@
         <v>1.75</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.07</v>
@@ -14868,7 +14868,7 @@
         <v>1.75</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.92</v>
@@ -15089,7 +15089,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR67" t="n">
         <v>1.36</v>
@@ -15740,7 +15740,7 @@
         <v>2.25</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ70" t="n">
         <v>2.07</v>
@@ -16176,7 +16176,7 @@
         <v>2</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.62</v>
@@ -16397,7 +16397,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AR73" t="n">
         <v>1.48</v>
@@ -16615,7 +16615,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR74" t="n">
         <v>1.25</v>
@@ -17266,7 +17266,7 @@
         <v>1.5</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ77" t="n">
         <v>1.07</v>
@@ -18792,7 +18792,7 @@
         <v>1.8</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ84" t="n">
         <v>2.07</v>
@@ -19228,7 +19228,7 @@
         <v>0.8</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ86" t="n">
         <v>0.6899999999999999</v>
@@ -19449,7 +19449,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR87" t="n">
         <v>2.14</v>
@@ -19667,7 +19667,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AR88" t="n">
         <v>1.44</v>
@@ -20100,7 +20100,7 @@
         <v>2</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.57</v>
@@ -20972,10 +20972,10 @@
         <v>0.4</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AR94" t="n">
         <v>1.3</v>
@@ -21193,7 +21193,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR95" t="n">
         <v>1.6</v>
@@ -21411,7 +21411,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ96" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR96" t="n">
         <v>2.14</v>
@@ -21626,7 +21626,7 @@
         <v>1</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ97" t="n">
         <v>1.08</v>
@@ -21847,7 +21847,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ98" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AR98" t="n">
         <v>1.77</v>
@@ -22498,7 +22498,7 @@
         <v>0.83</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ101" t="n">
         <v>0.71</v>
@@ -23152,7 +23152,7 @@
         <v>2.33</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ104" t="n">
         <v>1.62</v>
@@ -24027,7 +24027,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ108" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AR108" t="n">
         <v>2.13</v>
@@ -24460,10 +24460,10 @@
         <v>0.67</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR110" t="n">
         <v>1.6</v>
@@ -24896,7 +24896,7 @@
         <v>0.67</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ112" t="n">
         <v>0.6899999999999999</v>
@@ -25768,7 +25768,7 @@
         <v>1.14</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ116" t="n">
         <v>1.07</v>
@@ -25989,7 +25989,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR117" t="n">
         <v>1.42</v>
@@ -26207,7 +26207,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ118" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AR118" t="n">
         <v>1.55</v>
@@ -27076,7 +27076,7 @@
         <v>0.13</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ122" t="n">
         <v>0.36</v>
@@ -27294,7 +27294,7 @@
         <v>1.29</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ123" t="n">
         <v>1.07</v>
@@ -27733,7 +27733,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AR125" t="n">
         <v>1.42</v>
@@ -27948,10 +27948,10 @@
         <v>0.57</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR126" t="n">
         <v>1.39</v>
@@ -28605,7 +28605,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ129" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AR129" t="n">
         <v>1.58</v>
@@ -28820,7 +28820,7 @@
         <v>1.75</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ130" t="n">
         <v>1.57</v>
@@ -29256,7 +29256,7 @@
         <v>0.63</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ132" t="n">
         <v>0.6899999999999999</v>
@@ -30128,10 +30128,10 @@
         <v>0.71</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ136" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR136" t="n">
         <v>1.37</v>
@@ -30785,7 +30785,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR139" t="n">
         <v>1.61</v>
@@ -31218,7 +31218,7 @@
         <v>1</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ141" t="n">
         <v>0.71</v>
@@ -31439,7 +31439,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ142" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AR142" t="n">
         <v>1.83</v>
@@ -31875,7 +31875,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ144" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AR144" t="n">
         <v>1.59</v>
@@ -33183,7 +33183,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ150" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AR150" t="n">
         <v>1.39</v>
@@ -33398,10 +33398,10 @@
         <v>0.75</v>
       </c>
       <c r="AP151" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ151" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR151" t="n">
         <v>1.25</v>
@@ -33616,7 +33616,7 @@
         <v>1.67</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ152" t="n">
         <v>1.57</v>
@@ -34706,7 +34706,7 @@
         <v>1</v>
       </c>
       <c r="AP157" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ157" t="n">
         <v>1.21</v>
@@ -35142,7 +35142,7 @@
         <v>0.89</v>
       </c>
       <c r="AP159" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ159" t="n">
         <v>0.79</v>
@@ -35363,7 +35363,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ160" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AR160" t="n">
         <v>1.46</v>
@@ -35581,7 +35581,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ161" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR161" t="n">
         <v>1.55</v>
@@ -35799,7 +35799,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ162" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR162" t="n">
         <v>1.87</v>
@@ -36668,10 +36668,10 @@
         <v>0.8</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ166" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AR166" t="n">
         <v>1.16</v>
@@ -37322,7 +37322,7 @@
         <v>0.9</v>
       </c>
       <c r="AP169" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ169" t="n">
         <v>0.71</v>
@@ -37540,7 +37540,7 @@
         <v>0.8</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ170" t="n">
         <v>1.08</v>
@@ -37976,7 +37976,7 @@
         <v>0.8</v>
       </c>
       <c r="AP172" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ172" t="n">
         <v>0.79</v>
@@ -38197,7 +38197,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ173" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AR173" t="n">
         <v>2</v>
@@ -38851,7 +38851,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ176" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR176" t="n">
         <v>1.38</v>
@@ -39505,7 +39505,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ179" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR179" t="n">
         <v>1.56</v>
@@ -40156,7 +40156,7 @@
         <v>1.6</v>
       </c>
       <c r="AP182" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ182" t="n">
         <v>1.92</v>
@@ -41028,7 +41028,7 @@
         <v>1.92</v>
       </c>
       <c r="AP186" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ186" t="n">
         <v>2.07</v>
@@ -41249,7 +41249,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ187" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR187" t="n">
         <v>1.48</v>
@@ -41467,7 +41467,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ188" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AR188" t="n">
         <v>1.68</v>
@@ -41682,7 +41682,7 @@
         <v>0.55</v>
       </c>
       <c r="AP189" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ189" t="n">
         <v>0.6899999999999999</v>
@@ -42336,10 +42336,10 @@
         <v>0.73</v>
       </c>
       <c r="AP192" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ192" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AR192" t="n">
         <v>1.34</v>
@@ -43647,7 +43647,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ198" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR198" t="n">
         <v>1.53</v>
@@ -43862,7 +43862,7 @@
         <v>0.92</v>
       </c>
       <c r="AP199" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ199" t="n">
         <v>1.08</v>
@@ -44519,7 +44519,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ202" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AR202" t="n">
         <v>1.91</v>
@@ -44955,7 +44955,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ204" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR204" t="n">
         <v>1.72</v>
@@ -45170,10 +45170,10 @@
         <v>0.92</v>
       </c>
       <c r="AP205" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ205" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AR205" t="n">
         <v>1.6</v>
@@ -45388,10 +45388,10 @@
         <v>1.08</v>
       </c>
       <c r="AP206" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ206" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR206" t="n">
         <v>1.63</v>
@@ -45606,7 +45606,7 @@
         <v>1.83</v>
       </c>
       <c r="AP207" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ207" t="n">
         <v>1.92</v>
@@ -47865,6 +47865,878 @@
       </c>
       <c r="BP217" t="n">
         <v>1.62</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="n">
+        <v>4867574</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>45227.33333333334</v>
+      </c>
+      <c r="F218" t="n">
+        <v>28</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Gefle</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Landskrona</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>1</v>
+      </c>
+      <c r="J218" t="n">
+        <v>1</v>
+      </c>
+      <c r="K218" t="n">
+        <v>2</v>
+      </c>
+      <c r="L218" t="n">
+        <v>3</v>
+      </c>
+      <c r="M218" t="n">
+        <v>3</v>
+      </c>
+      <c r="N218" t="n">
+        <v>6</v>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>['45', '86', '90+8']</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>['18', '52', '66']</t>
+        </is>
+      </c>
+      <c r="Q218" t="n">
+        <v>4</v>
+      </c>
+      <c r="R218" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S218" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T218" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U218" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V218" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W218" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X218" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z218" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AA218" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB218" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AC218" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD218" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE218" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF218" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AG218" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AH218" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI218" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ218" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK218" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL218" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM218" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AN218" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AO218" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP218" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ218" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AR218" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS218" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT218" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AU218" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV218" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW218" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX218" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY218" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ218" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA218" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB218" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC218" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD218" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE218" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF218" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI218" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ218" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BK218" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BL218" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BM218" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BN218" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BO218" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BP218" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="n">
+        <v>4867573</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>45227.41666666666</v>
+      </c>
+      <c r="F219" t="n">
+        <v>28</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>AFC Eskilstuna</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Jönköpings Södra</t>
+        </is>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>1</v>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="n">
+        <v>2</v>
+      </c>
+      <c r="M219" t="n">
+        <v>2</v>
+      </c>
+      <c r="N219" t="n">
+        <v>4</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>['48', '51']</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>['25', '76']</t>
+        </is>
+      </c>
+      <c r="Q219" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R219" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S219" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T219" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U219" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="V219" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="W219" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X219" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="Y219" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z219" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AA219" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AB219" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AC219" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD219" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE219" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF219" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG219" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AH219" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI219" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ219" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK219" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL219" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM219" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN219" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO219" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AP219" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AQ219" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AR219" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS219" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT219" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AU219" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW219" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX219" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY219" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ219" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA219" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB219" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC219" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD219" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BE219" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF219" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BG219" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH219" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="BI219" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BJ219" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BK219" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL219" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BM219" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN219" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO219" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BP219" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="n">
+        <v>4867576</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>45227.41666666666</v>
+      </c>
+      <c r="F220" t="n">
+        <v>28</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Trelleborg</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Helsingborg</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="n">
+        <v>0</v>
+      </c>
+      <c r="L220" t="n">
+        <v>0</v>
+      </c>
+      <c r="M220" t="n">
+        <v>0</v>
+      </c>
+      <c r="N220" t="n">
+        <v>0</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q220" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="R220" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="S220" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T220" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U220" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="V220" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="W220" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X220" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y220" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z220" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AA220" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AB220" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AC220" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD220" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE220" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF220" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="AG220" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH220" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI220" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ220" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK220" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL220" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM220" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN220" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AO220" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AP220" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ220" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR220" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS220" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT220" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AU220" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV220" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW220" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX220" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY220" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ220" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA220" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB220" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC220" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD220" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BE220" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF220" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BG220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI220" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ220" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BK220" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BL220" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BM220" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BN220" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BO220" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP220" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="n">
+        <v>4867578</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>45227.41666666666</v>
+      </c>
+      <c r="F221" t="n">
+        <v>28</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Östersunds FK</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
+        <v>3</v>
+      </c>
+      <c r="J221" t="n">
+        <v>2</v>
+      </c>
+      <c r="K221" t="n">
+        <v>5</v>
+      </c>
+      <c r="L221" t="n">
+        <v>4</v>
+      </c>
+      <c r="M221" t="n">
+        <v>3</v>
+      </c>
+      <c r="N221" t="n">
+        <v>7</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>['7', '34', '42', '80']</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>['23', '44', '88']</t>
+        </is>
+      </c>
+      <c r="Q221" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R221" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S221" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T221" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U221" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V221" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W221" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X221" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y221" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z221" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AA221" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AB221" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AC221" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD221" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE221" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF221" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG221" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH221" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AI221" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ221" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK221" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL221" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM221" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN221" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO221" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP221" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ221" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AR221" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS221" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT221" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AU221" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV221" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW221" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX221" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY221" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ221" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA221" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB221" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC221" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD221" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BE221" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF221" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BG221" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH221" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI221" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ221" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BK221" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BL221" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BM221" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN221" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BO221" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP221" t="n">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP221"/>
+  <dimension ref="A1:BP224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1791,7 +1791,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ12" t="n">
         <v>0.64</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.08</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.21</v>
@@ -4622,7 +4622,7 @@
         <v>1</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ19" t="n">
         <v>0.71</v>
@@ -5061,7 +5061,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR21" t="n">
         <v>1.17</v>
@@ -5279,7 +5279,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR22" t="n">
         <v>1.32</v>
@@ -6805,7 +6805,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR29" t="n">
         <v>1.12</v>
@@ -7674,7 +7674,7 @@
         <v>1</v>
       </c>
       <c r="AP33" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AQ33" t="n">
         <v>0.64</v>
@@ -7892,7 +7892,7 @@
         <v>2</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.07</v>
@@ -8546,10 +8546,10 @@
         <v>1.5</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR37" t="n">
         <v>1.83</v>
@@ -9421,7 +9421,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR41" t="n">
         <v>1.28</v>
@@ -9639,7 +9639,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR42" t="n">
         <v>1.43</v>
@@ -10290,7 +10290,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ45" t="n">
         <v>0.64</v>
@@ -11598,10 +11598,10 @@
         <v>1.33</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR51" t="n">
         <v>1.37</v>
@@ -11816,7 +11816,7 @@
         <v>0</v>
       </c>
       <c r="AP52" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.21</v>
@@ -12037,7 +12037,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR53" t="n">
         <v>1.19</v>
@@ -13778,7 +13778,7 @@
         <v>0</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.21</v>
@@ -14217,7 +14217,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR63" t="n">
         <v>1.24</v>
@@ -14432,7 +14432,7 @@
         <v>2.33</v>
       </c>
       <c r="AP64" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.57</v>
@@ -14871,7 +14871,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR66" t="n">
         <v>1.3</v>
@@ -15086,7 +15086,7 @@
         <v>0.33</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.21</v>
@@ -15307,7 +15307,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR68" t="n">
         <v>1.46</v>
@@ -16179,7 +16179,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR72" t="n">
         <v>1.9</v>
@@ -17920,7 +17920,7 @@
         <v>1</v>
       </c>
       <c r="AP80" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AQ80" t="n">
         <v>0.71</v>
@@ -18356,10 +18356,10 @@
         <v>2.2</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR82" t="n">
         <v>1.29</v>
@@ -19010,7 +19010,7 @@
         <v>1</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ85" t="n">
         <v>0.71</v>
@@ -19231,7 +19231,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR86" t="n">
         <v>1.62</v>
@@ -19885,7 +19885,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR89" t="n">
         <v>1.46</v>
@@ -20318,7 +20318,7 @@
         <v>0.17</v>
       </c>
       <c r="AP91" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AQ91" t="n">
         <v>0.36</v>
@@ -22934,10 +22934,10 @@
         <v>1.83</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR103" t="n">
         <v>1.55</v>
@@ -23155,7 +23155,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR104" t="n">
         <v>1.47</v>
@@ -23588,7 +23588,7 @@
         <v>0.14</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ106" t="n">
         <v>0.36</v>
@@ -24242,10 +24242,10 @@
         <v>2.43</v>
       </c>
       <c r="AP109" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR109" t="n">
         <v>1.84</v>
@@ -24899,7 +24899,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ112" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR112" t="n">
         <v>1.36</v>
@@ -25550,7 +25550,7 @@
         <v>0.71</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ115" t="n">
         <v>1.08</v>
@@ -27515,7 +27515,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ124" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR124" t="n">
         <v>2.05</v>
@@ -27730,7 +27730,7 @@
         <v>1.14</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ125" t="n">
         <v>0.64</v>
@@ -28166,7 +28166,7 @@
         <v>0.71</v>
       </c>
       <c r="AP127" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AQ127" t="n">
         <v>0.79</v>
@@ -28387,7 +28387,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR128" t="n">
         <v>1.65</v>
@@ -29041,7 +29041,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR131" t="n">
         <v>1.46</v>
@@ -29259,7 +29259,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR132" t="n">
         <v>1.27</v>
@@ -29692,7 +29692,7 @@
         <v>2.25</v>
       </c>
       <c r="AP134" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ134" t="n">
         <v>2.07</v>
@@ -30567,7 +30567,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR138" t="n">
         <v>1.53</v>
@@ -31000,7 +31000,7 @@
         <v>0.63</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ140" t="n">
         <v>0.79</v>
@@ -31436,7 +31436,7 @@
         <v>1.13</v>
       </c>
       <c r="AP142" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AQ142" t="n">
         <v>0.86</v>
@@ -32744,7 +32744,7 @@
         <v>1.22</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ148" t="n">
         <v>1.07</v>
@@ -32965,7 +32965,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ149" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR149" t="n">
         <v>1.58</v>
@@ -34273,7 +34273,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR155" t="n">
         <v>1.52</v>
@@ -34488,7 +34488,7 @@
         <v>0.89</v>
       </c>
       <c r="AP156" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ156" t="n">
         <v>1.08</v>
@@ -36017,7 +36017,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ163" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR163" t="n">
         <v>1.53</v>
@@ -36450,10 +36450,10 @@
         <v>0.5</v>
       </c>
       <c r="AP165" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AQ165" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR165" t="n">
         <v>1.82</v>
@@ -36886,7 +36886,7 @@
         <v>1.8</v>
       </c>
       <c r="AP167" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ167" t="n">
         <v>1.57</v>
@@ -38415,7 +38415,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ174" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR174" t="n">
         <v>1.48</v>
@@ -39066,7 +39066,7 @@
         <v>2</v>
       </c>
       <c r="AP177" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ177" t="n">
         <v>2.07</v>
@@ -39938,7 +39938,7 @@
         <v>1</v>
       </c>
       <c r="AP181" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AQ181" t="n">
         <v>1.07</v>
@@ -40159,7 +40159,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ182" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR182" t="n">
         <v>1.17</v>
@@ -40374,7 +40374,7 @@
         <v>1.27</v>
       </c>
       <c r="AP183" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ183" t="n">
         <v>1.07</v>
@@ -41246,7 +41246,7 @@
         <v>1.18</v>
       </c>
       <c r="AP187" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ187" t="n">
         <v>1.21</v>
@@ -41464,7 +41464,7 @@
         <v>0.91</v>
       </c>
       <c r="AP188" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ188" t="n">
         <v>0.86</v>
@@ -41685,7 +41685,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ189" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR189" t="n">
         <v>1.65</v>
@@ -41903,7 +41903,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ190" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR190" t="n">
         <v>1.83</v>
@@ -42121,7 +42121,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ191" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR191" t="n">
         <v>1.77</v>
@@ -42772,7 +42772,7 @@
         <v>1.17</v>
       </c>
       <c r="AP194" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AQ194" t="n">
         <v>1.21</v>
@@ -44516,7 +44516,7 @@
         <v>0.67</v>
       </c>
       <c r="AP202" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AQ202" t="n">
         <v>0.64</v>
@@ -44734,7 +44734,7 @@
         <v>0.83</v>
       </c>
       <c r="AP203" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ203" t="n">
         <v>0.79</v>
@@ -44952,7 +44952,7 @@
         <v>0.75</v>
       </c>
       <c r="AP204" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ204" t="n">
         <v>0.64</v>
@@ -45609,7 +45609,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ207" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR207" t="n">
         <v>1.35</v>
@@ -45827,7 +45827,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ208" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR208" t="n">
         <v>1.78</v>
@@ -46045,7 +46045,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ209" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR209" t="n">
         <v>1.54</v>
@@ -48737,6 +48737,660 @@
       </c>
       <c r="BP221" t="n">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="n">
+        <v>4867572</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>45228.375</v>
+      </c>
+      <c r="F222" t="n">
+        <v>28</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>Västerås SK</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>GAIS</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>1</v>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="n">
+        <v>2</v>
+      </c>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="n">
+        <v>3</v>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>['49', '57']</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="Q222" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R222" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S222" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T222" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U222" t="n">
+        <v>3</v>
+      </c>
+      <c r="V222" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W222" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X222" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y222" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z222" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AA222" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB222" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AC222" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD222" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE222" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF222" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG222" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AH222" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AI222" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AJ222" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK222" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL222" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM222" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AN222" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AO222" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AP222" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AQ222" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AR222" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AS222" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AT222" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AU222" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV222" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW222" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX222" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY222" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ222" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA222" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB222" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC222" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD222" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BE222" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF222" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BG222" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH222" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI222" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BJ222" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BK222" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BL222" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BM222" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BN222" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO222" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BP222" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="n">
+        <v>4867575</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>45228.375</v>
+      </c>
+      <c r="F223" t="n">
+        <v>28</v>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>Skövde AIK</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Utsikten</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="n">
+        <v>0</v>
+      </c>
+      <c r="L223" t="n">
+        <v>2</v>
+      </c>
+      <c r="M223" t="n">
+        <v>0</v>
+      </c>
+      <c r="N223" t="n">
+        <v>2</v>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>['62', '68']</t>
+        </is>
+      </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q223" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R223" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S223" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T223" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U223" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="V223" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="W223" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X223" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Y223" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z223" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AA223" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB223" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AC223" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD223" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE223" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF223" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AG223" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AH223" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AI223" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ223" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AK223" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL223" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM223" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN223" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO223" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AP223" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ223" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR223" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS223" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT223" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AU223" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV223" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW223" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX223" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY223" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ223" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA223" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB223" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC223" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD223" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE223" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF223" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BG223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI223" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BJ223" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BK223" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BL223" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BM223" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BN223" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO223" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BP223" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" t="n">
+        <v>4867577</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E224" s="2" t="n">
+        <v>45228.375</v>
+      </c>
+      <c r="F224" t="n">
+        <v>28</v>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>Öster</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Brage</t>
+        </is>
+      </c>
+      <c r="I224" t="n">
+        <v>1</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="n">
+        <v>0</v>
+      </c>
+      <c r="N224" t="n">
+        <v>1</v>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q224" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R224" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S224" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="T224" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U224" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V224" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W224" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X224" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y224" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z224" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA224" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB224" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC224" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD224" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE224" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF224" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AG224" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH224" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AI224" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ224" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK224" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AL224" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM224" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AN224" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AO224" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP224" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AQ224" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AR224" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS224" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT224" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AU224" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV224" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW224" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX224" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY224" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ224" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA224" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB224" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC224" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD224" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BE224" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF224" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BG224" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH224" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BI224" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ224" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BK224" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BL224" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BM224" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN224" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO224" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BP224" t="n">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP224"/>
+  <dimension ref="A1:BP225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ3" t="n">
         <v>1.21</v>
@@ -3753,7 +3753,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -5715,7 +5715,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR24" t="n">
         <v>1.45</v>
@@ -5930,7 +5930,7 @@
         <v>1</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.07</v>
@@ -7020,7 +7020,7 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.57</v>
@@ -9203,7 +9203,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR40" t="n">
         <v>1.36</v>
@@ -12688,7 +12688,7 @@
         <v>0</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ56" t="n">
         <v>0.86</v>
@@ -12909,7 +12909,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR57" t="n">
         <v>1.46</v>
@@ -15958,7 +15958,7 @@
         <v>0</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ71" t="n">
         <v>0.36</v>
@@ -18141,7 +18141,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR81" t="n">
         <v>2.15</v>
@@ -19882,7 +19882,7 @@
         <v>1.6</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ89" t="n">
         <v>1.79</v>
@@ -21629,7 +21629,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR97" t="n">
         <v>1.66</v>
@@ -22280,7 +22280,7 @@
         <v>2</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ100" t="n">
         <v>2.07</v>
@@ -22719,7 +22719,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR102" t="n">
         <v>1.65</v>
@@ -25553,7 +25553,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR115" t="n">
         <v>1.47</v>
@@ -25986,7 +25986,7 @@
         <v>0.67</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ117" t="n">
         <v>0.64</v>
@@ -30349,7 +30349,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR137" t="n">
         <v>1.6</v>
@@ -31654,7 +31654,7 @@
         <v>1</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ143" t="n">
         <v>1.21</v>
@@ -34491,7 +34491,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ156" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR156" t="n">
         <v>1.62</v>
@@ -35360,7 +35360,7 @@
         <v>0.89</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ160" t="n">
         <v>0.64</v>
@@ -37543,7 +37543,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ170" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR170" t="n">
         <v>1.61</v>
@@ -38412,7 +38412,7 @@
         <v>2</v>
       </c>
       <c r="AP174" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ174" t="n">
         <v>1.5</v>
@@ -40595,7 +40595,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ184" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR184" t="n">
         <v>1.39</v>
@@ -42554,7 +42554,7 @@
         <v>0.82</v>
       </c>
       <c r="AP193" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ193" t="n">
         <v>0.79</v>
@@ -43865,7 +43865,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ199" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR199" t="n">
         <v>1.13</v>
@@ -46042,7 +46042,7 @@
         <v>0.5</v>
       </c>
       <c r="AP209" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ209" t="n">
         <v>0.64</v>
@@ -49391,6 +49391,224 @@
       </c>
       <c r="BP224" t="n">
         <v>1.47</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" t="n">
+        <v>4867579</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="n">
+        <v>45229.625</v>
+      </c>
+      <c r="F225" t="n">
+        <v>28</v>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>GIF Sundsvall</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Örgryte</t>
+        </is>
+      </c>
+      <c r="I225" t="n">
+        <v>1</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="n">
+        <v>0</v>
+      </c>
+      <c r="N225" t="n">
+        <v>1</v>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q225" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R225" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S225" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T225" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U225" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V225" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W225" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X225" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y225" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z225" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AA225" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB225" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AC225" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD225" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="AE225" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AF225" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AG225" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AH225" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AI225" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AJ225" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK225" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL225" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM225" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AN225" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO225" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP225" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ225" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR225" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS225" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT225" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AU225" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV225" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW225" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX225" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY225" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ225" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA225" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB225" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC225" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD225" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE225" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF225" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BG225" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH225" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BI225" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BJ225" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK225" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BL225" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BM225" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN225" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BO225" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP225" t="n">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP225"/>
+  <dimension ref="A1:BP230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ2" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.36</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ6" t="n">
         <v>1.79</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ7" t="n">
         <v>0.71</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.07</v>
@@ -4404,10 +4404,10 @@
         <v>3</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ18" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR18" t="n">
         <v>1.48</v>
@@ -5058,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR21" t="n">
         <v>1.17</v>
@@ -5276,7 +5276,7 @@
         <v>1</v>
       </c>
       <c r="AP22" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.79</v>
@@ -5497,7 +5497,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR23" t="n">
         <v>1.04</v>
@@ -6369,7 +6369,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR27" t="n">
         <v>2.43</v>
@@ -7023,7 +7023,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR30" t="n">
         <v>1.31</v>
@@ -7238,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="AP31" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ31" t="n">
         <v>0.64</v>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ32" t="n">
         <v>0.36</v>
@@ -8113,7 +8113,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR35" t="n">
         <v>1.5</v>
@@ -8331,7 +8331,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ36" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR36" t="n">
         <v>1.24</v>
@@ -8549,7 +8549,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR37" t="n">
         <v>1.83</v>
@@ -8764,7 +8764,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ38" t="n">
         <v>0.71</v>
@@ -9200,7 +9200,7 @@
         <v>0.5</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ40" t="n">
         <v>1</v>
@@ -9418,7 +9418,7 @@
         <v>2</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.79</v>
@@ -9854,7 +9854,7 @@
         <v>1</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ43" t="n">
         <v>0.64</v>
@@ -10075,7 +10075,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ44" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR44" t="n">
         <v>1.11</v>
@@ -10944,10 +10944,10 @@
         <v>3</v>
       </c>
       <c r="AP48" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR48" t="n">
         <v>2.24</v>
@@ -11819,7 +11819,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR52" t="n">
         <v>1.99</v>
@@ -12034,10 +12034,10 @@
         <v>1.33</v>
       </c>
       <c r="AP53" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR53" t="n">
         <v>1.19</v>
@@ -12906,7 +12906,7 @@
         <v>0.33</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ57" t="n">
         <v>1</v>
@@ -13127,7 +13127,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR58" t="n">
         <v>1.6</v>
@@ -14214,7 +14214,7 @@
         <v>1.67</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ63" t="n">
         <v>1.5</v>
@@ -14435,7 +14435,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR64" t="n">
         <v>1.91</v>
@@ -14650,7 +14650,7 @@
         <v>2</v>
       </c>
       <c r="AP65" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.07</v>
@@ -15089,7 +15089,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR67" t="n">
         <v>1.36</v>
@@ -15307,7 +15307,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR68" t="n">
         <v>1.46</v>
@@ -15522,10 +15522,10 @@
         <v>1</v>
       </c>
       <c r="AP69" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR69" t="n">
         <v>2.01</v>
@@ -15743,7 +15743,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ70" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR70" t="n">
         <v>1.51</v>
@@ -16176,7 +16176,7 @@
         <v>2</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.5</v>
@@ -16394,7 +16394,7 @@
         <v>0.25</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ73" t="n">
         <v>0.86</v>
@@ -16612,7 +16612,7 @@
         <v>1</v>
       </c>
       <c r="AP74" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ74" t="n">
         <v>0.64</v>
@@ -17484,7 +17484,7 @@
         <v>0</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ78" t="n">
         <v>0.36</v>
@@ -17705,7 +17705,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR79" t="n">
         <v>1.5</v>
@@ -18574,10 +18574,10 @@
         <v>0.8</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR83" t="n">
         <v>1.49</v>
@@ -18792,10 +18792,10 @@
         <v>1.8</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ84" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR84" t="n">
         <v>1.78</v>
@@ -19231,7 +19231,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR86" t="n">
         <v>1.62</v>
@@ -19446,10 +19446,10 @@
         <v>0.25</v>
       </c>
       <c r="AP87" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR87" t="n">
         <v>2.14</v>
@@ -19664,7 +19664,7 @@
         <v>1.5</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ88" t="n">
         <v>0.64</v>
@@ -20103,7 +20103,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR90" t="n">
         <v>1.4</v>
@@ -20754,7 +20754,7 @@
         <v>1.8</v>
       </c>
       <c r="AP93" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ93" t="n">
         <v>1.07</v>
@@ -21193,7 +21193,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR95" t="n">
         <v>1.6</v>
@@ -21626,7 +21626,7 @@
         <v>1</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ97" t="n">
         <v>1</v>
@@ -22062,10 +22062,10 @@
         <v>1.67</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR99" t="n">
         <v>1.61</v>
@@ -22283,7 +22283,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ100" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR100" t="n">
         <v>1.48</v>
@@ -23370,7 +23370,7 @@
         <v>1.33</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ105" t="n">
         <v>1.07</v>
@@ -24024,7 +24024,7 @@
         <v>0.83</v>
       </c>
       <c r="AP108" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ108" t="n">
         <v>0.86</v>
@@ -24460,10 +24460,10 @@
         <v>0.67</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR110" t="n">
         <v>1.6</v>
@@ -24681,7 +24681,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ111" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR111" t="n">
         <v>2.14</v>
@@ -24899,7 +24899,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ112" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR112" t="n">
         <v>1.36</v>
@@ -25114,7 +25114,7 @@
         <v>0.67</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ113" t="n">
         <v>1.21</v>
@@ -26204,7 +26204,7 @@
         <v>1.33</v>
       </c>
       <c r="AP118" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ118" t="n">
         <v>0.64</v>
@@ -26425,7 +26425,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR119" t="n">
         <v>1.6</v>
@@ -26640,7 +26640,7 @@
         <v>0.71</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ120" t="n">
         <v>1.21</v>
@@ -26861,7 +26861,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ121" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR121" t="n">
         <v>2.2</v>
@@ -27294,7 +27294,7 @@
         <v>1.29</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ123" t="n">
         <v>1.07</v>
@@ -27512,10 +27512,10 @@
         <v>0.57</v>
       </c>
       <c r="AP124" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ124" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR124" t="n">
         <v>2.05</v>
@@ -27951,7 +27951,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR126" t="n">
         <v>1.39</v>
@@ -28169,7 +28169,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ127" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR127" t="n">
         <v>1.88</v>
@@ -28384,7 +28384,7 @@
         <v>1.71</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ128" t="n">
         <v>1.79</v>
@@ -28602,7 +28602,7 @@
         <v>1.14</v>
       </c>
       <c r="AP129" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ129" t="n">
         <v>0.86</v>
@@ -28823,7 +28823,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR130" t="n">
         <v>1.53</v>
@@ -29259,7 +29259,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR132" t="n">
         <v>1.27</v>
@@ -29695,7 +29695,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ134" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR134" t="n">
         <v>1.44</v>
@@ -30346,7 +30346,7 @@
         <v>0.63</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ137" t="n">
         <v>1</v>
@@ -30782,10 +30782,10 @@
         <v>0.88</v>
       </c>
       <c r="AP139" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR139" t="n">
         <v>1.61</v>
@@ -31003,7 +31003,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ140" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR140" t="n">
         <v>1.52</v>
@@ -31218,7 +31218,7 @@
         <v>1</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ141" t="n">
         <v>0.71</v>
@@ -31872,7 +31872,7 @@
         <v>1</v>
       </c>
       <c r="AP144" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ144" t="n">
         <v>0.64</v>
@@ -32090,7 +32090,7 @@
         <v>0.11</v>
       </c>
       <c r="AP145" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ145" t="n">
         <v>0.36</v>
@@ -32526,10 +32526,10 @@
         <v>2.33</v>
       </c>
       <c r="AP147" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ147" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR147" t="n">
         <v>1.74</v>
@@ -32965,7 +32965,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ149" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR149" t="n">
         <v>1.58</v>
@@ -33619,7 +33619,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ152" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR152" t="n">
         <v>1.32</v>
@@ -33834,7 +33834,7 @@
         <v>1.33</v>
       </c>
       <c r="AP153" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ153" t="n">
         <v>1.07</v>
@@ -34052,10 +34052,10 @@
         <v>2.1</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ154" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR154" t="n">
         <v>1.68</v>
@@ -34706,7 +34706,7 @@
         <v>1</v>
       </c>
       <c r="AP157" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ157" t="n">
         <v>1.21</v>
@@ -35145,7 +35145,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ159" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR159" t="n">
         <v>1.57</v>
@@ -35578,10 +35578,10 @@
         <v>0.78</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ161" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR161" t="n">
         <v>1.55</v>
@@ -35796,7 +35796,7 @@
         <v>0.67</v>
       </c>
       <c r="AP162" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ162" t="n">
         <v>0.64</v>
@@ -36232,7 +36232,7 @@
         <v>1.3</v>
       </c>
       <c r="AP164" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ164" t="n">
         <v>1.07</v>
@@ -36453,7 +36453,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ165" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR165" t="n">
         <v>1.82</v>
@@ -36889,7 +36889,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ167" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR167" t="n">
         <v>1.52</v>
@@ -37104,7 +37104,7 @@
         <v>1.1</v>
       </c>
       <c r="AP168" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ168" t="n">
         <v>1.07</v>
@@ -37976,10 +37976,10 @@
         <v>0.8</v>
       </c>
       <c r="AP172" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ172" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR172" t="n">
         <v>1.65</v>
@@ -38630,7 +38630,7 @@
         <v>0.36</v>
       </c>
       <c r="AP175" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ175" t="n">
         <v>0.36</v>
@@ -38851,7 +38851,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ176" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR176" t="n">
         <v>1.38</v>
@@ -39069,7 +39069,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ177" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR177" t="n">
         <v>1.65</v>
@@ -39284,7 +39284,7 @@
         <v>0.82</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ178" t="n">
         <v>0.71</v>
@@ -39723,7 +39723,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ180" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR180" t="n">
         <v>1.53</v>
@@ -40810,7 +40810,7 @@
         <v>1</v>
       </c>
       <c r="AP185" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ185" t="n">
         <v>1.21</v>
@@ -41031,7 +41031,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ186" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR186" t="n">
         <v>1.66</v>
@@ -41249,7 +41249,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ187" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR187" t="n">
         <v>1.48</v>
@@ -41682,10 +41682,10 @@
         <v>0.55</v>
       </c>
       <c r="AP189" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ189" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR189" t="n">
         <v>1.65</v>
@@ -41900,7 +41900,7 @@
         <v>1.73</v>
       </c>
       <c r="AP190" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ190" t="n">
         <v>1.79</v>
@@ -42118,7 +42118,7 @@
         <v>1.82</v>
       </c>
       <c r="AP191" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ191" t="n">
         <v>1.5</v>
@@ -42557,7 +42557,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ193" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR193" t="n">
         <v>1.49</v>
@@ -42990,7 +42990,7 @@
         <v>0.75</v>
       </c>
       <c r="AP195" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ195" t="n">
         <v>0.71</v>
@@ -43644,7 +43644,7 @@
         <v>0.82</v>
       </c>
       <c r="AP198" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ198" t="n">
         <v>0.64</v>
@@ -44301,7 +44301,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ201" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR201" t="n">
         <v>1.98</v>
@@ -44737,7 +44737,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ203" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR203" t="n">
         <v>1.47</v>
@@ -45170,7 +45170,7 @@
         <v>0.92</v>
       </c>
       <c r="AP205" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ205" t="n">
         <v>0.86</v>
@@ -45391,7 +45391,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ206" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR206" t="n">
         <v>1.63</v>
@@ -45824,7 +45824,7 @@
         <v>1.67</v>
       </c>
       <c r="AP208" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ208" t="n">
         <v>1.5</v>
@@ -46045,7 +46045,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ209" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR209" t="n">
         <v>1.54</v>
@@ -46478,10 +46478,10 @@
         <v>0.77</v>
       </c>
       <c r="AP211" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ211" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR211" t="n">
         <v>1.5</v>
@@ -46699,7 +46699,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ212" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR212" t="n">
         <v>1.55</v>
@@ -47132,7 +47132,7 @@
         <v>1.08</v>
       </c>
       <c r="AP214" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ214" t="n">
         <v>1.21</v>
@@ -47568,10 +47568,10 @@
         <v>1.69</v>
       </c>
       <c r="AP216" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ216" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR216" t="n">
         <v>1.71</v>
@@ -47786,7 +47786,7 @@
         <v>0.92</v>
       </c>
       <c r="AP217" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ217" t="n">
         <v>1.07</v>
@@ -48007,7 +48007,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ218" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR218" t="n">
         <v>1.11</v>
@@ -48658,7 +48658,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP221" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ221" t="n">
         <v>0.64</v>
@@ -49315,7 +49315,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ224" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR224" t="n">
         <v>1.67</v>
@@ -49609,6 +49609,1096 @@
       </c>
       <c r="BP225" t="n">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="n">
+        <v>4867585</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>45233.625</v>
+      </c>
+      <c r="F226" t="n">
+        <v>29</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>Utsikten</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Gefle</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="n">
+        <v>0</v>
+      </c>
+      <c r="L226" t="n">
+        <v>0</v>
+      </c>
+      <c r="M226" t="n">
+        <v>0</v>
+      </c>
+      <c r="N226" t="n">
+        <v>0</v>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q226" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R226" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="S226" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="T226" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U226" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="V226" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W226" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X226" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Y226" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z226" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA226" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AB226" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AC226" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD226" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE226" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF226" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AG226" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AH226" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AI226" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AJ226" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK226" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AL226" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AM226" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AN226" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AO226" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AP226" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AQ226" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR226" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS226" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AT226" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AU226" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV226" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW226" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX226" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY226" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ226" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA226" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB226" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC226" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD226" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BE226" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BF226" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BG226" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH226" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI226" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ226" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BK226" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BL226" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BM226" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BN226" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BO226" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BP226" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="n">
+        <v>4867586</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>45234.375</v>
+      </c>
+      <c r="F227" t="n">
+        <v>29</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Östersunds FK</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Öster</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="n">
+        <v>2</v>
+      </c>
+      <c r="K227" t="n">
+        <v>2</v>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="n">
+        <v>2</v>
+      </c>
+      <c r="N227" t="n">
+        <v>3</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>['19', '29']</t>
+        </is>
+      </c>
+      <c r="Q227" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="R227" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="S227" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="T227" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U227" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V227" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="W227" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X227" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z227" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AA227" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AB227" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AC227" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD227" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE227" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF227" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG227" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH227" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI227" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AJ227" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AK227" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AL227" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM227" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AN227" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO227" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AP227" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ227" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR227" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS227" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AT227" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AU227" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV227" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW227" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX227" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY227" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ227" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA227" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB227" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC227" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD227" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE227" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF227" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BG227" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH227" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI227" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ227" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BK227" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BL227" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BM227" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BN227" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BO227" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BP227" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="n">
+        <v>4867580</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>45234.375</v>
+      </c>
+      <c r="F228" t="n">
+        <v>29</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Örgryte</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Västerås SK</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="n">
+        <v>0</v>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="n">
+        <v>0</v>
+      </c>
+      <c r="N228" t="n">
+        <v>1</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>['46']</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q228" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R228" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S228" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="T228" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="U228" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="V228" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="W228" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="X228" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Y228" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Z228" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AA228" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AB228" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AC228" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD228" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE228" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF228" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG228" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AH228" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AI228" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AJ228" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AK228" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL228" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM228" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN228" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AO228" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AP228" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ228" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AR228" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AS228" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AT228" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="AU228" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV228" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW228" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX228" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY228" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ228" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA228" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB228" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC228" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD228" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BE228" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BF228" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BG228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI228" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BJ228" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BK228" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BL228" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BM228" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN228" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO228" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BP228" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="n">
+        <v>4867583</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>45234.375</v>
+      </c>
+      <c r="F229" t="n">
+        <v>29</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>Helsingborg</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Brage</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>2</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="n">
+        <v>2</v>
+      </c>
+      <c r="L229" t="n">
+        <v>2</v>
+      </c>
+      <c r="M229" t="n">
+        <v>0</v>
+      </c>
+      <c r="N229" t="n">
+        <v>2</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>['6', '29']</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q229" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="R229" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="S229" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="T229" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U229" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="V229" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="W229" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X229" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="Y229" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z229" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AA229" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AB229" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="AC229" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD229" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="AE229" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF229" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AG229" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH229" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI229" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ229" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK229" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL229" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM229" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN229" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO229" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AP229" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ229" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AR229" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS229" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT229" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AU229" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV229" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW229" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX229" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY229" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ229" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA229" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB229" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC229" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD229" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE229" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="BF229" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BG229" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH229" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BI229" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ229" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BK229" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BL229" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BM229" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN229" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BO229" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BP229" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="n">
+        <v>4867582</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>45234.45833333334</v>
+      </c>
+      <c r="F230" t="n">
+        <v>29</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Landskrona</t>
+        </is>
+      </c>
+      <c r="I230" t="n">
+        <v>1</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="n">
+        <v>4</v>
+      </c>
+      <c r="M230" t="n">
+        <v>0</v>
+      </c>
+      <c r="N230" t="n">
+        <v>4</v>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>['24', '60', '70', '86']</t>
+        </is>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q230" t="n">
+        <v>2</v>
+      </c>
+      <c r="R230" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S230" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="T230" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U230" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="V230" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="W230" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X230" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="Y230" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z230" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA230" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="AB230" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="AC230" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD230" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="AE230" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF230" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="AG230" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH230" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI230" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ230" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK230" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AL230" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM230" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AN230" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO230" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP230" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ230" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR230" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AS230" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT230" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AU230" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV230" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW230" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX230" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY230" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ230" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA230" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB230" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC230" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD230" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BE230" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="BF230" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="BG230" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH230" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI230" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BJ230" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BK230" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BL230" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BM230" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN230" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BO230" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BP230" t="n">
+        <v>1.56</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP230"/>
+  <dimension ref="A1:BP233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ3" t="n">
         <v>1.13</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ4" t="n">
         <v>0.8</v>
@@ -1573,7 +1573,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>1</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.64</v>
@@ -4625,7 +4625,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR19" t="n">
         <v>1.41</v>
@@ -4843,7 +4843,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AR20" t="n">
         <v>1.03</v>
@@ -5279,7 +5279,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR22" t="n">
         <v>1.32</v>
@@ -5494,7 +5494,7 @@
         <v>3</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ23" t="n">
         <v>0.8</v>
@@ -5712,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ24" t="n">
         <v>1</v>
@@ -5930,7 +5930,7 @@
         <v>1</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.07</v>
@@ -7020,7 +7020,7 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.67</v>
@@ -7459,7 +7459,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AR32" t="n">
         <v>1.34</v>
@@ -8328,7 +8328,7 @@
         <v>3</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ36" t="n">
         <v>1.93</v>
@@ -8767,7 +8767,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR38" t="n">
         <v>1.13</v>
@@ -8982,7 +8982,7 @@
         <v>3</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.07</v>
@@ -9421,7 +9421,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR41" t="n">
         <v>1.28</v>
@@ -11380,10 +11380,10 @@
         <v>0.33</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR50" t="n">
         <v>1.32</v>
@@ -11601,7 +11601,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR51" t="n">
         <v>1.37</v>
@@ -12255,7 +12255,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AR54" t="n">
         <v>1.01</v>
@@ -12470,7 +12470,7 @@
         <v>2.33</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.07</v>
@@ -12688,7 +12688,7 @@
         <v>0</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ56" t="n">
         <v>0.86</v>
@@ -14871,7 +14871,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR66" t="n">
         <v>1.3</v>
@@ -15304,7 +15304,7 @@
         <v>1</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.6</v>
@@ -15740,7 +15740,7 @@
         <v>2.25</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ70" t="n">
         <v>1.93</v>
@@ -15958,10 +15958,10 @@
         <v>0</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AR71" t="n">
         <v>1.39</v>
@@ -17487,7 +17487,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AR78" t="n">
         <v>1.16</v>
@@ -17702,7 +17702,7 @@
         <v>1.75</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.67</v>
@@ -17923,7 +17923,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR80" t="n">
         <v>1.72</v>
@@ -19013,7 +19013,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ85" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR85" t="n">
         <v>1.52</v>
@@ -19228,7 +19228,7 @@
         <v>0.8</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ86" t="n">
         <v>0.6</v>
@@ -19882,10 +19882,10 @@
         <v>1.6</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR89" t="n">
         <v>1.46</v>
@@ -20321,7 +20321,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AR91" t="n">
         <v>1.7</v>
@@ -20536,7 +20536,7 @@
         <v>0.8</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ92" t="n">
         <v>1.21</v>
@@ -22280,7 +22280,7 @@
         <v>2</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ100" t="n">
         <v>1.93</v>
@@ -22501,7 +22501,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ101" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR101" t="n">
         <v>1.33</v>
@@ -22937,7 +22937,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR103" t="n">
         <v>1.55</v>
@@ -23152,7 +23152,7 @@
         <v>2.33</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ104" t="n">
         <v>1.5</v>
@@ -23591,7 +23591,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ106" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AR106" t="n">
         <v>1.37</v>
@@ -23806,7 +23806,7 @@
         <v>1.5</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ107" t="n">
         <v>1.07</v>
@@ -25335,7 +25335,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ114" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR114" t="n">
         <v>1.72</v>
@@ -25986,7 +25986,7 @@
         <v>0.67</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ117" t="n">
         <v>0.64</v>
@@ -27079,7 +27079,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ122" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AR122" t="n">
         <v>1.39</v>
@@ -27948,7 +27948,7 @@
         <v>0.57</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ126" t="n">
         <v>1.13</v>
@@ -28387,7 +28387,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR128" t="n">
         <v>1.65</v>
@@ -29038,7 +29038,7 @@
         <v>2.13</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ131" t="n">
         <v>1.5</v>
@@ -30128,7 +30128,7 @@
         <v>0.71</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ136" t="n">
         <v>0.64</v>
@@ -30567,7 +30567,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR138" t="n">
         <v>1.53</v>
@@ -31221,7 +31221,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ141" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR141" t="n">
         <v>1.6</v>
@@ -31654,7 +31654,7 @@
         <v>1</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ143" t="n">
         <v>1.21</v>
@@ -32093,7 +32093,7 @@
         <v>1</v>
       </c>
       <c r="AQ145" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AR145" t="n">
         <v>1.92</v>
@@ -32311,7 +32311,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ146" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR146" t="n">
         <v>2.06</v>
@@ -33180,7 +33180,7 @@
         <v>1</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ150" t="n">
         <v>0.86</v>
@@ -33616,7 +33616,7 @@
         <v>1.67</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ152" t="n">
         <v>1.67</v>
@@ -34927,7 +34927,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ158" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AR158" t="n">
         <v>2</v>
@@ -35360,7 +35360,7 @@
         <v>0.89</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ160" t="n">
         <v>0.64</v>
@@ -36017,7 +36017,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ163" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR163" t="n">
         <v>1.53</v>
@@ -37322,10 +37322,10 @@
         <v>0.9</v>
       </c>
       <c r="AP169" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ169" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR169" t="n">
         <v>1.31</v>
@@ -38412,7 +38412,7 @@
         <v>2</v>
       </c>
       <c r="AP174" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ174" t="n">
         <v>1.5</v>
@@ -38633,7 +38633,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ175" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AR175" t="n">
         <v>1.73</v>
@@ -38848,7 +38848,7 @@
         <v>1</v>
       </c>
       <c r="AP176" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ176" t="n">
         <v>1.13</v>
@@ -39287,7 +39287,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ178" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR178" t="n">
         <v>1.52</v>
@@ -40159,7 +40159,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ182" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR182" t="n">
         <v>1.17</v>
@@ -40592,7 +40592,7 @@
         <v>1</v>
       </c>
       <c r="AP184" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ184" t="n">
         <v>1</v>
@@ -41903,7 +41903,7 @@
         <v>1</v>
       </c>
       <c r="AQ190" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR190" t="n">
         <v>1.83</v>
@@ -42336,7 +42336,7 @@
         <v>0.73</v>
       </c>
       <c r="AP192" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ192" t="n">
         <v>0.64</v>
@@ -42554,7 +42554,7 @@
         <v>0.82</v>
       </c>
       <c r="AP193" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ193" t="n">
         <v>0.8</v>
@@ -42993,7 +42993,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ195" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR195" t="n">
         <v>1.69</v>
@@ -43211,7 +43211,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ196" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AR196" t="n">
         <v>1.56</v>
@@ -43426,7 +43426,7 @@
         <v>1.17</v>
       </c>
       <c r="AP197" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ197" t="n">
         <v>1.07</v>
@@ -45606,10 +45606,10 @@
         <v>1.83</v>
       </c>
       <c r="AP207" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ207" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR207" t="n">
         <v>1.35</v>
@@ -46042,7 +46042,7 @@
         <v>0.5</v>
       </c>
       <c r="AP209" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ209" t="n">
         <v>0.6</v>
@@ -46917,7 +46917,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ213" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR213" t="n">
         <v>1.69</v>
@@ -47350,10 +47350,10 @@
         <v>0.31</v>
       </c>
       <c r="AP215" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ215" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AR215" t="n">
         <v>1.39</v>
@@ -48440,7 +48440,7 @@
         <v>0.85</v>
       </c>
       <c r="AP220" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ220" t="n">
         <v>0.86</v>
@@ -48879,7 +48879,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ222" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR222" t="n">
         <v>1.9</v>
@@ -49530,7 +49530,7 @@
         <v>1.08</v>
       </c>
       <c r="AP225" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ225" t="n">
         <v>1</v>
@@ -49763,22 +49763,22 @@
         <v>2.58</v>
       </c>
       <c r="AU226" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV226" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW226" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX226" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY226" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ226" t="n">
         <v>5</v>
-      </c>
-      <c r="AV226" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW226" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX226" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY226" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ226" t="n">
-        <v>6</v>
       </c>
       <c r="BA226" t="n">
         <v>6</v>
@@ -50699,6 +50699,660 @@
       </c>
       <c r="BP230" t="n">
         <v>1.56</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="n">
+        <v>4867581</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="n">
+        <v>45235.375</v>
+      </c>
+      <c r="F231" t="n">
+        <v>29</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>Jönköpings Södra</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>GAIS</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="n">
+        <v>1</v>
+      </c>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="n">
+        <v>0</v>
+      </c>
+      <c r="M231" t="n">
+        <v>2</v>
+      </c>
+      <c r="N231" t="n">
+        <v>2</v>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P231" t="inlineStr">
+        <is>
+          <t>['5', '90+10']</t>
+        </is>
+      </c>
+      <c r="Q231" t="n">
+        <v>5</v>
+      </c>
+      <c r="R231" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S231" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T231" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U231" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="V231" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W231" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="X231" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="Y231" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="Z231" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="AA231" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB231" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AC231" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD231" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE231" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AF231" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG231" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH231" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AI231" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ231" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK231" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AL231" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM231" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AN231" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO231" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AP231" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ231" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AR231" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS231" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AT231" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AU231" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV231" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW231" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX231" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY231" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ231" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA231" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB231" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC231" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD231" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="BE231" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="BF231" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BG231" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH231" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI231" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BJ231" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BK231" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BL231" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BM231" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN231" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO231" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BP231" t="n">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="n">
+        <v>4867587</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="n">
+        <v>45235.45833333334</v>
+      </c>
+      <c r="F232" t="n">
+        <v>29</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>GIF Sundsvall</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>AFC Eskilstuna</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
+        <v>1</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="n">
+        <v>2</v>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="Q232" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R232" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S232" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="T232" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U232" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="V232" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="W232" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X232" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Y232" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z232" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AA232" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="AB232" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AC232" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD232" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE232" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF232" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG232" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AH232" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AI232" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AJ232" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AK232" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL232" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM232" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN232" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO232" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AP232" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ232" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AR232" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AS232" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT232" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU232" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV232" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW232" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX232" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY232" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ232" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA232" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB232" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC232" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD232" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BE232" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BF232" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BG232" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH232" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BI232" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ232" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BK232" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BL232" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BM232" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BN232" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO232" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BP232" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="n">
+        <v>4867584</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E233" s="2" t="n">
+        <v>45235.45833333334</v>
+      </c>
+      <c r="F233" t="n">
+        <v>29</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>Trelleborg</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Skövde AIK</t>
+        </is>
+      </c>
+      <c r="I233" t="n">
+        <v>1</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="n">
+        <v>2</v>
+      </c>
+      <c r="M233" t="n">
+        <v>2</v>
+      </c>
+      <c r="N233" t="n">
+        <v>4</v>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>['29', '89']</t>
+        </is>
+      </c>
+      <c r="P233" t="inlineStr">
+        <is>
+          <t>['90+1', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q233" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="R233" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="S233" t="n">
+        <v>3</v>
+      </c>
+      <c r="T233" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U233" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="V233" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="W233" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X233" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y233" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z233" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AA233" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB233" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AC233" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD233" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE233" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AF233" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AG233" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH233" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AI233" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AJ233" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK233" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL233" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM233" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN233" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO233" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AP233" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ233" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AR233" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS233" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT233" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU233" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV233" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW233" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX233" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY233" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ233" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA233" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB233" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC233" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD233" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE233" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BF233" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG233" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH233" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI233" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ233" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK233" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BL233" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BM233" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN233" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO233" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BP233" t="n">
+        <v>1.69</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP233"/>
+  <dimension ref="A1:BP241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.93</v>
@@ -2227,7 +2227,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.6</v>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3096,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3750,10 +3750,10 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4186,10 +4186,10 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>1</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ19" t="n">
         <v>0.73</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ20" t="n">
         <v>0.4</v>
@@ -5715,7 +5715,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR24" t="n">
         <v>1.45</v>
@@ -5933,7 +5933,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR25" t="n">
         <v>1.61</v>
@@ -6148,10 +6148,10 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR26" t="n">
         <v>1.29</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ27" t="n">
         <v>1.13</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR28" t="n">
         <v>1.36</v>
@@ -6802,10 +6802,10 @@
         <v>3</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR29" t="n">
         <v>1.12</v>
@@ -7241,7 +7241,7 @@
         <v>1</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR31" t="n">
         <v>2.48</v>
@@ -7674,10 +7674,10 @@
         <v>1</v>
       </c>
       <c r="AP33" t="n">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR33" t="n">
         <v>1.76</v>
@@ -7892,10 +7892,10 @@
         <v>2</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR34" t="n">
         <v>1.32</v>
@@ -8110,7 +8110,7 @@
         <v>1.5</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ35" t="n">
         <v>0.8</v>
@@ -8546,7 +8546,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ37" t="n">
         <v>0.6</v>
@@ -8985,7 +8985,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR39" t="n">
         <v>1.61</v>
@@ -9203,7 +9203,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR40" t="n">
         <v>1.36</v>
@@ -9636,10 +9636,10 @@
         <v>2</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR42" t="n">
         <v>1.43</v>
@@ -9857,7 +9857,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR43" t="n">
         <v>1.88</v>
@@ -10072,7 +10072,7 @@
         <v>2</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ44" t="n">
         <v>1.93</v>
@@ -10290,10 +10290,10 @@
         <v>0.5</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR45" t="n">
         <v>1.56</v>
@@ -10508,10 +10508,10 @@
         <v>0</v>
       </c>
       <c r="AP46" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR46" t="n">
         <v>2.12</v>
@@ -10726,10 +10726,10 @@
         <v>3</v>
       </c>
       <c r="AP47" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR47" t="n">
         <v>1.45</v>
@@ -11162,10 +11162,10 @@
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR49" t="n">
         <v>1.63</v>
@@ -11598,7 +11598,7 @@
         <v>1.33</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.87</v>
@@ -11816,7 +11816,7 @@
         <v>0</v>
       </c>
       <c r="AP52" t="n">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.13</v>
@@ -12252,7 +12252,7 @@
         <v>0</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ54" t="n">
         <v>0.4</v>
@@ -12473,7 +12473,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR55" t="n">
         <v>1.57</v>
@@ -12691,7 +12691,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ56" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR56" t="n">
         <v>1.17</v>
@@ -12909,7 +12909,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR57" t="n">
         <v>1.46</v>
@@ -13124,7 +13124,7 @@
         <v>1</v>
       </c>
       <c r="AP58" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.8</v>
@@ -13342,10 +13342,10 @@
         <v>1.33</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR59" t="n">
         <v>1.67</v>
@@ -13560,10 +13560,10 @@
         <v>1</v>
       </c>
       <c r="AP60" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR60" t="n">
         <v>2.16</v>
@@ -13778,10 +13778,10 @@
         <v>0</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR61" t="n">
         <v>1.53</v>
@@ -13996,10 +13996,10 @@
         <v>1.75</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR62" t="n">
         <v>1.38</v>
@@ -14217,7 +14217,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR63" t="n">
         <v>1.24</v>
@@ -14432,7 +14432,7 @@
         <v>2.33</v>
       </c>
       <c r="AP64" t="n">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.67</v>
@@ -14653,7 +14653,7 @@
         <v>1</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR65" t="n">
         <v>1.96</v>
@@ -14868,7 +14868,7 @@
         <v>1.75</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.87</v>
@@ -15086,7 +15086,7 @@
         <v>0.33</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.13</v>
@@ -16179,7 +16179,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR72" t="n">
         <v>1.9</v>
@@ -16397,7 +16397,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR73" t="n">
         <v>1.48</v>
@@ -16615,7 +16615,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR74" t="n">
         <v>1.25</v>
@@ -16830,10 +16830,10 @@
         <v>1.6</v>
       </c>
       <c r="AP75" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR75" t="n">
         <v>1.67</v>
@@ -17048,10 +17048,10 @@
         <v>0.75</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR76" t="n">
         <v>1.67</v>
@@ -17266,10 +17266,10 @@
         <v>1.5</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR77" t="n">
         <v>1.22</v>
@@ -17920,7 +17920,7 @@
         <v>1</v>
       </c>
       <c r="AP80" t="n">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AQ80" t="n">
         <v>0.73</v>
@@ -18138,10 +18138,10 @@
         <v>0.5</v>
       </c>
       <c r="AP81" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR81" t="n">
         <v>2.15</v>
@@ -18356,10 +18356,10 @@
         <v>2.2</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR82" t="n">
         <v>1.29</v>
@@ -19010,7 +19010,7 @@
         <v>1</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ85" t="n">
         <v>0.73</v>
@@ -19667,7 +19667,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR88" t="n">
         <v>1.44</v>
@@ -20100,7 +20100,7 @@
         <v>2</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.67</v>
@@ -20318,7 +20318,7 @@
         <v>0.17</v>
       </c>
       <c r="AP91" t="n">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AQ91" t="n">
         <v>0.4</v>
@@ -20539,7 +20539,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR92" t="n">
         <v>1.45</v>
@@ -20757,7 +20757,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR93" t="n">
         <v>1.35</v>
@@ -20972,10 +20972,10 @@
         <v>0.4</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR94" t="n">
         <v>1.3</v>
@@ -21190,7 +21190,7 @@
         <v>0.8</v>
       </c>
       <c r="AP95" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ95" t="n">
         <v>1.13</v>
@@ -21408,10 +21408,10 @@
         <v>0.8</v>
       </c>
       <c r="AP96" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ96" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR96" t="n">
         <v>2.14</v>
@@ -21629,7 +21629,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR97" t="n">
         <v>1.66</v>
@@ -21844,10 +21844,10 @@
         <v>1.4</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ98" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR98" t="n">
         <v>1.77</v>
@@ -22498,7 +22498,7 @@
         <v>0.83</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ101" t="n">
         <v>0.73</v>
@@ -22716,10 +22716,10 @@
         <v>0.83</v>
       </c>
       <c r="AP102" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR102" t="n">
         <v>1.65</v>
@@ -22934,7 +22934,7 @@
         <v>1.83</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ103" t="n">
         <v>1.87</v>
@@ -23155,7 +23155,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR104" t="n">
         <v>1.47</v>
@@ -23373,7 +23373,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR105" t="n">
         <v>1.57</v>
@@ -23588,7 +23588,7 @@
         <v>0.14</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ106" t="n">
         <v>0.4</v>
@@ -23809,7 +23809,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR107" t="n">
         <v>1.45</v>
@@ -24027,7 +24027,7 @@
         <v>1</v>
       </c>
       <c r="AQ108" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR108" t="n">
         <v>2.13</v>
@@ -24242,10 +24242,10 @@
         <v>2.43</v>
       </c>
       <c r="AP109" t="n">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR109" t="n">
         <v>1.84</v>
@@ -24678,7 +24678,7 @@
         <v>0.67</v>
       </c>
       <c r="AP111" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ111" t="n">
         <v>0.8</v>
@@ -24896,7 +24896,7 @@
         <v>0.67</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ112" t="n">
         <v>0.6</v>
@@ -25117,7 +25117,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR113" t="n">
         <v>1.61</v>
@@ -25332,7 +25332,7 @@
         <v>0.71</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ114" t="n">
         <v>0.73</v>
@@ -25550,10 +25550,10 @@
         <v>0.71</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR115" t="n">
         <v>1.47</v>
@@ -25768,10 +25768,10 @@
         <v>1.14</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR116" t="n">
         <v>1.3</v>
@@ -25989,7 +25989,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR117" t="n">
         <v>1.42</v>
@@ -26207,7 +26207,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ118" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR118" t="n">
         <v>1.55</v>
@@ -26422,7 +26422,7 @@
         <v>1.57</v>
       </c>
       <c r="AP119" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ119" t="n">
         <v>1.67</v>
@@ -26643,7 +26643,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR120" t="n">
         <v>1.56</v>
@@ -26858,7 +26858,7 @@
         <v>2.14</v>
       </c>
       <c r="AP121" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ121" t="n">
         <v>1.93</v>
@@ -27076,7 +27076,7 @@
         <v>0.13</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ122" t="n">
         <v>0.4</v>
@@ -27297,7 +27297,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR123" t="n">
         <v>1.68</v>
@@ -27730,10 +27730,10 @@
         <v>1.14</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR125" t="n">
         <v>1.42</v>
@@ -28166,7 +28166,7 @@
         <v>0.71</v>
       </c>
       <c r="AP127" t="n">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AQ127" t="n">
         <v>0.8</v>
@@ -28605,7 +28605,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ129" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR129" t="n">
         <v>1.58</v>
@@ -28820,7 +28820,7 @@
         <v>1.75</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ130" t="n">
         <v>1.67</v>
@@ -29041,7 +29041,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR131" t="n">
         <v>1.46</v>
@@ -29256,7 +29256,7 @@
         <v>0.63</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ132" t="n">
         <v>0.6</v>
@@ -29474,10 +29474,10 @@
         <v>1.13</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR133" t="n">
         <v>1.67</v>
@@ -29692,7 +29692,7 @@
         <v>2.25</v>
       </c>
       <c r="AP134" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ134" t="n">
         <v>1.93</v>
@@ -29910,10 +29910,10 @@
         <v>1.25</v>
       </c>
       <c r="AP135" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR135" t="n">
         <v>2.08</v>
@@ -30131,7 +30131,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ136" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR136" t="n">
         <v>1.37</v>
@@ -30349,7 +30349,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR137" t="n">
         <v>1.6</v>
@@ -30564,7 +30564,7 @@
         <v>1.63</v>
       </c>
       <c r="AP138" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ138" t="n">
         <v>1.87</v>
@@ -31000,7 +31000,7 @@
         <v>0.63</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ140" t="n">
         <v>0.8</v>
@@ -31436,10 +31436,10 @@
         <v>1.13</v>
       </c>
       <c r="AP142" t="n">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AQ142" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR142" t="n">
         <v>1.83</v>
@@ -31657,7 +31657,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR143" t="n">
         <v>1.53</v>
@@ -31875,7 +31875,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ144" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR144" t="n">
         <v>1.59</v>
@@ -32308,7 +32308,7 @@
         <v>1</v>
       </c>
       <c r="AP146" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ146" t="n">
         <v>0.73</v>
@@ -32744,10 +32744,10 @@
         <v>1.22</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ148" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR148" t="n">
         <v>1.44</v>
@@ -32962,7 +32962,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ149" t="n">
         <v>0.6</v>
@@ -33183,7 +33183,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ150" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR150" t="n">
         <v>1.39</v>
@@ -33398,10 +33398,10 @@
         <v>0.75</v>
       </c>
       <c r="AP151" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ151" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR151" t="n">
         <v>1.25</v>
@@ -33837,7 +33837,7 @@
         <v>1</v>
       </c>
       <c r="AQ153" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR153" t="n">
         <v>1.95</v>
@@ -34270,10 +34270,10 @@
         <v>2.22</v>
       </c>
       <c r="AP155" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR155" t="n">
         <v>1.52</v>
@@ -34488,10 +34488,10 @@
         <v>0.89</v>
       </c>
       <c r="AP156" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ156" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR156" t="n">
         <v>1.62</v>
@@ -34709,7 +34709,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ157" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR157" t="n">
         <v>1.66</v>
@@ -34924,7 +34924,7 @@
         <v>0.4</v>
       </c>
       <c r="AP158" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ158" t="n">
         <v>0.4</v>
@@ -35142,7 +35142,7 @@
         <v>0.89</v>
       </c>
       <c r="AP159" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ159" t="n">
         <v>0.8</v>
@@ -35363,7 +35363,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ160" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR160" t="n">
         <v>1.46</v>
@@ -35799,7 +35799,7 @@
         <v>1</v>
       </c>
       <c r="AQ162" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR162" t="n">
         <v>1.87</v>
@@ -36014,7 +36014,7 @@
         <v>1.78</v>
       </c>
       <c r="AP163" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ163" t="n">
         <v>1.87</v>
@@ -36235,7 +36235,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR164" t="n">
         <v>1.72</v>
@@ -36450,7 +36450,7 @@
         <v>0.5</v>
       </c>
       <c r="AP165" t="n">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AQ165" t="n">
         <v>0.6</v>
@@ -36668,10 +36668,10 @@
         <v>0.8</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ166" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR166" t="n">
         <v>1.16</v>
@@ -36886,7 +36886,7 @@
         <v>1.8</v>
       </c>
       <c r="AP167" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ167" t="n">
         <v>1.67</v>
@@ -37107,7 +37107,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ168" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR168" t="n">
         <v>1.53</v>
@@ -37540,10 +37540,10 @@
         <v>0.8</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ170" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR170" t="n">
         <v>1.61</v>
@@ -37758,10 +37758,10 @@
         <v>1</v>
       </c>
       <c r="AP171" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ171" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR171" t="n">
         <v>1.53</v>
@@ -38194,10 +38194,10 @@
         <v>1</v>
       </c>
       <c r="AP173" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ173" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR173" t="n">
         <v>2</v>
@@ -38415,7 +38415,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ174" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR174" t="n">
         <v>1.48</v>
@@ -39066,7 +39066,7 @@
         <v>2</v>
       </c>
       <c r="AP177" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ177" t="n">
         <v>1.93</v>
@@ -39502,10 +39502,10 @@
         <v>0.9</v>
       </c>
       <c r="AP179" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ179" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR179" t="n">
         <v>1.56</v>
@@ -39720,7 +39720,7 @@
         <v>1.91</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ180" t="n">
         <v>1.67</v>
@@ -39938,10 +39938,10 @@
         <v>1</v>
       </c>
       <c r="AP181" t="n">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AQ181" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR181" t="n">
         <v>1.79</v>
@@ -40156,7 +40156,7 @@
         <v>1.6</v>
       </c>
       <c r="AP182" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ182" t="n">
         <v>1.87</v>
@@ -40374,10 +40374,10 @@
         <v>1.27</v>
       </c>
       <c r="AP183" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ183" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR183" t="n">
         <v>1.46</v>
@@ -40595,7 +40595,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ184" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR184" t="n">
         <v>1.39</v>
@@ -40813,7 +40813,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ185" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR185" t="n">
         <v>1.68</v>
@@ -41028,7 +41028,7 @@
         <v>1.92</v>
       </c>
       <c r="AP186" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ186" t="n">
         <v>1.93</v>
@@ -41246,7 +41246,7 @@
         <v>1.18</v>
       </c>
       <c r="AP187" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ187" t="n">
         <v>1.13</v>
@@ -41464,10 +41464,10 @@
         <v>0.91</v>
       </c>
       <c r="AP188" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ188" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR188" t="n">
         <v>1.68</v>
@@ -42121,7 +42121,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ191" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR191" t="n">
         <v>1.77</v>
@@ -42339,7 +42339,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ192" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR192" t="n">
         <v>1.34</v>
@@ -42772,10 +42772,10 @@
         <v>1.17</v>
       </c>
       <c r="AP194" t="n">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AQ194" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR194" t="n">
         <v>1.84</v>
@@ -43208,7 +43208,7 @@
         <v>0.33</v>
       </c>
       <c r="AP196" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ196" t="n">
         <v>0.4</v>
@@ -43429,7 +43429,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ197" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR197" t="n">
         <v>1.38</v>
@@ -43647,7 +43647,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ198" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR198" t="n">
         <v>1.53</v>
@@ -43862,10 +43862,10 @@
         <v>0.92</v>
       </c>
       <c r="AP199" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ199" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR199" t="n">
         <v>1.13</v>
@@ -44080,10 +44080,10 @@
         <v>0.92</v>
       </c>
       <c r="AP200" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ200" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR200" t="n">
         <v>1.51</v>
@@ -44298,7 +44298,7 @@
         <v>1.83</v>
       </c>
       <c r="AP201" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ201" t="n">
         <v>1.67</v>
@@ -44516,10 +44516,10 @@
         <v>0.67</v>
       </c>
       <c r="AP202" t="n">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AQ202" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR202" t="n">
         <v>1.91</v>
@@ -44734,7 +44734,7 @@
         <v>0.83</v>
       </c>
       <c r="AP203" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ203" t="n">
         <v>0.8</v>
@@ -44952,10 +44952,10 @@
         <v>0.75</v>
       </c>
       <c r="AP204" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ204" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR204" t="n">
         <v>1.72</v>
@@ -45173,7 +45173,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ205" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR205" t="n">
         <v>1.6</v>
@@ -45388,7 +45388,7 @@
         <v>1.08</v>
       </c>
       <c r="AP206" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ206" t="n">
         <v>1.13</v>
@@ -45827,7 +45827,7 @@
         <v>1</v>
       </c>
       <c r="AQ208" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR208" t="n">
         <v>1.78</v>
@@ -46260,10 +46260,10 @@
         <v>1.15</v>
       </c>
       <c r="AP210" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ210" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR210" t="n">
         <v>1.94</v>
@@ -46696,7 +46696,7 @@
         <v>2</v>
       </c>
       <c r="AP212" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ212" t="n">
         <v>1.93</v>
@@ -46914,7 +46914,7 @@
         <v>0.77</v>
       </c>
       <c r="AP213" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ213" t="n">
         <v>0.73</v>
@@ -47135,7 +47135,7 @@
         <v>1</v>
       </c>
       <c r="AQ214" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR214" t="n">
         <v>1.79</v>
@@ -47789,7 +47789,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ217" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR217" t="n">
         <v>1.76</v>
@@ -48004,7 +48004,7 @@
         <v>1.23</v>
       </c>
       <c r="AP218" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ218" t="n">
         <v>1.13</v>
@@ -48222,10 +48222,10 @@
         <v>0.62</v>
       </c>
       <c r="AP219" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ219" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR219" t="n">
         <v>1.6</v>
@@ -48443,7 +48443,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ220" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR220" t="n">
         <v>1.31</v>
@@ -48661,7 +48661,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ221" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR221" t="n">
         <v>1.57</v>
@@ -48876,7 +48876,7 @@
         <v>1.92</v>
       </c>
       <c r="AP222" t="n">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AQ222" t="n">
         <v>1.87</v>
@@ -49094,10 +49094,10 @@
         <v>1.62</v>
       </c>
       <c r="AP223" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ223" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR223" t="n">
         <v>1.45</v>
@@ -49312,7 +49312,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP224" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ224" t="n">
         <v>0.6</v>
@@ -49533,7 +49533,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ225" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR225" t="n">
         <v>1.54</v>
@@ -51353,6 +51353,1750 @@
       </c>
       <c r="BP233" t="n">
         <v>1.69</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" t="n">
+        <v>4867594</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E234" s="2" t="n">
+        <v>45241.45833333334</v>
+      </c>
+      <c r="F234" t="n">
+        <v>30</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>Skövde AIK</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Helsingborg</t>
+        </is>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="n">
+        <v>0</v>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="n">
+        <v>0</v>
+      </c>
+      <c r="N234" t="n">
+        <v>1</v>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="P234" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q234" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="R234" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="S234" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="T234" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U234" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="V234" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="W234" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X234" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Y234" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z234" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AA234" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB234" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC234" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD234" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE234" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF234" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AG234" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AH234" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI234" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AJ234" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AK234" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL234" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM234" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN234" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO234" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AP234" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ234" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR234" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS234" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT234" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU234" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV234" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW234" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX234" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY234" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ234" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA234" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB234" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC234" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD234" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BE234" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF234" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BG234" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH234" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI234" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ234" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK234" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BL234" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BM234" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BN234" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BO234" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BP234" t="n">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="n">
+        <v>4867588</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E235" s="2" t="n">
+        <v>45241.45833333334</v>
+      </c>
+      <c r="F235" t="n">
+        <v>30</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>GAIS</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Utsikten</t>
+        </is>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="n">
+        <v>1</v>
+      </c>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="n">
+        <v>0</v>
+      </c>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="n">
+        <v>1</v>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P235" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="Q235" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="R235" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="S235" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="T235" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U235" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="V235" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="W235" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X235" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="Y235" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z235" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA235" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB235" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AC235" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD235" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="AE235" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF235" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="AG235" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH235" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI235" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AJ235" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK235" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL235" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM235" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN235" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AO235" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP235" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AQ235" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR235" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AS235" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AT235" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AU235" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV235" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW235" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX235" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY235" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ235" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA235" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB235" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC235" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD235" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE235" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF235" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BG235" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH235" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI235" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ235" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BK235" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BL235" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BM235" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BN235" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BO235" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP235" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="n">
+        <v>4867589</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E236" s="2" t="n">
+        <v>45241.45833333334</v>
+      </c>
+      <c r="F236" t="n">
+        <v>30</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>Västerås SK</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Östersunds FK</t>
+        </is>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="n">
+        <v>2</v>
+      </c>
+      <c r="K236" t="n">
+        <v>2</v>
+      </c>
+      <c r="L236" t="n">
+        <v>0</v>
+      </c>
+      <c r="M236" t="n">
+        <v>2</v>
+      </c>
+      <c r="N236" t="n">
+        <v>2</v>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P236" t="inlineStr">
+        <is>
+          <t>['14', '30']</t>
+        </is>
+      </c>
+      <c r="Q236" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R236" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="S236" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="T236" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U236" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="V236" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W236" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X236" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y236" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z236" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA236" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AB236" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC236" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD236" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="AE236" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AF236" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="AG236" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AH236" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI236" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ236" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK236" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AL236" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM236" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AN236" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AO236" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AP236" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AQ236" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR236" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AS236" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT236" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AU236" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV236" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW236" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX236" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY236" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ236" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA236" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB236" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC236" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD236" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BE236" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF236" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BG236" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH236" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BI236" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ236" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK236" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL236" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM236" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BN236" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO236" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BP236" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="n">
+        <v>4867590</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E237" s="2" t="n">
+        <v>45241.45833333334</v>
+      </c>
+      <c r="F237" t="n">
+        <v>30</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>Landskrona</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Örgryte</t>
+        </is>
+      </c>
+      <c r="I237" t="n">
+        <v>1</v>
+      </c>
+      <c r="J237" t="n">
+        <v>1</v>
+      </c>
+      <c r="K237" t="n">
+        <v>2</v>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="n">
+        <v>2</v>
+      </c>
+      <c r="N237" t="n">
+        <v>3</v>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>['29', '71']</t>
+        </is>
+      </c>
+      <c r="Q237" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="R237" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="S237" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="T237" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U237" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="V237" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="W237" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X237" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y237" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z237" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AA237" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB237" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AC237" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD237" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="AE237" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF237" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="AG237" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH237" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI237" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AJ237" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK237" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL237" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM237" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN237" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO237" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP237" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ237" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR237" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS237" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT237" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU237" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV237" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW237" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX237" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY237" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ237" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA237" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB237" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC237" t="n">
+        <v>18</v>
+      </c>
+      <c r="BD237" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BE237" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF237" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BG237" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH237" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI237" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ237" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK237" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BL237" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BM237" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BN237" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BO237" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BP237" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" t="n">
+        <v>4867591</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E238" s="2" t="n">
+        <v>45241.45833333334</v>
+      </c>
+      <c r="F238" t="n">
+        <v>30</v>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>AFC Eskilstuna</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="n">
+        <v>0</v>
+      </c>
+      <c r="L238" t="n">
+        <v>3</v>
+      </c>
+      <c r="M238" t="n">
+        <v>0</v>
+      </c>
+      <c r="N238" t="n">
+        <v>3</v>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>['60', '65', '76']</t>
+        </is>
+      </c>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q238" t="n">
+        <v>3</v>
+      </c>
+      <c r="R238" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S238" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="T238" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U238" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="V238" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="W238" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X238" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y238" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z238" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AA238" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB238" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AC238" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD238" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE238" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AF238" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="AG238" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AH238" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI238" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AJ238" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK238" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL238" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM238" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN238" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO238" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AP238" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ238" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AR238" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AS238" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AT238" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU238" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV238" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW238" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX238" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY238" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ238" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA238" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB238" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC238" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD238" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BE238" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF238" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BG238" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH238" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI238" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ238" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BK238" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL238" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BM238" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN238" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO238" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BP238" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" t="n">
+        <v>4867592</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E239" s="2" t="n">
+        <v>45241.45833333334</v>
+      </c>
+      <c r="F239" t="n">
+        <v>30</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>Gefle</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Trelleborg</t>
+        </is>
+      </c>
+      <c r="I239" t="n">
+        <v>1</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="n">
+        <v>2</v>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="P239" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="Q239" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="R239" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="S239" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T239" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U239" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="V239" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W239" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X239" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Y239" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z239" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AA239" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB239" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AC239" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD239" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="AE239" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF239" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="AG239" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AH239" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AI239" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AJ239" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AK239" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL239" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM239" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AN239" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO239" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP239" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ239" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR239" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS239" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT239" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU239" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV239" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW239" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX239" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY239" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ239" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA239" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB239" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC239" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD239" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BE239" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF239" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BG239" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH239" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BI239" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ239" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BK239" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL239" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM239" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BN239" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BO239" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP239" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" t="n">
+        <v>4867593</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E240" s="2" t="n">
+        <v>45241.45833333334</v>
+      </c>
+      <c r="F240" t="n">
+        <v>30</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Brage</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Jönköpings Södra</t>
+        </is>
+      </c>
+      <c r="I240" t="n">
+        <v>2</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="n">
+        <v>2</v>
+      </c>
+      <c r="L240" t="n">
+        <v>4</v>
+      </c>
+      <c r="M240" t="n">
+        <v>0</v>
+      </c>
+      <c r="N240" t="n">
+        <v>4</v>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>['15', '40', '56', '68']</t>
+        </is>
+      </c>
+      <c r="P240" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q240" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R240" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S240" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T240" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U240" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="V240" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="W240" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X240" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="Y240" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z240" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AA240" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB240" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AC240" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD240" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE240" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF240" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG240" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AH240" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI240" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AJ240" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK240" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL240" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM240" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AN240" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AO240" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AP240" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AQ240" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AR240" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS240" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT240" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AU240" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV240" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW240" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX240" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY240" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ240" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA240" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB240" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC240" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD240" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE240" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF240" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BG240" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH240" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI240" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ240" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK240" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL240" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM240" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN240" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO240" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP240" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" t="n">
+        <v>4867595</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Sweden Superettan</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E241" s="2" t="n">
+        <v>45241.45833333334</v>
+      </c>
+      <c r="F241" t="n">
+        <v>30</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>Öster</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>GIF Sundsvall</t>
+        </is>
+      </c>
+      <c r="I241" t="n">
+        <v>1</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="n">
+        <v>4</v>
+      </c>
+      <c r="M241" t="n">
+        <v>0</v>
+      </c>
+      <c r="N241" t="n">
+        <v>4</v>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>['13', '50', '66', '88']</t>
+        </is>
+      </c>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q241" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R241" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="S241" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="T241" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U241" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="V241" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="W241" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="X241" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Y241" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Z241" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA241" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB241" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AC241" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD241" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="AE241" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AF241" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG241" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AH241" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI241" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AJ241" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AK241" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AL241" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AM241" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AN241" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AO241" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AP241" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AQ241" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR241" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS241" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT241" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AU241" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV241" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW241" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX241" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY241" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ241" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA241" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB241" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC241" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD241" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BE241" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF241" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BG241" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH241" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI241" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BJ241" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BK241" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BL241" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BM241" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BN241" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BO241" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BP241" t="n">
+        <v>1.62</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Sweden Superettan_2023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
